--- a/기사데이터/토스/엑셀파일/news(토스, 2023.07.16~2023.07.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.07.16~2023.07.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2959,2506 +2959,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 후 첫 대규모 공개 채용 실시</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002152379?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[ⓒ토스뱅크][디지털데일리 이상일기자] 토스뱅크(대표 홍민택)가 출범 후 처음으로 전직군 대규모 공개채용을 실시한다. 토스뱅크는 기존 경력직 직원 중심의 채용을 넘어 신입 직원까지 00명을 공개적으로 모집한다. 이번 채용의 서류접수는 이날부터 이번달 31일까지 진행된다.모집 분야는 총 10개 직군 40여개의 직무로 ▲엔지니어(코어뱅킹, 프론트엔드 및 서버) ▲비즈니스(수신 및 여신 상품, 제도) ▲데이타(데이타 애널리스트 및 사이언티스트) ▲리스크(신용전략, CSS) ▲ 프로덕트(상품개발) ▲디자인 ▲컴플라이언스 등 이다. 은행의 빠른 성장에 발맞춰 필요한 인재를 대규모로 선발하고 배치해 지금보다 빠른 속도로 성장하겠다는 것이다.그동안 토스뱅크는 매일 이자 주는 통장부터 쓸 때마다 캐시백 해주는 카드, 원리금 부담을 낮춰주는 대출까지 늘 사용자가 느끼는 불편함을 해결하는 데에 집중해 왔다. 출범 1년 반만에 고객수 700만명, 수신 21조원, 여신 11조원으로 고속 성장하고 있으며 올 하반기에는 새롭게 전월세대출, 공동대출, 외환거래 서비스를 제공할 예정이다.지원자들은 토스뱅크 채용 홈페이지를 통해 손쉽게 지원할 수 있다. 필수적으로 충족해야 하는 경력 기간은 없으며, 지원자 개개인의 일정을 배려하는 맞춤 채용 프로세스를 마련했다.서류 전형 결과는 순차적으로 안내되고, 직무 및 문화적합성 인터뷰는 서류 합격자 일정에 맞춰 온라인 및 화상으로 진행된다. 처우협의는 합격자 대상으로 개별 안내되고 일부 포지션에 대해서는 과제 전형도 진행한다.채용 홈페이지를 통해서 토스뱅크의 제품 및 기술 비전, 입사 전 커리어 관련 고민을 가지고 있던 다양한 현업 인터뷰를 확인할 수 있다. 또한, 당장의 지원 의사는 없지만, 토스뱅크 현업과의 대화를 희망하는 분을 위한 ‘프라이빗 네트워킹 세션(8/17~18)’ 신청도 가능하다.토스뱅크는 관계자는 " 토스뱅크는 지난 100년간 시중은행이 시도하지 못한 공급자에서 사용자 중심으로 금융 서비스의 중심을 옮기고 있다."라며 "이번 대규모 공채를 통해 우리와 같은 꿈을 실현할 능력있는 동료들을 기다리고 있다"고 채용배경을 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>6월 가계 예대금리차 국민·농협 최대…전세대출금리 평균 4.43%</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000345403?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>[앵커]지난달 시중은행들의 대출이자 수준과 예대금리차가 공개됐는데요.취재기자 연결해 이어서 알아봅니다.박연신 기자, 어느 은행의 가계대출 금리가 가장 높았나요?[기자]기존 신규 취급액뿐만 아니라 이번부터는 잔액기준도 처음으로 함께 공개됐는데요.5대 은행 중에서 잔액기준으로 하나은행의 가계대출 평균 금리가 5.34%로 가장 높았고, 신한은행은 4.92%로 가장 낮았습니다.반면, 신규취급액 기준으로는 신한은행이 5.05%로 최고였고, 이어 하나은행과 KB국민은행 우리은행 순으로 나타났습니다.전체 19개 은행 중에서는 잔액 기준으로 전북은행이 평균 7.87%로 가장 높았습니다.[앵커]예대금리차는 어디가 가장 컸나요?[기자]잔액 기준 평균 예대금리차는 2.42%p였습니다.정책서민금융을 제외한 잔액기준 예대금리차는 국민은행이 2.76%p으로 가장 컸습니다.이어 농협, 하나, 우리, 신한 순이었습니다.인터넷은행까지 포함하면 5.26%p 인 토스뱅크가 최대였습니다.5대 시중은행의 지난달 신규취급액 기준 가계 예대금리차 평균은 0.938%p로 집계됐습니다.농협은행이 1.19%p로 가장 컸고, 하나은행이 0.79%p로 가장 작았습니다.[앵커]전세대출 금리도 오늘(28일) 처음 공시됐죠?[기자]신규취급액 기준 전세대출 평균 금리는 연 4.43%로 집계됐습니다.5대 은행 중에서는 신한은행이 4.45%로 최고, KB국민은행이 3.77%로 가장 낮았습니다.카카오뱅크는 3.61%로 전체 은행권에서 최저 수준을 보였습니다.잔액기준 전세대출 평균 금리는 5대 은행 중 하나은행이 연 5.58%로 최고, KB국민은행이 4.73%로 최저였습니다.SBS Biz 박연신입니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>[단신]한국투자증권, ‘한국투자글로벌신성장펀드’ 단독 판매 外</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003509963?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>■ 한국투자증권, ‘한국투자글로벌신성장펀드’ 단독 판매 한국투자증권이 손익차등형 공모펀드 ‘한국투자글로벌신성장펀드’를 17일부터 단독 판매한다고 밝혔다. 해당 펀드는 인공지능(AI)·반도체·전기차·바이오 등 미래 경제 성장을 주도할 7개 핵심 산업을 선정하고 관련 글로벌 주식에 투자한다. 공모형 사모펀드(사모재간접 펀드)로 각각의 테마로 운용 중인 7개의 사모펀드에 투자하는 구조다. 운용 기간은 3년이며, 만기 전 수익률이 20%에 도달하면 조기 상환한다. 이 펀드는 고객이 선순위로, 한국투자금융지주를 비롯한 계열사가 후순위로 투자하는 손익차등형 펀드다. ■ 토스뱅크, 출범 후 첫 대규모 공개 채용 실시 토스뱅크가 출범 이후 처음으로 전 직군을 대상으로 대규모 채용을 실시한다고 17일 밝혔다. 경력직 위주로 채용해 온 토스뱅크는 신입 직원까지 두 자릿수 인원을 공개 모집한다. 모집 분야는 총 10개 직군, 40여 개 직무로 △엔지니어(코어뱅킹, 프런트엔드·서버) △비즈니스(수신·여신상품) △데이터(데이터 애널리스트) △리스크(신용전략) △프로덕트(상품개발) △디자인 △컴플라이언스 등이다. 이번 채용의 서류 접수는 31일까지 진행된다. ■ 케이뱅크, 인터넷 기반 펌뱅킹 서비스 개시 케이뱅크는 인터넷은행 최초로 펌뱅킹 서비스를 인터넷 기반으로 제공한다고 17일 밝혔다. 케이뱅크는 최근 첫 사례로 국내 중고거래 플랫폼에 해당 서비스를 시작했다. 펌뱅킹이란 은행과 기업을 연결해 온라인으로 입금과 출금을 비롯해 출금 동의, 명세 통지, 이체 처리결과 조회, 계좌 성명 조회 등의 서비스를 제공하는 시스템이다. 제휴사들은 인터넷 기반 펌뱅킹을 통해 별도 비용 부담 없이 시스템을 이용할 수 있다. ■ 교보생명, 업계 최초 ‘교보GPT 서비스’ 도입 교보생명이 보험업계 최초로 생성형 인공지능(AI) 챗GPT를 활용한 ‘교보GPT 서비스’를 도입했다고 17일 밝혔다. 교보GPT는 마이크로소프트 애저 GPT(MS Azure GPT)를 활용해 교보생명 클라우드 환경에서 업무에 이용할 수 있는 프라이빗 챗GPT로, 기업 내 민감 정보를 보호하고 내부 시스템과의 연계, 규정 및 거버넌스 표준 준수가 가능하다는 장점이 있다. 교보생명은 교보GPT를 임직원들이 업무에 활용할 수 있도록 지원한 후 보험약관GPT, 은퇴설계GPT 등 고객이 직접 활용할 수 있는 서비스로 확대할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>몸값 낮춘 타다, 결국 '더스윙' 품으로...인수금액 약 230억원</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000045980?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>국내 마이크로 모빌리티 서비스 기업 더스윙이 타다의 새 주인이 된다. 기존 공유 킥보드 중심의 서비스를 제공해온 더스윙은 이번 인수로 종합 공유 모빌리티 기업으로 거듭날 전망이다. 더스윙은 비바리퍼블리카가 운영하고 있는 타다 지분 60%를 약 230억~240억원에 인수할 예정이라고 17일 밝혔다. 타다 최대 주주인 비바리퍼플리카(토스)는 당초 타다 기업가치를 800억~1000억원대로 제시해 인수가 불발될 가능성이 컸으나 비바리퍼블리카가 최근 기업가치를 400억원대로 낮추면서 이번 인수가 극적으로 합의된 것으로 전해졌다. 더스윙 관계자는 "현재 2대 주주인 쏘카의 동의를 기다리고 있다"면서 "법적으로 쏘카의 동의가 없어도 인수를 진행할 수 있으나 도의적인 차원에서 쏘카로부터 답변이 오면 공식적인 인수 절차를 시작할 것"이라고 말했다. 호출 서비스 '타다'를 운영하는 VCNC의 차량. (사진=VCNC)지난 2018년 설립된 더스윙은 국내 최대 규모 퍼스널 모빌리티 서비스 'SWING(스윙)'을 운영하는 스타트업으로 전동킥보드, 전기자전거, 전기스쿠터 등 약 9만대를 보유하고 있다. 지난해에는 300억원 규모의 시리즈 B 라운드 투자 유치를 진행하는 등 규모를 점차 키워왔다. 회원수는 220만명 이상이다. 더스윙 자체 연결감사보고서에 따르면 지난해 연간 매출은 약 456억원, 영업이익은 약 17억원이다. 한 업계 관계자는 "더스윙이 각종 규제가 많고, 도로 사정이 복잡한 서울에서 공유 킥보드 비즈니스를 한다는 것에 한계를 느꼈을 것"이라면서 "종합 공유 모빌리티 기업으로 성장하기 위해서는 타다 인수가 간절했을 것"이라고 전했다. 이로써 올해 상반기를 뜨겁게 달궜던 '타다' 인수전도 종결됐다. 타다는 2020년 여객자동차운수사업법 개정안이 국회 통과되고 난 후 3년 연속 영업손실(2020년 112억원, 2021년 177억원, 2022년 262억원)을 기록했다. 지난 2021년 비바리퍼블리카에 인수된 이후에도 영업손실 규모가 계속 불어나 시장에 매물로 나왔으나 높은 기업가치와 적자 규모로 적합한 인수자를 찾지 못했다.앞서 1월 '아이엠택시'를 운영하는 진모빌리티가 타다 인수에 적극 나섰지만, 투자금 유치에 차질이 생기자 결국 인수를 철회했다. 현대차그룹 글로벌 소프트웨어센터 포티투닷도 타다 인수전에 참여할 가능성이 높다는 설도 흘러나왔으나 포티투닷 측은 "사실이 아니다"라고 부인했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[포토] 엎친 데 덮친 격…산불 끄다 추락한 소방비행기</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006952333?sid=104</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>(카리스토스 AFP=뉴스1) 윤주영 기자 = 25일(현지시각) 그리스 에비아 섬 카리스토스에서 캐나데어 사의 CL-215 소방 비행기가 산불을 진압하던 중 추락했다. 비행기는 23일 산불이 시작된 지역 인근에 자리한 협곡으로 추락했으며, 이 사고로 탑승했던 조종사 두 명이 전원 사망했다. 군인과 소방관들이 투입되어 추락한 CL-215 소방비행기의 잔해를 수색하고 있다. ⓒ AFP=뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>삼양사 "대체 감미료 '알룰로스' 알린다"</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000760165?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>미국 'IFT 2023' 참가…난소화성말토덱스트린·케스토스 등 스페셜티 소재 홍보삼양그룹의 식품 계열사 삼양사가 이달 17일부터 19일까지 미국 시카고에서 열린 국제식품기술박람회 'IFT 2023'에 참가해 알룰로스를 비롯한 스페셜티 소재의 해외 판로 확대를 모색했다고 20일 밝혔다.국제식품기술박람회는 국제식품학술기구인 'IFT(Institute of Food Technologist)'가 매년 주최하는 행사로, 전 세계 100여개 국에서 1천300개 이상의 기업이 참가하는 식품 기술 분야 세계 최대 규모의 박람회다.최낙현 삼양사 대표(왼쪽에서 다섯 번째)가 'IFT 2023' 삼양사 부스에 방문해 직원들을 격려했다. [사진=삼양사]삼양사는 지난 2017년부터 IFT 박람회에 참가했으며, 올해 행사에서는 지난해보다 2배 큰 규모의 홍보 부스를 운영했다. 박람회 기간 동안 삼양사 부스에는 1천800여 명의 방문객이 다녀갈 정도로 성황을 이뤘다.삼양사는 당류 저감화 사업의 핵심 소재로 알룰로스를 내세워 글로벌 시장을 공략하고 있다. 알룰로스는 무화과, 포도 등에 함유된 단맛 성분으로 설탕과 비슷한 단맛을 내지만 칼로리는 제로인 대체 감미료다. 삼양사는 '넥스위트(Nexweet)'라는 브랜드로 알룰로스의 글로벌 판로 확대에 매진하고 있다.삼양사는 자체 개발한 효소로 2016년 액상 알룰로스 대량 생산에 성공한 데 이어 2022년에는 결정(분말) 알룰로스 생산을 시작했다. 결정 알룰로스는 액상보다 취급이 편리해 수출에 용이하고, 기존 가루 설탕과 형태가 동일해 베이커리를 비롯한 다양한 분야에도 쉽게 적용할 수 있다.삼양사는 이번 전시회에서 난소화성말토덱스트린, 케스토스 등 프리바이오틱스 소재도 같이 선보였다. 수용성 식이섬유인 난소화성말토덱스트린은 원활한 배변 활동과 식후 혈당 상승 억제, 혈중 중성지질 개선에 도움을 줄 수 있는 건강기능식품 원료다. 케스토스는 결정 제형으로 구현이 가능하며 가장 높은 식이섬유를 함유하고 있는 차세대 프리바이오틱스 소재이다.또 삼양사는 이번 박람회에서 부스 방문객의 이해를 돕기 위해 각 소재가 적용된 제품을 시식할 수 있도록 했다. 삼양사는 ▲알룰로스와 난소화성말토덱스트린으로 설탕을 줄이고 식이섬유 함량을 높인 스콘과 콤부차 ▲케스토스를 사용해 식이섬유 함량을 높인 초콜릿 등을 시식샘플로 제공했다.이상훈 삼양사 식품BU장은 "지난해 열린 IFT 전시회에서 삼양사의 알룰로스 브랜드인 '넥스위트'를 처음 선보이며 글로벌 시장 진출을 본격화했다"며 "앞으로도 알룰로스를 비롯한 여러 기능성 소재를 알리고 해외 시장 판로를 넓히는 데 역량을 집중할 것"이라고 밝혔다.삼양사는 하반기 일본과 미국에서 각각 열리는 식품원료박람회 'HI(Health Ingredients) Japan 2023'과 'SSW(Supply Side West) 2023' 등 해외에서 열리는 식품원료박람회에 적극 참가해 브랜드 인지도 제고와 글로벌 시장 진출에 박차를 가할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[국민의 기업] 자동차검사 디지털서비스 전환 통해 안전한 교통환경 조성에 앞장</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003296432?sid=103</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>한국교통안전공단       한국교통안전공단은 디지털서비스 개방 선도서비스 개통식을 통해 민간 5개 플랫폼에서 자동차검사 예약을 할 수 있게 했다. [사진 한국교통안전공단]           한국교통안전공단(이하 공단)은 국토교통부 산하 준정부기관으로 운행 중인 자동차의 안전도 적합 여부 및 배출가스 허용기준 준수 여부 등을 확인하는 자동차검사를 시행한다. 전국에서 59개 검사소와 31개 출장검사장을 운영하며 자동차 관련 검사(정기검사·종합검사·신규검사·튜닝검사·임시검사·수리검사·이륜차검사 등)를 통해 운행차의 안전을 책임지고 있다.      공단은 연간 1200만대의 검사 대상 차량에 대해 전자문서·SMS·우편 발송으로 검사 대상과 기간을 사전 안내한다. 이에 따른 자동차검사 수검률 향상을 통해 안전한 교통환경을 조성하고, 검사 미필로 인한 과태료 발생 등 국민 피해 예방에 최선을 다하고 있다.      그러나 알림톡·우편 발송 등 자동차검사 안내 다변화에도 불구하고 검사기간 미인지 불만고객의 증가 및 과태료 발생 등의 문제가 있어, 올해 1월부터 정부와 협업해 자동차검사 사전안내 신청을 하는 경우 국민비서(민간 앱)를 통한 서비스를 도입해 운영하고 있다. 이달 기준 가입자가 202만명을 넘었다.      공단은 국정과제인 ‘민·관 협업 기반 범정부 서비스 개방’에 부응하고 국민이 편리하게 이용할 수 있는 서비스를 위해 정부 및 공공, 민간이 참여한 공단의 대표사업인 자동차검사 예약 서비스 민간 개방을 추진하고 있다. 지난달 행안부에서 시행한 디지털서비스 개방 사업에 응모하고 데이터 연계, 처리 프로세스 개발 및 민·관·공 협의체 운영을 하고 있다. 또 디지털서비스 개방 선도서비스 개통식을 통해 민간 5개 플랫폼(네이버·카카오·토스·국민은행·신한카드)에서 자동차검사 예약을 할 수 있게 했다.      공단의 디지털자산 개방은 민간의 자동차정보 서비스 시장 활성화에 기여할 뿐 아니라 함께 성장하는 기반 마련 및 디지털 플랫폼정부 혁신의 선도적 역할을 하고 있다. 공단은 안내·예약 시스템을 민간플랫폼에 개방함으로써 검사대행, 예약 빈자리 실시간 알림, 검사항목 및 결과에 따른 정비요금 안내, 과태료 예방 홍보 등의 접근성이 개선됐다고 밝혔다. 또 개방 후 민간플랫폼 활용 예약률은 8.3%로 국민 이용 빈도가 높고 접근성이 좋은 민간플랫폼을 이용한 예약이 점진적으로 증가할 것으로 내다보고 있다.      공단 권용복 이사장은 “자동차검사 디지털서비스 전환을 통해 사전안내 및 자동차검사 예약서비스와 같은 고객편의 서비스를 계속 확대해 서비스 품질을 높이겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>타다 인수 준비 마친 더스윙, “쏘카 합의 기다린다”</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002152538?sid=105</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[ⓒ VCNC][디지털데일리 이나연 기자] 공유 퍼스널 모빌리티 스윙(SWING) 운영사 더스윙이 타다를 인수할 유력 후보로 급부상했다. 하지만 인수 협상 과정에서 더스윙과 타다 운영사 2대 주주인 쏘카와 의견 충돌이 벌어지는 상황이다. 더스윙은 쏘카와 합의하지 않고도 인수를 마치는 데 문제가 없지만, 가능하면 원만한 협의를 하겠다는 설명이다.18일 투자은행(IB)업계와 모빌리티업계 등에 따르면 최근 더스윙은 토스 운영사 비바리퍼블리카가 보유한 타다 운영사 브이씨엔씨(VCNC) 지분 60%를 인수하기로 합의했다. VCNC 지분가운데 60%는 비바리퍼블리카가, 40%는 쏘카가 보유 중이다.지분 100%를 기준으로 한 타다 기업가치는 400억원대 수준으로 알려졌으며, 경영권 프리미엄을 포함한 지분 인수가격은 약 240억원으로 추정된다. 앞서 타다는 인수합병(M&amp;A) 시장에 매물로 나온 이후 큰 적자 규모와 500억~800억원에 달하는 높은 기업가치 때문에 인수자 물색에 난항을 겪었다.올해 초 아이엠택시 운영사 진모빌리티에 이어 티맵모빌리티 등 여러 기업이 인수 의사를 내비쳤지만 얼마 후 철회했다. 당시에도 더스윙은 타다를 인수할 유력 후보로 언급됐으나 “한 때 합병을 검토했으나 현재는 관련 논의를 전혀 진행하지 않고 있다”며 선을 그었다.하지만 VCNC가 최대 800억원대로 제시된 기업가치를 절반으로 하향 조정하면서 더스윙이 추진하는 타다 인수 절차도 급물살을 탄 것으로 보인다. 전동킥보드 중심 서비스를 전개해 오던 더스윙은 최근 이륜차인 오토바이 사업에 뛰어든 데 이어, 사륜차까지 아우르는 종합 모빌리티 기업이 되겠다는 포부를 밝힌 바 있다.더스윙은 타다 인수에 속도를 내기 위해 최근 타다와 10여명 인력을 모아 인수 후속 작업을 준비하는 태스크포스(TF)팀까지 꾸렸다. 양사 기획자와 개발자를 중심으로 하는 이 팀에서는 양사 협업 전략에 대한 방안들이 논의될 전망이다.다만, 더스윙과 쏘카 의견차는 정리해야 할 과제다. 이들 기업 사이 갈등은 쏘카가 더스윙을 상대로 지분 스와프를 요구하면서 본격화됐다. 쏘카는 VCNC에 단기차입금 70억원을 빌려줬는데, 이 중 50억원이 지난 2월 만기일을 넘었다.이에 쏘카는 차입금과 이자에 해당하는 더스윙 지분과 함께 더스윙 이사회 진입 등을 더스윙에 요구한 것으로 전해진다. 더스윙은 이러한 쏘카 측 요구가 과도하다고 반발하고 있다.더스윙 관계자는 “타다 인수 후 사업적 시너지를 낼 방안에 대해 타다 측과 많은 대화 중”이라며 “대승적인 차원에서 모든 준비를 마치고 쏘카와의 합의를 기다리고 있다”고 전했다.한편, 타다와 타다 최대 주주인 비바리퍼블리카, 쏘카 관계자는 타다 인수 진행 상황과 관련해 “확인해 줄 수 있는 것이 없다”고 말을 아꼈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>더스윙, 타다 인수 결정…"종합 모빌리티 기업 도약"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006934285?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>쏘카 보유 단기차입금 문제 해소…"쏘카 합의 없이 경영권 인수 가능""증자, 출자 등 다양한 방안 논의"타다'차량 모습./뉴스1 DB ⓒ News1(서울=뉴스1) 김민석 기자 = 퍼스널모빌리티 플랫폼기업 더스윙이 '타다'를 인수하기로 타다 운영사 VCNC와 합의했다.더스윙은 킥보드·오토바이 공유 플랫폼을 넘어 SUV(스포츠유틸리티차량)를 아우르는 종합 모빌리티 기업으로 도약한다는 계획이다.17일 업계에 따르면 더스윙과 타다 운영사 VCNC간 인수합병 논의가 급물살을 타면서 더스윙이 VCNC 최대 주주인 토스 지분 60%를 인수하기로 했다.타다 몸값과 관련 VCNC가 자체 구조조정 이후 지분 100% 인수가를 800억원대에서 400억원대로 낮추면서 합의가 진전된 것으로 보인다. 쏘카는 VCNC의 2대주주로 40%의 지분을 가지고 있다. 업계는 토스가 보유한 지분 60%의 인수가를 230억~240억원으로 추정한다.그동안 쏘카는 VCNC에 대여했던 70억원의 차입금에 대한 상환을 요구했다. 더스윙은 인수 검토 과정에서 해당 단기차입금 문제가 해소됐다고 밝혔다.더스윙은 모든 준비를 마치고 쏘카와 대승적 차원에서 합의를 기다리고 있다고 전했다.더스윙 관계자는 "쏘카와 합의 없이 타다 지분 60% 인수해 경영권을 가져오는 방안이 가능하다"며 "결정이 늦어진 만큼 증자, 출자 등 다양한 방안을 논의하고 있다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>[단독]자동차·실손보험료, 어디서든 동일하게 비교...'표준API' 추진된다</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005048044?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>'온라인 보험 비교·추천 서비스'에 표준 API 도입어떤 플랫폼에서 비교해도 최적의 보험상품 추천받아개인정보만 입력하면 정확한 보험료 산출 가능해져자동차·실손·여행자·저축성보험 등 4개 상품 적용 /사진=뉴시스 [파이낸셜뉴스]내년 1월부터 자동차보험, 실손보험 등에 가입할 때 소비자는 어떤 플랫폼에서든 자신의 조건에 최적화된 보험사의 상품을 추천받을 수 있게 된다. 현재 ‘보험다모아’가 운영 중이나 평균 보험료를 구간별로 산출하는 방식을 사용해 실제 납부해야하는 보험료가 달랐지만, 내년부터는 정확한 보험료 산출 가능해지는 것이다. 적용 대상은 △자동차보험 △실손보험 △여행자보험 △저축성보험 등 4개 상품이다. 특히 실손보험과 자동차보험은 각각 약 4000만명, 2500만명의 소비자가 가입한 ‘국민보험’으로 소비자의 실익이 커질 전망이다.   26일 금융권에 따르면 내년 1월 출시되는 '온라인 보험 비교·추천 서비스'에 개별 API가 아닌 표준 API가 도입될 예정이다. API란 데이터 제공자와 플랫폼의 각 프로그램이 상호 통신하는 방법을 정의한 일종의 출입구 역할을 하는 문서다. 이때 양사 간의 통신규격이 통일된 방식이 표준 API, 고객 정보양식 등의 정보 전송방식이 각 사별로 상이한 방식이 개별 API다.   그간 표준 API는 각 보험사가 플랫폼 업체에 데이터를 개별 API로 제공하는 방식에 밀려 도입 가능성이 낮았다. 보험사 입장에서 출범 일정을 맞추기 위해서는 개별 API로 진행해야 개발 속도가 더 빠르고 네이버파이낸셜, 카카오페이, 토스 등 빅테크들도 개별 API 방식이 플랫폼별 전용상품을 만들 수 있어 더 유리했기 때문이다.   그러나 금융위원회는 지난주 '온라인 보험 비교·추천 서비스'에 참여하는 플랫폼 업체와 보험사를 소집해 회의를 진행하면서 출범 일정을 재확인하며 개별 API가 아닌 표준 API를 추진토록 가닥을 잡은 것으로 알려졌다. 또 이날 금융위는 보험료 산출을 위해 보험상품의 정보가 담긴 표준 API 명세서도 현재 상용되는 마이데이터 규격 수준으로 마련토록 하고 표준 API 명세서가 마련되지 않으면 보험사와 플랫폼은 개별로 개발을 진행하도록 했다.   예를 들어 내년 1월 서비스가 출시되면, 자동차보험을 가입하고 싶은 고객은 차종과 나이 등을 가입 필수 정보를 보험 비교 추천 서비스를 제공하는 플랫폼에 자신의 정보를 입력하면 표준 API를 통해 어떤 플랫폼에서든 보험료를 동일하게 비교할 수 있다.   현재 표준 API 도입을 위해 플랫폼 업체는 취급 예정인 보험 상품의 제휴에 집중하고 보험사는 서비스 기술, 보안분야 등에 초점을 맞춰 정보를 상호 공유하고 있는 것으로 알려졌다. 한 금융권 관계자는 “표준 API를 통한 원활한 보험 비교 추천 서비스 출시를 위해 전체 참여기관 간 업무협약 체결을 검토 중”이라고 말했다.   한편 금융위원회는 지난 19일 정례회의에서 네이버파이낸셜, 뱅크샐러드, 비바리퍼블리카, 카카오페이 등 11곳 업체의 보험상품비교·추천 서비스를 혁신금융 서비스로 지정한 바 있다. 취급상품은 여행자·화재보험 등 단기보험, 자동차보험, 실손보험, 저축성보험, 펫보험, 신용보험으로 제한된다. 비교추천 서비스는 지정일로부터 6개월 이후인 2024년 1월 출시될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>‘정보보호’에 정성 쏟은 뮤직카우, 1년 간의 성과 공개</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005161308?sid=105</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>뮤직카우, 고객 보호 강화 위해 정보보호체계 구축 및 보안시스템 운영 고도화 총력정보관리본부 신설 및 인재 영입. 제도권 편입, 국내외 권위있는 인증 획득, 대회 수상 등 성과 거둬보안체계 및 IT 인프라 지속 고도화하며 생태계 활성화 통해 문화금융 시장 성장 이끌어 나갈 것 뮤직카우 로고세계 최초의 음악 수익증권 플랫폼을 운영하는 뮤직카우(총괄대표 정현경)가 고객 보호 강화를 위해 노력한 지난 1년 간의 성과를 20일 공개했다.뮤직카우는 음악 저작권으로부터 발생되는 수익을 분배 받을 수 있는 ‘음악 수익증권’ 플랫폼의 안전한 서비스 환경을 구축하고자 지난해 정보관리본부를 신설했다. 이후 효과적인 정보보호체계 구축 및 보안시스템 운영 고도화에 박차를 가해왔다.서비스 안정성, 보안 체계를 한층 더 강화하기 위해 정보관리본부 신설뮤직카우는 지난해부터 카카오페이, 토스증권, 쿠팡 등 글로벌 최고 수준의 금융사에서 정보보호 책임자로 근무한 CIO를 영입한 것을 필두로 핀테크, IT 기업 출신 인재들을 대거 영입하며 전문성을 강화했다. 업계 핵심 인력들로 구성된 뮤직카우 정보관리본부는 가장 먼저 △서비스 안정성 강화를 위한 재해복구 및 백업체계 적용, △IT 및 보안 인프라 구축 및 관리체계 강화, △보안 및 인프라 모니터링 등의 업무를 수행했다.고객들의 이용 편의성을 높이기 위한 시스템도 구축했다. 지난해 9월 도입된 뮤직카우 간편인증 서비스는 사설인증서 기반의 전자서명 기술을 적용한 서비스다. 간편 비밀번호 설정을 통해 더욱 편리하고 안전하게 거래할 수 있도록 지원한다.무엇보다 뮤직카우의 정보보안 강화를 위한 노력은 지난해 혁신금융서비스 지정과 이후 금융당국으로부터 최종 제재 면제를 받는 데에도 주효했다. 뮤직카우는 자체적으로 구축한 IT 인프라 및 보안체계 완비를 통해 당국의 실사 대응을 완료했다. 물적설비 및 안정성 강화에 대한 요건을 충족함에 따라, 지난해 11월 금융위원회 산하 증권선물위원회로부터 최종 제재 면제를 받으며 제도권에 편입됐다.이를 통해 뮤직카우는 저작권 등을 기초로 하는 무체재산권 신탁수익증권으로서의 권리를 공식적으로 인정받은 세계 최초의 사례가 됐으며, 뮤직카우 고객들은 증권이나 펀드처럼 자본시장법의 보호 아래 투자할 수 있게 됐다.‘ISO27001’, ‘ISMS-P’ 인증 획득 등 권위있는 외부 검증기관으로부터 정보보호 역량 인정받아뮤직카우의 정보보호 강화를 위한 노력은 국내외 권위있는 외부 검증기관의 인증 획득으로도 확인할 수 있다. 지난해 9월 획득한 ‘ISO27001’은 국제표준화기구(ISO)의 국제전기기술위원회(IEC)에서 제정한 정보보호 관리체계에 대한 국제 표준 규격으로, 세계 정보보안 분야에서 가장 권위 있는 인증이다. 뮤직카우는 정보관리본부 신설을 통한 내부 전문인력의 우수한 역량으로 빠른 기간 내 관리체계를 구축하고 인증을 획득할 수 있었다.올해 3월에는 관련 업계 최초로 ‘정보보호 및 개인정보보호 관리체계(ISMS-P)’ 인증을 획득했다. ISMS-P는 정보보호 뿐만 아니라 개인정보보호를 위한 일련의 조치와 활동이 인증기준에 적합하게 관리되는지를 평가하는 국내 최고 수준의 정보보호 통합 인증 제도다. 과학기술정보통신부와 개인정보보호위원회의 공동 고시 기준에 따라 한국인터넷진흥원(KISA)에서 인증한다.2023 ‘AWS 스타트업 게임데이’ 대회서 좋은 성적 거둬. 업계 최고 수준 개발 역량 입증해뮤직카우 정보관리본부 직원들은 스타트업 개발팀 간 개발 역량을 겨뤄보는 대회에도 참가해 우수한 성적을 거두기도 했다.AWS코리아가 지난 4월 25일, 스타트업 개발팀을 대상으로 진행한 ‘AWS 스타트업 게임데이(이하 게임데이)’에서 뮤직카우 정보관리본부 소속 직원들은 참가 스타트업 14개 회사 중 2위의 성적을 거두며 수상의 영예를 안았다.게임데이는 스타트업이 사업을 전개하다 발생할 수 있는 개발 분야의 다양한 이슈 상황을 가상으로 구현하고, AWS 솔루션을 통해 해결해보는 대회다. 뮤직카우의 이번 수상은 AWS 운영역량 및 전문성을 기반으로 보안, 인프라, 데브옵스(DevOps) 등의 분야에 역량을 갖춘 팀원들이 있어 효과적인 협업과 지원이 가능했기에 이룰 수 있는 성과였다.뮤직카우 관계자는 “지난 1년 간 고객 보호 강화를 위해 해온 노력들이 좋은 결과로까지 이어져 고무적”이라며, “앞으로도 뮤직카우는 보안체계 및 IT 인프라 역량을 더욱 높여 서비스를 고도화하는 것은 물론 뮤직카우가 구축한 문화금융 생태계 활성화를 통해 문화와 금융 양대 시장의 성장을 이끌어 가겠다”고 전했다.한편, 뮤직카우는 아티스트만의 전유물이었던 음악 저작권료를 수익증권의 형태로 개인들이 소장하고 거래 가능하도록 구현한 세계 최초 음악 수익증권 플랫폼이다. 지난해 금융당국으로부터 혁신금융 서비스를 지정 받아 무형자산인 음악저작권을 증권화했다. 이는 세계 최초의 무체재산권 신탁수익증권이다. 2022년 말 누적 회원 수 약 120만 명, 거래규모 약 4000억 원을 달성했으며, 핀테크산업협회에 신설된 문화금융분과장사를 맡아 문화생태계 활성화에도 힘쓰고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>“노는 돈 굴려준다”…증권사, 예탁금 운용 서비스 확대</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002732915?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>KB, ‘예수금 자동 저금통’ 출시 1년만 3000억원 달성메리츠도 7개월만에 1천억 돌파...카카오페이도 출시수신 경쟁력 강화…낮은 예탁금 이용료율 해소 효과 기대ⓒ게티이미지뱅크[데일리안 = 노성인 기자] 최근 증권사들이 출시한 예탁금 계좌 관련 서비스가 큰 인기를 끌고 있다. 매일 자산이 늘어나는 일 복리 효과에 예금과 파킹통장(수시입출금식 예금) 등으로 떠났던 투자자들이 돌아오고 있는 것으로 보인다.아울러 최근 금융당국 등에서 증권사들의 낮은 예탁금 이용료율을 지적하고 나서면서 증권업계의 관련 서비스 출시가 이어질 것으로 보인다.21일 금융투자업계에 따르면 지난해 6월 출시한 KB증권의 ‘예수금 자동 저금통’ 서비스 가입 금액이 지난 19일 기준 3000억원을 돌파했다. 예수금 자동 저금통은 주식투자를 하고 남은 종합위탁계좌(주식계좌)의 예수금을 매일 야간에 ‘발행어음형 종합자산관리계좌(CMA)’로 자동 송금해 발행어음형 CMA 금리에 따른 수익금을 지급한 뒤 자동으로 종합위탁계좌로 다시 입금하는 서비스다.KB증권의 ‘발행어음형 CMA’는 KB증권 자체의 높은 신용도(신용등급 AA+)를 바탕으로 발행된 어음으로 운용하는 상품이다. 해당 상품의 수익률은 연 3.40%로 1% 수준인 예탁금 이용료 대비 높은 수익금을 제공한다. 발행어음은 자기자본 4조원 이상의 초대형 투자은행(IB)만 발행할 수 있으며 현재 국내에서는 KB증권을 포함해 4개 증권사만 발행할 수 있다.메리츠증권의 ‘슈퍼(Super)365’계좌도 출시 7개월 만에 예탁금이 1000억원을 돌파했다. 슈퍼365계좌는 주식 계좌에 남아있는 예수금에 대해 매일 저녁 환매조건부 채권(RP) 상품을 매수하고 자정이 지나면 바로 매도해서 일 복리 이자수익(원화 3.15%, 달러 4.2%)을 제공하는 계좌다.아울러 국내·해외주식, 채권 등 다양한 금융투자상품에 국내 최저 수준 수수료(국내 주식 0.009%·해외 주식0.07%)도 제공한다. 이에 메리츠증권에 따르면 신규 개설되는 계좌 중 약 91%가 슈퍼365 계좌로 가입하고 있는 가운데 전체 예수금 대비 슈퍼365계좌의 비중은 약 38%를 차지하고 있다.카카오페이증권도 지난 3월부터 카카오페이증권 종합계좌 예탁금 30만원에 연 5%, 100만원까지 연 2.5%의 예탁금 이자를 제공하고 있다. 아울러 지난 5월부터는 예탁금 이자를 메일 받을 수 있는 ‘매일 이자 받기’ 서비스를 시작해 일 복리 효과도 누릴 수 있게 됐다.ⓒKB증권증권사들이 연이어 예탁금 계좌에 대한 서비스와 혜택을 추가하고 있는 까닭은 시중은행에서 자취를 감췄던 4%대 예금상품까지 재등장하고 저축은행들도 5%대 파킹통장을 내놓는 등 ‘노는 돈’에 대한 경쟁이 치열해지고 있기 때문이다.저축은행중앙회에 따르면 지난 20일 기준 79개 저축은행의 평균 정기예금(1년 만기) 금리는 4.01%로 월초(3.98%) 대비 0.03%포인트 상승했다.또 금융당국 등에서 국내 증권사들의 예탁금 이용료율이 한국증권금융을 통해 벌어들인 예탁금 수익률에 비해 지나치게 낮다는 지적이 나오기 있기 때문으로 보인다.실제 한국증권금융의 ‘2023년 7월 신탁운용위원회 회의자료’에 따르면 지난 6월 증권투자자예탁금신탁의 운용 수익률은 3.782%에 이른다. 한국증권금융의 관리 비용과 신탁보수를 차감하더라도 이익률은 3.698%다.반면 증권사의 예탁금 이용료율은 저조하다. 예탁금 100만원을 기준 예탁금 이용료율이 1%가 넘는 곳은 3곳에 불과했다. 신한투자증권(1.05%)이 가장 높았고 이외에 KB증권(1.03%)·토스증권(1%)·미래에셋증권(0.75%) 등이 뒤를 이었다.이에 업계에서는 증권사들이 은행·저축은행의 예금과 파킹통장으로의 역머니무브 현상을 막기 위해 예탁금 이용료율 관련 서비스를 확대할 것으로 보고 있다.금융투자업계 한 관계자는 “현재 증권사들은 종합자산관리계좌(CMA)를 통해 시중은행·저축은행의 수신상품과 경쟁 중이지만 수익률 측면에서 밀리면서 투자자 유인 효과가 크지 않은 편”이라며 “단기간 운용이 가능한 채권과 환매조건부채권(RP) 등을 이용해 예탁금 이용료를 보조할 수 있는 서비스와 상품을 통해 투자자들의 발걸음을 돌리게 할 것”이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>온라인 플랫폼 보험상품 비교·추천 서비스 내년 1월 출시</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003237247?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>보험상품 비교·추천서비스 플랫폼. 금융위원회 제공여러 보험사의 자동차보험과 실손보험 등을 온라인 플랫폼에서 한눈에 비교할 수 있는 서비스가 내년 1월에 출시된다.금융위원회는 19일 제14차 정례회의에서 네이버파이낸셜·뱅크샐러드·비바리퍼블리카(토스)·SK플래닛·NHN페이코·카카오페이·쿠콘·핀다·핀크·해빗팩토리·헥토데이터 등 11개사가 신청한 보험상품 비교·추천 서비스를 혁신금융서비스로 지정했다고 밝혔다. 서비스 출시 예정 시기는 내년 초이다.혁신금융서비스는 금융 규제를 기본 2년 최대 4년간 유예해주는 제도이다. 보험업법은 보험대리점으로 등록해야만 보험상품 비교·추천 서비스를 할 수 있고, 본인신용정보관리회사나 전자금융업자는 보험대리점 등록을 할 수 없다.금융위는 네이버파이낸셜 등이 온라인 플랫폼으로 보험상품 비교·추천 서비스를 제공할 수 있도록 금융상품판매대리·중개업 및 보험대리점 등록에 관한 규제 특례를 부여했다.지난 4월6일 발표한 ‘플랫폼의 보험상품 취급 시범운영 세부방안’에 따른 것이다. 당시 금융위는 신규 서비스에 관심을 보인 업체가 17곳이라고 밝혔으나 실제 혁신금융서비스 지정 업체는 11곳으로 6곳이 줄었다.보험상품 비교·추천 서비스의 업무 범위는 ‘보험상품을 비교·추천하고 보험계약 체결이 가능한 보험회사와 연결’하는 행위이다. 상품 범위는 온라인(CM) 상품 중 단기보험(여행자·화재보험 등), 자동차보험, 실손보험, 저축성보험(연금 제외), 펫보험, 신용보험이다.운영사는 비교·추천과정에서 가공된 정보를 비교·추천 목적 외에 활용·제공할 수 없다. 정당한 사유 없이 보험사의 제휴 요청을 거절할 수 없고 수수료도 자동차보험 4%대 등 일정 한도로 제한된다. 보험회사에 일반적인 거래조건보다 불리하거나 부당한 행위를 보험사에 요구해서도 안 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>고병일 광주은행장 "우량자산 증대해 안정적 수익원 확보할 것"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002731837?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>고병일 광주은행장이 하반기 경영전략회의에서 향후 경영 계획을 설명하고 있다.ⓒ광주은행[데일리안 = 고정삼 기자] 고병일 광주은행장은 우량자산을 늘려 안정적인 수익원을 확보해 100년 은행으로 도약하겠다는 포부를 밝혔다.광주은행이 18일 개최한 '하반기 경영전략회의'에서 고 행장은 이같이 강조했다.고 행장은 "올해 세 차례 하향 조정된 국내 경제성장률, 저성장·고물가 국면의 준스태그플레이션에 철저히 대비해야 한다"며 "시중은행, 인터넷전문은행, 핀테크 업체들과의 무한 경쟁 시대에 돌입한 현상황에서 강인한 기초체력을 밑바닥에 둔 생존전략으로 우량자산을 증대하고 안정적인 수익원을 확보해야 한다"고 말했다.이어 "불확실한 금융시장에서 적극적인 혁신 및 건전성 위주의 경영전략으로 고객들에게 믿음과 신뢰를 주는 경영이 중요하다"고 피력했다.세부적으로는 ▲건전성 관리 고도화 ▲성장성 강화 ▲안정적인 수익성 관리 ▲미래성장동력 확충 등 4가지를 제시했다.고 행장은 "우리가 성장하기 위해서는 가장 약한 곳을 찾아내 강화해야 한다"며 "분야별 역량을 강화하고 이를 통한 내부적 역량을 높여야 한다"고 당부했다.광주은행은 내부 역량뿐 아니라 ▲토스 공동대출 ▲가상자산 거래소 제휴 ▲인수금융 확대 ▲FX트레이딩 개시 ▲외환 선물환거래 재개 ▲JBSV 브로커리지 서비스 개시 등 금융서비스 영역을 지속 확대할 방침이다.아울러 경기 침체와 공공요금 인상, 고물가로 인해 경영상 애로사항을 겪고 있는 지역 중소기업 및 소상공인을 지원하겠다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"토스선 별다방도 밀렸다"… 스타벅스 누른 커피 기프티콘은?</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000938561?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>메가커피가 카카오톡 선물하기와 달리 토스 브랜드콘에서 선전하고 있다. 사진은 메가커피 매장. /사진=메가커피 모바일 선물의 대표격인 커피 e쿠폰(기프티콘) 시장서 메가커피가 스타벅스를 눌렀다. 28일 현재 토스 브랜드콘 카페 인기 상품 순위에서 메가커피가 1위를 유지하고 있는 것. 2위는 스타벅스, 3위는 매머드익스프레스다. 이는 스타벅스가 1위를 줄곧 유지해 온 카카오톡 선물하기 랭킹과는 차이가 있다. 스타벅스는 국내 1위 커피 전문점이다. 매장 수도 많고 선호도가 높아 모바일 상품권이 잘 팔린다. 부담 없는 선물로 인기를 모은 스타벅스 e쿠폰은 카카오톡 선물하기의 '얼굴'로 통한다.그런 스타벅스가 토스에서 메가커피에 밀린 이유는 뭘까. 토스 브랜드콘은 10~20대 사용자가 많다. 토스 관계자는 "서비스 초반부터 메가커피는 카페 인기 상품 1위였다"며 "토스 이용자층이 젊기 때문에 가성비(가격 대비 성능)가 좋은 메가커피 결제건수가 많은 것으로 보인다"고 말했다.카카오톡 선물하기 커피 상품권 랭킹(왼쪽)과 토스 브랜드콘 카페 인기 상품 순위. /사진=앱 캡처 메가커피는 전국 2400여개 오프라인 매장을 두고 있다. 상대적으로 낮은 가격에 큰 용량의 음료를 판매한다. 트렌드를 반영한 신메뉴 출시도 잦은 편으로 호응을 얻고 있다. 메가커피에 따르면 지난해 메가커피의 e쿠폰 판매액은 전년 대비 3배가량 증가했다. 지난해 말 기준 스타벅스, 투썸 플레이스에 이어 커피 브랜드 모바일 e쿠폰 시장 3위 자리에 올랐다.메가커피 관계자는 "메가커피는 MZ세대(1981~1995년 출생한 밀레니얼(M) 세대와 1996~2010년 출생한 Z세대를 통칭) 사이에서 선물하고 싶은 브랜드로 떠오르고 있다"며 "합리적인 가격에 다양한 음료와 간식으로 개인의 취향을 충분히 고려할 수 있고 전국 2400여개에 달하는 가맹점에서 손쉽게 쿠폰을 사용할 수 있는 접근성 때문에 이런 성과를 낸 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>[금융人사이드]"해볼 테면 해킹 해봐"…화이트해커가 지키는 토스</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005291385?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>세계대회 석권한 화이트해커 이종호 토스 보안기술팀 리더 인터뷰토스 해킹 요청 '버그바운티' 개최금융권 최고 수준 보안에 자신감편집자주금융은 쉽게 말해 '돈을 융통한다'는 뜻입니다. 단순한 말이지만 복잡한 업무가 오가고 여러 실무진의 전문성과 노력이 투입되고 있습니다. 커다란 기업을 지탱하고 움직이는 숨은 일꾼들의 모습을 들여다보겠습니다.이종호 토스 보안기술팀 리더금융권에서도 날로 보안의 중요성이 커지고 있다. 모바일 애플리케이션(앱)이 보편화되면서 편의성은 커졌지만, 곳곳에서는 해킹 위협이 도사리고 있다. 특히 고객의 '돈'을 다루는 금융사들 입장에서는 보안 능력이 중요한 경쟁력이 됐다고 해도 과언이 아니다. 특히 IT 회사의 색채가 짙은 핀테크 회사의 경우 이 문제에 더욱 민감하다. 매달 약 1500만명이 이용하는 토스의 경우 온라인이 오프라인보다 안전하다는 인식을 만들어 보이는 것이 곧 생존의 문제다. 이 때문에 토스에는 화이트해커만 10명이 있다. 그 중심에는 '헬소닉'으로 유명한 세계적인 화이트해커 이종호 토스 보안기술팀 리더가 있다.이 리더는 최근 아시아경제와의 인터뷰에서 "토스는 국내에 있는 모든 해커에게 직접 '토스를 해킹해봐'라고 할 정도로 (보안에) 자신감이 있다"고 말했다. 토스는 매년 공개적으로 공격을 요청하고 취약점을 찾아낸 제보자에게 포상하는 '버그바운티'를 개최하고 있다. 그는 "그만큼 보안 측면에서 많은 것들을 해왔고, 자신감을 어필하고 싶은 목적으로 개최하는 것"이라고 설명했다. 이 리더는 해킹 올림픽이라 불리는 데프콘 CTF에서 아시아 최초로 우승했을 정도로 세계적인 화이트해커다. 이런 그가 토스를 선택한 것은 창업자인 이승건 비바리퍼블리카 대표가 보안에 대해 진심이었기 때문이다. 10년간 보안업계에서 일했던 그는 처음엔 토스로의 이직을 거절했다. 하지만 이 대표를 만난 뒤 생각이 바뀌었다. 이 리더는 "다른 기업들은 보안에 대해 진지하게 생각한다기보다 유행인 것처럼 화이트해커팀을 만들겠다는 시도를 많이 한다"며 "이 대표의 경우 조언이 필요 없을 정도로 많은 시장 조사를 했고 이 점이 확신을 들게 했다"고 전했다.이 리더는 토스가 주요 시중은행을 포함한 1금융권에서 업계 최고 보안 수준을 갖췄다고 설명했다. 이 같은 보안 수준을 위해 토스에는 화이트해커만 10명이 있다. 이들은 '레드팀'과 '블루팀'을 나눠서 실전처럼 공격·방어 훈련을 진행하면서 토스의 보안성을 높이고 있다. 레드팀에서 최신해킹 기술을 습득해 토스를 공격하면 블루팀에서 모니터링체계, 방어체계가 잘 되어있는지 정비하는 식이다. 화이트해커 '팀'을 갖추지 못한 다른 금융사에서는 하기 힘든 방식이다. 향후 토스는 화이트해커팀 규모를 더 늘려간다는 계획이다.토스의 화이트해커들은 고객 관점에서의 보안에도 힘쓰고 있다. 최근 악성 앱을 통한 보이스피싱 사고가 잦아지면서 토스는 이용자들을 보호하기 위한 대책을 만들었다. 이 리더는 "예를 들어 악성 앱들의 경우 각 은행이나 금융감독원의 안내음성 파일이 다 들어있는데, 이 같은 특징들을 찾아내고 연구해서 악성 앱 탐지 기술을 개발했다"며 "토스 앱을 실행하면 스마트폰 전체 앱을 검사해서 악성 앱이 탐지되면 차단해준다"고 설명했다.이 리더는 '쓰기 편할수록 보안에 취약하다'는 오해는 토스에게 억울한 지점이라고 말했다. 이용자들은 시중은행의 보안프로그램 설치 등에 대해 불편함을 느끼지만, 한편으로는 안전하다고 믿는다는 것이다. 하지만 기술이 진화하면서 이 같은 보안을 통하지 않고도 안전하게 금융 거래를 할 수 있게 됐고, 이를 연구하는 것이 화이트해커들의 역할이다. 특히 해커들의 공격 자체도 기술 발전에 맞게 진화하고 있는 만큼 기술적으로 이를 따라가기 위해 화이트해커가 금융권에는 꼭 필요하다.이 리더는 "기존 은행권은 오래된 인프라를 갖고 있기 때문에 새롭게 건설하기보다는 위에다가 덧붙이는 방식의 보안 시스템"이라며 "토스는 처음부터 최신 기술이 적용된 (보안) 인프라를 가지고 있기 때문에 그런 점에서 보안이 더 뛰어나다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>한은 "핀테크 확산…통화정책 파급력 약화"</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011988169?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>온라인 결제·대출 확산에 전통 금융기관 영향력 약화신용 제약 완화·은행 이용 비중 감소에 기인[서울=뉴시스] 고범준 기자 = 금융당국의 가계대출 규제가 강화되고 있는 가운데 인터넷전문은행 토스뱅크가 오는 5일 공식 출범한다. 최저금리는 시중은행에서 가장 낮은 2.7%대, 최대 한도는 2억7천만원가량으로 책정될 전망이다. 토스뱅크는 내일부터 토스 애플리케이션을 통해 예금·대출 등의 은행 서비스를 시작할 예정이다. 사진은 4일 오전 서울 강남구 지식재산센터 내 위치한 토스 뱅크 사무실 모습. 2021.10.04. bjko@newsis.com [서울=뉴시스]남주현 기자 = 토스나 네이버페이, 카카오페이 등과 같은 핀테크 확산이 통화정책 효과를 제약한다는 연구 결과가 나왔다.곽보름 한국은행 거시경제연구실 부연구위원은 21일 '핀테크의 확산과 통화정책 파급효과 분석-BOK경제연구'를 통해 이같이 밝혔다. 이 보고서는 중국 사례를 통해 핀테크 서비스 이용 확대가 통화정책의 파급효과에 미치는 영향을 실증적으로 분석한 결과다.보고서는 중국인민은행의 통화정책 충격에 따른 중국 내 경제변수들의 반응이 핀테크 이용량에 따라 달라지는 것을 포착하기 위해 패널 VAR(벡터자기회귀) 모형의 반응계수들이 핀테크 사용량에 따라 다른 값을 가질 수 있도록 모형을 설정을 설정했다.조사기간은 2011년 1월 4일부터 2018년 4분기로 중국 내 제 3자급무분 1위 사업자인 알리페이(Alipay)를 통한 온라인 지급, 대출, 보험, 단기금융펀드, 투자 등의 금융서비스 이용량을 활용해 측정했다.연구 결과 정보통신 기술을 바탕으로 온라인 결제와 대출 등 핀테크 서비스가 확산되는 경우 전통적 금융기관의 영향력은 상대적으로 제약됐다.핀테크 사용량의 증가로 통화정책 충격에 따라 GDP, 소비자물가지수, 은행대출, 주택가격의 반응이 유의미하게 약화되는 것으로 나타났다.특히 은행 대출의 경우 반응 저하가 즉각 나타나고 오래 지속되는 것으로 분석됐다.보고서는 통화정책 효과가 약화되는 이유로 핀테크 확산에 따른 신용 제약의 완화를 꼽았다. 담보가 없고, 신용도가 낮은 소규모 가계 대출이나 자영업자들의 대출 제약이 줄어든다는 점에서다.핀테크 사용이 많아질 수록 통화정책에 민간한 은행 이용 비중이 줄어든다는 점도 또 다른 원인으로 제시됐다.곽 부연구위원는 "핀테크 서비스의 확산이 통화정책의 파급효과에 영향을 미칠 수 있는 것으로 나타난 만큼, 관련 서비스의 추이를 면밀히 모니터링하고 통화정책에 미치는 영향에 대해 계속 유의할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>한국투자증권, 바이셀스탠다드와 토큰증권 상품 공급 협약</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011979661?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 강수윤 기자 = 한국투자증권은 최근 '바이셀스탠다드(대표 신범준)'와 토큰증권 서비스 공동개발을 위한 업무협약을 체결했다고 17일 밝혔다.이번 협약으로 두 회사는 ▲투자계약증권, 비금전신탁 수익증권 등 비정형적 증권의 투자상품화 ▲발행 플랫폼 내 투자상품 공급을 위한 인프라 구축 ▲신탁 계약 관련 프로세스 수립 등 토큰증권 상품 공급을 위해 전방위적으로 협업하기로 했다.현물 조각투자 플랫폼 '피스(PIECE)'를 운영 중인 바이셀스탠다드는 미술품, 명품에 이어 선박까지 조각투자 대상과 범위를 확대해 나가고 있다. 토큰증권 발행을 위한 자체 블록체인 메인넷을 개발하는 등 블록체인 관련 다수의 프로젝트를 성공적으로 수행했다.지난 3월 한국투자증권이 카카오뱅크, 토스뱅크 등과 손잡고 설립한 협의체 '한국투자 ST 프렌즈'는 그간 펀더풀, 밸류맵 등 다양한 카테고리의 콘텐츠 기업들과 업무협약을 체결하면서 토큰증권 상품화에 공들여 왔다. 이번 바이셀스탠다드의 합류로 발행 플랫폼을 통한 혁신 금융상품 공급에 한층 더 속도가 붙을 것으로 회사 측은 예상했다.최서룡 한국투자증권 플랫폼본부장은 "현물 자산을 디지털화하는데 탁월한 경쟁력을 가진 파트너사가 합류하게 되어 기대감이 크다"면서 "앞으로 토큰증권을 통해 일상 속에서 마주하는 다양한 콘텐츠를 증권화할 수 있도록 사업 준비에 박차를 가할 것"이라고 말했다.신범준 바이셀스탠다드 대표는 "앞으로 한국투자 ST 프렌즈와 함께 조각투자를 넘어 가치 있는 현물 자산의 디지털 변환을 선도하는 플랫폼으로 성장해 나갈 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>한국투자증권, 바이셀스탠다드와 토큰증권 상품 공급 위해 MOU</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005531911?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[이데일리 김인경 기자] 한국금융지주(071050)의 자회사 한국투자증궈은 지난 13일 ‘바이셀스탠다드’와 토큰증권 서비스 공동개발을 위한 업무협약을 체결했다고 17일 밝혔다.이번 협약을 통해 양사는 △투자계약증권, 비금전신탁 수익증권 등 비정형적 증권의 투자상품화 △발행 플랫폼 내 투자상품 공급을 위한 인프라 구축 △신탁 계약 관련 프로세스 수립 등 토큰증권 상품 공급을 위해 전방위적으로 협업하기로 했다.현물 조각투자 플랫폼 ‘피스(PIECE)’를 운영 중인 바이셀스탠다드는 미술품, 명품에 이어 선박까지 조각투자 대상과 범위를 확대해 나가고 있다. 토큰증권 발행을 위한 자체 블록체인 메인넷을 개발하는 등 블록체인 관련 다수의 프로젝트를 성공적으로 수행했다.지난 3월 한국투자증권이 카카오뱅크, 토스뱅크 등과 손잡고 설립한 협의체 ‘한국투자 ST 프렌즈’는 그간 펀더풀, 밸류맵 등 다양한 카테고리의 콘텐츠 기업들과 업무협약을 체결하면서 토큰증권 상품화에 공 들여 왔다. 이번 바이셀스탠다드의 합류로 발행 플랫폼을 통한 혁신 금융상품 공급에 한층 더 속도가 붙을 것으로 예상된다.최서룡 한국투자증권 플랫폼본부장은 “현물 자산을 디지털화하는데 탁월한 경쟁력을 가진 파트너사가 합류하게 되어 기대감이 크다”면서 “앞으로 토큰증권을 통해 일상 속에서 마주하는 다양한 콘텐츠를 증권화할 수 있도록 사업 준비에 박차를 가할 것”이라고 말했다.신범준 바이셀스탠다드 대표는 “토큰증권에 기반한 혁신적인 금융상품을 만드는 과정에 한국투자증권과 함께하게 되어 매우 기쁘다”며 “앞으로 한국투자 ST 프렌즈와 함께 조각투자를 넘어 가치 있는 현물 자산의 디지털 변환을 선도하는 플랫폼으로 성장해 나갈 것”이라고 말했다. 최서룡 한국투자증권 플랫폼본부장(사진 오른쪽)과 바이셀스탠다드 신범준 대표가 13일 업무협약 체결 후 기념사진을 촬영 중이다.[한국투자증권 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.07.25.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>토스뱅크, 한화투자증권 증권계좌 개설·투자상품 소개 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002311538?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>토스뱅크에서 모바일로 편리하게 한화투자증권 증권계좌 개설 가능한국투자금융지주, 롯데캐피탈, SK에코플랜트 등 우량 회사채도 소개 최초 신규 고객에게 국내 주식 평생 혜택 및 최대 20 만원까지 다양한 혜택 제공 토스뱅크 “다양한 투자니즈 해결…고객 자산증식 위한 투자상품 소개할 것” ◆…토스뱅크 '목돈 굴리기' 서비스에서 한화투자증권의 증권계좌 개설과 한화투자증권에서 판매 중인 채권 상품도 만날 수 있게 됐다. 이미지=토스뱅크 제공토스뱅크는 '목돈 굴리기' 서비스에서 한화투자증권의 증권계좌 개설과 한화투자증권에서 판매 중인 채권 상품도 만날 수 있게 됐다고 25일 밝혔다.   토스뱅크는 한화투자증권과의 제휴를 통해 한화투자증권 증권계좌 개설과 다양한 채권 상품을 '목돈 굴리기'에서 직접 소개한다. 토스뱅크 고객은 일일이 증권사 앱을 찾아다니지 않아도 주식 거래와 투자상품 거래에 필요한 증권계좌를 토스뱅크에서 바로 개설할 수 있다.   또한 토스뱅크 이용자들은 한화투자증권에서 판매 중인 채권 상품도 토스뱅크에서 만날 수 있게 된다. 현재 소개 중인 채권 상품들은 모두 A등급 이상의 우량 채권으로 한국투자금융지주은 연 4.38%, 롯데캐피탈은 5.15%, SK에코플랜트는 5.62%의 수익률을 제공한다(세전). 이 외에도 해태제과, 현대카드 등 금리 경쟁력이 높은 우량 회사채 상품을 계속 선보일 계획이다.   한화투자증권의 토스뱅크 목돈 굴리기 입점을 기념해 8월말까지 다양한 혜택을 제공하는 프로모션도 진행된다. 토스뱅크 목돈 굴리기에서 한화투자증권의 증권계좌를 최초 개설하면 현금 1만원을 지급하고 채권을 구매하면 구매 금액에 따라 최대 20만원의 현금을 제공한다.   토스뱅크에서 한화투자증권 증권계좌를 최초 신규로 개설한 고객에게는 국내 주식 거래수수료 평생 혜택을 제공한다. 자세한 내용은 토스뱅크 목돈 굴리기 서비스 탭이나 한화투자증권 홈페이지에서 확인할 수 있다.   토스뱅크 관계자는 "국내 대표 증권사인 한화투자증권의 증권계좌 개설과 동시에 시중금리 수준 이상의 성과를 추구하는 고객들의 다양한 투자 니즈도 토스뱅크에서 해결할 수 있게 되었다"며 "토스뱅크의 강점인 고객 친화적이고 편의성이 높은 사용자 환경을 통해 더욱 다양한 증권사의 우수한 상품과 서비스를 선보일 수 있도록 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.07.27.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>"저희 동네로 놀러오세요, 여행 경비 드려요"</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000345109?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>해외여행이 정상화되면서 국내 여행이 주춤하는 분위기입니다.  실제로 일본 노선이 제주 노선을 4년 만에 추월한 데 이어, 일본을 찾는 한국 관광객이 일본 외래객 순위에서 수개월째 압도적 1입니다. 상황이 이렇다 보니 여행경비를 제공하면서 방문해달라는 지자체가 늘고 있습니다. 전북 진안군은 관광객 유치를 통한 지역 관광 홍보, 경제 활성화 등을 위해 알뜰관광 지원사업을 펼치고 있습니다. 관광객이 2곳 이상에서 10만 원 이상을 쓰면 5만 원, 3곳 이상에서 20만 원을 넘게 쓰면 10만 원을 지원합니다. 또 4곳 이상에서 30만 원 이상을 지출할 경우에는 15만 원을 줍니다. 울산광역시와 여기어때는 일과 휴가를 병행하는 워케이션 목적으로 울산을 찾는 사람에게 8월 9일까지 최대 5만 원의 숙박 할인권을 제공합니다. 울산광역시 내 8곳 숙박시설에 한하며 8월 20일까지 선착순입니다. 토스나 카카오페이 등으로 결제하면 최대 10% 추가 할인도 제공합니다. 제주도와 제주국제컨벤션센터는 수도권 기업 임직원이 바우처(쿠폰) 사업을 운영하는 도내 민간 워케이션 오피스를 이용할 경우 1인 최대 52만 원의 바우처를 지원합니다. 우선 도내 오피스를 이용할 때 14일간 매일 3만 원씩의 바우처를 지급하고, 퇴근 후 휴식을 즐길 수 있는 여가 프로그램 바우처를 1인 5만 원 범위에서 주 1회, 총 2회까지 지원합니다. 단 워케이션 기간은 3일 이상이어야 합니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.07.22.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>해외여행 ‘신카냐 현금이냐’ 고민한다면...‘이것’ 쓰면 돈 벌어요</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000047801?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[해외여행 결제수수료 정복하기] ①트래블로그·월렛, 달러 등 수수료 무료…일반 카드 대비 약 2% 절약네이버·카카오·토스도 해외결제 지원…실물카드 발급 없이 QR 결제7월 2일 오전 인천국제공항 제1여객터미널 입국장의 모습. [사진 연합뉴스][이코노미스트 윤형준 기자] #. 코로나19로 해외여행에 목말라있던 김모씨는 미국으로 약 한 달간 여행을 갈 계획이다. 하지만 계획을 짜던 중 신경 쓰이는 지점이 생겼다. 환전을 통해 현지 화폐를 챙겨갈지, 그냥 신용카드를 사용할지 여부다. 또 김씨는 여행 커뮤니티를 검색하다 현금을 충전해두면 해외결제 시 수수료가 무료인 카드도 발견했다. 김씨는 “어떤 방법이 재테크적으로 가장 합리적인 방법일지 고민 중”이라고 밝혔다.대부분의 여행객들은 여행 전 환전을 통해 현지 화폐를 넉넉히 챙겨두는 편이다. 하지만 최근에는 신용카드 이용률도 매우 높아진 상황이다. 국제 신용카드 브랜드 비자에 따르면 1년 이내에 해외여행을 떠날 계획이 있다고 답한 전국 만 18세 이상 성인 551명은 ‘해외여행 시 사용 예정인 결제수단’으로 신용카드(77.7%)를 가장 많이 꼽았다. 2위는 현지 화폐(61.6%)다. 지난해 현지 화폐(73%)가 신용카드(62%)보다 높은 응답률을 기록했던 점과 대조적이다. 코로나19 이후 접촉을 최소화한 결제를 선호하는 경향이 커진 것으로 풀이된다. 모바일 페이도 전년 대비 5.7%p 늘어나 순위가 한 단계 상승했다.미국서 1만 달러 쓸 때, 30만원 절약하는 방법이처럼 해외여행 시 카드 사용 수요가 커지면서, 한 푼이라도 수수료를 아끼려는 ‘알뜰 여행족’들은 해외여행 특화 카드를 찾느라 분주하다. 많게는 3% 가까운 수수료를 절약할 수 있어서다.해외여행에서 주로 쓰이는 결제 방식은 ▲현금(현지 화폐) ▲신용·체크카드 ▲선불충전카드(트래블로그·트래블월렛) 등 크게 세 가지다. 위 사례에서 김씨가 미국 여행 경비로 1만 달러를 준비한다고 가정해보자. 세 방식 중 어느 것이 가장 비용을 최소화할 수 있을까. 기준은 지난 7월 11일 하나은행의 고시환율로 삼았다.이날 매매기준율 원달러 환율은 1297원이다. 그런데 현금을 살 때는 대개 1.75%의 환전수수료가 붙기 때문에 1319.7원이 된다. 1만 달러를 현금으로 챙긴다면 1319만7000원을 지불해야 하는 셈이다. 여기에 은행 앱에서 환전을 신청하면 수수료율을 우대해준다. 우대율 80%를 적용하면 1301만5395원이 된다.신용카드로만 여행한다면 어떨까. 카드 해외 이용 수수료는 크게 두 곳에 내는 형태다. 바로 비자, 마스터카드 등 ‘국제 카드 브랜드사’와 신한카드, 삼성카드 등 ‘국내 카드사 및 은행’이다. 환전수수료는 ‘송금 보낼 때’ 기준으로 약 1%가 부과된다.비자(글로벌 점유율 1위) 브랜드의 신한카드(국내 점유율 1위)를 이용한다면 ‘브랜드 수수료 1.1%+해외 이용 수수료 0.18%+환전수수료 1%’, 총 2.28%가 붙는다. 이 수수료들을 적용해 김씨가 미국에서 1만달러를 신용카드로 사용했다고 가정하면 원화 1326만5700원이 카드이용대금으로 청구된다.‘트래블로그’, ‘트래블월렛’ 등 선불충전카드는 복잡한 계산이 필요 없다. 현재 기준 미국 달러는 두 카드 모두 환전수수료와 결제 수수료가 들지 않는다. 수수료가 0%인 셈이다. 따라서 1만 달러를 이용하려면 매매기준율을 따라 1297만원만 충전하면 된다.종합해보면 이들 선불카드는 일반 신용카드 대비 29만5700원을, 현금 환전보다는 4만5395원을 절약할 수 있다.‘트래블로그’는 지난해 7월 하나카드가 만든 해외여행 전용 브랜드로 ▲환율 우대 100% ▲해외 이용 수수료 무료 ▲해외 현금자동입출금기(ATM) 인출 수수료 무료 등 해외 결제에 특화된 혜택들을 제공한다. 현재 서비스 중인 총 18종 통화(기간 한정 이벤트 포함)의 환전수수료는 모두 무료다. 결제 수수료는 모두 기본 면제된다.핀테크 스타트업 트래블월렛이 지난 2021년 출시한 ‘트래블월렛’도 비슷하다. 지원하는 통화는 37개국으로 트래블로그보다 많다. 모든 통화의 결제 수수료는 발생하지 않으며, 미국 달러, 엔, 유로의 경우 환전수수료도 상시 무료다.한국서 쓰던 카카오·네이버페이도 OK새 카드 발급이 귀찮다면 국내서 사용하던 빅테크의 간편결제(페이)를 이용할 수도 있다. 이들 페이도 트래블로그·월렛처럼 수수료가 아예 없거나 낮은 편이라 현금을 충전해두고 사용하면 일반 신용카드 이용 대비 비용을 아낄 수 있다.카카오페이(왼쪽)와 네이버페이 해외결제 안내 이미지. [제공 각 사 앱 캡처]카카오페이는 일본, 중국, 미국 등 15개 국가에서 쓸 수 있다. 국내와 마찬가지로 미리 카카오페이머니를 충전해 QR 코드 결제를 이용하면 된다. ‘카카오페이’나 ‘알리페이플러스’ 로고가 보인다면 사용할 수 있는 가맹점이다. 다만 카카오페이 해외결제는 국가별 결제대행 제휴사에서 적용한 환율에 수수료가 포함되는 식이라 사실상 완전 무료라고 보기는 어렵다. 다만 일반 신용카드 결제 수수료보다는 낮은 비용을 부담하기 때문에 이용을 고려해보는 것이 좋다. 네이버페이도 QR 결제에서 결제방법을 네이버페이에서 ‘라인페이’로 변경하면 일본에서 사용할 수 있다. 가맹점에 붙어있는 ‘네이버페이’나 ‘라인페이’ 로고를 확인하면 된다. 환전수수료가 없는 것이 장점이지만 현재 지원 국가가 일본 뿐이라는 점은 아쉽다. 토스도 최근 해외결제 서비스 ‘GLN’을 선보였다. 미리 충전한 띳머니로 라오스, 괌/사이판, 싱가포르, 태국, 대만 등 가맹점에서 QR·바코드를 이용해 결제하면 된다. 충전과 환급에는 수수료가 들지 않지만, 거래 건별로 미국 달러 환산 금액의 0.3%가 결제 수수료로 산정된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>현대카드, 넥슨 ‘블루 아카이브’ 한정판 2종 공개</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002732447?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>ⓒ현대카드[데일리안 = 이세미 기자] 현대카드가 ‘넥슨 현대카드’의 한정판 플레이트를 선보인다고 20일 밝혔다.이번에 선보이는 한정판 플레이트는 넥슨의 자회사인 넥슨게임즈의 대표 서브컬처 모바일 게임(RPG) ‘블루 아카이브(Blue Archive)’를 모티브로 만들어졌다.플레이트는 총 2종으로, 블루 아카이브의 캐릭터인 아로나의 뒷모습이 담긴 ‘아로나’와 게임의 배경이 되는 학원도시 키보토스의 전경이 프린트 된 ‘키보토스’ 등이다.현대카드는 이번 한정판 플레이트 출시를 기념해 게임 아이템과 굿즈를 증정하는 이벤트를 실시한다.이벤트 응모 후 누적 사용금액 15만원을 달성하면 블루 아카이브 아이템 3종(청휘석‧크레딧 포인트‧최상급 활동 보고서)과 굿즈 3종(카드홀더‧마그넷‧데스크패드)을 모두 받을 수 있다.기간은 이날부터 다음달 31일까지다. 자세한 내용은 넥슨 현대카드 홈페이지 내 이벤트 페이지에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>5대銀 가계 예대금리차 0%대로 좁혀져...잔액 기준 2.42%p</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005049279?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>농협銀 가장 크고 하나銀 가장 작아예금, 대출금리 동반 상승하는데예금금리 더 크게 높아져 예대차 ↓잔액 기준 예대금리차도 첫 공시 사진=뉴스1   [파이낸셜뉴스] 은행권 신규취급액 기준 가계 예대금리차가 지난달 0%대로 떨어지며 4개월 연속 감소세를 이어갔다. 대출금리와 예금금리가 함께 높아지는 가운데 예금금리가 더 크게 상승하면서다. 이번에 처음 공시된 잔액 기준 가계 예대금리차는 2%대 중반으로 신규취급액을 기준으로 했을 때보다 컸다.   28일 은행연합회에 따르면 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 6월 신규취급액 기준 가계 예대금리차 평균은 0.938%p로 집계됐다. 전월(1.072%p)과 비교해 하락하며 공시 시작 이래 처음으로 0%대까지 예금과 대출금리 차이가 좁혀졌다. 은행이 예대마진으로 취할 수 있는 이익이 그만큼 줄었다는 뜻이다.   가계대출 외 기업대출 금리까지 포괄한 5대 시중은행의 예대금리차도 전월(1.502%p)보다 줄어 1.43%p가 됐다. 가계대출 가운데 서민금융 상품 취급분을 제외한 서민금융 제외 가계 예대금리차는 지난 5월 1.028%p에서 6월 0.928%p로 낮아졌다.   이처럼 예대금리차가 축소된 것은 은행채 발행금리 등 조달금리가 높아지며 대출금리와 예금금리가 일제히 높아졌지만 예금금리 상승이 더 두드러지게 나타난 탓이다. 5대 시중은행의 예금금리 평균은 지난 5월 3.538%에서 3.676%로 0.132%p 올랐다. 같은 기간 대출금리는 5.040%에서 5.106%로 0.066%p 높아지는데 그쳤고 특히 기업 대출금리(0.132%p)에 비해 가계 대출금리 상승폭(0.024%p)은 현저히 낮았다.   은행별로는 5대 시중은행 가운데 농협은행 가계 예대금리차가 1.2%p로 가장 높았고 그 뒤로 △신한은행 1.07%p △국민은행 0.88%p △우리은행 0.85%p △하나은행 0.79%p 순이었다.   농협은행은 "정부정책자금은 당행 수신의 높은 비중을 차지하고 있다"며 "정부정책자금은 주로 1~3개월 초단기 정기예금으로 예치되고 있어 저축성 수신금리가 낮고 이는 타행대비 예대금리차가 비교적 높게 나타나는 주된 이유"라고 설명했다. 공시 대상인 전체 19개 은행 중에서는 전북은행(6.24%p)의 가계 예대금리차가 가장 높고 IBK기업은행(0.55%p)이 가장 낮았다.   특히 이달부터 은행권은 신규취급액 기준 예대금리차뿐 아니라 잔액 기준 예대금리차도 공시키로 했다. 전월 말 은행이 보유하고 있는 모든 대출과 예금의 금리를 종합해 각 은행 수익성을 한눈에 비교할 수 있도록 한 것이다. 지난 5월 금융위원회가 발표한 '은행권 경영·영업 관행·제도 개선방안'의 일환으로 이를 통해 은행권 경쟁을 촉진한다는 취지다.   이에 따라 집계된 5대 시중은행의 잔액 기준 가계 예대금리차 평균은 2.42%p로 신규취급액을 기준으로 했을 때보다 소폭 높았다. 금리 상승세가 둔화하며 최근 줄었지만 아직 '이자 장사'로 평균 2% 중반대 이윤을 내고 있는 것으로 해석된다.   5대 시중은행 중에서는 △국민은행 2.58%p △농협은행 2.56%p △신한은행 2.47%p △우리은행 2.28%p △하나은행 2.21%p 등 순서로 컸다. KB국민은행 관계자는 "당행의 신규 및 잔액 기준 대출금리는 시중은행 가운데 높지 않은 수준이고 신규 기준 저축성 예금 금리도 5대 은행 평균을 상회한다"며 "다만 타행 대비 개인 고객 수가 많아 총수신 가운데 결제성예금 (요구불예금 등)의 비중이 높기 때문에 잔액 기준 예대금리차도 상대적으로 크게 나타났다"고 밝혔다.   전체 은행 19곳 가운데서는 전북은행(5.44%p)이 1등이고 토스뱅크가 5.35%p로 그 뒤를 바짝 뒤쫓았다. KDB산업은행 가계 예대금리차가 0.71%p로 가장 낮았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.07.30.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>투자 혹한기에 개발자도 고용 한파…IT대기업·스타트업 채용 규모 줄여</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002153393?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[ⓒpixabay][디지털데일리 서정윤 기자] 코로나19 팬데믹으로 비대면 서비스에 대한 수요가 늘어나며 IT 기업들도 개발자를 적극적으로 채용해왔다. 다만 코로나19 특수가 끝나며 기업들도 개발자 채용 규모를 줄이고 구조조정을 진행하는 등 다시 몸집 줄이기에 나섰다.30일 업계에 따르면 경기 불황에 따른 투자 혹한기에 인건비 부담이 더해지며, IT업계는 개발자 채용에 보다 신중해진 모양새다. 그동안 개발자를 대규모로 채용했던 네이버와 카카오는 물론 국내 스타트업들도 올해 하반기 인력 채용 규모를 줄인다. 글로벌 IT 기업들도 구조조정을 단행하는 등 인력을 줄이고 있다.◆ IT 대기업, 하반기 채용 규모 축소·구조조정국내 대형 플랫폼 기업들은 코로나19 특수 이후 실적이 악화되며, 실적이 저조한 사업을 정리하거나 자회사를 중심으로 인력 감원에 나서고 있다. 채용 규모도 큰 폭으로 축소했다.네이버는 올해 하반기 공개채용을 진행하지 않을 예정이다. 필요한 경우 계열사별로 수시채용을 진행한다. 네이버는 앞서 올 상반기 네이버클라우드 등 계열사들과 함께 신입 공채를 실시한 바 있다. 네이버는 2021년 개발자 900명 채용 계획을 내놨고 그 해 하반기에도 세 자릿수 규모 채용을 진행했다.카카오의 B2B 전문 자회사인 카카오엔터프라이즈는 지난 17일 희망퇴직안을 공개하고 신청자를 받고 있다. 퇴직금과 최대 6개월 치 기본급, 지원금 200만원을 지급하는 조건이다.카카오엔터테인먼트도 지난달 연차 10년 이상 직원들을 대상으로 사실상 희망퇴직을 실시했다. 당시 카카오엔터테인먼트는 최대 15개월 치 기본급, 지원금 500만원을 조건으로 제시했다. 카카오 계열사 간 이동이나 타 기업으로의 전직을 지원하는 프로그램도 진행했다.해외 IT 기업들도 예외는 아니다. 아마존웹서비스(AWS)의 한국지사인 AWS코리아는 지난 5월 권고사직을 단행했다. 업계에서는 AWS가 권고사직을 한 차례 더 단행할 거라는 전망이 나오고 있다. 아마존 계열사들은 지난해 말부터 꾸준히 정리해고를 단행해왔다.◆ 스타트업 투자 급감…몸집 줄이기 나섰다경기불황이 심화되며 자금 조달이 어려워진 스타트업도 몸집 줄이기에 나섰다. 스타트업얼라이언스에 따르면 올해 상반기 스타트업에 대한 투자 금액은 2조3226억원으로 지난해 대비 68.3% 감소했다.IT 스타트업들도 몸집 줄이기에 나선 건 마찬가지다. 토스를 운영하는 비바리퍼블리카는 지난해 전 계열사 24개 직군에서 300여명 규모로 채용을 진행했다. 올해는 경력 3년 이하 개발자 공채 프로그램을 50여명 규모로 축소했다.온라인 클래스 플랫폼인 클래스101은 완전자본잠식 상태로 두 차례 희망퇴직을 받았다. 지난달 말과 비교했을 때 인원이 약 30% 줄었다. 2021년 인력을 180명 뽑아 사세를 확장했던 당근마켓도 올해 60여명으로 채용 규모를 줄였다.IT 업계 한 관계자는 "그동안 공채를 통해 개발자를 많이 뽑은데다 시장 상황이 안좋아지며 올해는 전반적으로 채용 규모가 축소되는 추세"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>'네카토' 등 핀테크 11곳 '보험 비교추천 플랫폼' 혁신금융서비스 선정(종합)</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006939003?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>금융위, 혁신금융서비스 심사 결과 발표금융위원회 깃발 (금융위원회 제공) 2021.4.14/뉴스1(서울=뉴스1) 한유주 기자 = 네이버파이낸셜·카카오페이·토스(비바리퍼블리카)를 비롯한 핀테크 11곳이 보험 비교·추천 플랫폼 시범 사업에 참여할 혁신금융서비스로 선정됐다. 보험사·플랫폼 간 전산개발을 거쳐 내년 초부터는 소비자들이 플랫폼을 통해 보험상품을 비교해보고 최적의 상품에 가입할 길이 열릴 전망이다. 금융위원회는 19일 정례회의를 통해 '네이버파이낸셜·뱅크샐러드·비바리퍼블리카·SK플래닛·엔에이치엔페이코·카카오페이·쿠콘·핀다·핀크·해빗팩토리·헥토데이터'등 핀테크 11곳을 보험상품 비교·추천 서비스를 운영할 혁신금융서비스로 지정했다고 밝혔다.보험 비교·추천 플랫폼은 온라인 플랫폼에서 다양한 데이터를 활용해  소비자에게 적합한 여러 보험회사의 상품을 비교·추천하는 서비스로, 혁신금융서비스를 통해 내년초부터 시범사업이 시작된다. 본래 보험상품 비교·추천을 위해서는 보험대리점 등록이 필요하지만 혁신금융서비스로 지정된 11곳은 규제 특례를 통해 사업을 영위할 수 있게 됐다. 이에 핀테크 11곳은 '보험상품을 비교·추천하고 보험계약 체결이 가능한 보험회사와 연결'하는 범위에서 플랫폼을 운영하게 된다. 플랫폼에는 온라인(CM)채널 상품 중 여행자·화재보험 등의 단기보험, 자동차보험, 실손보험, 연금보험을 제외한 저축성보험, 펫보험, 신용보험이 탑재될 수 있다. 핀테크 업체들이 비교추천 과정에서 가공된 정보를 악용하거나 알고리즘을 사유화할 수 있다는 보험업계의 우려를 반영해, 서비스 출시 전 알고리즘의 공정성과 적정성을 코스콤 등으로부터 검증받도록 했다. 비교·추천과정에서 가공된 정보는 비교·추천 목적 외에 활용·제공될 수 없다.또 핀테크 업체들은 정당한 사유 없이 보험회사의 제휴요청을 거절할 수 없고, 플랫폼 수수료가 소비자에게 전가되는 문제를 막기 위해 수취하는 수수료도 일정한도 내로 제한됐다. 보험회사에 일반적인 거래조건에 비해 불리하거나 부당한 행위도 요구할 수 없다.금융위원회는 또 이날 '뱅크몰, 베스트핀, 비바리퍼블리카'등 3곳을 대출모집인을 통한 주택담보대출 비교 플랫폼 사업을 수행할 혁신금융서비스로 신규 지정했다.이들 3곳은 올하반기부터 플랫폼과 대출모집인을 연계해 기존 대출비교 플랫폼에서 활성화되지 않은 주담대 비교시스템을 구축할 전망이다. 소비자가 상담이전 대출모집인에 대한 정보를 플랫폼에서 확인할 수 있게 되면서 정보접근성이 한층 강화될 전망이다.'안면인식 기술 활용 비대면 실명확인 서비스' 시범사업자로는 기업은행이 선정됐다. 기업은행은 3분기 중 서비스를 출시할 예정이다. 고객들이 비대면 실명확인 시 안면인식기술을 활용해 '실명확인증표의 사진'과 '고객이 촬영한 얼굴 사진'을 대조해 본인 여부를 확인할 수 있게 되면서 비대면 실명확인까지 걸리는 시간이 현저히 줄어들 전망이다.이밖에 금융위원회는 혁신금융서비스로 '페이머니 통장'을 운영하는 네이버파이낸셜과 하나은행 요청에 따라 제휴 계좌수를 50만건에서 150만건으로 늘리기로 했다. 서비스 출시 이후 가입 계좌수가 50만건에 다다를 만큼 소비자 만족도가 높고 예금규모 등에서 안정성 저해 우려가 크지 않다는 판단에서다.2019년부터 은행 계좌가 필요 없는 포인트 기반의 체크카드를 운영하는 하나카드에 대해선 혁신금융서비스 지정기간 만료 후에도 서비스를 지속할 수 있도록 관련 법령 개정까지 특례 내용을 연장하기로 했다.본래 직불카드(체크카드) 결제는 카드회원과 가맹점간 금융거래계좌 이체 등의 방법으로 이루어져야 하지만 하나카드는 금융거래계좌 연결 없이 선불전자지급수단과 연결된 체크카드 발급이 가능한 특례를 부여받아 해당 서비스를 시범운영해왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>“인뱅보다 파킹통장 금리 높게”…조달 방식 바꾸는 SC제일은행[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002171492?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>파킹통장 최대 3.6%정기예금도 4.2%[SC제일은행 전경][헤럴드경제=홍승희 기자] 외국계 은행인 SC제일은행이 수신 전략을 새롭게 탈바꿈하며 가장 높은 예금 금리를 쏟아내 눈길을 끌고 있다. 하루만 맡겨도 이자를 제공하는 입출금통장은 물론, 정기예금 상품까지 1금융권 중 최고 높은 금리를 유지하고 있는 것. 지금까지는 기업의 저축성 수신을 위주로 자금을 조달했지만, 이제는 개인의 수신자금으로 자금을 확보하겠다는 전략 선회다.18일 금융권에 따르면 SC제일은행의 수시입출금통장인 ‘제일EZ통장’은 1분기 말 대비 2분기 말 잔액이 약 30% 증가했다. 특히 신규가입 이벤트를 진행한 지난 4~5월동안 신규가입자 중 MZ(밀레니얼+Z)세대라고 할 수 있는 2030 연령대의 비중이 신규좌수 기준 약 40%나 차지할 만큼 젊은 세대의 관심을 받고 있는 것으로 나타났다.제일EZ통장은 SC제일은행의 온라인 거래 전용 입출금 상품으로 하루만 맡겨도 이자를 제공하는 ‘파킹통장’이다. SC제일은행은 해당 상품의 금리를 2.6%로 책정하고 있다. 이는 젊은 세대의 이용률이 높은 카카오뱅크(2.2%), 케이뱅크(2.3%), 토스뱅크(2%) 등 인터넷전문은행보다도 높은 금리다. 게다가 첫 가입자에게는 6개월간 1.0%포인트의 우대금리를 더해 3.6%의 이자율을 제공하고 있어, 시중은행 사이에서는 ‘파격적인 파킹통장’으로 불린다.[은행연합회 소비자포털 갈무리]SC제일은행이 금리를 올린 건 파킹통장뿐만 아니다. 정기예금 통장 역시 시중은행 중에서는 처음으로 4%를 넘기며 ‘파격 금리’ 행렬을 이어가고 있다. SC제일은행의 ‘e-그린세이브예금’은 우대금리를 포함해 최고 연 4.2% 금리를 적용한다. 높은 수신금리에 이 통장은 지난 1분기 말 대비 2분기 말 잔액이 12% 증가했다.한 금융권 관계자는 “기준금리 동결 등 수신금리 인상의 동력이 모두 떨어져 시중은행의 수신금리가 내려갈 걸 예상했다”며 “SC제일은행은 선제적으로 금리를 높여 시중 자금을 빨아들이고자 한 것”이라고 설명했다.SC제일은행이 이같이 높은 수신금리를 유지하는 이유는 올해부터 수신 전략을 선회했기 때문이다. SC제일은행은 주로 기업(법인)의 정기예금으로 대출 자금을 조달했는데, 시중은행과의 경쟁 심화로 법인의 예치금을 따오는 데 어려움이 생겼다. KB국민·신한·우리·하나은행 등 주요 시중은행이 연일 최고 실적을 경신하며 기업에 더 높은 예금금리를 제공하기 시작하자, SC제일은행으로선 법인 예치금을 지키기 위해 이를 따라가다 오히려 역마진이 나는 일까지 발생했다.실제 금융권에 따르면 기업들의 저축성 수신 잔액은 지난 한 해 줄어든 것으로 조사됐다. 대출 금리가 오르자 기업들은 저축해둔 현금을 가져다 쓰기 시작했고, 은행의 법인 수신 경쟁도 더욱 치열해진 것이다.SC제일은행의 한 관계자는 “대출을 위해 자금을 조달하던 기업 수신이 오히려 역마진 나기 시작했다”며 “올해부터 개인의 수신액을 끌어모으는 것으로 전략을 선회했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>5대 은행 가계 예대금리차 1%p 아래로…'잔액' 국민, '신규' 농협 최대</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012002035?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>5대銀 신규 취급 예대금리차 평균 0.928%p잔액 기준 공시…5대 은행 평균 2.398%p[서울=뉴시스]이주혜 기자 = 지난달 5대 시중은행의 가계 예대금리차가 전월보다 줄어들면서 1%포인트를 밑도는 것으로 나타났다. 5대 은행 중 신규 취급액 기준 정책서민금융(햇살론뱅크, 햇살론15, 안전망 대출 Ⅱ, 최저신용자 특례보증)을 제외한 가계 예대금리차가 가장 큰 곳은 NH농협은행이며 잔액 기준으로는 KB국민은행의 예대차가 컸다.28일 은행연합회 공시에 따르면 KB국민·신한·우리·하나·NH농협은행의 신규 취급액 기준 지난달 평균 가계 예대금리차(정책서민금융 제외)는 0.928%포인트로 집계됐다. 전월(1.028%포인트)보다 0.1%포인트 축소됐다. 가계 예대금리차는 가계 대출금리에서 저축성수신금리를 뺀 것이다.하나·우리·농협은행의 예대금리차는 전월보다 줄어든 반면 국민·신한은 예대차가 커진 것으로 나타났다.5대 시중은행 중에서는 농협은행의 신규 취급 기준 가계 예대금리차가 1.19%포인트로 가장 컸다. 이어 신한은행 0.98%포인트, 국민은행 0.87%포인트, 우리은행 0.84%포인트, 하나은행 0.76%포인트 순이다.농협은행은 예대금리차 특수성 설명에서 "농협은행은 정부정책자금을 주로 취급하며 정부정책자금은 당행 수신의 높은 비중을 차지하고 있다. 정부정책자금은 주로 1~3개월 초단기 정기예금으로 예치되고 있어 저축성 수신금리가 낮다"며 "이는 타행대비 예대금리차가 비교적 높게 나타나는 주된 이유"라고 했다.인터넷전문은행 세 곳의 신규 취급 기준 가계 예대금리차는 토스뱅크 3.23%포인트, 케이뱅크 1.64%포인트, 카카오뱅크 1.15%포인트다.지방은행과 외국계 은행을 포함해 공시 대상 19개 은행 중 가계 예대금리차가 큰 곳은 전북은행(5.32%포인트)이다. IBK기업은행이 0.54%포인트로 가장 작았다.이달부터는 잔액 기준 통계가 추가 공시됐다. 은행권의 잔액 기준 예대금리차는 한국은행에서 매달 공시하고 있으나 이달부터 은행연 홈페이지에서 개별 은행의 예대금리차가 공시된다.잔액 기준 지난달 5대 은행 평균 가계 예대금리차는 2.398%포인트로 나타났다. 잔액 기준에는 신규 취급액 기준 통계에서 제외하고 있는 요구불예금 및 수시입출금식 저축성예금이 수신에 포함된다. 대출에는 당좌대출 및 마이너스통장이 추가된다.5대 은행 중에서는 국민은행이 2.57%포인트로 가장 높았으며 농협은행 2.55%포인트, 신한은행 2.43%포인트, 우리은행 2.24%포인트, 하나은행 2.20%포인트였다. 국민은행은 "대출금리는 시중은행 중 높지 않은 수준이나 국민은행은 개인 고객수가 많은 영향으로 총 예금중에서 결제성예금이 차지하는 비중이 높아 총수신금리가 상대적으로 낮다"며 "이에 잔액 예대금리차도 상대적으로 크게 나타났다"고 설명했다.인터넷은행 중에서는 토스뱅크가 5.35%포인트로 가장 높다. 이어 케이뱅크 3.53%포인트, 카카오뱅크 3.19%포인트다.지방은행과 외국계 은행을 포함해 공시 대상 19개 은행 중 잔액 기준 가계 예대금리차가 큰 곳은 토스뱅크(5.35%포인트)이며 가장 작은 곳은 KDB산업은행(0.71%포인트)으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.07.16.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스와 손잡은 신세계 유니버스 클럽, 간편결제 판 커지나</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011976981?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>선불충전금, 쿠팡↑ vs G마켓·SSG닷컴↓토스 연계 본격화…선불충전금 기준 버금[서울=뉴시스]﻿쿠팡의 선불충전금 규모가 1000억원대를 돌파한 가운데 토스와 협업을 통해 영향력 확장을 노린 신세계 계열 행보가 주목받는다. 사진은 신세계 유니버스 클럽 이미지. (사진=G마켓 제공)[서울=뉴시스] 심동준 기자 = 쿠팡의 선불충전금 규모가 1000억원대를 돌파한 가운데 토스(비바리퍼블리카)와 협업을 통해 영향력 확장을 노리고 있는 신세계 계열 행보가 주목받는다. 16일 업계에 따르면 직전 분기 대비 쿠팡의 선불충전금은 늘어난 반면, G마켓과 SSG닷컴의 선불충전금은 감소한 것으로 나타났다. 지난달 30일 기준  쿠팡의 쿠팡페이 선불충전금 규모는 약 1010억6235만원이었다. 전분기 약 978억3730만원보다 약 3.3% 늘어 1000억원대를 돌파했다.반면 신세계 계열인 G마켓은 선불충전금 잔액이 약 434억1890만원으로, 직전 분기 약 463억980만원보다 약 6.24% 감소했다. SSG닷컴의 선불충전금은 약 405억8968만원으로, 이 또한 전분기 약 433억3573만원보다 약 6.34% 줄어든 것으로 나타났다.선불충전금은 플랫폼에 미리 돈을 예치해 사용하는 개념이다. 멤버십과 연계해 고객 체류 수준을 가늠할 수 있는 척도로도 언급된다.업체 입장에선 미래 매출로도 인식될 수 있다. 이런 결제 방식은 최근 물류와 더불어 온라인 커머스 생태계에서 주요 축으로 작동하고 있는 상황이기도 하다. 즉, 쿠팡의 선불충전금 규모 확장은 업계에서의 이 업체 현 위치를 보여주는 것과 동시에 신세계 계열 플랫폼과의 격차가 반영된 것이라고 보는 시선이 있다.[서울=뉴시스] ﻿쿠팡의 선불충전금 규모가 1000억원대를 돌파한 가운데 토스와 협업을 통해 영향력 확장을 노린 신세계 계열 행보가 주목받는다. 사진은 토스페이 오프라인 결제 관련 이미지. (사진=토스페이 제공) *재판매 및 DB 금지반면 최근엔 신세계는 토스와의 파트너십 등을 통해 금융 분야 보완에 나서면서, 향후 판도 변화에 대한 관심이 상당해졌다.업계에선 토스가 신세계그룹의 간편결제 서비스 SSG페이와 스마일 페이를 인수하고, 신세계가 토스 지분을 인수 명목으로 받아 토스 4대 주주에 오를 것이란 관측이 나오고 있다.토스는 이미 잘 알려진 결제·금융 플랫폼이다. 신세계 유니버스와 접목해 멤버십 유입과 포인트 등 관리 경로로도 활용하는 게 고려되고 있다. 아울러 G마켓 스마일페이와 SSG닷컴 SSG페이 관련 영업을 토스 쪽에 넘기는 방향의 논의가 진행 중인데, 이르면 이달 말 결론 날 것으로 전해진다.신세계 입장에선 쿠팡 대비 다소 열위에 있는 결제 분야를 파트너사에게 맡기는 식으로 역량을 집중할 수 있을 걸로 보인다. 선불충전금을 기준으로 봐도 토스의 선불충전금 규모는 약 950억8155만원으로, 쿠팡 쪽과 비교했을 때 차이는 약 59억8080만원에 그친다.이에 더해 토스페이는 최근 오프라인 결제에 본격 나서기 시작했다. 이 또한 결제 분야에서 신세계·토스 연대가 현실화되고 있는 단면으로 평가되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>한국투자증권, STO 생태계에 바이셀스탠다드 영입</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005043052?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 현물 조각투자 플랫폼 '피스(PIECE)'를 운영 중인 바이셀스탠다드는 최근 한국투자증권과 토큰증권(STO) 서비스 공동개발을 위한 업무협약을 체결했다고 17일 밝혔다.   양사는 투자계약증권, 비금전신탁 수익증권 등 비정형적 증권의 투자상품화에 협업한다. 발행 플랫폼 내 투자상품 공급을 위한 인프라 구축, 신탁 계약 관련 프로세스 수립 등 토큰증권 상품 공급을 위해 전방위적으로 협업하기로 했다.   바이셀스탠다드는 미술품, 명품에 이어 선박까지 조각투자 대상과 범위를 확대해 나가고 있다. 바이셀스탠다드는 토큰증권 발행을 위한 자체 블록체인 메인넷을 개발하는 등 블록체인 관련 다수의 프로젝트를 성공적으로 수행했다.   바이셀스탠다드는 조각투자 산업의 프런티어 서비스 ‘피스(PIECE)’를 통해 토큰증권 사업에 일찍이 뛰어든 선도적 기업이다. 지난 해 조각투자 및 증권형 토큰을 활용한 선박금융으로 혁신금융서비스를 신청했으며 이는 토큰증권을 선박금융에 적용한 최초의 시도로서 선박금융과 해운산업 전반에 기여할 것으로 전망된다.   지난 3월 한국투자증권이 카카오뱅크, 토스뱅크 등과 손잡고 설립한 협의체 '한국투자 ST 프렌즈'는 그간 다양한 카테고리의 콘텐츠 기업들과 업무협약을 체결하면서 토큰증권 상품화에 공들여 왔다. 이번 바이셀스탠다드의 참여로 발행 플랫폼을 통한 혁신 금융상품 공급에 한층 더 속도가 붙을 것으로 예상된다.   최서룡 한국투자증권 플랫폼본부장은 "현물 자산을 디지털화하는데 탁월한 경쟁력을 가진 파트너사가 합류하게 돼 기대감이 크다"면서 "앞으로 토큰증권을 통해 일상 속에서 마주하는 다양한 콘텐츠를 증권화할 수 있도록 사업 준비에 박차를 가할 것"이라고 말했다.   신범준 바이셀스탠다드 대표는 “토큰증권에 기반한 혁신적인 금융상품을 만드는 과정에 한국투자증권과 함께하게 되어 매우 기쁘다”며 “앞으로 피스는 조각투자를 넘어 가치 있는 현물 자산의 디지털 변환과 함께 공모와 사모의 경계를 허무는 디지털자산운용플랫폼으로의 성장을 꾀할 것”이라 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>서브컬처 본고장 日에서 또 1위…넥슨 '블루 아카이브', 돌풍 비결은?</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004218744?sid=105</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>출시 2.5주년 업데이트 후 애플 스토어 1위김용하 PD 등 서브컬처 이해도 높아다음달 3일 中 출시···사전예약 370만명[서울경제] 넥슨게임즈(225570)가 개발한 서브컬처 게임 ‘블루 아카이브’가 다시 일본에서 돌풍을 일으키고 있다. 넥슨게임즈는 25일 기준 일본 애플 앱스토어 실시간 매출 순위 1위를 기록했다고 26일 밝혔다. 일본에서 2.5주년 업데이트가 적용된 직후다.블루 아카이브는 플레이어가 다양한 학원 소속의 학생들을 이끌며 도시에서 발생한 사건을 해결해 나가는 캐릭터 역할수행게임이다. 이 게임은 2021년 2월 일본 지역에, 2021년 11월 한국, 북미, 태국 등 237개국에 출시된 바 있다. 일본 구글 플레이스토어와 애플 앱스토어에서 최고매출 순위 1위를 기록하기도 했다. 또 한국 애플 앱스토어 최고매출 순위 1위도 달성했다. 지난해 ‘대한민국 게임대상’, ‘구글플레이 2022 올해를 빛낸 수상작 어워즈’에서 각각 ‘인기게임상’, ‘올해를 빛낸 인기 게임’을 받았다.일본에서 블루 아카이브의 인기는 여전하다. 지난 23일 서비스 2.5주년 기념 생방송의 최고 동시 시청자수는 14만 명을 돌파했다. 이는 올해 1월 22일 2주년 생방송 시청자보다 두 배 이상 많은 것이다.‘블루 아카이브’는 TV 애니메이션으로도 제작되며 인기를 과시하고 있다. 이 게임의 일본 서비스를 담당하고 있는 ‘요스타’의 자회사 ‘요스타 픽처스’가 제작한다. 감독은 ‘야마기시 다이고’가 맡으며 총작화 감독은 ‘하기와라 히로미츠’다.‘블루 아카이브’ 관련 팬들의 ‘2차 창작’도 활성화되고 있다. 넥슨게임즈에 따르면 세계 최대 2차 창작 플랫폼을 꼽히는 ‘픽시브’에 투고된 ‘블루 아카이브’의 작품 수는 23만 건을 뛰어 넘는다. 이는 한국 게임사가 개발한 지식재산권(IP) 중 압도적인 1위다. 2차 창작 작가 및 팬들의 축제인 코믹마켓(코미케)에 올해 블루 아카이브 관련 서클의 수는 약 1000개 이상으로 코믹 마켓 전체 IP 중 최상위권을 기록하고 있다.‘블루 아카이브’의 성공 비결은 공감을 일으키는 탄탄한 스토리와 매력적인 캐릭터 덕분이라는 분석이 제기된다. 이 게임에서는 학원도시 ‘키보토스’에 부임한 선생님 역할의 플레이어가 학생들을 인솔해 미션을 수행하는 밝고 유쾌한 스토리가 특징으로 꼽힌다. 넥슨 게임즈는 “다채로운 개성을 갖춘 매력적인 캐릭터들가 스토리에 설득력을 더한다"며 "이를 통해 게임 이용자들의 흥미를 더욱 높인다”고 설명했다.김용하 블루 아카이브 총괄 PD. 블루 아카이브 유튜브 캡처서브컬처에 대한 높은 이해와 경험을 갖춘 '블루 아카이브' 개발진이 게임의 몰입도를 끌어올렸다는 평을 받는다. 아울러 김용하 총괄PD를 비롯한 블루 아카이브 관계자들의 적극적인 소통 노력으로도 빛을 발했다는 분석이 나온다. 김용하 총괄PD, 박병림 PD, 임종규 디렉터 등 개발 리더들은 ‘블루 아카이브 1.5주년 페스티벌’, ‘AGF 2022’, ‘서울 코믹월드’ 등 주요 행사장에서 이용자들과 교류하고 있다. 또 일본, 한국, 대만 등 각 서비스 권역별 주요 방송에 출연해 새로운 정보를 소개하고, 개발과 관련한 다양한 스토리를 생동감 있게 전달하고 있다. '블루 아카이브'는 다음달 3일 중국에서 정식 출시된다. 중국 사전 예약자 수는 약 370만 명에 달하며 흥행에 대한 기대감이 커지고 있다. 블루 아카이브 중국지역 서비스는 상하이 로밍스타가 맡는다. 상하이 로밍스타는 ‘벽람항로’, ‘명일방주’ 등 일본, 북미지역 퍼블리셔인 요스타 자회사다. 베타 테스트 기간 중 탭탭, 빌리빌리 등 앱마켓 플랫폼에서도 인기순위 1위에 오르기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.07.30.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>“카카오·토스 대신 우리로” 알파세대·반려동물 플랫폼 준비하는 우리은행</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002176588?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=서정은 기자] 우리은행이 미래 잠재 고객인 10대를 잡기 위해 팔을 걷었다. 10대들의 주 관심사인 게임을 금융교육에 결합하거나, 반려동물 전용 서비스 등을 통해 미래 고객을 확보하겠다는 구상이다. 카카오, 토스 등 빅테크가 참신함과 편리함을 무기로 알파세대 점유율을 키운 가운데 우리은행의 추격이 통할지 관심이 고조된다.28일 금융권에 따르면 우리은행은 최근 청소년들을 대상으로 메타버스 창작 콘테스트를 진행 중이다. 메타버스 플랫폼인 로블록스에서 미래도시를 기획, 설계하는 이번 콘테스트에서는 코딩을 비롯해 환경사회지배구조(ESG) 디지털윤리 등에 대한 교육도 함께 병행한다.우리은행이 10대들이 참여하는 메타버스 관련 프로그램을 내놓은건 이번이 처음이다. 10대 고객들과 접점이 많지 않은만큼 시기를 고민하다 여름방학 때를 공략해 이를 내놓은 것이다. 실제 지난달 말부터 참가자 접수는 시작했지만, 여름방학이 시작된 이달 중순 들어서야 신청자가 늘어나는 중이다.우리은행은 2010년 이후 태어난 알파세대를 위한 전용 플랫폼도 내놓을 계획이다. 최근 우리은행은 BC카드와 손잡고 만 14~18세 청소년 전용 선불서비스인 ‘우리 틴틴’을 내놨다. 초기인만큼 상승 속도는 가파르지 않지만, 점차 가입자에 탄력이 붙고있다는 설명이다.우리은행은 올해 비금융 혁신 사업의 두 축으로 알파세대와 반려동물을 삼았다. 인터넷전문은행이나 빅테크 등이 각종 서비스를 내놓으며 입지를 키우고 있지만 두 시장 모두 시중은행 간에는 뚜렷한 리딩뱅크가 없고, 성장성이 이제 막 부각되고 있다는 설명이다. 이에 따라 해당 분야 콘텐츠를 모아 별도의 특화 플랫폼을 내놓기로 중기 계획을 잡은 상태다.지난해 우리은행은 반려동물 모델을 뽑는 콘테스트를 처음 기획했는데, 경쟁률만 약 400대 1을 기록하기도 했다. 우리카드에서도 일찌감치 반려동물 전용인 댕댕냥이 카드를 내놓은만큼 여러 금융, 비금융서비스를 결합해 플랫폼으로 구축할 수 있다고 봤다. 알파세대 관심사를 조사한 결과 반려동물도 높은 순위를 차지한만큼 충분히 승산이 있다는 판단이다.우리은행 관계자는 “카카오, 토스 등이 10대 전용 카드나 서비스를 내놓고 있는 상황에서 기존 은행들이 해오던 콘텐츠 방식만으로는 경쟁력에 한계가 있다고 본다”며 “올해 알파세대, 반려동물을 비금융 혁신 미션으로 삼은 만큼 각종 체험형, 참여형 프로그램을 통해 고객들과 접점을 만들 생각”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>"계약형태 디지털 혁신 주도…'계약 표준' 만들겠다"</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002300344?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[7회 디지털미래 혁신대전-한국소프트웨어산업협회장상] 모두싸인“앞으로 수천 년간 바뀌지 않았던 실물 기반 계약 형태를 디지털 방식으로 혁신할 수 있도록 끊임없이 노력하겠다. 우리만의 핵심 가치를 기준으로 생각하며 판단하고 행동한다. ‘계약의 표준’을 만들어 나가겠다.”이영준 모두싸인 대표는 과학기술정보통신부와 지디넷코리아가 주최하고 한국소프트웨어산업협회(회장 조준희)가 주관한 ‘제7회 대한민국 디지털 미래혁신 대상’에서 한국소프트웨어산업협회장상을 수상하며 이렇게 밝혔다.모두싸인은 서비스형소프트웨어(SaaS) 기반 전자계약 서비스를 제공하는 회사다. 모두싸인을 통해 이용자들은 별도 프로그램 구축이나 설치 없이 언제 어디서든 비대면으로 이메일과 카카오톡, 링크 등을 통해 계약을 체결할 수 있다.(사진=모두싸인)계약 준비와 체결, 관리까지 한 번에 가능하며 ▲대량전송·링크서명 ▲맞춤 브랜딩 ▲워크스페이스 ▲싱글사인온(SSO) ▲API 연동 ▲세일즈포스 패키지 등 기업 고객을 위한 엔터프라이즈 기능을 제공한다. 모두싸인은 기업 디지털 전환을 이끄는 필수 업무 솔루션으로 주목받고 있다.특히 국내 전자계약 업계 최다 23만 기업 회원을 확보하고 있으며, 현재 삼성, 롯데글로벌로지스, 카카오, 토스, SK D&amp;D, 한국맥도날드, 대웅제약, 딜로이트, 그리고 토스, 당근마켓 등 유수 기업들이 모두싸인을 이용하고 있다. 누적 이용자와 기업 회원은 각각 570만명, 23만곳. 약 2천800만건 이상 서명과 문서에 모두싸인이 쓰였다.2016년 프라이머, 케이브릿지인베스트먼트의 투자 유치 이후 이듬해 은행권청년창업재단, 2019년 한국투자파트너스와 ES인베스터로부터 25억 규모 자금을 조달했다. 재작년에는 소프트뱅크벤처스, 브리즈인베스트먼트, KB인베스트먼트, 한국투자파트너스로부터 115억 투자 유치에 성공했다.회사 핵심 기술로는 브라우저 기반 도장·서명 이미지 생성·처리 기술, 브라우저 기반 논액티브-X PC·모바일 문서 처리와 편집 기술, 그리고 문서·사용자 추적 기술과 사용자 문서 편집, 처리 기술, 검증된 보안 시스템 등이 있다.글로벌 기업 대비 높은 고객지원 서비스와 만족도를 자랑한다. 글로벌 고객 만족도 평가 기준인 고객추천지수(NPS)는 제품에 대한 추천의사를 수치화해 시장 내 서비스 입지를 파악하는 주요 지표로, 일반적으로 40점 이상일 때 고객 충성도와 성장 가능성이 높은 것으로 평가된다.(사진=모두싸인)지난해 모두싸인에서 자체 진행한 고객 설문에서 모두싸인은 NPS 73점으로 40점을 훌쩍 넘는 고객 만족도를 받았다. 애플 72점, 글로벌 전자서명 서비스 도큐사인(Docusign) 66점과 비교해도 높은 수치다.포춘 비즈니스 인사이트에 따르면 글로벌 전자계약 시장은 작년 기준 5조원 규모로, 2029년 약 46조 원에 달할 것으로 추정되고 있다. 현재 시장 선두 주자는 도큐사인이다. 마이크로소프트, 넷플릭스, 세일즈포스 등 140만 개 이상 기업을 고객으로 보유하고 있고 시장 점유율 70%를 웃돈다.2000년대 초부터 시작된 미국 전자계약 시장과는 달리, 내수 시장은 2020년 전후 개화되는 시점이기 때문에 상대적인 규모는 작지만 매년 100~200% 이상 고성장을 보일 것으로 기대되고 있다. 국내 시장 파이는 2029년까지 매년 연간 50~100% 커질 것으로 점쳐진다.네이버 데이터랩 검색어 트렌드 기준 전자계약보다 11.2배 많은 검색량이 증명하듯, 모두싸인은 전자계약보다도 높은 인지도와 트래픽 점유율을 확보하고 있다. 6년간 전자계약, 여타 서비스와 비교해 가장 높은 트래픽 점유율을 기록하고 있으며 올해에도 변함없이 국내 주요 전자계약 서비스 중 최대 검색량을 기록하며 대한민국 1등 전자계약 서비스로 인정받고 있다.프로그램 구축이나 설치가 필요 없는 SaaS형 전자계약 형태라, 도입 즉시 실무에 활용할 수 있다. 언제 어디서든 로그인 한 번으로 계약 업무 처리가 가능하다. 사인·도장 기능은 국내 계약 문화에 특화됐고, 쉬운 사용성과 높은 편의성을 바탕으로 누구나 모두싸인을 이용할 수 있다.또 세계적 수준의 보안 인증인 ISO 27001 인증을 획득하며 높은 수준의 보안을 인정받았다. 이영준 모두싸인 대표는 “기업간거래(B2B) 서비스의 경우 도입 검토 단계와 의사 결정에 있어, 매우 다양한 타깃이 존재한다”며 “특정 부서와 산업군에 따라 계약 업무 특성이 각각 달라 우리에게 앞으로 정말 많은 기회와 도전이 남아있다고 생각한다”고 말했다.이영준 모두싸인 대표.이영준 대표는 “서명이 필요한 모든 곳에는 모두싸인이 쓰일 수 있기에 끊임없이 잠재 고객을 찾아가고, 만나고, 제품을 알릴 계획”이라며 “매년 진행되는 정부 지원 사업을 통해 중소기업 비대면 업무 환경 구축과 디지털 전환에 기여하는 것도 지속해서 시도할 예정”이라고 했다.모두싸인만의 특별한 마케팅 활동으론 변호사·노무사·세무사·변리사 등 다양한 법률 전문가와 함께 계약과 관련한 법률 정보를 제공하는 웨비나와 법률 서식을 제공하는 ‘모두성공프로젝트’가 있다. 이 대표는 “지금까지 축적해 온 고객 케이스와 누적한 노하우를 토대로 공격적인 마케팅, 영업 활동들을 이어갈 것”이라고 강조했다.모두싸인 다음 목표는 계약을 자동화하는 것. 계약 체결 전 단계인 계약서 작성과 검토, 계약 체결 후 단계인 계약 관리와 보관, 결제 등 계약 관련 모든 문제를 해결하며 계약 전 과정을 책임지는 서비스로 확장한다는 방침이다.이 대표는 “새로운 계약 문화를 만드는 힘은 사람과 문화에 있다”며 “우리가 국내 1위 전자계약 서비스로 자리매김할 수 있었던 건 ‘모두싸인만의, 모두싸인다운’ 문화 속에서 지속 성장을 추구하는 사람들이 모였기 때문”이라고 말했다. 이어 “소통과 공유의 가치를 가장 중요하게 생각하고, 구성원 성장이 모두싸인 성장이라 여기며 함께 앞으로 나아갈 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>네이버페이-하나 통장, 100만좌 더 푼다</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004216222?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>금융위, 개설한도 3배 확대 의결토스 등 핀테크 보험비교·추천혁신금융서비스로 신규 지정/연합뉴스[서울경제] ‘한국판 애플통장’으로 불리는 ‘네이버페이 머니 하나통장’의 계좌 수 한도가 100만 좌 더 늘어난다.19일 금융위원회는 정례회의를 열고 네이버페이 머니 하나통장 계좌 개설 가능 건수를 기존 50만 건에서 150만 건으로 3배 확대하는 안건을 의결했다. ★본지 4월 11일자 10면 참조지난해 9월 혁신금융 서비스 지정 후 그해 11월 출시된 해당 상품은 선불 충전금 ‘네이버페이 머니’를 하나은행 수시입출식 계좌에 보관함으로써 예금자 보호 및 최대 연 4%의 이자 혜택을 누릴 수 있게 했다. 또 계좌에 보관된 충전금으로 결제를 하면 포인트 적립률도 최대 3%까지 적용돼 출시 5개월 만에 50만 좌 한도가 소진되는 등 큰 호응을 얻었다. 이에 따라 네이버파이낸셜과 하나은행은 계좌 수 확대를 신청한 바 있다.금융위 측은 “해당 서비스의 소비자 만족도가 높고 예금 규모 등에서 안정성 저해 우려가 크지 않은 것으로 판단돼 제휴 계좌 수 제한을 150만 건으로 확대할 수 있도록 혁신금융 서비스 지정 내용을 변경했다”고 밝혔다.한편 금융위는 이날 토스·카카오페이·네이버파이낸셜·핀다·해빗팩토리 등 11개 핀테크 회사의 보험상품 비교·추천 서비스도 혁신금융 서비스로 신규 지정했다. 다만 취급 상품 범위는 온라인 상품 중 여행자·화재보험 등 단기보험, 자동차보험, 실손보험, 연금을 제외한 저축성 보험, 펫보험, 신용보험으로 제한됐다. 혁신금융 서비스 지정을 마친 각 회사는 내년 초 서비스를 출시할 계획이다.토스와 베스트핀·뱅크몰 등은 온·오프라인 연계 주택담보대출 중개 서비스를 선보일 수 있게 됐다. 주택담보대출을 받으려는 이용자가 플랫폼에 정보를 입력하면 대출모집인이 제시한 주택담보대출 조건이 배열되고 소비자가 이를 비교·선택한 후 대출모집인과의 오프라인 상담을 통해 대출 신청을 할 수 있게 하는 식이다.금융위 측은 “플랫폼과 대출모집인의 연계를 통해 기존 대출 비교 플랫폼에서 활성화되지 않고 있는 주택담보대출 비교 시스템을 구축해 소비자 선택권 확대에 기여할 것”이라고 말했다. 해당 상품은 2023년 하반기 출시를 앞두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>엔비티, 카카오톡 단독 고객사 확보와 글로벌 서비스 주목-하나</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000759877?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>하나증권은 국내 1위 애디슨 오퍼월 사업자 엔비티가 최근 카카오톡을 단독 고객사로 확보, 매우 가파른 성장을 전망한다고 19일 밝혔다.하나증권은 국내 1위 애디슨 오퍼월 사업자 엔비티가 최근 카카오톡을 단독 고객사로 확보, 매우 가파른 성장을 전망한다고 19일 진단했다. [사진=엔비티]또한 올해 글로벌 시장 진출이 본격화되는 만큼 밸류에이션 리레이팅이 필요하다고 진단했다.엔비티는 2012년 설립된 퍼포먼스 마케팅 광고 플랫폼 기업이다. 주력 제품은 ‘애디슨 오퍼월’이다. 2018년 출시된 애디슨 오퍼월은 유저가 특정 미션을 완료했을 때 실시간으로 보상이 주어지는 방식의 B2B 서비스다. 국내 시장점유율(M/S)은 약 46%로 1위를 차지하고 있다.애디슨 오퍼월 출시 직후 네이버웹툰을 고객사로 확보했으며 엔비티는 네이버페이, 토스, 카카오T, 카카오스타일 등 국내 굵직한 IT 플랫폼 기업들을 고객사로 대거 확보했다. 현재 총 고객사는 65개를 상회하며, 대부분이 단독으로 서비스를 제공 중이다.애디슨 오퍼월의 매출액은 고객사 증가에 힘입어 2018년 11억원에서 2022년 869억원으로 급성장했으며, 2022년 기준 전체 매출 비중의 80.3%로 대부분을 차지한다.오퍼월은 기본적으로 플랫폼, 광고주, 이용자 모두에게 혜택을 제공하는 서비스다. 하나증권에 따르면 플랫폼 기업들이 애디슨 오퍼월을 적용하면 수익의 일부를 제공(약 70%) 받는다. 불황기를 맞은 광고주들은 단기간에 성과 달성이 가능하고, 3) 유저들은 무료로 프리미엄 콘텐츠를 경험 및 혜택을 받을 수 있다.적자 플랫폼 기업들이 난무하는 상황에서 애디슨 오퍼월 서비스를 도입하지 않을 이유가 없다는 의미다. 초대형 플랫폼 기업들을 고객사로 지속 확보하고 있는 이유다최재호 하나증권 연구원은 “엔비티는 지난 6월 국내 초대형 고객사 카카오톡에 애디슨 오퍼월 서비스를 시작했다”며 “카카오톡 서비스만으로도 연간 매출액 1천억원 이상 충분히 기여할 수 있을 것이며, 당장 하반기부터 실적으로 반영된다”고 말했다.이어 “카카오톡 MAU는 4.4천만명인 만큼, 매우 고성장이 기대된다”며 “엔비티를 주목해야 한다”고 강조했다.또한 하나증권은 애디슨 오퍼월 매출액 1위 고객사와 함께 글로벌 시장 진출이 본격화된 것으로 추정했다.최 연구원은 “작년 기준 글로벌 MAU가 국내 대비 9배인 1억 8천만명을 보유한 해당 고객사는 북미 시장 서비스를 시작한 것으로 추정된다”며 “동남아, 유럽 등으로 점진적인 서비스 확대에 나설 것”이라고 내다봤다.그러면서 “북미를 넘어 글로벌 서비스를 시작하면 MAU 기준 약 3천억원 이상 매출액 기여가 가능할 것”이라며 “국내 사례를 비춰볼 때 해외 유관 기업들까지 고객사로 확보할 가능성이 높다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>“티끌 모아 생활비에 보태요”... MZ세대 온라인 부업에 뛰어들다</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003119559?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>MZ 세대들은 온라인 부업을 통해 모은 '티끌'을 생활비에 보태고 있다. 고등학생 김씨는 온라인 상에서 '디지털 폐지'를 주워 편의점 등에서 간식을 사먹는다고 말했다.고등학생 김씨(18)는 재테크를 하는 게 있느냐는 질문에 “저는 요즘 폐지 줍고 다녀요”라고 말했다. 앱을 통해 1원~100원씩 모으는 앱테크를 '디지털 폐지줍기'라고 부르는 데서 나온 답변이다.실제 포털 사이트에 '디지털 폐지줍기'나 '앱테크' 등을 검색하면 다양한 정보가 공유되고 있다. 만보기 채우기, 광고 시청하기, 퀴즈 풀기, 출석체크, 설문조사 등 다양한 재테크 방법이 알려지고 있다. 이번달 수익을 공개하며 자신만의 노하우를 전달하는 블로거도 있었다. 스마트폰으로 부업하는 방법을 공유하는 유튜브 영상은 조회수 100만까지 기록하며 앱테크 열풍을 증명했다.한국딜로이트그룹이 5월 발표한 '딜로이트 2023 글로벌 MZ세대(1980~2000년대 초반 출생자) 조사'에 따르면 MZ 세대 절반가량이 '생활비'를 최대 우려 사안으로 꼽았다. 2년여 전까지만 해도 유행했던 '플렉스(FLEX)'는 자취를 감춘지 오래다. 전문가들은 소득이 낮거나 없는 젊은 세대들에게 고물가 영향이 더 컸을 것이라고 분석했다. 한 푼이 소중해진 MZ 세대들이 온라인 부업에 발 벗고 나설 수밖에 없는 이유다.신한 쏠(SOL)은 젊은 세대를 위한 앱테크 메뉴를 따로 마련하기도 했다. 일명 'Hey Young 놀이터'에KOSPI 종가를 맞추면 최대 10만 포인트를 주는 퀴즈, 야구 관련 퀴즈를 풀거나 승리 팀을 투표해서 맞추면 포인트를 주는 '쏠 야구' 등이 서비스되고 있다. 이외 토스뱅크 만보기, KBpay 오늘의 퀴즈, 모니모 걷기미션, 네이버페이 광고 시청 등 다양한 금융업계에서 '앱테크' 기반을 제공하고 있다.네이버 블로그 포스팅에 광고를 추가해 보상을 받는 '애드포스트' 이용자가 수익을 네이버포인트로 전환했다. 포스팅 조회수나 광고 클릭 수에 따라 모이는 돈은 어느새 4700원이 됐다.블로그를 활용한 온라인 부업도 성황이다. 취업준비생 김씨(24)는 블로그를 운영한지 반년 정도 됐다. 일 평균 방문자 수 100명대를 꾸준히 기록하는 중이다. 그는 게시글에 광고를 추가해 보상을 받는 '애드포스트'도 신청했다. 지금까지 모은 수익은 총 3만 원가량. 김씨는 “포스팅 수익 뿐 아니라 체험단을 신청하면 식사도 해결할 수 있다”며 “부업 수입이 나름 쏠쏠해 앞으로 블로그를 더 키워나갈 예정”이라고 말했다.블로그가 일상 공유에서 나아가 제태크 수단으로 부상하며, 블로그 수익 내는 방법과 체험단 신청법 등이 활발히 공유되고 있다. 블로그 체험단은 식당, 운동센터 등 업체에 방문하거나 상품을 배송받아 체험기를 작성하는 활동을 한다. 보통 상품이 무상 제공되고 일부 원고료를 제공하는 경우도 있다.하지만 당첨되기는 쉽지 않다. 체험단에 당첨되기 위해 일 방문자 수가 어느정도 확보돼야 하고 포스팅도 꾸준히 이어가야 한다. 기자가 직접 경험해본 결과, 두 달간 1일 1 포스팅을 지속해야 겨우 일 방문자 수를 100명을 넘길 수 있었다. 그제서야 체험단에 당첨되기 시작했다. 그래도 인기가 많은 치킨 시식 등 체험단은 매번 탈락했다. 한번은 운 좋게 마라탕 체험단에 당첨돼 식비를 아낄 수 있었다.바야흐로 티끌이 소중해진 시대다. 전문가는 이와 같은 소비 흐름이 올해도 지속될 것이라고 분석했다. 하나금융경영연구소 '2023년 금융소비 트렌드와 금융 기회' 보고서에 따르면 금융소비자 20~64세 1000명을 설문조사한 결과 71%가 소액 재테크 서비스를 재무관리를 위해 활용할 의향이 있다고 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>인터넷銀 중저신용자 대출, 카뱅만 홀로 늘었다</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005043667?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>인뱅 3사의 올해 1∼4월 중·저신용대출 2.7조지난해 같은 기간 대비 4000억원 넘게 떨어져케이뱅크 44.4% 토스뱅크 37.7% 감소카카오뱅크만 유일하게 25.5% 늘어나 (출처=연합뉴스)[파이낸셜뉴스] 카카오뱅크를 제외한 인터넷은행들이 전년에 비해 중·저신용자(신용평점 하위 50%) 대상 대출 규모를 줄이고 있는 것으로 나타났다. 고금리 여파로 중·저신용자들의 상환 능력이 떨어지면서 최근 연체율이 상승하자 건전성 관리에 나선 것이다.     ■케뱅·토뱅 1∼4월 중·저신용자 신용대출 공급액 급감  18일 금융권에 따르면 인터넷전문은행 3사가 올해 1~4월 취급한 중·저신용자 신용대출 공급액은 전년 동기(2조5085억원)보다 17.48% 감소한 2조700억원으로 집계됐다.   은행별로 살펴보면 케이뱅크는 올 1~4월 중·저신용자 대출로 3500억원을 공급했다. 지난해 같은 기간(6300억원) 대비 44.4% 줄어든 수치다. 케이뱅크는 지난해 10월부터 올해 5월까지 7개월간 저신용자(신용점수 650점 이하) 대출을 중단한 상태다.   지난해 1~4월 1조100억원 규모의 중·저신용자 대출을 내줘 인터넷은행 3사 중 가장 공급액이 많았던 토스뱅크도 올해에는 대출 규모를 줄였다. 토스뱅크의 올 1~4월 중·저신용자 대출 규모는 지난해 같은 기간보다 37.7% 감소한 6300억원으로 나타났다.   이는 지난해부터 이어진 고금리에 중·저신용자들의 상환 여력이 악화하면서 건전성 지표가 흔들리자, 인터넷은행들이 중·저신용자 대출을 보수적으로 운영한 결과다. 케이뱅크의 올해 1·4분기 연체율은 0.82%로 전년 동기(0.48%)보다 0.34%p 상승했고 같은 기간 고정이하여신비율도 0.94%로 0.3%p 상승했다. 토스뱅크도 올해 1·4분기 연체율과 고정이하여신 비율이 직전 분기보다 각각 0.6%p, 0.51%p 상승한 1.32%, 1.04%를 기록했다.     ■인터넷銀 "중·저신용대출 비중 달성 문제 없어"  [연합뉴스TV 제공]이같이 인터넷은행이 중·저신용자 대출 공급을 줄이자 일각에서는 금융당국이 제시한 중·저신용대출 비중을 맞추지 못할 수도 있다는 지적이 제기됐으나 인터넷은행은 문제가 없다는 입장이다. 중·저신용대출 규모는 전체 여신 규모에 따라 달라질 수 있고 현재 중·저신용 비중도 목표치를 상회하고 있다는 것이다.   토스뱅크 관계자는 "지난해는 토스뱅크가 본격적인 영업을 시작한 첫 해여서 여신 규모의 성장이 본격적으로 이뤄졌고, 그 과정에서 중저신용자 공급 규모도 급격히 늘릴 수 있었다"며 "올해는 대내외적 경제여건 악화로 여신 성장이 안정기를 맞이한 상황으로 중·저신용대출 신규 공급의 절대량만을 보기보다는 대출잔액과 비중을 함께 살펴야 한다"고 설명했다. 실제 토스뱅크에 따르면 토스뱅크의 올해 1~4월 신규 공급 가계대출 대비 중·저신용 비중은 45.6%로 지난해(33.9%)보다 높고 올해 말 목표치인 44%보다도 높은 상태다.   한편 인터넷은행 중 유일하게 중·저신용자 신용대출 공급액을 늘린 곳은 카카오뱅크다. 카카오뱅크는 올해 1∼4월 지난해 같은 기(8685억원) 대비 25.5% 늘어난 1조900억원의 중·저신용자 대출을 공급했다. 또 인터넷은행 중 유일하게 운영 중인 서민금융상품 햇살론을 지난해와 올해 모두 230억원씩 취급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>'삼페' 올라타고, '쓱' 손내밀고...핀테크 '오프라인 진격'의 이유 [팩플]</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003297130?sid=105</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>대형 핀테크 3사(네이버파이낸셜, 카카오페이, 토스)가 새로운 이용자를 확보하기 위해 주 무대인 온라인에서 오프라인 결제로 사업 범위를 확장하고 있다. 셔터스톡           직장인 진모(31)씨는 지난달 휴가로 떠난 일본 후쿠오카에서 한국의 핀테크 앱으로 물건을 사는 특이한 경험을 했다. 숙소 근처 편의점 ‘로손(Lawson)’에서 계산대 옆에 붙은 ‘카카오페이’ 스티커를 발견한 것. 한국에서 쓰던 카카오페이 앱 QR코드를 점원에게 보여주자, 100엔(약 900원) 할인 혜택을 받고 결제가 끝났다. 한국에서처럼 카카오페이 포인트도 적립됐다. 진씨는 “한국서도 안 써본 카카오페이 QR 결제를 일본에서 처음 개시했는데, 생각보다 편리했다”고 말했다.     ━  무슨 일이야     핀테크의 경쟁 무대가 오프라인으로 확대되고 있다. 네이버파이낸셜, 카카오페이, 토스 등 핀테크 3사가 오프라인 결제에 적극 진출하면서다. 네이버파이낸셜은 1분기 오프라인 결제액은 8100억원으로, 전년 대비 68.4% 늘었다. 카카오페이도 1분기 오프라인 결제액이 전년 대비 37% 증가했다. 토스는 지난 9일 CU 편의점 1만7000곳에서 토스 앱으로 결제할 수 있게 협약을 맺었다.      박경민 기자     ━  핀테크가 왜 오프라인을 탐내나?     오프라인 결제 시장에서 신규 이용자를 확보하려는 시도다. 한국은행에 따르면, 지난해 전업 카드사 대면 결제금액은 일평균 1조6000억원 규모로, 비대면 결제금액(1조 1010억원)보다 여전히 크다. 한국은행이 2021년 성인 3536명을 대상으로 설문한 결과, 최근 1개월 새 사용한 결제 수단으로 신용카드(82.6%)나 체크·직불카드(56%)를 꼽은 비중이 전자화폐(9.2%)나 모바일카드(24%)보다 훨씬 컸다. 온라인 결제 중심으로 성장한 핀테크 기업으로선 오프라인 결제를 잡아야 추가 성장 여력이 생긴다는 얘기. 특히 최근 오프라인 점포에서 핀테크 앱으로 결제하는 ‘대면 온라인 결제’가 증가 추세라 분위기도 좋다. 한국은행에 따르면, 지난해 대면결제 시 스마트폰 등 모바일 기기를 결제 단말기에 접촉하거나, QR코드로 결제한 거래 금액(하루 평균 2290억원)은 1년 새 46.9% 가량 증가했다.      다만, 핀테크 기업들은 당장의 수수료 수익보단 데이터를 노린다. 토스와 카카오페이의 오프라인 가맹점 수수료는 연 매출에 따라 0.8~1.2% 수준이고, 네이버페이는 수수료를 받지 않는다. 익명을 요구한 대형 핀테크 기업 관계자는 “수수료보다는, 새로운 이용자를 모집해 결제 위치나 점포·결제시간 등 오프라인에서 소비 데이터를 얻을 수 있다는 게 우리에겐 더 중요하다”고 말했다.       박경민 기자      ━  오프라인 시장 공략법은   ◦ 삼성페이 올라탄 네페: 네이버페이는 결제 가맹점 확장에 속도를 내기 위해 삼성페이와 손잡았다. 지난 4월부터 네이버페이 앱에서 삼성페이 사용이 가능하도록 결제 시스템을 연동했다. 그 덕에 제휴 가맹점 숫자는 기존 약 12만개에서 300만개로 25배 늘었다. 가맹점이 늘면서, 지난달 말 네이버페이 사용자 1인당 거래액은 삼성페이 제휴 전(3월 말)보다 186% 증가했다.      스마트폰에서 삼성페이를 통해 네이버페이 온라인 주문형 가맹점의 간편 결제를 이용하는 모습. 사진 삼성전자    ◦ 해외 공략하는 카페: 해외로 나가는 카카오페이의 전략도 두드러진다. 일본, 중국, 마카오, 프랑스(파리 프렝탕 백화점), 이탈리아(밀라노시 두오모 성당) 등 5개국에서 편의점이나 소매점 체인과 제휴를 맺었다. 독일, 호주 등 추가로 6개국에 진출하기 위해 기술 연동 작업에도 착수했다. 해외로 결제 범위가 넓어지면서, 1분기 해외 결제액은 직전 분기보다 2배 이상 증가했다.    ◦쓱 합치려는 토스: 오프라인 결제 진출이 비교적 늦은 토스는 인수합병(M&amp;A) 카드를 검토 중이다. 지난달 29일 신세계그룹이 소유한 간편결제 서비스인 쓱 페이와 스마일 페이의 인수 우선협상대상자로 선정됐다. 토스가 두 결제 서비스를 인수하면 2500만명으로 추산되는 이용자를 품게 된다. 업계에서는 쓱·스마일 페이 이용자 중엔 신세계 백화점이나 이마트의 중장년 고객층 비중이 클 것이라 추정한다. 토스로서는 구매력 높은 이용자를 확보해 추격의 발판을 마련할 수 있다. 일각에서는 토스가 쓱·스마일페이를 계기로 신세계그룹을 주주로 확보해 오프라인 결제 시장서 협력할 것으로도 본다. 익명을 원한 핀테크 업계 관계자는 “ 만약 신세계그룹의 스타벅스 매장에서 토스의 오프라인 결제에 혜택을 주는 식으로 협력한다면 토스로서는 오프라인 결제 시장에서 확실한 우군을 얻게 될 것”이라고 말했다.     ━  앞으로는     핀테크의 오프라인으로 확장이 순탄한 것만은 아니다. 한 핀테크 업체 관계자는 “실물카드를 꺼내는 대신, 앱을 켜고 QR코드를 찍는 번거로운 과정을 유도하기 위해 이용자 포인트 적립 등 차별화에 내부적으로 고민이 많다”라고 말했다.      가맹점 확장 과정에서 잡음도 나오고 있다. 지난 3일 서울경찰청 반부패 공공범죄수사대는 카카오페이와 밴(VAN, 신용카드 결제 대행)사인 나이스정보통신을 각각 압수수색했다. 카카오페이가 온라인 결제 시스템에 나이스정보통신의 결제망을 이용하는 등의 대가로, 나이스정보통신이 카카오페이가 직접 내야할 ‘오프라인 가맹점 모집비’를 일부 대납했다는 의혹이 제기됐다. 이에 대해 카카오페이 측은 별도의 입장을 밝히지 않았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>5대 은행 잔액기준 가계 예대금리차 'KB국민·NH농협' 순</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014099307?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>전체 1·2위는 토스뱅크·전북은행기업대출 포함한 예대금리차는 5대 은행 중 농협은행 1위5대 은행 잔액기준 가계대출 예대금리차 '국민·농협' 순[연합뉴스 자료사진]    (서울=연합뉴스) 민선희 기자 = 지난달 5대 시중은행 중 잔액 기준으로 가계 예대금리차가 가장 컸던 곳은 KB국민은행으로 조사됐다.    28일 은행연합회 소비자 포털에 공시된 '예대금리차 비교'에 따르면 국민은행의 6월 정책서민금융 제외 가계 예대금리차(가계대출금리-저축성수신금리, 잔액 기준)는 2.57%포인트(p)로 집계됐다.    이어 NH농협은행(2.55%p), 신한은행(2.43%p), 우리은행(2.24%p), 하나은행(2.20%p) 순이었다.     국민은행 관계자는 "타행 대비 개인 고객 수가 많아 총수신 가운데 결제성예금(요구불예금 등)의 비중이 높은 탓에 잔액 기준 예대금리차가 상대적으로 크게 나타났다"고 밝혔다.    이어 "당행의 신규·잔액 기준 대출금리는 시중은행 가운데 높지 않은 수준이고, 신규 기준 저축성예금 금리도 5대 은행 평균을 웃돈다"고 덧붙였다.    인터넷은행과 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차(잔액 기준)가 가장 큰 곳은 토스뱅크(5.35%p)였고, 전북은행(4.31%p)이 뒤를 이었다.    기업대출까지 포함한 전체 예대금리차(잔액 기준)는 5대 은행 가운데 농협은행이 2.73%p로 가장 컸으며 국민은행(2.72%p), 신한은행(2.59%p), 우리은행(2.51%p), 하나은행(2.48%p) 등의 순으로 조사됐다.    농협은행 관계자는 "수도권 지역보다 지방소재 점포 비중이 큰 농협은행 특성상 가계대출 중 상대적으로 금리가 낮은 주택담보대출 비중이 다른 은행보다 적어 잔액 기준 대출금리가 높다"고 설명했다.    19개 은행의 월별 예대금리차 공시는 지나친 '이자 장사'를 막자는 취지로 지난해 7월부터 시작됐다. 예대금리차가 상대적으로 크다는 것은 산술적으로 대출·예금 금리 격차에 따른 마진(이익)이 많다는 뜻이다.    기존에는 신규 취급액 기준으로만 예대금리차를 공시했지만, 이달부터 전월 말 은행이 보유 중인 모든 대출과 예금의 금리로 계산된 잔액 기준 예대금리차도 공시됐다.    신규 취급액 기준 가계 예대금리차는 농협은행이 1.19%p로 가장 컸다.    이어 신한은행(0.98%p), 국민은행(0.87%p), 우리은행(0.84%p), 하나은행(0.76%p) 순이었다.    ssun@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.07.25.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>[답보하는 KB알뜰폰]②앞에 놓인 난제…해법은?</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000018164?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>정부, 알뜰폰 가격 낮추기에 정책 '초점''은행 알뜰폰' 먼저 열었지만 선점효과 희석윤석열 정부는 국민 통신비 절감을 위해 알뜰폰 시장을 확대하겠다는 방침을 내놓고 있다. 금융당국은 KB국민은행에만 시범적으로 허용했던 알뜰폰 사업을 모든 은행에 열었다. 하지만 국민은행이 MVNO(알뜰폰) 서비스 '리브엠(Liiv M)'를 키워 통신과 금융이 융합된 새로운 서비스를 내놓는 데는 시간이 더 필요할 것으로 관측된다. 먼저 치고 나가면서 확보할 수 있었던 선점효과를 기대하기 어려운 것이다. 융합의 성과까지 갈 길도 멀지만 경쟁은 치열해진다는 점에서 애초 목표를 향한 여정도 더욱 험난할 것으로 예상된다.가격 낮춰 알뜰폰 키우겠다는 정부과학기술정보통신부는 지난 6일 '통신시장 경쟁촉진 방안'을 내놓으면서 알뜰폰 사업자 육성에 나서겠다고 밝혔다. 통신 3사 자회사의 알뜰폰 시장 점유율 규제를 강화하는 게 골자다. 현재는 통신 3사 자회사의 알뜰폰 시장 점유율이 50%를 넘지 않도록 하는데, 앞으로는 '완성차 회선을 제외한' 알뜰폰 시장을 기준으로 50%를 넘지 않도록 한다. 이는 완성차에 들어가는 회선을 제외한 '순수 통신 알뜰폰 시장' 만을 대상으로 점유율을 다시 따지겠다는 얘기다. 분모를 줄이면 50%로 제한된 통신 3사 계열사들의 알뜰폰 시장 확대 여지가 좁아진다. 통신 3사 외에 알뜰폰 사업자를 키우기 위해 독과점을 견제하는 장치를 두는 것이다.과기부는 아울러 지난해 9월 만료된 도매 제공 의무제도를 상설화하기로 했다. 알뜰폰 업체들은 통신 3사의 망을 빌리는 방식으로 사업한다. 도매제공 의무제도가 있다면 은행이나 기존 통신사 외 알뜰폰 사업자들은 통신 3사의 망을 종전보다 저렴한 가격으로 사용할 수 있다. 통신업계 관계자는 "알뜰폰의 가장 큰 경쟁력은 가격인데 정부가 이러한 가격 경쟁력을 더욱 갖출 수 있도록 제도를 정비하겠다고 한 것"이라며 "알뜰폰 소비자의 경우 가격에 따라 쉽게 요금제를 교체한다. 이는 가격 경쟁력을 얼마나 갖출 수 있느냐가 앞으로의 관건이라는 의미"라고 말했다.흐려지는 리브엠의 '시장선점' 효과금융회사는 '금산분리' 규제 때문에 비금융 업권에 대한 사업 진출이 철저하게 제한된다. 다만 정부는 통신서비스를 제공할 경우 금융서비스와 융합된 서비스 제공이 가능해져 소비자의 편익이 증가한다는 국민은행의 제안을 예외적으로 받아들였다. 규제 특례 제도인 '샌드박스'를 통해 알뜰폰 사업을 펼칠 수 있게 해준 것이다. 하지만 은행권에서 국민은행만 알뜰폰 사업이 가능했던 상황은 지난 4월부로 끝났다. 정부가 은행의 알뜰폰 업무를 정식 부수업무로 인정해 주기로 하면서다. 다른 은행들 역시 금융당국에 신청만 하면 통신사업을 할 수 있게 된 것이다. ▷관련기사 : [은행, 알뜰폰 품다]上 은행서 폰 개통 가능해진다은행 금융서비스 이용 등과 연계해 통신비를 절감하는 은행형 알뜰폰 요금제가 다른 은행에서도 흔히 나타날 수 있다는 얘기다. 인터넷전문은행 토스뱅크 운영사인 비바리퍼블리카는 올 초 알뜰폰 서비스업체 머천드코리아를 인수해 알뜰폰 서비스 '토스모바일'을 내놨다. 토스모바일은 온라인 송금 기반의 토스 앱에서 통신 관련 사후관리를 가능하게 했고 미사용 데이터는 토스포인트로 환급(캐시백)해 주는 서비스를 내놓고 있다.  다른 주요 시중은행의 경우 당장 알뜰폰 사업 진출에 적극적인 모습들 드러내진 않고 있다. 하지만 통신사업에서 확보할 수 있는 빅데이터를 금융사업에 연계시키는 가능성은 어느 곳도 배제하지 않고 있다. 시너지만 확보할 수 있다면 언제든지 진출할 수 있다는 태세다.한 은행 관계자는 "당장은 알뜰폰 진출 계획을 내놓을 계획이 없으며 이는 KB국민은행을 제외한 다른 은행들도 마찬가지일 것"이라면서도 "다만 통신사업과의 시너지에 대해선 내부에서도 검토가 됐기 때문에, 향후 언제든지 진출할 가능성은 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.07.27.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>그리스 산불 전국적으로 번져…인명피해 속출</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003838618?sid=104</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>지난 25일 그리스 남동부 로도스섬 예나디 마을 주택가에서 산불이 타오르고 있다. 예나디=AP 뉴시스 제공       그리스에서 산불의 기세가 좀처럼 꺾이지 않고 있는 가운데, 산불의 규모가 전국으로 확대돼 26일 3명의 추가 사망자가 발견되는 등 인명피해가 속출하고 있다고 국영 AMNA통신이 보도했다.     앞서 그리스에서는 지난 25일 산불을 진압하던 항공기가 추락해 캐나다 조종사 2명이 숨지는 등 모두 3명이 사망했다.     볼로스 부근의 한 트레일러에서는 26일 여성 한 명이 숨진 채 발견됐다고 그리스의 ERT방송이 보도했다. 그녀의 남편은 심한 화상을 입은 채 발견됐다.     당국의 기후위기 민방위부 장관 바실리스 키킬리아스는 볼로스가 규모가 가장 크고 위력이 강한 산불이 발생했다고 밝힌 지역이다.     또 그곳에서 불과 몇 km떨어진 곳에서는 45세 목부의 시신이 발견되었다. 발견된 사망자는 가축을 안전한 곳으로 대피시키려다가 변을 당한 것으로 추정된다.     그리고 25일 산불 진화용 항공기가 추락하여 조종사와 부조종사가 숨졌던 에비아 섬의 해변 관광지 카리스토스에서 사망한 남성 1명이 추가로 발견됐다.     그리스에서는 지난 10일 동안 전국에서 무려 594건의 산불이 발생했고 그  중 61건이 26일 발생했다.       산불이 급속히 번지면서 산불 선단지역이 단숨에 수 킬로미터씩 확대됐다. 이에 따라 인근 지역의 기온이 40도를 넘어서자 전국 각지의 마을에 대피령이 내려져 주민들이 피난하고 있다고 키킬리아스 장관은 밝혔다.     AMNA 통신을 인용한 외신들에 따르면 현재 볼로스 부근의 산업단지에까지 번진 산불에 소방인력이 집중되어 진화작업을 벌이고 있다.       산업단지의 사람들은 모두 대피했고 인근에 있는 고고학적 가치가 높은 여러 마을들의 주민들도 대피한 상태다.        아테네=AP/뉴시스] 아테네 인근 아기아 소티라 마을 주변 국도의 수목들이 불타고 있다. 아테네=AP 뉴시스 제공       그리스 소방대에 따르면 이미 화재가 심해진 코르푸섬과 에비아섬에서는 산불이 진화된 지역의 재발화 가능성을 염두해 주의를 기울이고 있다.      인근 로도스에서는 대피를 위한 더 많은 항공편을 준비하고 있다. 26일 비상사태를 선언한 로도스에서는 지난 9일 동안 연속해서 산불이 확대되면서 2만명이 넘는 사람들이 대피했다.     현재의 긴 폭염이 좀처럼 수그러들지 않는 가운데 그리스 일부 지역은 44도(화씨 111도)를 넘어설 것으로 예상된다.      카테리나 사켈라로풀루 그리스 대통령은 최근 지중해 연안 모든 국가가 산불에 시달리는 중에 이탈리아, 포르투갈, 몰타, 불가리아 대통령들과 26일 전화 회담을 가졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크 '00명' 대규모 공개채용…"출범 후 처음"</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004868734?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크가 출범 후 처음으로 전(全)직군 대상 대규모 공개채용을 실시한다고 17일 밝혔다. 토스뱅크는 기존 경력직 직원 중심의 채용을 넘어 신입 직원까지 '00명'을 공개적으로 모집한다. 이번 채용의 서류접수는 이날부터 오는 7월 31일까지 진행된다.모집 분야는 총 10개 직군 40여개의 직무로 △엔지니어(코어뱅킹, 프론트엔드 및 서버) △비즈니스(수신 및 여신 상품, 제도) △데이터(데이터 애널리스트 및 사이언티스트) △리스크(신용전략, CSS) △프로덕트(상품개발) △디자인 △컴플라이언스 등이다. 은행의 빠른 성장 속도에 발맞춰 필요한 인재를 대규모로 선발해 지금보다 빠른 속도로 성장하겠다는 취지다.그동안 토스뱅크는 매일 이자 주는 통장부터 쓸 때마다 캐시백 혜택을 주는 카드, 원리금 부담을 낮춰주는 대출까지 늘 사용자가 느끼는 불편함을 해결하는 데 집중해 왔다. 출범 1년 반만에 고객수 700만명, 수신 21조원, 여신 11조원으로 고속 성장하고 있으며 올 하반기에는 새롭게 전·월세대출, 공동대출, 외환거래 서비스를 선보일 예정이다.공개채용 지원자들은 토스뱅크 채용 홈페이지를 통해 손쉽게 지원할 수 있다. 필수적으로 충족해야 하는 경력 기간은 없으며, 지원자 개개인의 일정을 배려하는 맞춤 채용 프로세스를 마련했다.서류 전형 결과는 순차적으로 안내되고, 직무 및 문화적합성 인터뷰는 서류 합격자 일정에 맞춰 온라인 및 화상으로 진행된다. 처우와 관련한 협의는 합격자 대상으로 개별 안내되고 일부 포지션에 대해서는 과제 전형도 진행한다.지원자들은 채용 홈페이지엣 토스뱅크의 제품 및 기술 비전, 입사 전 커리어 관련 고민을 갖고 있던 다양한 현업자의 인터뷰를 확인할 수 있다. 당장의 지원 의사는 없더라도 토스뱅크 현업과의 대화를 희망하는 분을 위한 ‘프라이빗 네트워킹 세션(8월17일~18일)’ 신청도 가능하다.토스뱅크는 관계자는 "토스뱅크는 지난 100년 동안 시중은행이 시도하지 못한 '공급자에서 사용자 중심으로' 금융 서비스의 중심을 옮기고 있다"며 "이번 대규모 공채를 통해 우리와 같은 꿈을 실현할 능력있는 동료들을 기다리고 있다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>"서학개미 모십니다"…증권사 '美주식 투자자' 유치 경쟁</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006932005?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>미국주식 보관금액 올초 대비 20% 이상 늘어…꾸준한 증가세24시간 거래 서비스 확대하고 수수료·지원금 혜택…경쟁 가열ⓒ News1 DB(서울=뉴스1) 박승희 기자 = 미국 주식에 투자하는 이들이 꾸준히 늘면서 증권사들이 '서학개미' 모시기에 총력을 기울이고 있다. 거래 가능 시간을 기존보다 늘리고 수수료 무료 이벤트를 제시하며 고객 유인에 발 벗고 나서는 모습이다.17일 한국예탁결제원의 증권정보포털 세이브로에 따르면 올해 1월 533억9000달러(약 67조4500억원)였던 미국 주식 보관 금액은 지난달 654억9000달러(약 82조7000억원)로 20% 이상 증가했다. 7월(14일 기준)은 아직 절반도 지나지 않았지만 671억6000달러로 벌써 전월 규모를 뛰어넘었다.미국 주식 보관 금액은 △1월 533억9000달러 △2월 546억3000달러 △3월 577억1000달러로 증가하다가 지난 4월 544억1000달러 규모로 줄었다. 하지만 바로 다음 달부터 반등해 △5월 594억9000달러 △6월 654억9000달러 △7월 671억6000달러(14일 기준)로 증가 추세를 이어가고 있다.이에 증권사들은 관련 서비스를 강화하고 있다.우선 증권사들의 '미국주식 24시간 거래' 서비스가 확대됐다. 지난 2월 삼성증권과 대체거래소(ATS)인 블루오션(Blue Ocean)과의 독점 계약이 끝나면서다. NH투자증권을 시작으로 최근 KB증권도 24시간 서비스를 출시하며 경쟁 대열에 합류했다.이들 증권사를 통하면 고객들은 한국주식 주간거래(한국시간 오전 9시부터 오후 5시)를 시작으로 프리마켓(오후 5시부터 오후 10시 30분), 정규장(오후 10시 30분부터 익일 오전 5시), 애프터마켓(익일 오전 5시부터 익일 오전 9시)등 24시간 동안 미국주식을 거래할 수 있게 된다.당장 24시간 오픈은 하지 못하더라도, 대다수 증권사가 미국 주식 거래 가능 시간을 늘리며 대응하고 있다.키움증권은 내주부터 애프터마켓과 주간거래시장 시간을 일부 연장해 기존보다 1시간 15분 늘어난 총 22시간45분 동안 미국 주식 거래가 가능하도록 서비스를 개편했다. 이 외에도 토스증권, 메리츠증권, 한국투자증권 등이 하루 중 20시간 미국주식 거래가 가능하도록 한 상황이다.한 증권사 관계자는 "거래 시간을 늘리면 우리나라 시간으로 야간에 발표되는 기업 실적이나 경제 지표 발표에 대응할 수 있고, 접근성도 높아져 만족도가 높다"며 "국내 투자자들의 관심이 국내를 넘어 미국 시장까지 넘어가고 있기 때문에, 늦지 않게 수요에 대응해야 한다"고 말했다.여기에 수수료를 면제 수준까지 낮추거나 지원금까지 주는 마케팅전도 벌이고 있다.미래에셋증권은 모든 개인투자자를 대상으로 연말까지 미국 주식 온라인 매수 수수료를 받지 않는 이벤트를 실시한다. 하이투자증권도 신규·휴면 고객의 비대면 거래에 수수료를 면제하고 미국 증권거래위원회(SEC) 세금인 'SEC Fee'(매도 수수료 0.0008%)도 없애주기로 했다. 키움증권, 하나증권은 해외주식 이전 시 투자지원금을 제공한다.국내 증권사의 경우 미국 주식 거래 시 1건당 한국예탁결제원에 결제 수수료와 1.1bp(0.011%)의 예탁 수수료를 내야 하는데, 이를 부담하면서까지 고객 유치에 나서고 있어 사실상의 출혈 경쟁이라는 지적이 나온다. 하지만 한 업계 관계자는 "당장은 손해를 볼 수 있지만, 해외 시장 규모가 커지는 것을 대비해 중장기적 관점에서 고객 유치에 최선을 다하는 것"이라고 했다.미국 주가가 하반기에도 상승할 것으로 예상되면서 이러한 추세는 이어질 것으로 업계는 판단하고 있다. 이원주 키움증권 애널리스트는 "미국 AI 기업들의 성과가 가시화되고 있다"며 "상업용 부동산 문제처럼 이미 다 알려진 리스크는 정부와 연준의 발 빠른 대응으로 증시에 충격을 주기 어려울 것으로 기대하며 연말까지 하락하는 시장금리가 완만한 증시 상승세를 만들 것"이라고 예상했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.07.23.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>'슈퍼 엔저' 휴가철…핀테크, 해외 여행객 맞춤서비스 경쟁</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011990483?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>[인천공항=뉴시스] 정병혁 기자 = 2일 오전 인천국제공항 제1여객터미널 면세점 구역이 여행객들로 붐비고 있다. 인천국제공항 출국장 면세점 사업자가 7월 교체된다. 1일부로 롯데면세점이 22년 만에 인천공항에서 빠지고 신라면세점은 DF1·3구역, 신세계면세점은 DF2·4구역, 현대백화점 면세점은 DF5구역에서 각각 영업을 시작했다. 2023.07.02. jhope@newsis.com[서울=뉴시스] 남정현 기자 = 코로나 거리두기 해제에 8년 만의 '슈퍼 엔저'까지 겹치며 올 들어 해외 여행 수요가 급증했다. 온라인 플랫폼사들은 해외 여행자들의 서비스 수요를 흡수하기 위해 경쟁적으로 이들을 위한 '원스톱' 서비스를 구축하고 나섰다.23일 금융권에 따르면 카카오페이는 최근 이용자가 해외여행 사전·사후와 여행 도중의 불편함을 해소하기 위해 온라인 결제, 보험, 오프라인 결제, ATM 출금 등을 아우르는 서비스 인프라를 구축했다. 이달부터는 해외  ATM 출금 서비스를 개시했다. 이용자는 일본, 베트남, 라오스에서 카카오페이로 현지 현금 출금이 가능하다. 또 현재 해외에서 환전 없이 카카오페이로 결제가 가능하거나 해당 서비스를 테스트 중인 국가는 일본, 중국, 마카오, 싱가포르, 프랑스, 태국, 이탈리아, 독일, 호주, 영국, 말레이시아, 필리핀 등 총 12개국에 달한다. 카카오페이 결제가 가능한 해외 국가에 체류하게 될 경우 결제 바코드가 자동으로 해당 국가의 '해외 결제'로 전환되며 별도의 등록, 환전 과정을 거칠 필요 없이 국내에서 결제하던 방식 그대로 결제된다. 결제 화면의 바코드·QR코드를 제시하거나 사용자가 매장에 붙어 있는 QR코드를 촬영해 결제하면 카카오페이머니로 결제된다.특히 현재 카카오페이 이용자들은 일본 내 카카오페이나 알리페이플러스 로고가 비치된 오프라인 매장에서 별도 환전 과정 없이 결제 서비스를 이용할 수 있다. 한국 관광객들이 일본 현지에서 많이 찾는 ▲공항 (후쿠오카공항·간사이공항·나리타공항·하네다공항·신치토세공항) ▲편의점(로손·세븐일레븐·패밀리마트) ▲마트형약국(돈키호테·타케야·츠루하) ▲백화점(빅카메라·오다큐·다이마루마츠자카야·미츠코시이세탄 등이 해당한다. 최근 출시한 카카오페이손해보험의 해외여행보험도 오픈 기념 이벤트로 카카오페이 결제 시 10% 할인 혜택을 제공하고 있다. 이 혜택은 '안전귀국 할인 환급', '함께 가입 할인'과 중복으로 적용된다. 만일 3명 이상 함께 가입한 후 카카오페이로 보험료를 결제하면 최대 3만원까지 할인받고, 이후 안전하게 귀국하면 각각 10%씩 중복 할인 혜택을 받게 된다.네이버페이 또한 일본의 라인페이 가맹점에서 현장결제를 서비스한다. 네이버 앱에서 페이 탭을 선택 후 현장결제에서 결제방법으로 라인페이를 선택하면 된다. 해당 가맹점은 도쿄하네다공항, 후쿠오카공항, 모테레이호텔, 코코카라파인·웨시아 등 마트형약국, 빅카메라·야마다전기·조신 등 가전매장, 한큐·한신 등 백화점, 재팬 택시, 도쿄돔시티 등이다.토스는 주요 통화에 대해 우대 환율을 적용해 환전을 신청, 원하는 지점을 선택해 수령할 수 있는 서비스를 제공하고 있다. 또 해외 여행자보험을 편리하게 가입할 수 있게 시스템을 갖췄다. *재판매 및 DB 금지엔에이치엔 페이코(NHN PAYCO)는 하나카드, 캐롯손해보험, 신한은행과 함께 해외 여행객들을 위한 맞춤형 금융 서비스인 '페이코 트래블팩'을 출시했다. 먼저 페이코를 통해 하나카드의 '트래블로그' 카드를 발급받을 시 1만원 캐시백 혜택을 제공한다. 트래블로그 카드는 해외 18개 통화 충전이 가능한 외화 선불카드로 해외 ATM 인출 수수료 면제, 가맹점 이용수수료 면제 등 혜택을 제공한다. 7월 말까지 총 1만원 이상 이용 시 결제 계좌로 1만원을 지급한다. 페이코를 통해 캐롯손보의 해외여행보험 가입 시 20% 할인 혜택이 적용되며, 최대 5000 페이코 포인트를 적립해 주는 10% 추가 혜택을 제공한다. 즉 이용자는 횟수 제한 없이 가입 시마다 최대 30%의 할인 혜택을 누릴 수 있다. 페이코를 통해 달러·유로·엔화로 환전할 경우 신한은행에서 최대 90% 환율 우대도 받을 수 있다. 페이코 앱을 통해 24시간 내내 환전 신청이 가능하며 신청 후 공항 영업점을 포함한 전국 신한은행 영업점에서 수령할 수 있다. NHN페이코 관계자는 "앞으로 금융 상품뿐만 아니라 여행 패키지 상품과의 연계 등으로 페이코 트래블팩 혜택을 확장해 나갈 것이며 기존 혜택은 지속적으로 제공할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>“이젠 오프라인서 승부” 네이버-카카오-토스, 현장결제 격돌</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003510678?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>네이버, 300만 삼성 가맹점 확보카카오, 선불충전금 4800억 돌파토스도 현장결제 나서며 도전장‘유통 플랫폼’ 지마켓-SSG는 고전오프라인 간편결제 시장에 뛰어든 빅테크 3사(네이버파이낸셜, 카카오페이, 비바리퍼블리카)의 점유율 경쟁이 치열해지고 있다.  20일 금융업계에 따르면 토스의 간편결제 서비스 토스페이는 10일부터 편의점 CU의 1만7000여 개 지점에서 현장 결제를 지원하기 시작했다. 기존에는 온라인 결제만 가능했지만 오프라인으로 범위를 넓힌 것이다. 네이버파이낸셜(네이버페이)도 올해 3월부터 삼성페이를 통한 오프라인 결제 서비스를 시작했다. 카카오페이는 11개국에서 환전 없이 결제를 지원하거나 관련 테스트를 진행하는 등 빅테크 3사가 공격적으로 오프라인 시장에 진출하는 모양새다.  간편결제 시장이 오프라인으로 확대되면서 빅테크 3사의 선불 충전금 규모도 불어나고 있다. 선불 충전금은 간편결제 충성고객 규모를 가늠하는 지표다. 카카오페이의 선불 충전금 잔액은 6월 말 기준 4801억 원으로 3월 말(4568억 원) 대비 5.1% 증가했다. 같은 기간 네이버파이낸셜도 3% 이상 늘었다. 토스는 지난해 말 922억 원에서 지난달 말 951억 원으로 늘며 연내 1000억 원 돌파를 기대하고 있다. 오프라인으로 보폭을 확대한 빅테크 3사와 달리 자체 플랫폼을 중심으로 간편결제 서비스를 제공해온 유통업체들은 충성고객이 빠져나가고 있다. 신세계그룹의 간편결제 서비스인 지마켓(스마일페이·434억 원)과 SSG닷컴(SSG페이·395억 원)의 지난달 말 선불 충전금 잔액은 직전 분기 말 대비 각각 6.2%, 8.9% 감소했다. 빅테크 3사는 오프라인 시장을 선점하기 위한 가맹점 확보에 힘쓰고 있다. 네이버페이가 삼성페이와 협업한 것도 300만 곳의 가맹점을 확보하기 위해서다. 토스페이도 편의점을 시작으로 유통 플랫폼을 공략하고 있다. 다른 빅테크에 비해 결제 규모가 작은 토스는 SSG페이와 스마일페이를 인수해 점유율을 키우겠다는 전략이다. 현재 SSG페이는 스타벅스, 이마트 등 신세계그룹의 유통 계열사에서 사용할 수 있는 만큼 오프라인 사용처를 빠르게 늘릴 수 있다. 다만 삼성페이 등 휴대전화 제조사 역시 현장결제를 제공하고 있는 상황에서 혜택 없이는 소비자 유인이 어렵다는 지적도 나온다. 한국은행에 따르면 지난해 간편결제 서비스 이용금액 중 휴대전화 제조사가 차지하는 비중은 25.3%에 달했다. 실제로 삼성페이 사용자들이 모인 온라인 커뮤니티에서는 “네이버페이 포인트 적립 이벤트가 끝나면 굳이 연동할 필요가 없다고 느껴진다”는 의견이 올라오기도 했다. 천창민 서울과학기술대 글로벌테크노경영학과 교수는 간편결제 업체들의 오프라인 시장 진출을 두고 “간편결제사가 제공하는 혜택이 소비자의 복리 증진에 기여할 수 있다”라면서도 “출혈 경쟁을 유발할 위험도 있다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>중저신용자 대출 늘리랬더니… 인터넷銀, 목표치도 못 채웠다</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000918683?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>1분기 금융 당국 설정 목표치 미달 1~4월 인뱅 3사 중저신용대출 감소…카뱅만 ↑ 케뱅은 중저신용대출 늘리려 고신용자 빗장 잠가 ‘내년엔 규제 완화될까’ 업계 ‘촉각’금융당국 “올해 목표치 달성부터...이후 논의”인터넷전문은행 로고        인터넷전문은행이 중·저신용자 대출 목표치를 달성하기 위해 안간힘을 쏟고 있다. 금융 당국은 지난 2021년 인터넷은행의 중·저신용자 대출 확대를 위해 각 사의 3년 치 목표 비중을 설정했는데, 기한은 올해 말까지다.인터넷은행은 최근 경기 침체와 고금리 여파로 연체율이 빠르게 오르고 있는 점을 들어 내년부터는 규제를 완화해줄 것을 요구하고 있다. 금융 당국은 올해 연말까지 인터넷은행의 중·저신용자 대출이행 내역을 살핀 뒤 대외적 여건을 함께 고려해 규제 완화 여부를 결정할 방침이다.21일 금융권에 따르면 케이뱅크는 지난 15일부터 고신용자에 대한 신규 신용대출 승인을 잠정 중단했다. 또 마이너스통장 대출도 중·저신용자 고객으로 대상을 한정했다. 이는 중·저신용자 대출 목표치를 달성하기 위한 조치로 해석된다. 케이뱅크의 올해 1분기 말 기준 중·저신용자 대출 비중은 23.9%로 금융 당국이 제시한 올해 목표치인 32%를 밑돌고 있다. 카카오뱅크와 토스뱅크의 1분기 말 기준 중·저신용자 대출 비중은 각각 25.7%, 42.06%며, 목표치는 30%, 44%다.그래픽=정서희        인터넷은행은 중·저신용자 대출 비중을 끌어올려야 하지만 대출 확대에 소극적인 모습이다. 카카오뱅크·케이뱅크·토스뱅크가 지난 1~4월 취급한 중·저신용자 신용대출 공급액은 2조700억원으로 전년 동기(2조5085억원)보다 17.48% 감소했다. 케이뱅크는 이 기간 중·저신용자 대출로 3500억원을 공급했는데, 이는 전년 동기(6300억원) 대비 44.4% 줄어든 수준이다. 같은 기간 토스뱅크의 중·저신용자 대출 공급액은 1조100억원에서 6300억원으로 37.7% 줄었다. 유일하게 카카오뱅크만 대출 규모가 8685억원에서 1조900억원으로 25.5% 늘었다.최근 연체율이 오르며 건전성이 악화된 점이 영향을 미친 것으로 보인다. 올해 인터넷은행들의 연체율은 지난해보다 두 배 가까이 높아졌다. 토스뱅크의 경우 지난 1분기 말 기준 연체율과 고정이하여신비율(총여신 대비 부실여신 비율)이 1%대를 기록했다. 이는 수익성에도 영향을 미친다. 연체율이 높아지면 대손충당금을 더 쌓아야 하고, 순이익은 줄어들 수밖에 없다. 인터넷은행은 지난 1분기 카카오뱅크 510억원, 케이뱅크 601억원, 토스뱅크 760억원의 대손충당금을 각각 쌓았다. 이는 전년 동기 대비 45.7%, 200.5%, 224.8% 늘어난 규모다.그래픽=정서희        인터넷은행은 리스크 관리를 위해선 합리적인 수준으로 규제가 완화돼야 한다고 주장한다. 한 인터넷은행 관계자는 “금융 당국이 예상치 못했던 수준으로 경제 상황이 급변했다. 기준금리가 3%포인트 넘게 올랐고 경기 침체의 골도 깊다”며 “상환 여력이 악화된 중·저신용자에 대한 신규 대출을 계속 확대할 경우 연체율이 늘 수밖에 없어 대책 마련이 시급하다”고 말했다.다만 금융 당국이 정책 스탠스를 바꿀지는 미지수다. 금융 당국은 앞서 인터넷은행이 여러 차례 대출 규제 완화 요구를 할 때마다 부정적이었다. 인터넷은행은 설립 취지상 중·저신용자 대출 확대가 우선 과제여야 한다는 게 일관된 입장이다. 금융 당국 관계자는 “인터넷은행의 연체율은 유심히 살펴보고 있다”며 “이와 별개로 인터넷은행은 설립 취지에 부합하게 중·저신용자 대출 공급을 우선시해야 한다. 인터넷은행이 사회적 책임을 다하고 있다고 판단될 경우 대출 규제 완화를 검토할 수 있을 것이다”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.07.25.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>‘통장협박 피싱’ 피해 줄여라… 소상공인 보호 방안 추진</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003777701?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>자영업자들을 이른바 ‘보이스피싱 통장 협박’으로부터 보호하기 위한 방안이 추진된다. 보이스피싱 통장 협박이란 보이스피싱 피해 신고가 접수되면 피해금이 입금된 계좌가 우선 동결되는 걸 악용해, 범죄 집단이 이를 빌미로 협박하는 범죄다. 국민의힘 윤창현 의원은 최근 이런 내용의 통신사기피해환급법 개정안을 대표 발의했다고 24일 밝혔다.예컨대 협박범 A씨가 온라인 쇼핑몰 등에 공개된 자영업자 B씨의 계좌에 돈을 10만원 입금한 뒤, “보이스피싱 사기를 당해 입금했다”고 당국에 허위 신고하면 일단 B씨 계좌는 지급이 정지된다. 그런 뒤 A씨는 B씨에게 “500만원을 보내야 신고를 철회하겠다”고 협박하는 식이다. 주거래 계좌가 막혀 당장 영업이 안되는 처지에 놓인 B씨는 울며 겨자 먹기로 A씨에게 돈을 준다. 그러나 A씨는 “돈을 더 달라”며 신고를 철회하지 않는다.개정안은 이런 피해를 막기 위해 계좌 동결 절차에 이의 제기를 가능하게 했다. 보이스피싱 피해를 주장하는 사람으로부터 특정 계좌에 돈이 입금됐어도, 해당 계좌가 보이스피싱 범죄 계좌가 아니라는 사실을 계좌주 등이 소명하면 지급 정지가 풀릴 수 있다. 다만 실제 보이스피싱이 일어났을 가능성도 있는 만큼, 입금액(위 사례에서 10만원)을 제외한 범위에서만 동결이 풀린다.개정안은 또 보이스피싱 사기단이 카카오페이나 토스 등 간편송금 서비스를 이용해 범죄 자금을 옮길 경우, 간편송금업자가 금융회사에 거래 정보를 제공하라는 조항을 담았다. 현재는 이 같은 제공 의무가 없어 금융기관도 1~2개월 뒤에야 최종 수취 계좌를 알 수 있다. 윤 의원은 “억울하게 보이스피싱 범죄에 연루돼도 구제 수단이 부족한 현행법의 한계를 보완하기 위해 개정안을 마련했다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>토스뱅크, 집중호우 피해 복구 위해 5000만원 성금 기부</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002310917?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>희망브리지 전국재해구호협회에 전달 예정토스뱅크 “호우 피해 주민들 회복 위해 은행의 사회적 책임 이어갈 것” ◆…토스뱅크가 지속적인 집중호우로 인한 피해 복구와 이재민 지원을 위해 5000만원의 성금을 기부한다. 사진=토스뱅크 제공토스뱅크가 지속적인 집중호우로 인한 피해 복구와 이재민 지원을 위해 5000만원의 성금을 기부한다고 18일 밝혔다.   이번 성금은 희망브리지 전국재해구호협회를 통해 전국 지방자치단체로 전액 전달될 예정이다. 피해 지역의 시설 복구 및 이재민 생필품, 취약계층의 주거 안전을 위해 사용된다.   앞서 지난 2월 토스뱅크는 임직원들의 자발적인 모금을 통해 튀르키예 지진 피해 복구를 위해 성금을 전달한 바 있다.   토스뱅크 관계자는 "지속되는 집중호우에 따른 피해 주민들을 위해 지속적으로 노력할 것"이라며 "추가적인 지원방안도 모색 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>뮤직카우 "정보보호역량 갖춘 스타트업"</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000046093?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>(사진=뮤직카우) 음악 수익증권 플랫폼을 운영하는 뮤직카우가 고객 보호 강화를 위해 노력한 지난 1년 간의 성과를 20일 공개했다. 뮤직카우는 음악 저작권으로부터 발생되는 수익을 분배받을 수 있는 '음악 수익증권' 플랫폼의 안전한 서비스 환경을 구축하고자 지난해 정보관리본부를 신설한 것을 첫 성과로 꼽았다.앞서 뮤직카우는 지난해부터 카카오페이, 토스증권, 쿠팡 등에서 정보보호 책임자로 근무한 CIO를 영입한 것을 필두로 국내 유수의 핀테크, IT 기업 출신 인재들을 대거 영입하며 전문성을 강화했다. 업계 핵심 인력들로 구성된 뮤직카우 정보관리본부는 가장 먼저 △서비스 안정성 강화를 위한 재해복구 및 백업체계 적용 △IT 및 보안 인프라 구축 및 관리체계 강화 △보안 및 인프라 모니터링 등의 업무를 수행했다.고객들의 이용 편의성을 높이기 위한 시스템도 구축했다. 지난해 9월 도입된 뮤직카우 간편인증 서비스는 사설인증서 기반의 전자서명 기술을 적용한 서비스다. 간편 비밀번호 설정을 통해 더욱 편리하고 안전하게 거래할 수 있도록 지원한다.이 같이 정보보안 강화를 위한 노력이 지난해 혁신금융서비스 지정과 이후 금융당국으로부터 최종 제재 면제를 받는 데 주효했다는 사측 설명이다. 뮤직카우는 자체적으로 구축한 IT 인프라 및 보안체계 완비를 통해 당국의 실사 대응을 완료했다. 물적설비 및 안정성 강화에 대한 요건을 충족함에 따라 지난해 11월 금융위원회 산하 증권선물위원회로부터 최종 제재 면제를 받으며 제도권에 편입됐다.이를 통해 뮤직카우는 저작권 등을 기초로 하는 무체재산권 신탁수익증권으로서의 권리를 공식적으로 인정받은 세계 최초의 사례가 됐으며, 뮤직카우 고객들은 증권이나 펀드처럼 자본시장법의 보호 아래 투자할 수 있게 됐다.뮤직카우의 정보보호 강화를 위한 노력은 국내외 외부 검증기관의 인증 획득으로도 이어졌다. 지난해 9월 획득한 'ISO27001'은 국제표준화기구(ISO)의 국제전기기술위원회(IEC)에서 제정한 정보보호 관리체계에 대한 국제 표준 규격이다. 뮤직카우는 정보관리본부 신설을 통한 내부 전문인력의 우수한 역량으로 빠른 기간 내 관리체계를 구축하고 인증을 획득할 수 있었다.올해 3월에는 관련 업계 최초로 '정보보호 및 개인정보보호 관리체계(ISMS-P)' 인증을 획득했다. ISMS-P는 정보보호뿐만 아니라 개인정보보호를 위한 일련의 조치와 활동이 인증기준에 적합하게 관리되는지를 평가하는 국내 최고 수준의 정보보호 통합 인증 제도다. 과학기술정보통신부와 개인정보보호위원회의 공동 고시 기준에 따라 한국인터넷진흥원(KISA)에서 인증한다.뮤직카우 정보관리본부 직원들은 스타트업 개발팀 간 개발 역량을 겨뤄보는 대회에도 참가해 우수한 성적을 거두기도 했다. AWS코리아가 지난 4월 25일 스타트업 개발팀을 대상으로 진행한 'AWS 스타트업 게임데이(이하 게임데이)'에서 뮤직카우 정보관리본부 소속 직원들은 참가 스타트업 14개 회사 중 2위의 성적을 거뒀다.게임데이는 스타트업이 사업을 전개하다 발생할 수 있는 개발 분야의 다양한 이슈 상황을 가상으로 구현하고, AWS 솔루션을 통해 해결해보는 대회다. 뮤직카우의 이번 수상은 AWS 운영역량 및 전문성을 기반으로 보안, 인프라, 데브옵스(DevOps) 등의 분야에 역량을 갖춘 팀원들이 있어 효과적인 협업과 지원이 가능했기에 이룰 수 있는 성과였다.뮤직카우 관계자는 "앞으로도 뮤직카우는 보안체계 및 IT 인프라 역량을 더욱 높여 서비스를 고도화하는 것은 물론 뮤직카우가 구축한 문화금융 생태계 활성화를 통해 문화와 금융 양대 시장의 성장을 이끌어 가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[기획/2023 디지털금융 ①] ‘생성형 AI’ 출현… 금융산업 '디지털·IT' 전략에도 거센 후폭풍 예고</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002152740?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>AI가 예상한 금융산업의 미래. 'AI세상에서 경험하게 될 금유서비스를 그려봐 달라'고 주문하자 AI 프로그램이 내놓은 결과다. 예상했던 모습이지만 '따뜻함'은 느껴지지 않는다. 어쩌면 그것은 영원히 인간의 몫일지 모른다. &lt;일러스트= 신제인 기자 jane@ddaily.co.kr&gt;인공지능(AI)으로 인해 금융권의 디지털 플랫폼 전략도 격량을 예고하고 있다. '생성형 AI'의 등장으로 금융권의 디지털 혁신은 또 한번의 격랑을 예고하고 있다. 이미 치열하게 전개되고 있는 '초개인화', '초자동화' 은 결국 금융 혁신의 수준을 또 다른 차원의 세계로 이끌 것이란 전망이다. 디지털데일리는 7월 출간한 &lt;2023 디지털금융 혁신과 도전&gt;의 주요 내용들을 중심으로 &lt;디지털금융&gt;기획 시리즈를 게재한다. &lt;편집자&gt;[디지털데일리 박기록 기자] ‘생성형 AI’에 대한 시장의 기대는 가히 폭발적이다. 올 상반기 미국 증시에선 ‘AI에 흠뻑 빠졌다’고 표현될 정도로 AI 관련주들에 대한 관심이 뜨거웠다. 물론 지금은 더 뜨겁다.‘챗GPT’개발사인 오픈AI에 대규모 투자를 한 마이크로소프트(MS)의 주가는 사상 최고치를 돌파했다. MS가 ‘챗GPT’를 적용해 검색서비스인 ‘빙’(Bing)의 시장 경쟁력을 크게 상승시킬 것이라는 전망이 나왔고, 지난 19일(현지시간) 기업용 '오피스 365'에 월 30달러의 AI 구독 서비스까지 제시하면서 다시 한번 급등했다.MS는 ‘GPT-4’ 기반의 오피스 제품을 통해 AI가 파워포인트(PPT)를 자동으로 작성하고, 이메일을 작성하며 데이터 시각화 작업이 가능하도록 할 것이라는 비전과 함께 이제 자동으로 회의 내용을 요약해 문서화 하는 등의 비전을 제시하고 있다. 기업 업무 혁신의 가능성을 또 다시 무한대로 확장해 놓은 것이다.적지않은 불안 요소가 지적되고 있음에도 ‘챗GPT’와 같은 진화된 AI가 전산업군에 걸쳐 생산성을 획기적으로 증가시킬 것이라는 기대는 급속하게 확장되고 있다.금융산업도 예외는 아니다. 특히 금융권의 기존 디지털 및 IT 전략에 어떤 영향을 미치게 될까.이와관련 &lt;디지털데일리&gt;는 올 상반기 국내 주요 은행들에게 ‘챗GPT와 같은 혁신적인 AI기술을 업무에 어떻게 적용할 계획인가'를 질문했다. 이에 국민, 농협, 우리, 신한, 부산 등 주요 은행들은 거의 대부분 “아직은 신중하게 생각하고 있다”는 반응을 나타냈다. 인터넷전문은행인 토스뱅크도 마찬가지 반응을 보였다.물론 금융권의 이같은 신중함은 ‘챗GPT’의 기술적 미흡때문이 아니다.이미 가공할 능력을 선보인 생성형AI가 가진 잠재적 위험성이 아직 최종적으로 검증되거나 파악되지 못한데서 출발한다. AI 보안의 문제와 함께 실제 비대면 플랫폼금융 서비스에 적용했을 때 잘못된 정보나 ‘불완전판매’ 등 오류, 오작동 위험성을 조심스럽게 검증하는 단계를 지나고 있다.그러나 결국 시간의 문제일뿐 ‘잠재적 위험’이 해소되거나 ‘위험을 회피하기위한 가이드라인’이 마련되는 등 안전장치가 추가로 확보되고, 시장의 자연스러운 신뢰가 축적되면 금융권이 업무 혁신의 수단으로 ‘생성형 AI’를 적극적으로 수용할 것이란 예상이다.그 시점을 예단하는 것은 현재로선 쉽지않지만 금융권에서 벌써부터 ‘생성형 AI’의 장점을 활용하기위한 디지털·IT 전략이 역동적으로 전개될 것이란 전망이 지배적이다.2023.4.17 BNK금융그룹이 부산은행 본점에서 그룹 임직원의 디지털 역량 강화를 위해 그룹 및 계열사 부실점장 500여명이 참석한 가운데 ‘ChatGPT 이해와 활용’ 강연을 개최했다. ⓒBNK부산은행무엇보다 대형 금융그룹사를 중심으로 전개되고 있는 ‘유니버설뱅킹(종합금융) 플랫폼’ 전략이 진화된 AI를 통해 한단계 이상 진일보하게 될 것이란 예상이다. KB국민은행은 지난 6월 내부 직원들을 대상으로한 비공개 사이트(‘KB-GPT’)를 오픈하고 ‘생성형AI’ 서비스 개발에 착수했다.‘실시간 고객 정보의 분석과 최적화된 맞춤형 금융서비스’가 플랫품 금융 서비스의 본질적인 경쟁력 요소라고 한다면 ‘생성형 AI’는 당분가 대체 불가능한 기술적 옵션일 될 것이란 예상이다.특히 금융권은 생성형AI가 가진 ‘우수한 자연어 처리(NLP)’와 ‘강력한 콘텐츠 생산 능력’에 환호하고 있다. 대고객 응대 서비스 및 내부 업무 프로세스 혁신에 폭넓게 활용할 것으로 기대하고 있다.상용화가 본격화될 경우, 금융권의 플랫폼 서비스 규모도 지금보다 월등하게 더 커지게된다. 물론 이를 안정적으로 처리하기위한 IT인프라의 확대, 또 그에 따른 클라우드 인프라의 확장, 중장기적인 차세대시스템 전략의 변화 등 금융권 IT인프라 운용 전략에도 연쇄적인 후폭풍이 불가피할 것으로 예상된다.당연히 현재 국내 시중 은행당 연 평균 4000억~5000억원(IT자본예산) 기준 소요되고 있는 IT 예산도 지속적으로 늘어날 수 밖에 없다.그러나 한편으론 지금과 같은 AI 혁신 기술의 예상을 뛰어넘는 급진전은 오히려 혼선을 키울 수 있다는 점에서 우려도 나온다. 기술 변화의 예측이 불확실할 경우, 국내 금융권의 중장기 ‘디지털전환’(DT) 전략에는 부정적인 영향을 미칠 수 있기때문이다. 실제로 과거 금융권 차세대시스템 프로젝트 진행과정에서 예상을 뛰어넘는 혁신 기술의 돌출은 결과적으로 사업의 진행을 방행하는 요소로 작용한 사례가 적지않다.또한 생성형AI의 확산에 앞서 금융 당국에 의해 제시되는 규제도 현재로선 불확실성이 크다. 이미 금융당국은 ‘AI 보안 가이드라인’ 을 내놓는 등 새로운 금융 규제의 틀을 제시하고 있튼데, 이러한 규제가 앞으로 더 복잡하고 세분화될 가능성 높고 이에 금융권이 적응하는데에도 시간이 필요할 것이란 분석이다.* 본 기사는 디지털데일리가 7월 발간한 &lt;2023년 디지털금융 혁신과 도전&gt;에 게재된 내용을 요약한 것으로, 책의 편집 내용과 다를 수 있습니다. 해당 도서는 디지털데일리 홈페이지를 통해서만 온라인 한정 판매되며 일반 서점에서는 판매하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>인뱅 1∼4월 중저신용대출 취급 작년보다 17%↓…카뱅만 증가</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014073706?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>케이뱅크 44%·토스뱅크 38% 감소인터넷전문은행(CG)[연합뉴스TV 제공]    (서울=연합뉴스) 오지은 기자 = 인터넷전문은행 3사(카카오·케이·토스뱅크)의 1∼4월 중·저신용자(신용평점 하위 50%) 대출 공급액이 작년 동기 대비 4천억원 넘게 감소한 것으로 나타났다.     18일 금융권에 따르면 인터넷은행 3사가 올해 1∼4월 취급한 중·저신용자 신용대출 공급액은 2조700억원으로 지난해 동기(2조5천85억원)보다 17.48% 감소했다.     은행별로 카카오뱅크는 올해 1∼4월 지난해 동기(8천685억원) 대비 25.5% 늘어난 1조900억원의 중·저신용자 대출을 공급했다.     카카오뱅크는 또 인터넷은행 중 유일하게 서민금융상품인 햇살론을 운영 중으로 지난해 1∼4월과 올해 1∼4월 모두 230억원씩 취급했다.    반면 같은 기간 케이뱅크는 중·저신용자 대출로 3천500억원을 공급해 지난해 같은 기간(6천300억원) 대비 44.4% 줄었다.     특히 은행연합회 인터넷전문은행 기타공시에 따르면 케이뱅크는 지난해 10월부터 올해 5월까지 7개월간 저신용자(신용점수 650점 이하) 대출을 중단한 것으로 나타났다.저신용자대출 중단 중인 케이뱅크[은행연합회 홈페이지 캡처. 재판매 및 DB 금지]    토스뱅크 역시 올해 들어 4월까지 6천300억원을 공급해 작년 같은 기간(1조100억원)보다 37.7% 감소했다.     이처럼 케이뱅크와 토스뱅크가 올해 들어 중·저신용자 대출을 보수적으로 운영한 것은 지난해 이들 은행이 중·저신용자 대출 규모를 확대하면서 연체율과 고정이하여신(연체 기간 3개월 이상) 등 건전성 지표가 악화했기 때문이라는 분석이 나온다.    앞서 2021년 5월 금융당국이 인터넷은행이 중·저신용자 대출 비중(잔액 기준)을 공시하도록 주문하면서 목표치 달성에 집중했는데 지난해 고금리 상황에서 중·저신용자들의 상환 여력이 악화하면서 건전성 지표가 악화했다.    케이뱅크의 올해 1분기 연체율은 0.82%로 지난해 동기(0.48%)보다 0.34%포인트(p) 상승했고 같은 기간 고정이하여신비율은 0.94%로 0.3%p 상승했다.     2021년 10월 출범한 토스뱅크는 올해 1분기 연체율이 1.32%, 고정이하여신비율이 1.04%로 직전 분기(0.72%·0.53%)보다 각각 0.6%p, 0.51%p 상승했다.    일각에서는 이들 은행이 중·저신용자 대출 공급을 줄이며 금융당국이 제시한 신용대출 비중을 맞추지 못할 수도 있다는 전망도 나온다.     이에 대해 인터넷은행 관계자는 "중저신용자 대출의 경우 중도 상환, 대환 등이 발생해 (공급액이) 일정하게 늘어나는 구조를 갖기에 어려울 수 있다"며 "은행연합회 공시 기준도 대출 잔액 기준으로 설정돼 있다"고 설명했다.     올해 1분기 인터넷은행 3사의 중·저신용자 대출 잔액과 비중은 카카오뱅크 3조5천억원(25.7%), 케이뱅크 2조622억원(23.9%), 토스뱅크 3조1천억원(42.06%)으로 집계됐다.     이들 3사의 올해 말 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44% 등이다.     built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.07.27.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>그리스 산불 전국으로 맹렬히 번져 사망 3명 추가 발견</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011998170?sid=104</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>10일간 전국에서 594건..61건이 26일 발생로도스섬에선 비상사태 선언.. 2만 명 대피[로도스=AP/뉴시스] 24일(현지시각) 그리스 로도스섬의 해안 휴양지 린도스 리조트 인근에서 한 남성이 산불을 끄기 위해 애쓰고 있다. 로도스섬의 산불이 1주일간 계속되면서 방어선이 무너지고 강한 바람과 연이은 폭염으로 전국적으로 594건의 화재가 발생했다. 2023.07.27.[서울=뉴시스] 차미례 기자 = 25일 산불을 진압하던 항공기가 추락, 캐나다 조종사 2명이 숨지는 등 모두 3명이 사망한 그리스에서 26일(현지시간) 산불이 전국으로 크게 확대되면서 3명의 추가 사망자가 발견되었다고 국영 AMNA통신이 보도했다. 가장 큰 산불이 맹위를 떨치고 있는 볼로스 부근의 한 트레일러에서는 26일 여성 한 명이 숨진 채 발견되었다고 그리스의 ERT방송이 보도했다.  그녀의 남편도 심한 화상을 입은 채 발견되었다. 또 그 곳에서 불과 몇 km떨어진 곳에서는 45세의 목부 한 명의 시신이 발견되었다.  그는 남자 형제와 함께 가축을 안전한 곳으로 대피시키려다가 변을 당했다고 방송은 보도했다. 그 보다 몇 시간 전에는 에비아 섬의 해변 관광지 카리스토스에서도 남성 한 명이 숨졌다.  그 곳은 전 날인 25일 산불 진화용 항공기가 추락해서 조종사와 부조종사가 숨진 곳이다. 아직 공식 신원 확인은 끝나지 않은 상태이지만 이 곳에서도 41세의 목부 한 명이 23일에 가축들을 대피시킨다고 집을 나간 뒤 돌아오지 않고 있어 그의 가족과 친척들은 이번에 발견된 시신이 그의 것이라고 믿고 있다. 그리스에서는 지난 10일 동안 전국에서 무려 594건의 산불이 발생했고 그  중 61건이 26일 발생했다.  그리스 정부의 기후위기 민방위부 장관 바실리스 키킬리아스는 그 가운데 볼로스의 산불이 가장 크고 위력적이라고 밝혔다. .산불이 급속히 번지면서 산불 선단지역이 한꺼번에 수 킬로미터씩 확대되고 기운이 40도를 넘어서자 전국 각지의 마을에 대피령이 내려져 주민들이 피난하고 있다고 키킬리아스 장관은 말했다.   [아테네=AP/뉴시스] 7월 18일 그리스 아테네 인근 아기아 소티라 마을 주민들이 국도 주변에서 불타는 수목을 바라보고 있다. 그리스에서는 40도를 넘는 폭염으로 산불이 전국으로 확대되어 594건에 이르렀다. 2023.07.27. AMNA 통신을 인용한 외신들에 따르면 현재 볼로스 부근의 산업단지에까지 번진 산불에 소방인력이 집중되어 진화작업을 벌이고 있다.  이 곳의 공장들은 이미 사람들이 모두 대피했고 인근에 있는 고고학적 가치가 높은 여러 마을들도 주민들이 대피한 상태이다. 그리스 소방대에 따르면 이미 화재가 심해진  코르푸섬과 에비아섬에서는 이미 진화된 지역의 산불이 재발화 하지 않도록 소방대원들이 전력을 다하고 있다.  인근 로도스에서는 대피를 위한 더 많은 항공편을 준비하고 있다. 26일 비상사태를 선언한 로도스에서는 지난 9일 동안 연속해서 산불이 확대되면서 2만명이 넘는 사람들이 대피했다. 현재의 긴 폭염이 좀처럼 수그러들지 않는 가운데 그리스 일부 지역은 44도(화씨 111도)를 넘어설 것으로 예상된다.  하지만 비상사태는 관광객들이 오기에 위험하다는 의미는 아니고,  나중에 산불 피해 보상 신청을 할 경우에 대비해서 내려진 것이라고 지역 당국은 설명했다. 카테리나 사켈라로풀루 그리스 대통령은 최근 지중해 연안 모든 국가가 산불에 시달리는 중에 이탈리아, 포르투갈, 몰타, 불가리아 대통령들과 26일 전화 회담을 가졌다.  이 회담에서 그리스 대통령은 기후 위기에 대응하기 위해서 남유럽 국가들의 공동 방화작업을 제안했다고 대통령실은 밝혔다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>"한국 경제의 '신입사원' K벤처 잠재력 충분" [제13회 대한민국 강소기업 포럼]</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005044595?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>류선종 인앤아웃코퍼레이션 대표 강연  "한국의 스타트업은 무한한 잠재력을 갖추고 있어 우리 경제의 '신입사원'을 육성하면 K푸드, K무비를 잇는 세계 속의 K벤처·컴퍼니로 우뚝 서게 될 것이다."   류선종 인앤아웃코퍼레이션 대표는 19일 서울 강남구 조선팰리스서울강남에서 파이낸셜뉴스 주최로 열린 제13회 대한민국 강소기업포럼에서 "현재 국내 스타트업이 유동성 약화 등으로 투자와 자본 조달에 난항을 겪고 있지만 여전히 성장 잠재력이 크고, 혁신이 지속되고 있다"고 강조했다.   그는 "우리나라 공무원들과 공공기관, 언론, 기업들이 유능하고 열정이 많았기 때문에 지난 2014년에 용산전자상가 지하에서 1000만원을 가지고 창업을 했지만 각종 지원과 협력을 통해 성장을 할 수 있었다"고 설명했다.   인앤아웃코퍼레이션은 기업 상품기획과 시제품 제작, 양산을 하고 있는 하이테크 제조 서비스 플랫폼으로 지난 4월 윤석열 대통령의 미국 국빈방문 중 방미 경제사절단에 포함됐다. 최근 인앤아웃코퍼레이션은 포커스미디어와 함께 층간소음 문제를 해결할 수 있는 무음실내화인 '뭄뭄실내화'를 개발, 5만켤레를 판매했다.   류 대표는 "과거에는 삼성과 현대자동차, LG도 모두 신입사원으로 시작했지만 혁신과 성장을 거듭해 현재는 한국을 대표하는 기업들이 됐다"며 "최근 신입사원을 넘어 중역으로 성장한 기업은 네이버, 카카오 등이 있고 쿠팡이나 토스, 배달의민족 같은 기업들은 신입사원에서 과장 정도는 와 있는 상황"이라고 말했다.   그는 "스타트업은 신입사원이라고 할 수 있고, 우리 경제에 신입사원이 지속적으로 들어와야 하고 그럴 수 있는 환경을 조성하는 것이 중요하다"며 "스타트업을 신입사원으로 받아들여 잘 키운다면 생각하지도 못한 성장으로 경제는 물론 국가의 성장에도 긍정적 역할을 하게 될 것"이라고 강조했다.   특별취재팀 강재웅 강경래 강규민 강중모 장유하 이주미 정원일 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.07.16.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>'카카오 먹통' 10개월째인데…금융사, 재해대응 시스템 여전히 '엉망'</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006930754?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>재해복구센터 없는 118개사, 책임이행보험 미비 57개사금감원 "금융권 IT내부통제 여전히 부족…제도 개선 추진"지난해 10월 발생한 카카오 전산센터 화재로 금융 서비스 장애까지 발생했다. 예상치 못한 재해로부터 서비스 연속성을 유지하기 위한 '재해복구'(DR·Disaster Recovery)의 중요성이 금융권에서도 대두됐다. 2022.10.15/뉴스1 ⓒ News1 박세연 기자(서울=뉴스1) 김정현 기자 = 지난해 10월 판교 SK C&amp;C 데이터센터 화재에 따른 카카오 '먹통' 사태'로 카카오페이 등 금융 서비스 장애까지 발생해 이용자들이 불편을 겪었다. 모바일 이용이 일상이 된 시대, 예상치 못한 재해로부터 서비스 연속성을 유지하기 위한 '재해복구'(DR·Disaster Recovery)의 중요성이 금융권에서도 대두된 계기였다. 재해복구는 지진, 태풍, 홍수 등 천재지변은 물론, 통신, 전력 장애나 전쟁, 해킹, 시스템 문제나 기계 오류 등 사회적·내부적 문제로 인한 재해 상황에서도 서비스가 유지되도록 하는 개념이다. 금융당국에서도 지난해 말부터 금융사 경영진과 실무진을 대상으로 간담회를 개최하고 전산사고 방지를 위한 관심을 촉구했지만, 여전히 많은 국내 금융사에 재해복구를 위한 재난 비상대책 절차가 제대로 마련되지 않은 것으로 나타났다.16일 금융감독원이 지난 13일 발표한 '금융권 IT 비상대책 점검 결과'에 따르면 국내 금융사들에는 여전히 재해에 대비한 비상대책 절차조차 제대로 마련돼 있지 않은 것으로 나타났다. 재해복구센터를 구축하지 않은 중소형사도 100곳이 넘었으며, 전자금융사고가 발생했을 때 책임이행을 위한 보험조차 가입하지 않은 곳들도 있었다.이명순 금융감독원 수석부원장이 13일 서울 영등포구 여의도동 금융감독원에서 열린 금융권 CIO 간담회에서 모두발언을 하고 있다. 2023.7.13/뉴스1 ⓒ News1 김성진 기자◇118개 금융사, 재해복구센터 없어…"장애발생 대책 미흡"이번 점검에서는 전자금융서비스를 제공하는 금융회사 중 118개사가 재해복구센터조차 별도로 구축하지 않은 것으로 드러났다.현행 전자금융감독규정은 △은행법으로 인가받은 은행 및 산업은행, 중소기업은행 △농협은행 및 수협중앙회 신용사업부문 △증권금융회사 및 한국예탁결제원 △거래소 △신용카드사 △보험요율산출기관 △상호저축은행중앙회 △신협중앙회 △보험회사에 재해복구센터 구축을 의무화하고 있다.이번에 재해복구센터가 없는 것으로 드러난 곳은 구축 의무가 있는 회사는 아닌 것으로 알려졌다.그러나 금감원 측은 "재해복구센터 서버 등 용량이 주전산센터에 크게 미달하거나, 대외기관 전용선이 누락되어 재해발생시 정상적인 서비스 제공에 의문이 든다"며 "외부 연계서비스 계약시 IT위험평가 절차 및 손해배상 등 계약지침이 마련되어 있지 않고, 장애발생에 대한 대책이 미흡하다"고 지적했다.한 보안업계 관계자도 "24시간 실시간으로 이뤄지는 금융 거래 업무의 특성상 금융업계에서 업무 연속성을 위한 재해복구 시스템은 굉장히 중요하다"며 "물론 재해복구 시스템을 제대로 갖추기 위해서는 적지 않은 비용이 필요해 기업 입장에서 부담스러울 수 있지만 문제가 발생했을 때는 오히려 피해를 최소화할 수 있는 수단"이라고 말했다.전자금융사고 대비 보험 공제 가입기준 (금융감독원 전자금융감독규정 해설 갈무리) ⓒ 뉴스1◇재해복구 시스템도 허술한데…보상 위한 책임보험도 가입 안한 금융사들문제는 이처럼 재해복구 시스템도 허술한 가운데 금융사들이 재해 등으로 전자금융사고가 발생했을 때 책임이행을 위한 보험에도 제대로 가입하지 않았다는 점이다.금감원에 따르면 최근 3년간 전자금융사고 관련 손해배상 금액은 △금융투자 139억원 △중소서민금융사 23억원 △은행 2억원 △전자금융업 8억원 등 총 172억원에 달했다.그러나 △특정 유형 사고에 대해 기준금액 미만으로 가입 △사고발생 건당 보상한도를 기준금액 미만으로 가입 △전자금융업 추가 등록 후 보험가입 금액 증액 누락 등 보험 가입을 부실하게 하거나 아예 보험에 가입하지 않은 경우도 있었다. 모두 전자금융거래법 9조 의무 위반이다.금감원이 국회 정무위원회 양정숙 무소속 의원에 제출한 지난해 11월 책임이행보험 실태조사 자료에 따르면 △쿼터백자산운용(금융사) △쿠팡페이 △비바리퍼블리카(토스) △우아한형제들(배달의민족) △인터파크 △위메프 △당근페이 △위대한상상(요기요) △원스토어 △티몬 △골프존 등 56개사가 보험에 가입하지 않거나 준비금 보유액이 기준금액을 미충족했다. 일각에서는 핀테크 산업 성장 등을 이유로 간소화한 전자금융업 등록 심사절차 때 사고 발생시 보험 가입 등은 심사하지 않는 금융당국의 책임에 대한 지적도 나온다. 현재 금감원은 전자금융업종 등록 심사 과정에서 이용자 보호를 위해 백업장치 및 프로그램 구비, 정보보호시스템 등 감시운영체제 구축, 전산실 내장·설비 안전성 등 물적 요건에 대해서만 서류심사를 진행할뿐이다. 책임이행보험 가입 여부 등에 대해서는 들여다보지 않는다.전자금융업 등록 요건. 금감원은 전자금융업종 등록 심사 과정에서 이용자 보호를 위해 백업장치 및 프로그램 구비, 정보보호시스템 등 감시운영체제 구축, 전산실 내장·설비 안전성 등 물적 요건에 대해서만 서류심사를 진행할뿐이다. ⓒ 뉴스1◇금감원, 재해복구센터·책임이행보험 등 제도 개선도 추진키로금감원에서는 카카오 데이터센터 화재 이후 IT 비상대책 점검 등에도 불구하고 내부통제는 여전히 부족하다고 판단해 제도적 개선도 추진 중이다.특히 재해복구센터 구축의무 대상회사 확대 및 책임이행보험 최저 보상한도 상향 등 제도적 개선도 추진하겠다고 밝힌 상태다. 재해복구센터의 경우 전자금융업무 수행방식 및 회사 규모 등을 고려해 구축의무 대상 범위를 확대하고, 최근 손해배상 현황 등을 고려해 업권별 책임이행보험 최저보상한도도 상향한다는 방침이다.이명순 금융감독원 수석부원장은 지난 13일 22개 금융회사 최고정보책임자(CIO) 및 9개 유관기관 담당임원과의 간담회 자리에서 "디지털금융이 확산될수록 서비스가 정상적으로 제공되지 않았을 때 발생하는 소비자 피해와 사회적 손실 가능성이 함께 커진다는 점을 명심해야한다"며 "모든 소비자가 전자금융서비스를 안심하고 이용할 수 있도록 사고를 방지하고 업무 연속성을 확보하는 것을 최우선으로 고려할 필요가 있다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.07.23.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>울산에서 휴가+원격근무하면 숙박료 최대 5만 원 아낄 수 있다</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000047316?sid=103</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>시 온라인 여행사 '여기어때'와 울산형 워케이션 '유케이션'홍보^판촉 나서8월9일까지 최대 5만 원 숙박 할인권 제공, 롯데호텔 울산 등 8곳에서 사용울산에서 일과 휴가를 병행하는 울산형 ‘워케이션(휴가지 원격근무)’을 하면 숙박료를 최대 5만 원 아낄 수 있다.울산시의 유케이션 홍보 포스트. 울산시 제공울산시는 종합 여행·여가 온라인 여행사인 ‘여기어때’ 함께 워케이션 홍보·판촉에 나섰다고 23일 밝혔다.워케이션은 일(work)과 휴가(vacation)를 함께한다는 의미이다. 회사를 벗어나 휴양지나 원하는 장소에서 자유롭게 일하는 근무 문화를 말한다.이에 울산시는 울산(Ulsan)+일(work)+휴가(vacation) 약자를 딴 ‘유케이션’ 행사를 준비했다. 워케이션을 목적으로 울산을 방문하는 사람에게 8월 9일까지 최대 5만 원 숙박 할인권을 제공한다. 토스, 카카오페이 등 결제사에 따라 최대 10% 추가 할인도 제공된다.사용처는 호텔현대 바이 라한 울산, 롯데호텔 울산, 롯데시티호텔 울산, 신라스테이 울산, 머큐어 앰배서더 울산, 호텔리버사이드 울산, 다움 호텔 울산, 울산 에쉬튼 호텔 등 8곳이다. 8월 20일까지 선착순으로 사용할 수 있으며, 입실 기간은 9월 30일까지다.숙소 이용 후 설문조사에 참여한 사람에겐 추첨을 통해 여기어때에서 사용할 수 있는 1만 원 상당 이용권을 제공하며, 숙소에서 예약 인증 시 기념품도 증정한다.시는 워케이션 이용객들이 다양한 혜택을 누릴 수 있도록 여기어때 모바일 앱을 통해 관광지와 울산관광택시(4만 원에 4시간 이용), 울산페이(7% 할인)도 안내할 예정이다.시 관계자는 “하루 더 머무는 체류형 울산 관광 활성화와 지역관광 매력도를 높이고 생활인구 증가를 도모할 수 있는 유케이션 사업을 올해 추가로 2회 더 진행할 예정이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>금융위, 1년 공들인 ‘보험상품 비교·추천 서비스’…‘혁신’은 어디갔나</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006939335?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>내년부터 네카토에서 보험상품 비교하고 추천해손보사 ‘환영’·생보사 ‘냉랭’·설계사 ‘안도’…내년 초 출범뉴스1 ⓒ News1 김진환 기자(서울=뉴스1) 박재찬 기자 = 금융위원회가 1년 넘게 준비한 ‘보험상품 비교·추천 서비스’를 혁신금융서비스로 신규 지정했다. 금융위가 각 업권과 여러 차례 논의한 만큼 보험사, 보험대리점(GA), 보험설계사까지 대체로 환영하는 반응이다. 하지만 일각에서는 혁신금융서비스라고 하기에는 기존의 서비스와 유사하고 상품군도 제한적이라 서비스의 혁신성은 떨어진다는 목소리도 나오고 있다.  19일 금융위원회는 정례회의를 열고 네이버, 카카오, 토스 등 온라인 플랫폼의 ‘보험상품 비교·추천 서비스’를 혁신금융서비스로 신규 지정했다. 이르면 내년 초부터는 네이버파이낸셜, 뱅크샐러드, 비바리퍼블리카, 에스케이플래닛, 엔에이치엔페이코, 카카오페이, 쿠콘, 핀다, 핀크, 해빗팩토리, 헥토데이터 등 온라인 플랫폼은 소비자에게 적합한 여러 보험회사의 보험상품을 비교·추천할 수 있게 됐다. 하지만 금융위는 이들 온라인 플랫폼의 비교·추천할 수 있는 상품을 제한했다. 소비자가 온라인 플랫폼에서 비교·추천받을 수 있는 상품은 여행자·화재보험 등 단기보험과 자동차보험, 실손보험, 연금보험을 제외한 저축성보험, 펫보험, 신용보험이다. 현재 빅테크의 보험상품 추천 서비스는 ‘휴업’ 상태다. 금소법 위반 소지를 해소하라는 금융당국의 지시에 따라 핀테크 업계는 지난 2021년 9월 이후 자체 금융상품 추천·비교 서비스에서 보험상품을 모두 내린 상황이다. 당시 금융당국은 빅테크 업계의 금융상품 추천 서비스를 ‘중개’ 행위로 규정했다. 금융소비자보호법에 따라 중개를 하려면 금융위원회에 금융상품 판매대리·중개업자로 등록해야 하는데, 보험업법 시행령상 플랫폼 업체들은 보험상품의 중개업자 등록이 불가능하다.이 서비스는 당초 지난해 10월 중순부터 1개월여 동안 시범운영한 후 11월 말 제도화 할 예정이었지만, 규제 허용의 범위 등 활성화 방안의 세부 내용이 결정되지 않은데다, GA업계와 보험사들의 거센 반발에 일정이 연기됐다.이에 금융위는 업권별 릴레이 간담회를 통해 보험업계와 자동차보험 포함여부 등 취급상품 범위, 알고리즘 검증방안, 수수료 규제 방안 등을 논의했고, 플랫폼 보험상품 판매에 따른 설계사 영향을 고려한 취급상품 범위 등을 논의하기 위해 GA업계·설계사들과도 만남을 가졌다. 또 플랫폼 업계와도 간담회를 갖고 취급상품 범위, 특정사 편중 방지, 수수료 규제 방안 등을 논의했다.우선, 손해보험사들은 환영하는 분위기다. 특히, 중소형 손보사들은 비용이 드는 시스템 구축 없이 온라인 판매채널을 강화할 수 있기 때문이다. 반면 생명보험사들은 심드렁한 반응이다. 온라인 플랫폼에서 비교·추천하는 보험 상품 중에 생보사 상품이 거의 없고, 그나마 저축성보험도 수익성이 크지 않기 때문이다.  GA업계와 보험설계사들도 다행이라는 반응을 보이고 있다. GA업계와 설계사들은 빅테크의 보험상품 비교·추천 서비스로 대면채널의 축소를 우려했다. 하지만 대면채널에서 주력하고 있는 장기보험 비교·추천 서비스 허용 상품에서 빠졌기 때문이다. 그러나 일부 설계사들은 자동차보험과 실손보험이 대면채널에서 대표적인 미끼상품으로 활용되는 만큼 매출 축소를 여전히 걱정하고 있다. 일각에서는 금융위의 이번 ‘보험상품 비교·추천 서비스’가 반쪽짜리 혁신이라는 반응이다. 내년에 시행되는 보험상품 비교·추천 서비스가 과거에 있었던 서비스와 거의 같은데다, 추천 상품은 오히려 더 축소됐기 때문이다. 보험업계 관계자는 “1년이 넘게 준비한 서비스인 만큼 각 업권의 의견이 잘 수렴된 듯 하다”며 “서비스가 실제 출시돼야 알겠지만, 기존의 서비스와 차별성은 없어 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>토스뱅크, 집중호우 피해 복구 위해 5000만원 기부</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005532977?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>희망브리지 전국재해구호협회에 전달 예정[이데일리 유은실 기자] 토스뱅크가 지속적인 집중호우로 인한 피해 복구와 이재민 지원을 위해 5000만원의 성금을 기부한다고 18일 밝혔다. (사진=토스뱅크)이번 성금은 희망브리지 전국재해구호협회를 통해 전국 지방자치단체로 전액 전달될 예정이다. 피해 지역의 시설 복구 및 이재민 생필품, 취약계층의 주거 안전을 위해 사용된다.앞서 지난 2월 토스뱅크는 임직원들의 자발적인 모금을 통해 튀르키예 지진 피해 복구를 위해 성금을 전달한 바 있다.토스뱅크 관계자는 “지속되는 집중호우에 따른 피해 주민들을 위해 지속적으로 노력할 것”이라며 “추가적인 지원방안도 모색 중”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.07.16.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>롯데온, 제로콜라·햇반·스팸 등 최대 반값에</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011976325?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>롯데온X롯데칠성음료XCJ제일제당, 원브랜드 페스타(사진=롯데온 제공) *재판매 및 DB 금지[서울=뉴시스]박미선 기자 = 롯데온이 롯데칠성음료, CJ제일제당과 함께 17일과 18일 '원브랜드 페스타' 행사를 진행한다고 16일 밝혔다. '원브랜드 페스타'는 롯데온이 한 개 브랜드와 함께 해당 브랜드의 상품을 롯데온 단독 혜택으로 선보이고 집중적으로 마케팅 활동을 펼치는 행사다.행사 기간 각 브랜드 상품을 최대 50% 할인 판매하고, 타임딜, 라이브 방송에서 롯데온 단독 혜택을 제공한다. 또 두 개 브랜드가 선보이는 단독 구성 상품도 준비했다.롯데온은 '원브랜드 페스타'에서 롯데칠성음료의 아이시스, 칠성사이다, 펩시 등을 롯데온 단독 혜택으로 선보인다. 또 CJ제일제당의 햇반, 비비고, 스팸 등에도 단독 혜택을 제공한다. 행사 상품에 적용할 수 있는 최대 22% 할인 쿠폰 및 토스페이 결제 시 최대 10% 즉시 할인 혜택을 적용하면 최대 50% 할인된 가격에 구매할 수 있다.두 개 브랜드의 인기 상품을 묶어 만든 '롯데칠성음료XCJ제일제당 롯데온 단독 구성 상품'도 준비했다. 밀키트와 음료가 합쳐진 구성 상품으로 'CJ제일제당 쿡킷+칠성사이다(500㎖) 세트'가 있고, 쿡킷 상품은 순두부스팸김치찜, 킬바사투움바파스타, 닭가슴살토마토리조또 등에서 선택할 수 있다.롯데온은 '원브랜드 페스타'를 맞아 오전 10시, 오후 2시 등 총 4번의 '타임딜' 행사를 진행해 CJ제일제당 스팸, 비비고, 쁘띠첼 등과 롯데칠성음료 아이시스, 펩시, 밀키스 등 인기 상품을 한정 수량 롯데온 특별 가격에 선보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>"휴가철 장보기 여기서" 배민B마트, 스타필드에 판 벌렸다</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004215926?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>휴가 시즌 맞아 6주간 팝업스토어고양·하남·명지서 2주씩 행사개최B마트 인기 제품 현장서 판매하고2.6m 슬라이드에 볼풀 등 놀거리참여형 게임·이벤트, 쿠폰 증정 등배달의민족의 장보기 서비스인 ‘배민B마트’가 여름휴가 시즌을 맞아 신세계 스타필드에서 팝업스토어를 운영한다. 사진은 스타필드 고양에서 진행중인 팝업스토어 전경/사진 제공=우아한형제들[서울경제] 배달의민족의 장보기 서비스인 ‘배민B마트’가 여름휴가 시즌을 맞아 신세계 스타필드에서 팝업스토어를 운영한다.배달의민족 운영사 ㈜우아한형제들은 신세계 스타필드 고양점을 시작으로 6주간 팝업스토어 ‘배민B캉스’를 운영한다고 19일 밝혔다. 이번 행사는 배민B마트를 오프라인에서 여름 피서를 즐기듯 즐겁게 체험할 수 있도록 꾸며졌다.배민B캉스에서는 처음으로 B마트 인기 상품들을 현장 판매한다. ‘바질페스토 컬리플라워 볶음밥’, ‘순대 많이 얼큰 순댓국’ 등 자체브랜드(PB) 상품을 비롯해 고객들이 많이 구매한 ‘태극당 모나카’, ‘서울페이스트리 크로넛’ 등 총 30여 종의 B마트 인기상품을 만날 수 있다. 팝업 매장 벽면의 상품 QR코드를 스캔하면 신선식품부터 가정간편식, 밀키트, 반려동물 제품까지 다양한 상품을 배민B마트를 통해 구매하고, 배달받을 수 있다. 2만 원 이상 사면 네 컷 사진을 찍을 수 있는 포토부스 체험을 제공한다.방문객을 위한 즐길 거리도 풍성하게 마련했다. 2.6m 높이의 대형 슬라이드, 30만 개 공으로 이뤄진 볼 풀 등 놀이시설과 볼 토스, 볼 슈팅 등 가벼운 참여형 게임프로그램, 포토존도 운영한다. 참여 개수에 따라 B마트 장바구니, 부채 등 굿즈와 ‘배민이지’ PB상품을 선착순으로 증정할 예정이다. 배달의민족의 장보기 서비스인 ‘배민B마트’가 여름휴가 시즌을 맞아 신세계 스타필드에서 팝업스토어를 운영한다. 사진은 스타필드 고양에서 진행중인 팝업스토어 전경/사진 제공=우아한형제들이번 팝업스토어는 6주에 걸쳐 2주씩 릴레이로 열린다. 스타필드 고양에서는 7월 18~31일, 스타필드 하남에서는 8월 2~15일, 스타필드시티 명지점에서는 8월 17~30일 진행된다. 배민B마트 관계자는 “무더운 여름철 배민B마트가 재밌고 시원한 장보기 플랫폼이 됐으면 하는 바람에서 이번 행사를 기획했다”며 “앞으로 다양한 체험형 이벤트로 고객과의 접점을 넓혀 배민B마트를 알려 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>황현정 토스뱅크 PO "10만원으로도 찾는 투자 플랫폼" [핀테커in]</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002731072?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>인터넷은행 최초 WM 부문 신설채권 등 안정·수익성 상품 선별"친절한 설명·좋은 라인업 추구"황현정 토스뱅크 자산관리 부문 프로덕트오너가 12일 오후 서울 강남구 토스뱅크 사무실에서 데일리안과 인터뷰를 하고 있다. ⓒ토스뱅크[데일리안 = 김효숙 기자] "10만원으로도 찾는 투자 서비스."황현정 토스뱅크 프로덕트오너(PO)는 지난 12일 서울 강남구 토스뱅크 본사에서 만나 "토스뱅크 WM 서비스는 가장 쉬우면서, 보다 좋은 상품들이 모여 있는 투자 플랫폼이 되고 싶다"고 말했다.황 PO는 여유자금이 10만원이든 1억원이든 모든 고객에게 열린 서비스를 만들고 싶다고 강조했다. 전문가의 도움 없이 비대면을 통해 스스로 상품을 찾을 수 있는 오픈 인프라다.토스뱅크는 인터넷전문은행 중 유일하게 자산관리(WM) 부문을 신설했다. 기존 시중은행의 WM 부서는 대개 프라이빗뱅커(PB)들이 고액자산가들을 대상으로 대면 서비스로 제공하는데, 비대면 영업만 가능한 인터넷은행으로서는 쉽지 않은 선택이었다.황 PO는 "토스뱅크 대표 수신 상품인 수시입출식 토스뱅크통장은 2% 금리를 주는데도 20조원이라는 큰돈이 몰렸다"며 "여유자금이 있는 고객들에게 안정적이면서도 2% 이자율보다 더 높은 수익을 가져다주는 상품을 제시하면, 고객도 큰 혜택을 받고 은행도 비이자수익을 추가로 얻는 윈윈이 가능하다고 판단했다"고 말했다.황현정 토스뱅크 자산관리 부문 프로덕트오너가 12일 오후 서울 강남구 토스뱅크 사무실에서 데일리안과 인터뷰를 하고 있다. ⓒ토스뱅크이렇게 나온 대표 서비스가 지난해 8월 출시한 목돈 굴리기다. 시장 내 경쟁력 있는 제휴 증권사들의 투자 상품들을 토스뱅크가 자체 선별해 소개하는 서비스다. 일반 소비자들이 접하기 어려운 발행어음과 국고채·은행채·우량 회사채 등의 채권 위주의 상품들이 소개된다.1개월 만기 연 3.9% 이자를 주는 현대자동차 채권은 오픈 40분 만에 완판됐고 출시 10개월 만에 2조1000억원 어치를 판매하는 성과로 이어졌다. PB를 통해서나 가능했던 발행어음 구매나 채권 투자도 10만원 소액으로 시도할 수 있는 점이 장점이다.상품 선별 기준은 분명하다. 높은 안정성을 갖춘 동시에 예·적금 보다는 높은 수익성을 내는 상품이다. 국고채, 은행채, 신용등급 A 이상의 일반인들도 알만한 회사 채권 등이다. 황 PO는 "처음 투자하는 분들도 나쁜 경험을 겪지 않도록 안정성을 우선으로 보고 수익성을 조합해 최적의 상품을 골라 낸다"고 말했다.황현정 토스뱅크 자산관리 부문 프로덕트오너가 12일 오후 서울 강남구 토스뱅크 사무실에서 데일리안과 인터뷰를 하고 있다. ⓒ토스뱅크WM부서가 가장 신경쓴 부분 중 하나는 쉽게 또 쉽게 풀어 설명하는 것이다. 전문가의 도움 없이도 청년, 사회초년생, 금융초보들도 쉽게 투자해볼 수 있으려면 상품에 대한 친절하고 직관적인 이해가 필요하다.황 PO는 "다양한 사람들에게 설명문을 읽어보라고 하고 이해가 안된다는 사람이 없을 때까지 수십번 문구를 고친다"고 강조했다. 실제 토스뱅크 목돈 굴리기 서비스에서는 채권을 '돈을 빌려주고 이자를 받는 상품', '정해진 기간 마다 이자를 받는다' 등으로 소개한다.최근 기준금리가 정점이라는 인식이 확산되면서 채권에 대한 관심도 높아지고 있다. 황 PO는 "채권은 지금 사두면 금리하락기에 가격이 오를 것이라고 생각해 매수가 늘고 있다"며 "다만 채권은 주식처럼 유동성이 좋지 않기 때문에 만기 보유하며 이자 수익을 받는 목적으로 매수를 추천한다"고 했다.또 황 PO는 "청년들에게 안타까운 점은 가진 시드머니가 작다보니 주식이나 코인 등 리스크가 높은 상품에 투자를 집중하는 것 같다"며 "주식, 투자 말고도 예·적금보다 더 높은 수익을 중위험중수익 금융상품이 많은데, 다양한 자산에 분산투자해서 안전하게 운용하길 바란다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>토스뱅크, 전체 직군 공개채용 실시</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011977861?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 출범 후 처음으로 전 직군 대규모 공개채용을 실시한다고 17일 밝혔다.토스뱅크는 기존 경력직 직원 중심의 채용을 넘어 신입 직원까지 두 자릿수 인원을 공개적으로 모집한다. 이번 채용의 서류접수는 이날부터 오는 31일까지 진행된다.토스뱅크에 따르면 모집 분야는 총 10개 직군 40여개의 직무다. 세부적으로 ▲엔지니어(코어뱅킹, 프론트엔드 및 서버) ▲비즈니스(수신 및 여신 상품, 제도) ▲데이타(데이타 애널리스트 및 사이언티스트) ▲리스크(신용전략, CSS) ▲ 프로덕트(상품개발) ▲디자인 ▲컴플라이언스 등이다. 은행의 빠른 성장에 발맞춰 필요한 인재를 대규모로 선발하고 배치한다는 계획이다.지원은 토스뱅크 채용 홈페이지에서 할 수 있다. 필수적으로 충족해야 하는 경력 기간은 없다. 지원자 개개인의 일정을 배려하는 맞춤 채용 프로세스를 적용한다.서류 전형 결과는 순차적으로 안내된다. 직무와 문화적합성 인터뷰는 서류 합격자 일정에 맞춰 온라인 및 화상으로 진행된다. 처우협의는 합격자 대상으로 개별 안내되고 일부 포지션에 대해서는 과제 전형도 진행한다.채용 홈페이지에서는 토스뱅크의 제품과 기술 비전, 입사 전 커리어 관련 고민을 갖고 있던 다양한 현업 인터뷰를 확인할 수 있다. 당장의 지원 의사는 없지만, 토스뱅크 현업과의 대화를 희망하면 프라이빗 네트워킹 세션(17~18일) 신청도 가능하다. 자세한 문의는 토스채용 페이지의 자주 묻는 질문을 확인하거나 채용팀 이메일로 하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>하나증권 "엔비티, 카카오톡 단독고객사 확보 긍정적..글로벌 진출시 매출액 3000억↑ "</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005044107?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 하나증권은 19일 엔비티에 대해 국민 SNS인 ‘카카오톡’을 단독 고객사로 확보한데다 글로벌 서비스까지 본격화 해 3000억원 이상의 매출이 기대된다고 진단했다. 다만 투자의견과 목표주가는 제시하지 않았다.   최재호 연구원은 "지난 6월 엔비티는 국내 초대형 고객사에 애디슨 오퍼월 서비스를 시작했는데, 그 주인공은 바로 카카오톡“이라며 ”실제 카카오톡 앱 실행 후 더보기에서 혜택쌓기를 클릭하면 나오는 창이 엔비티가 카카오톡에 단독으로 서비스를 진행하고 있는 애디슨 오퍼월“이라고 밝혔다.   그러면서 “유저들 입장에서 무료로 포인트를지급받아 카카오톡 쇼핑 등 다양한 카테고리에서 현금처럼 사용할 수 있기 때문에 매우 고성장이 기대된다”라며 “카카오톡 서비스로만 연간 매출액 1000억원 이상 충분히 기여할수 있다는 의미이고, 당장 하반기부터 실적으로 반영되기 때문에 엔비티를 주목해야 한다”라고 강조했다.   하나증권에 따르면 현재 엔비티가 단독으로 서비스하고 있는 네이버웹툰과 토스의 경우 국내 MAU약 2000만명, 1만 5000만명으로 작년 기준 동사의 매출액 중 약 절반을 차지한다. 현재 카카오톡 MAU는 약 4만4000만명이다. 이에 하나증권은 카카오톡 서비스로만 연간 매출액 1000억원 이상 충분히 기여할 수 있다는 의미라고 판단했다.   엔비티는 2012년 설립된 퍼포먼스 마케팅 광고 플랫폼 기업으로 주력 제품은 ‘애디슨 오퍼월’이다. 2018년 출시된 애디슨 오퍼월은 유저가 특정 미션을 완료했을 때 실시간으로 보상이 주어지는 방식의 B2B 서비스로 국내 M/S 약 46%로 1위를 차지하고 있다.   하나증권은 최근 폭발적으로 성장 중인 '애디슨 오퍼월'을 주목해야 한다고 진단했다.   특히 엔비티는 애디슨 오퍼월 출시 직후 네이버웹툰을 고객사로 확보했으며, 이후 네이버페이, 토스, 카카오T, 카카오스타일 등 국내 굵직한 IT 플랫폼 기업들을 고객사로 대거 확보했다. 현재 총 고객사는 65개를 상회하며, 대부분이 단독으로 서비스를 제공중이다. 이에 따라 애디슨 오퍼월의 매출액은 2018년 11억원에서 2022년 869억원으로 급성장했으며, 2022년 기준 전체 매출 비중의 80.3%로 대부분을 차지한다.   최 연구원은 “오퍼월은 기본적 으로 플랫폼, 광고주, 이용자 모두에게 혜택을 제공하는 서비스”라며 “플랫폼 기업들이 애디슨 오퍼월을 적용하면 수익의 일부를 제공(약 70%) 받으며, 불황기를 맞은 광고주들은 단기간에 성과 달성이 가능하고, 유저들은 무료로 프리미엄 콘텐츠를 경험 및 혜택을 받을 수 있다”라고 언급했다.   근래 적자 플랫폼 기업들이 난무하는 상황에서 애디슨 오퍼월 서비스를 도입해 초대형 플랫폼 기업들을 고객사로 지속적으로 확보하고 있는 것도 이 때문이라는 것이다.   최 연구원은 “엔비티는 애디슨 오퍼월 매출액 1위 고객사와 함께 글로벌 시장 진출이 본격화된 것으로 추정된다. 고객사의 북미 시장 서비스를 시작한 것으로 추정되며 일본, 동남아, 유럽 등으로 점진적으로 확대될 것으로 예상된다”라며 “고객사의 글로벌 MAU는 작년 기준 약 1억 8000만명이다. 국내 대비 9배 규모에 달한다”라고 말했다.   이어 “북미를 넘어 글로벌로 서비스를 시작하면 약 3000억원 이상의 매출액 기여가 가능하다는 의미이고, 글로벌 시장 진출로 폭발적인 성장의 발판을 마련했다”라며 “국내 사례를 비춰볼 때 해외 유관 기업들까지 고객사로 확보할 가능성이 높다”라고 덧붙였다. #카카오톡 #토스 #최재호연구원 #네이버웹툰 #네이버페이 #카카오T #엔비티 #하나증권 #애디슨오퍼월</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>인터넷은행 1~4월 중저신용대출 전년比 17%↓…카뱅만 증가</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002731559?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 3사. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행의 1∼4월 중·저신용자(신용평점 하위 50%) 대출 공급액이 작년 동기 대비 4000억원 넘게 감소한 것으로 나타났다.18일 금융권에 따르면 카카오·케이·토스뱅크 등 인터넷은행 3사가 올해 1∼4월 취급한 중·저신용자 신용대출 공급액은 2조700억원으로 지난해 동기(2조5085억원)보다 17.5% 감소했다.은행별로 카카오뱅크는 올해 1∼4월 지난해 동기(8685억원) 대비 25.5% 늘어난 1조900억원의 중·저신용자 대출을 공급했다.카카오뱅크는 또 인터넷은행 중 유일하게 서민금융상품인 햇살론을 운영 중으로 지난해 1∼4월과 올해 1∼4월 모두 230억원씩 취급했다.반면 같은 기간 케이뱅크는 중·저신용자 대출로 3500억원을 공급해 지난해 같은 기간(6300억원) 대비 44.4% 줄었다.특히 은행연합회 인터넷전문은행 기타공시에 따르면 케이뱅크는 지난해 10월부터 올해 5월까지 7개월간 저신용자(신용점수 650점 이하) 대출을 중단한 것으로 나타났다.토스뱅크 역시 올해 들어 4월까지 6300억원을 공급해 작년 같은 기간(1조100억원)보다 37.7% 감소했다.이처럼 케이뱅크와 토스뱅크가 올해 들어 중·저신용자 대출을 보수적으로 운영한 것은 지난해 이들 은행이 중·저신용자 대출 규모를 확대하면서 연체율과 고정이하여신(연체 기간 3개월 이상) 등 건전성 지표가 악화했기 때문이라는 분석이 나온다.앞서 2021년 5월 금융당국이 인터넷은행이 중·저신용자 대출 비중(잔액 기준)을 공시하도록 주문하면서 목표치 달성에 집중했는데 지난해 고금리 상황에서 중·저신용자들의 상환 여력이 악화하면서 건전성 지표가 악화했다.케이뱅크의 올해 1분기 연체율은 0.82%로 지난해 동기(0.48%)보다 0.34%포인트(p) 상승했고 같은 기간 고정이하여신비율은 0.94%로 0.3%p 상승했다.2021년 10월 출범한 토스뱅크는 올해 1분기 연체율이 1.32%, 고정이하여신비율이 1.04%로 직전 분기(0.72%·0.53%)보다 각각 0.6%p, 0.51%p 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>토스, 보안 캠페인 오리지널 필름 '블록 버스터즈' 공개</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003119419?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>토스는 보안 캠페인 두 번째 오리지널 필름 '블록 버스터즈(Block Busters): 중고거래 사기에서 살아남기' 본편을 공개한다고 20일 밝혔다.토스는 보안 캠페인 두 번째 오리지널 필름 '블록 버스터즈(Block Busters): 중고거래 사기에서 살아남기' 본편을 공개한다고 20일 밝혔다.토스는 '정보보호의 달'인 7월 보안 캠페인 일환으로 토스 오리지널 필름 두 편을 제작했다.20일 저녁 6시에 공개되는 두 번째 오리지널 필름 '블록 버스터즈'는 일상에 가장 가까운 금융 범죄인 중고거래 사기 범죄를 추적하는 다큐멘터리다. 타이틀에서부터 중고거래 사기의 상징처럼 여겨지는 '벽돌(Block)'을 활용했다. 여기에 '추적하는 사람들'이라는 뜻의 '버스터즈(Busters)'를 더해 '중고거래 사기를 추적하는 사람들'을 의미하는 제목 '블록 버스터즈'가 완성됐다.토스는 '블록 버스터즈'를 통해 중고거래 사기에 대한 심각성을 조명함으로써 사회적 관심을 환기시키고자 했다. 업계 전문가들의 의견들뿐 아니라 첫 대화부터 송금 직전까지 중고거래 범죄의 발생 과정을 생생하게 담았다. 직접 추적하며 문제를 파헤치는 과정들을 통해 중고거래 시 주의해야 할 부분들을 함께 전달하고자 했다.'블록 버스터즈'에서는 지난 8년 동안 수백여 명을 상대로 사기를 저지르고 있는 조직을 집중 조명한다. 해당 조직은 대기업 직원들의 신분을 사칭해 전자기기 '직거래'를 빌미로 중고거래 사기를 지속하고 있다. 제작 과정에서 중고 사기 범죄와 싸우고 있는 '사기나라' 운영진과 긴밀한 협업을 통해 해당 조직으로 추정되는 판매자를 포착했으며, 거래를 시도하는 과정에서 직접 통화를 나눈 내용까지 다큐멘터리에 담았다. 중고거래 사기를 넘어 2차, 3차 피해까지 당하고 있는 피해자들의 증언도 담겼다.김창선 토스 브랜드 커뮤니케이션팀 PD는 “이미 많은 사람들이 경험하고 있는 중고거래 사기 이슈를 깊이 있게 추적해 사회적 관심을 환기하고, 앞으로 더 이상 피해자가 생기지 않기를 바라는 마음에 이번 다큐멘터리를 제작하게 됐다”라며 ”사기 조직을 추적하고 해결하기 위한 노력이 더욱 널리 알려지기를 바라며, 금융 브랜드로서 토스가 하고 있는 다양한 노력도 함께 전해지기를 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[콘텐츠 핫&amp;뉴] ‘블루아카이브’ ‘거짓된 성소 공략전’ 추가</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005163973?sid=105</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>넥슨은 ‘블루 아카이브’의 메인 스토리 1부 최종편의 두 번째 이야기 ‘거짓된 성소 공략전’을 추가했다.넥슨(대표 이정헌)은 서브컬처 게임 ‘블루 아카이브’의 메인 스토리 1부 최종편의 두 번째 이야기 ‘거짓된 성소 공략전’을 추가했다고 26일 밝혔다.‘거짓된 성소 공략전’은 지난 21일 업데이트된 메인 스토리 1부 최종편 1장 ‘샬레 탈환 작전’을 완료하면 즐길 수 있다.이번 스토리에서는 학생들과 선생님이 각종 위협으로부터 ‘키보토스’를 수호하고 거짓된 성소를 공략하는 이야기를 확인할 수 있다.8월 8일까지 ‘거짓된 성소 공략전 ~연합 작전~’을 플레이할 수 있다. ‘페로로지라(색채)’, ‘비나(색채)’ 등 6종의 보스와 전투를 치를 수 있고 완료 시 ‘청휘석’, ‘모집 티켓’ 등 ‘엘레프’ 등 다양한 보상이 주어진다.신규 학생 ‘미카’도 추가했다. ‘미카’는 ‘트리니티 종합학원’ 소속 스트라이커로, ‘페스(Fes) 모집’을 통해 획득할 수 있다.업데이트를 기념한 다양한 이벤트도 진행된다. 8월 1일부터 11일 오전 10시 59분까지 게임에 접속하면 매일 10회 무료 모집을 진행할 수 있다.한편 넥슨은 지난 21일 최종편 특별 생방송 ‘키보토스 라이브’를 진행하고 9월 5일까지 이어지는 최종편 업데이트 로드맵과 풍성한 이벤트를 공개했다.◆ ‘뮤 아크엔젤’ 신규 콘텐츠 2종 등 추가웹젠(대표 김태영)은 모바일 MMORPG ‘뮤 아크엔젤’에 신규 콘텐츠 2종 추가 및 로스트랜드 신규 시즌 업데이트와 커뮤니티 이벤트를 진행한다.‘뮤 아크엔젤’ 캐릭터 1080레벨 이상의 이용자들에게 전투력 상승이 가능한 성장 콘텐츠 ‘크리쳐’가 열린다.신규 강화 콘텐츠인 ‘원소 해방’도 추가된다. 6차 이상 원소 세트 장비의 각 차수 별 모든 부위의 원소 증폭 최대 레벨을 달성하면 ‘원소 해방’ 기능이 오픈된다.연합 서버 콘텐츠 ‘로스트랜드’의 시즌7 ‘뇌신 타라니스’가 8월 1일 9시 30분부터 10월 31일 자정까지 진행된다.웹젠은 업데이트를 기념해 커뮤니티에서 퀴즈 이벤트를 진행한다.◆ ‘제노니아’ 출시 1개월 기념 선물 마련컴투스홀딩스(대표 정철호)는 MMORPG ‘제노니아’ 출시 1개월을 기념하기 위한 선물을 마련했다.유저들에게 총 110회에 달하는 코스튬과 페어리 소환권을 선물한다. ‘코스튬’, ‘페어리’는 캐릭터 능력치 향상에 중요한 영향을 준다. 다음 달 9일까지 진행되는 ‘런칭 30일 기념 특별 출석부’에서는 ‘페어리 더스트’ 등 유용한 아이템을 얻을 수 있다.이번 업데이트를 통해 새로운 던전을 선보였다. 2명 이상의 유저들이 함께 도전하는 파티 던전에 ‘캐티안의 계곡’이 추가된다.보스 ‘캐티안’을 물리치고 던전을 클리어하면 ‘에픽 등급 머플러’를 비롯해 ‘에픽 스킬북 상자’, ‘상위 등급 지식의 결정’ 등 희귀 아이템을 획득할 수 있다.게임 편의성도 향상됐다. ‘월드 보스’와 ‘필드 보스’의 체력이 그래프 형태로 표시되며 상자형 아이템 일괄 사용과 거래소 아이템 다중 구매가 가능해졌다.◆ 컴투스, ‘서머너즈 워’ 글로벌 사회공헌 이벤트 성료컴투스(대표 이주환)는 ‘서머너즈 워: 천공의 아레나(이하 서머너즈 워)’의 글로벌 사회공헌 이벤트를 성황리에 마무리하고 WWF(세계자연기금)에 멸종 위기 펭귄 보호를 위한 기부금을 전달했다.컴투스는 ‘서머너즈 워’ 글로벌 서비스 9주년을 맞아 지난 6월 26일부터 사회공헌 이벤트를 실시했다.컴투스는 조성한 기부금을 WWF에 전달해 생물 다양성 보전을 위한 활동을 후원했다.전달된 기부금은 WWF의 생물 다양성 보전 활동 중에서도 지속가능한 어업 전환과 해양 동물 서식지 보전을 위한 활동에 사용될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>내년부터 네이버·카카오·토스에서 보험 비교 가능해진다</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000750668?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>자동차보험 등 다이렉트 보험 대상서비스 전 알고리즘 검증받아야해빗팩토리의 시그널 플래너는 원하는 보험 조건을 입력하면 인공지능(AI)이 비교 분석해 가장 보험료가 낮은 순서대로 보여준다. 해빗팩토리 제공자동차보험 등 다이렉트(CM) 보험을 한눈에 비교·추천받을 수 있는 온라인 플랫폼이 내년 초 출시된다. 네이버와 카카오, 토스 등이 사업자로 나설 예정이다.금융위원회는 19일 정례회의를 열어 11개 사가 신청한 '보험상품 비교·추천 서비스'를 혁신금융서비스로 신규 지정했다고 밝혔다. 보험상품 비교·추천 서비스는 온라인 플랫폼에서 다양한 데이터를 활용해 소비자에게 적합한 여러 보험회사의 보험상품을 비교·추천하는 서비스다.보험상품 비교·추천 서비스로 지정된 곳은 네이버(네이버파이낸셜)와 카카오(카카오페이), 토스(비바리퍼블리카)를 비롯해 △뱅크샐러드 △SK플래닛 △NHN페이코 △쿠콘 △핀다 △핀크 △해빗팩토리 △헥토데이터 등이다. 이들 업체가 취급할 수 있는 보험상품은 CM 보험 중 여행자·화재보험 등 단기 보험과 자동차보험, 실손보험, 저축성보험(연금 제외), 펫보험, 신용보험이다.금융위는 비교·추천 알고리즘 공정성을 조건으로 내걸었다. 잘못된 알고리즘을 사용할 경우 플랫폼 이용자에게 불리한 보험상품이 우선적으로 추천될 가능성이 높기 때문이다. 이에 보험상품 비교·추천 서비스업체는 출시 전 코스콤 등 신뢰할 수 있는 기관에서 알고리즘 검증을 받아야 한다.  비교·추천 과정에서 가공된 정보는 비교·추천 목적 외에는 활용하지 못하도록 제한도 뒀다.금융위 관계자는 "보험사 간 경쟁 촉진, 보험료 부담 절감 등 소비자 편익이 증대될 것으로 기대된다"며 "보험사와 플랫폼 간 공동업무협약(MOU)으로 전산 개발과 제휴 등 보험상품 비교·추천 서비스의 원활한 준비와 운영이 가능하도록 할 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>한국투자증권, 바이셀스탠다드와 토큰증권 상품 공급 위한 업무협약 체결</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005159648?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>한국투자증권은 바이셀스탠다드와 토큰증권 서비스 공동개발을 위한 업무협약을 체결했다고 17일 밝혔다. 최서룡 한국투자증권 플랫폼본부장(사진 오른쪽)과 바이셀스탠다드 신범준 대표가 13일 업무협약 체결 후 기념사진을 촬영 중이다.이번 협약을 통해 양사는 ▲투자계약증권, 비금전신탁 수익증권 등 비정형적 증권의 투자상품화 ▲발행 플랫폼 내 투자상품 공급을 위한 인프라 구축 ▲신탁 계약 관련 프로세스 수립 등 토큰증권 상품 공급을 위해 전방위적으로 협업하기로 했다.현물 조각투자 플랫폼 ‘피스(PIECE)’를 운영 중인 바이셀스탠다드는 미술품, 명품에 이어 선박까지 조각투자 대상과 범위를 확대해 나가고 있다. 토큰증권 발행을 위한 자체 블록체인 메인넷을 개발하는 등 블록체인 관련 다수의 프로젝트를 성공적으로 수행했다.지난 3월 한국투자증권이 카카오뱅크, 토스뱅크 등과 손잡고 설립한 협의체 ‘한국투자 ST 프렌즈’는 그간 펀더풀, 밸류맵 등 다양한 카테고리의 콘텐츠 기업들과 업무협약을 체결하면서 토큰증권 상품화에 공 들여 왔다. 이번 바이셀스탠다드의 합류로 발행 플랫폼을 통한 혁신 금융상품 공급에 한층 더 속도가 붙을 것으로 예상된다.최서룡 한국투자증권 플랫폼본부장은 “현물 자산을 디지털화하는데 탁월한 경쟁력을 가진 파트너사가 합류하게 되어 기대감이 크다”면서 “앞으로 토큰증권을 통해 일상 속에서 마주하는 다양한 콘텐츠를 증권화할 수 있도록 사업 준비에 박차를 가할 것”이라고 말했다.신범준 바이셀스탠다드 대표는 “토큰증권에 기반한 혁신적인 금융상품을 만드는 과정에 한국투자증권과 함께하게 되어 매우 기쁘다”며 “앞으로 한국투자 ST 프렌즈와 함께 조각투자를 넘어 가치 있는 현물 자산의 디지털 변환을 선도하는 플랫폼으로 성장해 나갈 것”이라고 말했다. 한국투자 토큰증권 생태계</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>거품 빠진 연봉…스타트업 개발자 모시기는 '옛말'</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000061555?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>수익성 악화에 개발자 채용 줄인 '네카라쿠배당토'인건비 부담에 외국 개발자 채용 움직임도미국 FAANG(페이스북·애플·아마존·넷플릭스·구글)을 빗대어 생긴 국내 신조어 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)는 코로나19 기간 메신저·쇼핑·금융·배달 등 소비자 일상과 밀접한 사업을 주도하며 빠르게 성장했다. 단기 속성 교육을 내건 코딩학원이 전국에 우후죽순 생기며 초보 개발자도 대거 쏟아져 나오기 시작했다. 인스타그램과 같은 SNS는 물론 거리마다 '3개월 코딩 배우고 문과생도 개발자 취업' '억대 연봉 보장' 등 학원 광고물이 넘쳐났다.우태희 대한상공회의소 상근부회장이 3월16일 서울 중구 대한상공회의소 국제회의장에서 열린 ‘스타트업 빌드업 포럼’에서 개회사를 하고 있다. ⓒ연합뉴스대·중소·스타트업까지 개발자 채용 축소올해부터 이 개발자 채용시장 분위기가 바뀌었다. 빅테크 업계에 따르면 네이버는 2021년 설립 이래 최대 규모인 1100여 명의 개발자를 채용했지만, 지난해에는 절반 이하로 채용 인원을 줄인 것으로 알려졌다. 네이버는 올 상반기 전 직군에 대한 공개채용을 진행했고, 하반기에는 별도 공개채용 대신 필요시 수시채용으로 인원을 늘릴 예정이다. 이는 과거 한성숙 네이버 전 대표가 언급한 것과 사뭇 다른 분위기다. 한 전 대표는 2020년 국회 강연에서 "(한국은) 전공에서 나오는 개발자들의 수가 굉장히 한정적이고 적다"며 "구글이나 페이스북, 알리바바 등의 개발자 수와 우리 개발자 수를 비교하면 '우리가 언제까지 견딜 수 있을까' 고민이 된다"고 밝힌 바 있다.카카오는 지난해 5805억원의 영업이익을 냈다. 전년 대비 2.4% 감소한 수치다. 같은 기간 인건비는 1조6871억원으로 전년 대비 18%나 늘었다. 인건비 부담이 실적에 반영된 셈이다. 카카오는 올 초 진행하고 있던 경력 개발자 수시채용에서 남은 전형들을 중단하고 공고를 내렸다. 이 과정에서 서류전형과 코딩 테스트를 통과하고 면접 전형을 준비하고 있던 지원자들은 모두 탈락을 통보받았다.스타트업들은 대기업보다도 보수적으로 개발자를 채용하고 있다. 경기 불황으로 스타트업들의 투자금 유치가 어려워졌고, 인건비 부담은 곧 전체적인 수익성에 악영향을 미칠 수밖에 없기 때문이다. 스타트업 민관 협력기관 스타트업얼라이언스의 '2023년 상반기 스타트업 투자 동향'에 따르면 상반기 누적 투자 건수는 584건, 누적 투자금은 약 2조3226억원으로 집계됐다. 이는 전년 동기 대비 투자 건수는 41.5%, 투자금액은 68.3%나 감소한 규모다.대기업에서 소프트웨어(SW) 개발자로 일하는 A씨는 "대기업만 연봉이 좋은 편이지 중소기업은 개발자라고 해서 돈을 더 주거나 하지 않는다"며 "IT업계 대호황은 코로나 덕에 온 것이나 다름없다"고 했다. A씨는 이어 "미국 IT 기업에도 칼바람이 불고 있는 만큼, 국내시장도 개발자들을 챙기기 어려운 상태일 것"이라고 덧붙였다. 최근 구글과 메타, 아마존 등 미국 빅테크 기업들은 대규모 인력 구조조정을 실시하고 있다. 또 다른 개발자도 "중소기업에서 대기업으로 이직했는데 개발자들의 대기업 평균 연봉은 6000만원, 중소기업은 3000만원인 곳도 많다"며 "회사 상황에 따라 다르겠지만 대다수는 연봉 인상률이 코로나 때보다 낮다"고 말했다.채용 플랫폼 원티드랩이 최근 개발자 경력별 평균 연봉을 분석한 자료에 따르면 올해 1분기 개발자 평균 연봉은 6595만원이었다. 경력별로는 신입 개발자보다 경력직의 연봉 상승 폭이 컸다. 즉 경기 불확실성으로 대다수 기업이 채용에 보수적으로 접근하면서 신입 개발자보다 경력직을 선호하는 현상이 나타난 것이다. 구체적으로 평균 연봉이 가장 크게 상승한 연차는 6~8년 차 개발자로, 전년 대비 9.01% 증가한 6303만원이었다. 12~14년 차 개발자는 1분기 평균 연봉이 8.84% 증가한 7806만원으로 그 뒤를 이었다. 반면 0~2년 차 신입 개발자의 평균 연봉은 4073만원으로 전년 동기 대비 2.23% 상승에 그쳤다.특히 스타트업의 경우 최근 투자 유치가 어려워졌고, 적자인 곳이 대부분이다. 흑자를 내지 못하는 스타트업들은 인건비 부담에 개발자 채용을 줄이는 것은 물론, 중단한 곳도 많다. 스타트업들의 급여 지출액도 1년 사이 크게 늘어났다. 중소벤처기업부가 선정한 유니콘(기업 가치 1조원 이상 비상장사) 기업인 당근마켓의 지난해 연결 기준 급여 지출액은 324억원으로 1년 전(130억원)보다 급증했다. 같은 기간 두나무는 1317억원에서 1481억원, 무신사는 491억원에서 975억원, 버킷플레이스는 189억원에서 366억원, 비바리퍼블리카는 795억원에서 1572억원으로 늘어났다.초보 개발자 대신 경력자 선호중기부가 최근 SW 인력 채용과 관련해 기업체 187개사, 취업준비생 773명을 대상으로 실시한 여론조사에서도 이런 분위기가 읽힌다. 중소기업의 75.4%는 SW 전문인력 채용 및 유지에 어려움을 느끼고 있었다. 인력난의 주요 원인으로는 '대기업과의 연봉 격차로 인한 기업군 간 경쟁 심화'가 68.4%였고, 중급 이상 개발자 인력 부족은 64.2%로 그 뒤를 이었다. 일부 기업은 외국인 경력직 개발자 채용에 적극 나서기도 한다. 중기부 조사를 보면 현재 외국 국적 직원을 채용하고 있다는 중소기업은 27.3%였지만, 향후 채용 의사를 피력한 기업은 54.5%로 나타났다. 국내 전문인력보다 상대적으로 임금이 저렴해서다. 네카라쿠배당토에 해당하는 기업들도 "외국 국적 개발자도 적극 채용 중"이라고 밝혔다.한 스타트업 관계자는 "스타트업이 성장하기 위해서는 고숙련 개발자가 필수"라며 "국비 지원으로 취업한 개발자들은 업무 수행에 한계가 있어 경력이 있는 개발자 위주로 채용하고 있다. 이러한 개발자들은 연봉이 높은데, 인건비가 늘어날수록 회사 수익성은 떨어지고 있다"고 말했다. 성태윤 연세대학교 경제학부 교수는 "급격히 (IT·개발자) 산업이 성장하면서 유동성이 많이 풀려 있을 때와 지금은 상황이 완전히 달라졌다"며 "현재 상황에서 인건비 부담이 장기적으로 이어지는 형태의 구조를 갖게 되면 기업이 성과를 내지 못할 가능성이 있고, 이 같은 현상은 경기 불황이 이어짐에 따라 당분간 지속될 것"이라고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>삼성전자가 18년간 믿고 썼다…연 매출 50억 회사의 성공비결</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004870931?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>영상처리 SW 강소기업 '큐램' 위영철 대표 인터뷰"자체 영상 기술 확보로 안정적인 매출 유지"금융사 대상 신분증 인식·사본 판별 기술 확보"평생 다닐 수 있는 기업 만드는 것 목표"위영철 큐램 대표 / 사진=큐램영상처리 소프트웨어(SW) 기업 큐램의 위영철 대표는 창립 후 23년 동안 영업 활동을 하지 않고도 안정적인 매출을 유지했다. 삼성전자와 18년째 라이센싱 관계를 이어온 데다, 입소문을 듣고 먼저 찾아오는 고객사도 적지 않았기 때문이다.위 대표는 10일 한국경제신문과의 인터뷰에서 "우수 인재를 유치하고 능력에 맞는 대우를 했기 때문에 뛰어난 기술력을 확보할 수 있었다"며 "영상 처리에 문제가 생겼을 때 큐램에 맡기면 다 해결될 것이란 확신을 준 것이 성장 비결"이라고 입을 열었다.큐램은 위 대표가 2001년 아주대 교수 재직 시절 학생들과 벤처로 시작한 23년차 강소기업이다. 직원은 30여명이고, 연매출 50억원 규모에 영업이익은 15% 정도다. 2005년 자체 개발한 상용 이미지 처리 기술을 바탕으로 삼성전자와 스마트폰 단말기 영상처리 SW 라이센싱을 맺으면서 수익 구조가 안정화됐다.2007년 피처폰 시장이 활성화되면서 삼성전자 단말기에 큐램 기술이 적용됐고, 2011년 스마트폰이 본격적으로 보급되면서 매출이 빠르게 증가했다. 스마트폰 시장이 포화에 이른 2016년부터는 신규 시장을 개척하기 위해 인공지능(AI)과 딥러닝 기술을 개발해 해양, 국방 등 다양한 분야로 영상 분석 솔루션을 제공하고 있다.큐램이 보유한 이미지 최적화 기술인 '아톰제이펙(AtomJPEG)'을 활용할 경우 JPEG 화질을 유지하면서 파일 사이즈를 최대 7배까지 줄이는 것이 가능하다. 위 대표는 "온라인 쇼핑몰, 웹툰 및 클라우드 서비스의 로딩 속도 향상과 저장 공간 절감에 필수"라고 설명했다.동영상 최적화 기술인 '아톰이륙사(Attom264)'도 큐램의 자랑이다. 화질은 유지하면서 파일 사이즈는 평균 50% 줄였다. 클라우드에 업로드된 동영상을 경량화해 네트워크 비용과 인코딩 시간을 기존 대비 50%씩 절감시킨다는 설명이다.그래픽 이미지를 최적화하는 '큐미지(Qmage)'는 영상을 JPEG으로 고속 압축·복원하는 코덱 특허 기술이다. 갤러리, 포토에디터, 카메라 특수샷 등 어플리케이션(앱)에 적용해 처리 시간을 줄인다. 2005년 이후 만들어진 모든 삼성 피처폰과 2011년 이후 생산된 갤럭시 단말기에 기술이 적용됐다.아톰제이펙 적용 전후 비교 사진 / 사진=큐램실시간 영상 최적화 전송 기술인 '브이엑스티(VXT)'는 대역폭이 제한된 전송 환경에 최적화된 동영상 압축·전송 시스템이다. 위 대표는 "VXT는 불안정하고 열악한 전송망에서도 끊김없는 실시간 영상 전송을 가능하게 한다"며 "방산 등 잠수함에도 적용된 기술"이라고 알렸다.머신아이(MachineEye)는 카메라로 입력된 영상에서 정보를 추출하는 기술이다. 신용·체크카드 인식과 면허증, 주민등록증, 여권, 외국인등록증 등의 신분증 인식이 가능하며 사본 판별에 대한 기술력도 갖췄다. 삼성페이 신용카드 인식과 토스앱 신분증 인식에 쓰인다.위 대표는 영상처리, 압축, AI, 데이터분석 등의 특허 기술을 다수 보유했지만 상장은 고려하지 않고 있다. 그는 "큐램은 이미 현금 유보 상태가 우수하고, 부채도 없는 회사"라며 "외형적 성장보단 직원들이 나이가 들어도 퇴직, 노후 걱정 없이 평생 다닐 수 있는 강소 기업으로 만드는 게 목표"라고 강조했다.용인=강경주 기자 qurasoha@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>네이버·카카오서 보험상품 비교 가능…혁신금융서비스 지정</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001114509?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>네이버와 카카오, 토스 등 빅테크 플랫폼에서 보험상품의 비교와 추천서비스가 가능해진다.금융위원회는 19일 정례회의에서 보험상품 비교추천서비스를 포함한 15건을 혁신금융서비스로 신규 지정했다고 밝혔다.보험상품 비교추천서비스가 가능해진 곳은 네이버파이낸셜과 뱅크샐러드, 비바리퍼블리카, 에스케이플래닛, 엔에이치엔페이코, 카카오페이, 쿠콘, 핀다, 핀크, 해빗팩토리, 헥토데이터 등 11개 기업이다.기존에는 보험상품을 비교하고 추천하기 위해선 보험대리점 등록이 필요했는데, 본인신용정보관리회사 등 금융감독원 검사 대상 기관은 보험대리점 등록이 제한됐다. 하지만 이번 혁신금융서비스 지정으로 금융감독원 검사 대상 회사도 온라인 플랫폼에서 보험상품 비교추천서비스를 제공할 수 있도록 특례를 부여한 것이다.다만 취급상품 범위는 온라인(CM) 상품 중 여행자와 화재 등 단기보험, 자동차보험, 실손보험, 저축성보험(연금제외), 펫보험, 신용보험으로 제한했다. 서비스는 이르면 2024년 초 출시될 예정이다.이밖에도 금융위는 뱅크몰과 베스트핀, 비바리퍼블리카가 신청한 '대출모집인을 통한 주택담보대출 비교 플랫폼', 기업은행이 신청한 '안면인식 기술 활용 비대면 실명확인 서비스'도 혁신금융서비스로 지정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>삼양사, 美 국제식품기술박람회 참가…해외판로 모색</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005044993?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>17일(현지시간) 미국 시카고에서 열린 'IFT 2023’에 참가한 삼양사 부스에서 직원이 방문객과 상담을 하고있다. [파이낸셜뉴스]  삼양사가 글로벌 시장에서 스페셜티(고기능성) 소재를 알리고 우수한 식품 소재 기술력을 뽐냈다.   20일 삼양사는 17일부터 19일까지 사흘간 미국 시카고에서 열린 국제식품기술박람회 ‘IFT 2023’에 참가했다고 밝혔다.   이 박람회는 국제식품학술기구인 ‘IFT’가 매년 주최하는 행사로 전 세계 100여개국, 1300개 이상의 기업이 참가하는 식품 기술 분야 세계 최대 규모의 박람회다.   삼양사는 작년보다 2배 큰 규모의 홍보 부스를 운영했으며, 주력 상품인 알룰로스를 비롯한 스페셜티 소재를 선보였다.   박람회 기간 동안 삼양사 부스에는 1800여명의 방문객이 다녀갈 정도로 성황을 이뤘다.   삼양사는 이번 전시회에서 난소화성말토덱스트린, 케스토스 등 프리바이오틱스 소재도 같이 선보였다. 수용성 식이섬유인 난소화성말토덱스트린은 △배변 활동 원활, △식후 혈당 상승 억제, △혈중 중성지질 개선에 도움을 줄 수 있는 건강기능식품 원료다.   삼양사 이상훈 식품BU장은 “지난해 열린 IFT 전시회에서 삼양사의 알룰로스 브랜드인 ‘넥스위트’를 처음 선보이며 글로벌 시장 진출을 본격화했다”며 “앞으로도 알룰로스를 비롯한 여러 기능성 소재를 알리고 해외 시장 판로를 넓히는 데 역량을 집중할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.07.29.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>시중은행 전환하고 핀테크 손잡고…지방은행 혁신 바람</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000045507?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>━   활로 찾는 지방은행      황병우(左), 고병일(右)           국내 최초의 지방은행인 대구은행(행장 황병우)은 지난 6일 기자간담회를 열고 연내 시중은행 전환을 추진하겠다고 밝혔다. 대구은행이 시중은행으로 전환되면 1992년 이후 31년 만에 새로운 시중은행이 탄생한다. 대구은행 관계자는 “시중은행 전환을 통해 은행권 경쟁 촉진의 마중물 역할을 할 계획”이라며 “은행명에 지역 명칭이 들어가 있어 수도권에서의 영업에 불리하다는 점을 고려해 사명 변경도 고려 중”이라고 전했다.      광주은행(행장 고병일)은 전통 은행 최초로 인터넷전문은행(토스뱅크)과 공동대출 상품을 출시할 계획이다. 이 상품은 대(對)고객업무는 토스뱅크가, 대출심사와 자금 조달은 두 은행이 일정 비율로 부담하는 구조다. 광주은행 관계자는 “자금조달능력이 탄탄한 기존 은행과 신규 고객 유입에 유리한 인터넷은행이 협업하면 시너지를 낼 수 있을 것으로 판단했다”고 전했다.      전북·광주은행을 보유한 JB금융그룹은 지난 26일 대출 중개·관리 핀테크 기업인 핀다와 상호 지분 인수를 통한 전략적 파트너십을 체결하며 핀다의 2대 주주에 오르게 됐다. 핀다 관계자는 “상호 지분투자로 ‘핀테크-금융그룹’ 동맹을 결성해 ‘금융 메기’가 되겠다”며 “경쟁력 있는 비대면 상품과 대안신용평가 모델을 개발해 제휴 사업을 확대해나갈 계획”이라고 밝혔다.      한때 ‘알짜’로 불렸던 지방은행이 앞다퉈 혁신에 나서고 있다. 지역을 거점으로 탄탄한 내실을 쌓아오면서 업계의 부러움을 사기도 했지만, 최근 몇 년 사이 시중은행·인터넷전문은행에 치이면서 지역에서조차 발붙일 틈이 사라졌기 때문이다. 금융감독원에 따르면 올 1분기 5대 지방은행의 각 거점지역 대출 점유율은 부산은행이 27.6%, 대구은행이 24.6%, 경남은행은 24.7%, 광주은행은 18.9%, 전북은행은 18.5%로 일제히 30%를 넘지 못했다. 지역 대출금의 70%는 5대 은행(KB국민·신한·우리·하나·NH농협)의 곳간으로 넘어갔다는 뜻이다.      1분기 국내 은행의 전체 대출금 중 5대 은행의 점유율은 62.4%로 지방은행(7.7%)의 8배가 넘는다. 이처럼 지역에서조차 외면 받다 보니 시중은행과 지방은행의 격차는 더 벌어졌다. 2018년 시중은행과 지방은행의 순이익은 각각 8조6000억원과 1조원을 기록하며 7조6000억원가량 차이가 났다. 2020년 코로나19 여파 속에 격차가 6조7000억원까지 줄어들었지만, 지난해에는 시중은행이 11조6000억원을 벌어들인 반면 지방은행은 1조6000억원에 그쳤다. 5년여 만에 3조원가량 더 벌어진 것이다.      그래픽=양유정 기자 yang.yujeong@joongang.co.kr           엎친 데 덮친 격으로 지역경제의 핵심인 제조업이 쇠퇴하고 경기가 침체하면서 건전성까지 적신호가 켜졌다. 금융감독원에 따르면 경남·광주·대구·부산·전북·제주은행 등 지방은행 6곳의 1분기 연체율은 5대 시중은행 평균 연체율(0.27%)보다 두 배 이상 높은 0.57%를 기록했다. 이병윤 한국금융연구원 선임연구위원은 “수도권 집중화로 지방경제가 어려워진 상황에서 시장금리까지 치솟자 지방 중소기업이 주 고객인 지방은행이 직격타를 맞은 것”이라며 “경영환경도 좋지 않은데 연체율까지 높아져 리스크 관리에 사활을 걸고 있다”고 말했다.      악화일로를 걷던 지방은행에 활로가 열린 건 지난 2월 정부가 은행권의 과점 체제를 손보겠다고 나선 후부터다. 당시 윤석열 대통령은 금융당국에 “은행 산업 과점의 폐해가 크다”며 5대 은행 중심의 과점 체제를 경쟁 체제로 바꾸는 방안을 모색하라고 지시했다. 이에 금융당국은 은행권 경영·영업 관행·제도 개선 TF를 출범시켜 경쟁 촉진을 위한 신규 은행 추가 인가, 금융권-핀테크 기업 간 협업 등을 지속해서 논의해왔다.      이달 초 금융위원회와 금융감독원은 TF의 결과물로 ‘은행권 경영·영업 관행·제도 개선 방안’을 내놓으며 지방은행의 시중은행 전환을 허용하겠다고 발표했다. 김주현 금융위원장은 “30년 만의 시중은행 출현으로 기존의 경쟁 구도에 의미 있는 변화를 가져오게 될 것”이라며 “충분한 자금력과 실현 가능한 사업계획을 가지고 있다면 신규 인가를 적극 추진하겠다”고 말했다. 이에 시중은행 전환을 타진한 황병우 대구은행장은 “시중은행 전환 인가의 법적 요건을 확인해 본 결과 즉시 신청할 수 있음을 확인했다”며 타당성 검토에 착수했다고 밝혔다. 대구은행은 시중은행으로 전환될 경우 기존 특별시와 광역시, 수도권 내로 한정돼 있던 영업가능지역이 전국으로 확대돼 더 많은 고객을 끌어들일 수 있을 것으로 예상한다.      하지만 시중은행과 지방은행 간 격차가 이미 상당 수준으로 벌어진 상황에서 뒤늦은 혁신이 효과적일지에 대해선 의문이 남는다. 2017년 시중은행의 독과점을 해소하기 위해 출범한 인터넷전문은행마저 은행권의 ‘게임 체인저’ 역할을 해내진 못해서다. 지난해 말 기준 인터넷전문은행의 예금과 대출 점유율은 2%대에 불과하다. 김상봉 한성대 경제학과 교수는 “규모 확장을 위해선 자본 여력이 필요한데, 시장 규모가 한정된 금융권 특성상 큰 금액을 투자하긴 어려울 것”이라며 “시중은행 전환에 공을 들이기보다는 차별화된 비대면상품 등을 개발해 적은 비용으로 거점지역 외 이용자를 끌어들이는 것이 더 효율적일 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>티웨이항공 '가성비로 여행가요'…특가 프로모션</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011977982?sid=102</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>*재판매 및 DB 금지[대구=뉴시스] 박준 기자 = 티웨이항공은 17일 오전 10시부터 오는 30일까지 가성비 여행 특가 프로모션을 실시한다. 이번 특가 프로모션 적용 노선은 국내선 4개(김포~제주, 대구~제주, 광주~제주, 청주~제주)와 국제선 36개(일본, 대만, 동남아, 대양주, 호주, 중앙아시아) 등 총 40개 노선이다. 특히 인천~홍콩 노선과 오는 9월8일 운항을 재개하는 인천~사가(일본) 단독 노선도 포함된다.유류할증료와 공항세를 포함한 1인 편도 총액 기준 ▲인천~후쿠오카 8만8500원부터 ▲인천~오사카(간사이) 10만8500원부터 ▲인천~방콕(수완나품) 12만8780원부터 ▲인천~방콕(돈므앙) 12만8780원부터 ▲청주-방콕(돈므앙) 10만3780원부터 이용할 수 있다. 초특가 할인 이벤트 외에 항공권 예약 시 할인코드 '가성비'를 입력하면 국내선의 경우 노선별 편도 및 왕복 항공권의 3~5%, 국제선의 경우 5~20% 즉시 할인이 적용된다. 항공권 할인률은 노선과 기간에 따라 상이하다. 할인코드를 적용하면 유류할증료와 공항세를 포함한 1인 편도 총액 기준 ▲김포~제주 2만5475원부터 ▲대구~제주 1만7305원부터 ▲인천~도쿄(나리타) 12만2400원부터 ▲인천~삿포로 14만1400원부터 ▲인천~사가 8만6500원부터 ▲인천~홍콩 10만9800원부터 ▲대구~후쿠오카 9만6500원부터 ▲인천~사이판 13만7080원부터 ▲인천~울란바타르 16만7300원부터 ▲인천~시드니 36만4400원부터 각각 판매한다. 또 카카오페이, 토스페이, 우리카드, NH농협카드로 결제 시 최대 2만원까지 중복 할인을 받을 수 있는 쿠폰이 함께 제공된다. 특가 항공권 탑승 기간은 오는 10월28일까지다. 일부 노선의 경우 오는 8월31일까지 탑승편에 한해 적용된다. 자세한 사항은 티웨이항공 홈페이지와 모바일 앱(웹)에서 확인할 수 있다.티웨이항공 관계자는 "각자의 여행 목적과 취향에 맞게 선택하실 수 있도록 국내선과 국제선을 아우르는 전 노선에 대한 프로모션을 준비했다"며 "앞으로도 티웨이항공은 고객에게 합리적 운임과 더불어 더 많은 혜택을 선보일 수 있도록 노력할 것이다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.07.27.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>핀다, 470억 규모 시리즈C 투자 유치</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005164407?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>JB금융그룹, 500글로벌로부터 470억 규모 시리즈C 투자 유치…2년 6개월 만, 누적 투자금 644억핀다-JB금융그룹, 전략적 파트너십 강화 위해 상호 지분투자…‘핀테크-금융그룹’ 동맹 결성해 ‘금융 메기‘ 꿈꾼다담보대출 대환, 예금보험 비교중개 서비스 등 플랫폼 고도화에 투자금 활용 [이미지 설명: 대출 중개관리 핀테크 기업 핀다(공동대표 이혜민 박홍민)가 26일 서울 여의도 JB빌딩에서 JB금융그룹과 디지털 금융플랫폼 제휴 사업 확대를 위한 전략적 투자 계약을 체결했다. (사진 왼쪽부터) 이혜민 핀다 공동대표, 김기홍 JB금융지주 회장, 박홍민 핀다 공동대표가 전략적 투자 계약식에서 함께 기념촬영을 하고 있다.핀다가 시리즈 C 투자 유치를 완료하며 ‘금융 메기’가 되겠다는 출사표를 던졌다.대출 중개관리 핀테크 기업 핀다(공동대표 이혜민 박홍민)는 JB금융그룹과 500글로벌로부터 총 470억원 규모의 시리즈 C 투자를 유치했다고 26일 밝혔다. 지난 2021년 1월 기아(KIA), 500글로벌의 메인 펀드 등이 참여했던 115억원 규모의 시리즈B 투자 유치 이후 2년 6개월 만으로, 누적 투자금은 644억원 규모다.업계에서 가장 많은 68개 제휴사와 손잡은 핀다는 대출비교플랫폼 시장에서 토스 카카오페이 등 빅테크와 빅3를 형성하며 핀테크의 저력을 보여주고 있다. 핀다는 지난해에만 4조원에 달하는 대출을 중개했고, 이 가운데 대환대출을 목적으로 실행된 대출 총액도 1조원에 달했다. 현재까지 누적 대출 중개 금액은 7조원을 넘어섰고, 핀다의 사용자들이 등록한 대출 관리 총액은 70조원 규모다.특히 이번 시리즈 C 라운드는 JB금융그룹이 전략적 투자자(SI)로 참여했다. 핀다는 지난 2020년부터 JB금융그룹의 자회사인 전북은행과 비대면 전용 신용대출 상품 제휴를 시작으로 파트너십을 맺어왔다. 핀테크와의 협업을 전방위적으로 강화해 온 JB금융그룹은 핀다와 손잡고 경쟁력 있는 비대면 상품 및 대안신용평가 모델을 개발해 제휴 사업을 확대해 나갈 계획이다.이를 위해 JB금융그룹은 핀다 지분 15%를 투자하고, 인수 방식은 JB금융지주가 5%, 전북은행이 10%를 각각 투자한다. 핀다 또한 JB금융지주 지분 일부를 매입하고 ‘핀테크-금융그룹 동맹‘을 결성하여, 빅테크와 시중은행에 맞서 시장의 판도를 뒤흔드는 ‘금융 메기’로 나아간다는 전략이다.또한 핀다는 기존 투자자였던 500글로벌로부터 후속 투자 유치를 받았다. 핀다의 시드 투자와 시리즈B 투자에도 참여한 500글로벌은 한화 약 8조 5천억원에 Intuit에 인수된 미국의 Credit Karma, 멕시코의 대표적인 핀테크 유니콘인 Clip, Konfio 그리고 아프리카의 대표적인 핀테크 유니콘인 Chipper 등에 투자하며, 글로벌 핀테크 시장에서 유니콘 이상으로 성장한 다수의 포트폴리오를 가지고 있다.신규 자금을 조달하게 된 핀다는 추후 오픈 예정인 주택담보대출 대환과 예금 및 보험 비교중개 서비스 개발을 비롯해, AI-FDS(이상거래탐지시스템) 구축과, 특화 CSS(대안신용평가모델)인 핀다스코어 개발 등 플랫폼 사업 고도화에  투자금을 투입할 계획이다.이혜민 핀다 공동대표는 “해외에서는 핀테크 기업과 금융사가 지분 투자를 통한 파트너십을 맺으며 동반 성장해 온 사례가 많은 만큼 국내에서도 좋은 선례를 남기겠다”라며, “이번 투자 유치를 통해 보다 더 전문화되고 차별화된 금융서비스와 금융 상품을 시장에 선보일 수 있을 것이라고 생각하며, 더 많은 고객들에게 기존보다 더 큰 효용과 혜택을 줄 수 있도록 최선을 다하겠다”라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.07.16.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[부산 공연] 이번 주에 뭐 볼까? [2023년 7월 17~23일]</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001222281?sid=103</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>◆비루투오조 앙상블 ‘위대한 바이올리니스트의 작품들’ [금정문화회관 은빛샘홀]'위대한 바이올리니스트의 작품들' 공연 포스터.동의대 백재진 교수를 중심으로 1995년 결성해 지금까지 꾸준하게 연주 활동을 펼치고 있는 부산의 대표적인 실내악 단체 중 하나인 비르투오조 앙상블이 여는 음악회. 이번 음악회 부제 ‘위대한 Violinist 작품들’이라는 제목에서 알 수 있듯 바이올린 명연주자이거나 훌륭한 작품을 남긴 거장을 통해 시대별 바이올린 연주 기법과 음악적 표현의 변천사를 알아보는 시간을 갖는다. 비발디, 코렐리, 파가니니, 슈포어, 사라사테, 크라이슬러, 시벨리우스에 이르기까지 17세기부터 지금까지 대중으로부터 사랑받아 온 바이올린을 솔로에서부터 앙상블에 이르기까지 감상할 수 있다. 출연 백재진 김도경 조무종 이현우(이상 바이올린), 박지수 나윤채(이상 비올라), 조명환 윤주연(이상 첼로), 서혜리 정성혜(이상 피아노). ▶7월 18일(화) 오후 7시 30분 부산 금정구 체육공원로7(구서동) 금정문화회관 은빛샘홀. 1만 원.◆2023 영남춤축제 한국전통춤판1 [국립부산국악원 예지당]2023 영남춤축제 한국전통춤판1 리플렛 캡처.국립부산국악원이 주최하는 2023 영남춤축제 ‘춤, 보고 싶다’ 일환으로 선보이는 한국전통춤판1. 공모를 통해 선정된 30인의 춤꾼들이 5일에 걸쳐 춤판을 벌인다. 첫 순서인 ‘한국전통춤판1’은 권효진(승무), 김영운(살풀이춤), 엄선민(화선무), 서정숙(민살풀이춤), 박수일(버꾸춤), 김부경(진주 교방굿거리춤)이 나선다. ▶7월 19일(수) 오후 7시 30분 부산 부산진구 국립부산국악원 예지당. 전석 1만 원.◆제824회 금정수요음악회 ‘Tango Moderno(현대의 탱고)’ [금정문화회관 은빛샘홀]제824회 금정수요음악회 ‘Tango Moderno(현대의 탱고)’ 포스터. 금정문화회관 제공이번 금정수요음악회는 ‘친친탱고’가 준비한 ‘Tango Moderno(현대의 탱고)’가 준비된다. 친친탱고는 작곡가 겸 반도네오니스트 김종완, 피아니스트 이안나, 바이올리니스트 강소연으로 구성됐으며, 객원으로 이영훈(퍼커션)이 함께한다. 김종완 자작곡 ‘파리의 노을’ ‘엘리제를 위한 탱고’ ‘혁명’ ‘단역’ ‘간극’ ‘달맞이’ 외에도 아스토르 피아졸라의 ‘두려움’ ‘잔느와 폴’ ‘천사의 죽음’ ‘악마에게 가자!’ ‘잘 가요, 아버지’ ‘친친’ ‘리베르탱고’ 등이 연주된다. ▶7월 19일(수) 오후 7시 30분 부산 금정구 체육공원로7(구서동) 금정문화회관 은빛샘홀. 1만 원(현장 구매).◆부산시립합창단 특별 연주회 ‘2023 서머 판타지(SUMMER FANTASY)’ [부산문화회관 대극장]부산시립합창단 특별 연주회 ‘2023 서머 판타지(SUMMER FANTASY)’올해로 18회를 맞는 ‘2023 서머 판타지’는 뮤지컬과 팝송, 영화음악처럼 대중성이 짙은 곡으로 무대를 구성해 기존의 가요 합창 음악회와는 다른 느낌으로 부산시립합창단에 특화된 프로그램으로 선보인다. 1부는 뮤지컬과 팝송을 주제로 한 음악으로 ‘맘마미아’ ‘댄싱퀸’ 그리고 렛잇비, 대니보이 등을 들려준다. 인기 명곡 빌리 조엘의 ‘피아노 맨’은 시립합창단 테너 최원갑과 하모니스트 박기국이 연주하고, ‘림포시빌레 비베레’는 남성 4중창(시립합창단의 테너 최춘식·김일두, 베이스 김태우·이재원)이, ‘드림 걸즈’는 여성 3중창(시립합창단 소프라노 방효은·최현서, 알토 남지희)이 들려준다. 2부는 영화음악의 거장 엔리오 모리꼬네의 곡을 부산시립청소년교향악단 협연으로 함께한다. 이날 지휘는 2020년부터 부산시립합창단 부지휘자로 활동 중인 임희준이 맡는다. ▶7월 20일(목) 오후 7시 30분 부산 남구 유엔평화로76번길 부산문화회관 대극장. 균일 1만 원.◆제64회 예감살롱콘서트 ‘Approximavit Sidera(우리를 별에 더 가깝게)’ [콘체르트보눔]제64회 예감살롱콘서트 ‘Approximavit Sidera(우리를 별에 더 가깝게)’ 포스터. 예감 제공싱어송라이터 강유가 여는 단독 콘서트. 그동안 만들어 온 자작곡을 소개하고, 정치학 박사에서 작곡가 겸 싱어송라이터로 진로를 바꾸며 겪었던 에피소드와 음악 인생에 대한 철학을 이야기하고 노래한다. 강유는 2019년 창작 뮤지컬 ‘폭풍속에서’를 통해 뮤지컬 음악감독으로 데뷔한 후 연극, 팝페라, 클래식 등으로 장르를 넓혀가고 있다. 이후 ‘론더풀투나잇’(2021년), ‘그루터’(2022년) 뮤지컬 음악감독을 맡았고, ‘지워진 이름 부마’(2019년), ‘1979:부마 그 촛불의 시작’(2022년) 등 부마민주항쟁의 정신을 기리는 뮤지컬에도 참여했다. ▶7월 20일(목) 오후 7시 30분 부산 부산진구 전포대로190번길 3 전포카페거리 콘체르트보눔. 네이버 예매 성인 2만 5000원, 학생 2만 원. 현장 발권 3만 원.◆6·25전쟁 정전 70주년, 한·미 동맹 70주년 기념 열린 음악회 [부산시청 1층 대강당]6.25전쟁 정전 70주년, 한·미 동맹 70주년 기념 열린 음악회 포스터. 을숙도문화회관 제공(사)국가원로회의 부산원로회가 6.25전쟁 정전 70주년과 한·미 동맹 70주년을 기념하고자 마련한 음악회. 음악회(오후 3시)에 앞서 권영해 전 국방부장관의 ‘6.25정전 70주년, 한·미 동맹 70주년의 역사적 의미’라는 제목으로 특강(오후 1시 30분)이 있다. 이어 을숙도문화회관 홍희철 관장의 지휘로 오케스트라 ‘Ari-클래식’의 공연이 펼쳐진다. 사회 오정해, 출연 전자바이올리니스트 유진 박, 소프라노 윤선기·박성의, 바리톤 김창돈, 테너 이상훈, 연희퍼포머그룹 처랏. 이번 공연에서는 2030부산세계박람회 유치 기원과 한·미 동맹 70주년을 기념하는 영상을 제작해 음악과 함께 선보인다. ▶7월 21일(금) 오후 3시 부산 연제구 중앙대로 부산시청 1층 대강당. 전석 무료.◆음악당라온 기획 공연 ‘La vie en rose(장밋빛 인생)’ [음악당라온]음악당라온 기획 공연 ‘La vie en rose(장밋빛 인생)’ 포스터. 음악당라온 제공음악당라온이 무더운 여름날에 청량하고 색채감 있는 프랑스 곡을 들으며 작곡가들의 장밋빛 인생을 함께 느끼고 소통하는 시간을 마련한다. 유명 샹송 제목인 ‘La vie en rose(장밋빛 인생)’라는 이름 아래 플루티스트 박한나, 클라리네티스트 차호철, 피아니스트 김미성을 불러 모았다. 프로그램은 플로랑 슈미트의 플루트, 클라리넷과 피아노를 위한 소나티네 작품번호 85, 모리스 라벨 ‘쿠프랭의 무덤’ 작품번호 68(플루트, 클라리넷, 피아노 편곡 버전), 클로드 볼링의 플루트와 재즈 트리오를 위한 모음곡 1과 4, 기욤 코네숑 ‘테크노-퍼레이드’ 등이다. ▶7월 21일(금) 오후 7시 부산 금정구 장전 제2동 419-7 음악당라온. 입장료 3만 원.◆부산시립교향악단 제601회 정기 연주회 ‘쇼스타코비치와 프로코피예프’ [부산문화회관 대극장]부산시립교향악단 제601회 정기 연주회 ‘쇼스타코비치와 프로코피예프’ 포스터. 부산시립예술단 제공계명대 전임교수로 재직 중인 서진의 객원 지휘로 열리는 부산시향 제601회 정기 연주회. 서진은 오스트리아 잘츠부르크 모차르테움 국립음대에 유학해 스위스 바젤 국립음악대학원 첼로 전공 최고전문연주자과정을 졸업하고 베를린 한스 아이슬러 국립음악대학원 지휘과를 졸업했다. 이날 연주곡은 쇼스타코비치 바이올린 협주곡 제1번, 프로코피예프 교향곡 제7번이다. 바이올린 협연은 올해부터 프랑스 툴루즈 카피톨 국립 오케스트라 제1악장으로 활동 중인 김재원이 나선다. ▶7월 21일(금) 오후 7시 30분 부산 남구 유엔평화로76번길 부산문화회관 대극장. R석 2만 원, S석 1만 5000원, A석 1만 원, B석 5000원.◆2023 영남춤축제 한국전통춤판2 [국립부산국악원 예지당]2023 영남춤축제 한국전통춤판2 리플렛 캡처국립부산국악원이 주최하는 2023 영남춤축제 ‘춤, 보고 싶다’ 일환으로 선보이는 한국전통춤판2. 공모를 통해 선정된 30인의 춤꾼들이 5일에 걸쳐 춤판을 벌인다. 두 번째 순서인 한국전통춤판2는 윤혜선(춘앵전), 황윤지(태평무), 송현아(교방살풀이춤), 이상연(승무), 백재화(영남허튼진쇠놀음춤), 김미선(호남살풀이춤)으로 구성된다. ▶7월 21일(금) 오후 7시 30분 부산 부산진구 국립부산국악원 예지당. 전석 1만 원.◆제507회 스페이스 움 음악회 ‘시간 속의 시간’ 세 번째 콘서트 ‘한여름 밤의 꿈’ [스페이스 움]제507회 스페이스 움 음악회 ‘시간 속의 시간’ 세 번째 콘서트 ‘한여름 밤의 꿈’ 포스터. 스페이스 움 제공두 친구, 플루티스트 박은아와 오스트리아에서 활동 중인 피아니스트 김나경이 ‘시간 속의 시간’ 팀을 이루어 ‘시간 속의 시간’ ‘Joy of Life’에 이어 ‘한여름 밤의 꿈’ 같을 세 번째 콘서트를 준비했다. 프로그램으로는 헨델의 플루트 소나타로 바로크 시대의 선율을, 플루티스트 박은아의 자작곡인 ‘반구대 암각화’, 쥘 마스네의 ‘타이스명상곡’, 쇼팽의 ‘야상곡’과 현대 작곡가인 허먼 비프팅크의 ‘야상곡과 여름’, 작곡가 비도르가 플루티스트이자 작곡가인 타파넬에게 헌정한 곡인 비도르모음곡 등을 들려줄 예정이다. ▶7월 21일(금) 오후 7시 30분 부산 동래구 명륜동 424번지 스페이스 움. 입장료 2만 원.◆게네랄파우제, 앙상블 튠과 앙상블 참 [게네랄파우제]앙상블 튠의 21일 오후 8시 ‘모든 날, 모든 순간’ 공연 포스터. 게네랄파우제 제공7월 21일(금) 오후 8시 ‘모든 날, 모든 순간’ 공연은 앙상블 튠(Ensemble Tune) 멤버인 피아니스트 이혜경, 플루티스트 장예지, 첼리스트 변은석 등 세 아티스트가 여행하는 느낌의 K팝을 편안하게 들려준다. 프로그램은 출발(김동률), 제주도의 푸른 밤(최성원), 비와 당신(박중훈), 모든 날 모든 순간(폴 킴) 등이다.앙상블 참의 22일 오후 7시 ‘About Woodwind’ 공연 포스터. 게네랄파우제 제공7월 22일(토) 오후 7시 ‘About Woodwind’ 공연은 플루트 박은주, 오보에 문동원, 클라리넷 조가진, 바순 이보배로 목관악기 4대가 함께하는 ‘앙상블 참’의 무대. 이들은 한국에서 잘 연주되지 않은 곡을 발굴해서 들려주기 위해 결성했다. 2019년부터 분기별 1회의 공연을 꾸준히 이어 나가고 있다. 모차르트와 자크 이베르의 4중주곡, 안톤 호프마이스터의 플루트와 오보에를 위한 듀오 곡, 카스파르 쿰머의 플루트와 클라리넷을 위한 듀오 곡 등을 준비했다. 특히 앙상블 참에 소속된 작곡가 박믿음의 목관 4중주도 들을 수 있다. ▶부산 중구 신창동 게네랄파우제. 각 2만 원.◆국회부산도서관 ‘맑은 소리 하모니카 앙상블 연주회’ [국회부산도서관 2층 영상세미나실]국회부산도서관 ‘맑은 소리 하모니카 앙상블 연주회’ 포스터. 국회부산도서관 제공7명의 장애인 연주자로 구성된 연주단 ‘맑은소리하모니카 앙상블’은 결성 이후 13년 동안 한국에서는 물론 미국 등 해외 공연을 포함해 1천여 회 이상의 공연을 이어 왔다. 이번 공연에서는 트레몰로 하모니카, 코드 하모니카 등 다양한 음색의 하모니카로 요한 슈트라우스의 왈츠곡 ‘아름답고 푸른 도나우강’, 우리 가요 ‘깊은 밤을 날아서’, 영화 ‘맘마미아’ 주제곡 등을 들려줄 예정이다. 국회부산도서관은 공연 후 참석자만 보존서고 등 평소 개방되지 않는 도서관 곳곳을 함께 둘러보고, 도서관에 관한 다양한 이야기를 들을 수 있는 백스테이지 투어 ‘국회부산도서관은 살아있다’를 진행한다. ▶7월 22일(토) 오후 2시 부산 강서구 명지국제1로 161 국회부산도서관 2층 영상세미나실. 8세 이상 자유석 무료 관람, 국회부산도서관 홈페이지 사전 예약 필수(선착순).◆2023 영남춤축제 ‘춤음악,렉처 콘서트 즉흥’ [국립부산국악원 연악당]2023 영남춤축제 ‘춤음악,렉처 콘서트 즉흥’ 리플렛 캡처.국립부산국악원이 주최하는 2023 영남춤축제 ‘춤, 보고 싶다’ 일환으로 선보이는 춤음악, 렉처 콘서트 즉흥은 춤추는 이들에게 반주음악에 대한 이해를 깊게 하고, 정형화된 춤과 음악에 영감을 보탤 수 있도록 기획됐다. 김혜정 경인교육대 교수에게 춤음악과 관객들이 평소 궁금해하던 춤 이야기를 듣고, ‘4인놀이’(윤서경, 이영섭, 이재하, 김승태)와 국립부산국악원 국악 연주단이 펼치는 즉흥의 시간을 감상한다. ▶7월 22일(토) 오후 5시 부산 부산진구 국립부산국악원 연악당. S석 2만 원, A석 1만 원.◆부산시립무용단 특별 공연 ‘별이 빛나는 이정윤의 댄스살롱:The 50_그동안’ [부산문화회관 중극장]부산시립무용단 특별 공연 ‘별이 빛나는 이정윤의 댄스살롱:The 50_그동안’ 포스터. 부산시립무용단 제공올해로 창단 50주년을 맞은 부산시립무용단이 연속적으로 선보이는 50주년 기념 공연 중 하나. 이번 기획 공연 ‘이정윤의 댄스살롱’(The 50/그동안)은 부산시립무용단과 특별한 인연이 있는 3명을 안무자로 모셨다. 홍기태 구성·출연의 ‘승무-기리다’, 서정연(부산시립무용단 상임단원)의 ‘반갑소, 고맙소!’(출연 장래훈·서정연), 최은희 안무·출연 ‘어디로 가고 있습니까?’ 등 3편이 공연된다. 진행 이정윤(부산시립무용단 예술감독). ▶7월 22일(토) 오후 5시 부산 남구 유엔평화로76번길 부산문화회관 중극장. R석 2만 원, S석 1만 원.◆퓨전앙상블 창단 10주년 기념 연주회 [금정문화회관 은빛샘홀]퓨전앙상블 창단 10주년 기념 연주회 포스터. 퓨전앙상블 제공2014년 창단한 퓨전앙상블의 10주년 기념 공연. 퓨전앙상블은 국악과 양악이 어우러진 실내악 단체로 새로운 악기와 연주자들이 함께하며 국악의 대중화를 위해 노력해 왔다. 이번 연주회 주제는 ‘누에보’. 새로운 10년을 기대하며 새로운 10년을 기대하는 마음을 담았다. 연주곡은 밤의 소리, 부에노스 아이레스 사계, 피리 피아노, 아리아리랑, 민요의 향연 등. 출연 가야금 이명일, 해금 최유리, 피리 권미정, 장구 이효빈, 소리 강은미, 피아노 서혜리, 바이올린 백재진, 첼로 김민승, 오보에 박종관, 성악 구민영, 해설 김윤선. ▶7월 22일(토) 오후 5시 부산 금정구 체육공원로7(구서동) 금정문화회관 은빛샘홀. 전석 1만 원.◆나눌락 제40회 공연:엥구 송 퀄텟 ‘Rhythms of the Night’ [나눌락 스튜디오]엥구 송 퀄텟 ‘Rhythms of the Night’ 포스터. 나눌락 제공재즈 보컬리스트 엥구 송(Engu Song)이 이끄는 라틴재즈 4인조의 공연. 홀란드 아리랑(엥구 송 자작곡), 트리스테(안토니오 조빙의 곡, ‘슬프게’), 사보르아미(루이스 미겔의 로맨틱한 곡 ‘나의 취향’) 등을 들려준다. 나눌락 박선영 대표는 “감미로운 목소리와 매혹적인 라틴의 리듬으로 여름밤을 설레게 할 엥구 송 퀄텟 공연이 될 것”이라면서 엥구 송에 대해서는 ‘크리스털처럼 맑고 감동을 주는 목소리’라고 소개했다. 출연 엥구 송(보컬), 민주신(피아노), 박주민(콘트라베이스), 알랭 오르티즈 사마다(드럼). ▶7월 22일(토) 오후 5시 부산 해운대구 재송동 나눌락 스튜디오(재송1로 11, 2층). 입장료 2만 원.◆아지무스오페라단 판타지 가족 오페라 ‘마술피리’ [영화의전당 하늘연극장]아지무스오페라단 판타지 가족 오페라 ‘마술피리’ 포스터. 아지무스오페라단 제공전문예술법인으로 활동 중인 (사)아지무스오페라단이 선보이는 모차르트의 마지막 오페라 ‘마술피리’ 전막 공연. 2002년 창단한 아지무스오페라단은 그동안 36회의 정기 공연을 했다. 제작팀은 예술총감독 손욱, 지휘정금련, 연출 허복영, 합창지휘 한성용, 음악코치 이영숙. 출연진은 파미나(소프라노 이연진·박소영), 타미노(테너 김준연·이우정), 밤의 여왕(소프라노 권소라·박나래), 파파게노(바리톤 최대우·시영민), 파파게나(소프라노 박은경·이진영), 자라스트로(베이스 박상진·손상혁), 다메1(소프라노 박해미·이수정), 다메2(소프라노 이승온·이유빈), 다메3(메조소프라노 성미진 손혜은), 모노스타토스(테너 김재원 오창석) 등이다. 오케스트라 카메라타부산, 합창 그린나래 아트컴퍼니 오페라앙상블. ▶7월 22일(토)~23일(일) 오후 5시 부산 해운대구 수영강변대로 120 영화의전당 하늘연극장. VIP 10만 원, R석 7만 원, S석 5만 원, A석 3만 원.◆너드커넥션 ‘WELL! ARE YOU GOOD?’ 부산 [KT&amp;G 상상마당 부산 라이브홀]너드커넥션 ‘WELL! ARE YOU GOOD?’ 부산 공연 포스터. KT&amp;G 상상마당 부산 제공따뜻한 음악을 노래하는 밴드 ‘너드커넥션’의 2023년 7월 투어. 5월 발매된 신곡 ‘I ROBBED A BANK’를 만날 수 있는 무대이다. 7월 한 달간 서울, 강릉, 부산을 돈다. ▶7월 22일(토)~23일(일) 오후 6시 부산 부산진구 서면로 39 KT&amp;G 상상마당 부산 라이브홀. 전석 스탠딩 7만 7000원. 예매처 멜론티켓.◆금난새 뮤직센터(GMC) 서머 뮤직 페스티벌 [금난새 뮤직센터 일원]금난새 뮤직센터(GMC) 서머 뮤직 페스티벌 포스터. GMC 제공문화재단1963과 금난새 뮤직센터(GMC)가 공동 주최하는 ‘2023 GMC 서머 뮤직 페스티벌’. 올해로 2회째다. 22일부터 30일까지 9일 동안 오전 마티네 공연(오전 11시)과 저녁 공연(오후 7시 30분) 두 차례로 나눠서 총 19회의 음악회가 준비된다. 이 중 마지막 이틀은 오후 공연(오후 4시)을 포함해 하루 세 번 ‘올데이 콘서트’로 진행된다. 지휘자 금난새를 비롯해 김다미(바이올린), 일리야 라쉬코프스키(피아노), 후완 파블로 호프레(반도네온), 이정현(첼로), 아스틴 퀸텟, 리수스 콰르텟 등 60여 명이 참여한다. 기악 솔로, 실내악, 체임버 오케스트라, 재즈에 이르기까지 다양하게 선보일 예정이다. ▶7월 22일(토)~30일(일) 부산 수영구 구락로123번길 20 금난새 뮤직센터. 전석 무료(예약자 한해 참석 가능).</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>카카오·케이·토스뱅크, 집중호우 피해복구 성금 기부</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003752089?sid=103</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 인터넷전문은행이 전국 집중호우로 인한 피해복구를 위해 성금을 내놓았다.18일 은행업계에 따르면 카카오뱅크, 케이뱅크, 토스뱅크 모두 ‘희망브리지 전국재해구호협회’를 통해 성금을 기부한다.카카오뱅크는 성금 1억원을 기부할 예정이다. 케이뱅크와 토스뱅크는 각각 성금 5000만원을 기부한다. 토스뱅크 관계자는 “성금 기부 외에도 임직원 봉사활동과 구호물품 지원 등을 준비 중”이라고 말했다.[사진 = 각사](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>토스뱅크, 집중호우 피해 복구·이재민 지원에 5천만원 기부</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000343974?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>토스뱅크가 집중호우로 인한 피해 복구와 이재민 지원을 위해 5천만원의 성금을 기부한다고 오늘(18일) 밝혔습니다. 이번 성금은 희망브리지 전국재해구호협회를 통해 전국 지방자치단체로 전액 전달돼 피해 지역의 시설 복구 및 이재민 생필품, 취약계층의 주거 안전을 위해 사용될 예정입니다.앞서 토스뱅크는 지난 2월 임직원들의 자발적인 모금을 통해 튀르키예 지진 피해 복구를 위해 성금을 전달한 바 있습니다.토스뱅크 관계자는 "지속되는 집중호우에 따른 피해 주민들을 위해 지속적으로 노력할 것"이라며 "추가적인 지원방안도 모색 중"이라고 말했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>보험 비교·추천 서비스 11곳서 첫선…‘네카토 싹쓸이’ 우려도</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002172332?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>[게티이미지뱅크][헤럴드경제=강승연 기자] 내년 초 온라인 플랫폼을 통한 보험 비교·추천 서비스를 출시할 업체들이 선정되면서 플랫폼 간 경쟁이 치열하게 전개될 것으로 전망된다. 일각에서는 ‘네·카·토’ 등 막강한 플랫폼을 갖춘 빅테크로 제휴 보험사 쏠림이 발생할 것이란 우려도 나오고 있다.보험 비교·추천 서비스 내년 초 출시…자동차보험 등 대상20일 금융당국에 따르면 금융위원회는 전날 정례회의에서 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스), 뱅크샐러드 등 11개 업체가 신청한 보험 비교·추천 서비스를 혁신금융서비스(금융규제 샌드박스)로 신규 지정했다. 혁신금융서비스로 지정되면 규제 우려 없이 새로운 서비스를 시장에 출시해 시험·검증받을 수 있게 된다.보험 비교·추천 서비스는 온라인 플랫폼에서 다양한 데이터를 활용해 소비자에게 적합한 여러 보험회사의 보험상품을 비교, 추천해주는 서비스다. 전자금융업자, 본인신용정보관리회사(마이데이터) 등 금융감독원 검사 대상 기관은 보험대리점 등록이 제한되지만, 규제 특례를 통해 사업을 할 수 있게 됐다.다만, 취급상품은 온라인판매(CM)용 자동차보험, 단기보험, 실손보험, 저축성보험(연금 제외), 펫보험, 신용보험으로 제한된다. 서비스 출시 전 알고리즘 외부 검증, 비교·추천 결과 외부 제공 금지 등의 맞춤형 규제도 마련됐다. 플랫폼이 수취하는 수수료는 대면 모집수수료의 33%를 넘을 수 없다. 자동차보험의 경우, 보험료 대비 수수료 한도가 4%대로 설정됐다.서비스는 보험사와 플랫폼 간 전산개발, 제휴 등 준비 과정을 거쳐 내년 초 출시될 예정이다. 금융위는 “소비자와 보험회사 간 정보비대칭성을 해소해 보험회사 간 경쟁 촉진, 보험료 부담 절감 등 소비자 편익이 증대될 것”이라고 기대효과를 설명했다.강력한 네·카·토 플랫폼 앞에…제휴 보험사 확보 ‘바늘구멍’?네·카·토 외에 혁신금융사업자로 선정된 업체는 ‘시럽’을 운영하는 SK플래닛과 ‘페이코’ 운영사인 NHN페이코, 뱅크샐러드, 핀크, 핀다, 쿠콘, 해빗팩토리, 헥토데이터 등이 있다. 당초 20곳 이상의 업체가 도전장을 내밀었지만, 본인신용정보관리업 미등록, 재무상황·사업계획 부실 등 요건을 충족하지 못해 고배를 마신 것으로 전해졌다.네이버파이낸셜·카카오페이·토스 로고 [각사 제공]혁신금융사업자 지정이란 큰 관문을 통과했지만 중소형 플랫폼 사이에서는 기대와 우려가 교차하는 모습이다. 플랫폼에 보험상품을 걸어줄 제휴 보험사 확보에 당장 나서야 하지만, 수천만명의 가입자를 보유한 막강한 네·카·토 플랫폼과 경쟁이 될 수 있겠냐는 걱정이 크다.5월 말 출시된 대환대출 플랫폼의 선례도 거론되고 있다. 주요 시중은행과 저축은행을 자사 플랫폼에 입점시켰던 네·카·토와 달리 규모가 작은 핀테크 업체들은 제휴 금융사를 찾는 데 애를 먹었다. 이미 고객 수가 많은 빅테크 플랫폼을 선호하는 금융사들을 끌어올 만한 유인을 제공하기 어려워서다.한 업계 관계자는 “혁신금융서비스는 중소형 핀테크사들의 무대가 될 것으로 기대했는데, 대환대출 플랫폼처럼 빅테크 위주로 흘러갈 것이란 우려가 있다. 동일선상에서 출발해 경쟁할 수 있도록 정책당국의 세심한 배려가 필요해 보인다”며 “제휴처 쏠림이 발생하면 배달 플랫폼 서비스처럼 되려 가격 인상으로 이어질 수 있다는 우려도 있다”고 말했다.이와 관련, 핀테크업계와 보험업계 간에 중소 플랫폼의 제휴 활성화, 전산개발 지원 등의 내용으로 업무협약(MOU)이 추진 중인 것으로 전해졌다. 다른 업계 관계자는 “최대한 많은 플랫폼에서 다양한 보험사 상품이 비교·추천될 수 있도록 논의하고 있는 단계”라고 설명했다.금융당국 관계자는 “업계에서 관련 논의가 진행되는 것으로 알고 있다”며 “최대한 얘기를 듣고 가능한 부분은 지원을 할 생각”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>넥슨-현대카드, 한정판 '블루 아카이브 플레이트' 선보여</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002299321?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>8월 31일까지 신규 플레이트 출시 기념 ‘블루 아카이브’ 보상 이벤트넥슨코리아(대표 이정헌)는 현대카드(대표 부회장 정태영)와 함께 서비스하는 ‘넥슨 현대카드’에 ‘블루 아카이브’ 디자인의 플레이트를 한정 출시했다고 20일 밝혔다.이번 ‘블루 아카이브’ 한정판 플레이트에는 게임 속 학원도시 ‘키보토스’의 전경과 캐릭터 ‘아로나’의 뒷모습이 새겨졌다.넥슨은 다음 달 31일까지 신규 한정판 플레이트 출시를 기념해 ‘블루 아카이브’ 보상 이벤트를 진행한다. 이번 이벤트는 ‘넥슨 현대카드’, ‘넥슨 현대카드 UNLIMITED’를 소지한 회원(넥슨 현대카드 CHECK 제외) 중 이벤트 개시 직전 6개월 간(1월 20일부터 7월 19일까지) 카드 사용 이력이 없거나, 이벤트 기간 중 ‘블루 아카이브 플레이트’로 교체한 회원들을 대상으로 한다.넥슨 현대카드 블루 아카이브 플레이트 이미지.해당 회원들은 넥슨 현대카드 ‘블루 아카이브 플레이트’ 이벤트 페이지에 접속해 ‘이벤트 참여하기’ 클릭 후 기간 내 누적 15만원 이상 카드 결제 시 보상을 받을 수 있다.이벤트 참여 보상으로는 ‘청휘석 2천400개’, ‘100만 크레딧 포인트’, ‘최상급 활동 보고서 20개’ 등을 포함한 게임 내 특별 쿠폰과 캐릭터 아로나가 그려진 ‘장패드’, ‘PVC 카드 홀더와 목걸이 줄’, ‘아크릴 마그넷’ 등으로 구성된 한정판 굿즈 패키지를 제공한다.넥슨과 현대카드는 넥슨 회원 전용 PLCC(상업자 표시 신용카드)로 게임 유저에게 차별화된 혜택을 제공한다. ‘넥슨 현대카드’, ‘넥슨 현대카드 UNLIMITED’, ‘넥슨 현대카드 CHECK’ 등 3종으로 넥슨 현대카드 포인트를 적립해 넥슨 캐시 전환과 게임 아이템 구매에 사용 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>케뱅·토뱅, 1~4월 중저신용대출 취급 '뚝'…카뱅은 늘려</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000343872?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행 3사의 올 들어 4월까지 중저신용자 신용대출 공급액이 1년 전과 비교해 4천억원 넘게 감소한 것으로 나타났습니다.오늘(18일) 금융권에 따르면, 인터넷은행 3사가 올해 1∼4월 취급한 중·저신용자 신용대출 공급액은 2조700억원으로, 지난해 같은 기간 2조5천85억원보다 17.48% 감소했습니다. 은행별로 살펴보면, 카카오뱅크는 25.5% 늘어난 1조900억원을 공급했습니다.반면, 같은 기간 케이뱅크는 중·저신용자 대출로 3천500억원을 공급해 1년 전보다 44.4% 줄었습니다. 특히 은행연합회 공시에 따르면, 케이뱅크는 지난해 10월부터 올해 5월까지 7개월간 저신용자 대출을 중단한 것으로 나타났습니다.토스뱅크 역시 올 들어 4월까지 6천300억원을 공급해 37.7% 감소했습니다.이처럼 케이뱅크와 토스뱅크가 중·저신용자 대출을 보수적으로 운영한 건 지난해 이들 은행이 중·저신용자 대출 규모를 확대하면서 연체율과 고정이하여신(연체 기간 3개월 이상) 등 건전성 지표가 악화했기 때문이라는 분석이 나옵니다.앞서 2021년 5월 금융당국이 인터넷은행이 중·저신용자 대출 비중을 공시하도록 주문하면서 목표치 달성에 집중했는데 지난해 고금리 상황에서 중·저신용자들의 상환 여력이 악화하면서 건전성 지표가 악화했습니다.케이뱅크의 올해 1분기 연체율은 0.82%로, 전년 동기 0.48%보다 0.34%p 상승했고, 같은 기간 고정이하여신비율은 0.94%로 0.3%p 상승했습니다. 2021년 10월 출범한 토스뱅크는 올해 1분기 연체율이 1.32%, 고정이하여신비율이 1.04%로 직전 분기(0.72%·0.53%)보다 각각 0.6%p, 0.51%p 상승했습니다.일각에선 이들 은행이 중·저신용자 대출 공급을 줄이며 금융당국이 제시한 신용대출 비중을 맞추지 못할 수도 있다는 전망도 나옵니다.  이들 3사의 올해 말 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%입니다.  당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>"시중은행&gt;저축은행&gt;인뱅"…뒤죽박죽된 예금금리</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011984983?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>은행권 예금금리 최고 연 4.2%…저축은행보다 높아2금융권 건전성 관리에 대출 소극적…예금금리 인상 필요성↓[서울=뉴시스]이주혜 기자 = 일반적으로 고금리 예금에 가입하기 위해서는 저축은행이나 인터넷은행을 찾았지만 지금은 다르다. 저축은행과 인터넷은행의 예금금리가 시중은행보다 낮아진 탓이다. 건전성 관리와 조달비용 부담에 대출 영업을 줄이면서 금리를 높여 예금을 유치하는 데 소극적인 분위기다. 20일 금융권에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 은행의 주요 정기예금(만기 12개월) 상품 최고금리는 전날 기준 연 3.71~3.9%로 집계됐다. 은행권에서는 연 4%를 넘는 정기예금도 등장했다. SC제일은행의 'e-그린세이브예금'은 우대금리를 더해 최고 연 4.2%의 금리를 제공한다. 기본금리도 연 3.9%다. Sh수협은행의 'Sh첫만남우대예금'은 최고 연 4.02%, BNK부산은행의 '더(The) 특판 정기예금'은 연 4.00%의 이자를 받을 수 있다. 이에 시중은행과 저축은행, 인터넷은행의 '금리 역전'이 나타나고 있다. 저축은행 업계 1위인 SBI저축은행의 정기예금 금리는 최고 연 3.8%로 일부 시중은행보다 낮은 수준이다. 자산 규모 상위권인 웰컴저축은행은 연 4.0%, 페퍼저축은행은 연 3.5% 금리를 제공한다. 저축은행중앙회에 따르면 79개 저축은행의 정기예금 평균금리는 연 4.01%로 집계됐다.카카오뱅크의 정기예금 금리는 연 3.5%로 5대 은행보다 낮다. 지난달 한 차례 금리를 인상했지만 시중은행에 미치지 못하고 있다. 케이뱅크는 연 3.8%로 농협은행(3.9%)보다 낮은 수준이다. 토스뱅크의 '먼저 이자 받는 정기예금'은 만기 6개월에 연 3.5%의 이자를 준다. 시중은행들이 금융채 등 최근 시장금리 상승에 따라 예금금리를 올린 반면 저축은행, 인터넷은행은 예금금리 인상에 소극적이다. 건전성 관리를 위해 신규 대출 영업을 줄이면서 자금 조달 필요성이 줄어든 탓이다. 저축은행권 관계자는 "최근 대다수 저축은행이 영업을 활발하게 하지 않고 방어적으로 접근하고 있다"며 "연체율 관리가 중요한 상황인데 신규 대출 중 일부가 부실로 이어질 수 있는 만큼 리스크를 감수하기보다 대출을 늘리지 않는 분위기"라고 설명했다.인터넷은행도 연체율 관리에 나서면서 대출 빗장을 걸어잠그고 있다. 은행연합회 공시에 따르면 케이뱅크는 지난해 10월부터 올해 5월까지 신용점수 650점 이하에 대한 신용대출을 중단한 것으로 나타났다.시중은행과 저축은행, 인터넷은행의 '금리 역전'이 일어난 만큼 이러한 상황이 장기화할 경우 시중은행으로의 자금 쏠림이 나타날 우려가 있다. 이에 일부 저축은행들은 수시입출금 상품인 '파킹통장' 금리를 높여 단기자금을 조달하고 있다. SBI저축은행은 지난달 파킹통장 금리를 1억원 한도에서 연 3.5%로 올렸다. 다올저축은행이 지난달 출시한 파킹통장 상품 'Fi 커넥트 통장'은 최고 연 4.00%를 받을 수 있다. 파킹통장 금리를 높여 자금을 조달하면 정기예금에 비해 금융사가 부담할 이자 비용을 줄일 수 있다. 단기간에 수신 잔액을 늘렸다가 예대율 등 건전성 지표를 만족하면 금리를 낮춰 수신 잔액을 조정하기에도 유리하다.저축은행권 관계자는 "저축은행은 통상적으로 시중은행보다 0.5~1%포인트 높은 예금금리를 제공해왔다"면서 "지금과 같은 상황이 길어지면서 수신 잔액이 줄어들면 결국 금리를 높일 수밖에 없을 것"이라고 덧붙였다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>정보 관리 조직 만들고 CIO 영입… 뮤직카우, 정보 보호 총력</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000918415?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>음악 수익증권 플랫폼 뮤직카우가 안전한 서비스 환경을 구축하기 위해 지난 1년간 정보보호 책임자(CIO)를 영입, 정보관리본부를 신설하고 외부 검증기관으로부터 관련 인증을 받았다고 20일 밝혔다.뮤직카우 제공        뮤직카우는 카카오페이, 토스증권, 쿠팡 등 금융사에서 정보보호 책임자로 근무한 CIO를 지난해 영입했다. 이를 필두로 인재들을 대거 영입해 정보관리본부를 꾸렸다. 본부는 한 해 동안 ▲서비스 안정성 강화를 위한 재해 복구 및 백업 체계 적용 ▲정보기술(IT)·보안 인프라 구축 및 관리체계 강화 ▲보안·인프라 모니터링 등의 업무를 수행했다.이용 편의성을 높이기 위해 지난해 9월 간편인증 서비스도 도입했다. 간편인증은 사설 인증서 기반의 전자서명 기술을 적용한 서비스다. 간편 비밀번호 설정을 통해 더욱 편리하고 안전하게 거래할 수 있도록 지원한다.뮤직카우는 IT 인프라와 보안 체계를 완비해 당국의 실사 대응을 마쳤다. 물적 설비와 안정성 강화 요건을 충족해 지난해 11월 금융위원회 산하 증권선물위원회로부터 최종 제재 면제를 받으며 제도권에 편입됐다. 이를 통해 뮤직카우는 저작권 등을 기초로 하는 무체재산권 신탁수익증권으로서의 권리를 공식적으로 인정받은 세계 최초의 사례가 됐다.뮤직카우는 지난해 9월 ‘ISO27001′ 인증을 받았다. 이 인증은 국제표준화기구(ISO)의 국제전기기술위원회(IEC)에서 제정한 정보보호 관리체계에 대한 국제 표준 규격이다. 올해 3월에는 업계 최초로 ‘정보보호 및 개인정보보호 관리체계(ISMS-P)’ 인증을 획득했다. ISMS-P는 국내 최고 수준의 정보보호 통합 인증 제도다. 과학기술정보통신부와 개인정보보호위원회의 공동 고시 기준에 따라 한국인터넷진흥원(KISA)에서 인증한다.뮤직카우 관계자는 “지난 1년간 고객 보호 강화를 위해 해온 노력들이 좋은 결과로까지 이어져 고무적”이라며 “앞으로도 뮤직카우는 보안체계 및 IT 인프라 역량을 더욱 높여 서비스를 고도화하는 것은 물론 뮤직카우가 구축한 문화금융 생태계 활성화를 통해 문화와 금융 양대 시장의 성장을 이끌어 가겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.07.16.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>롯데온×롯데칠성음료×CJ제일제당 "인기식품 반값에"</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005286920?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>17일부터 이틀간 '원브랜드 페스타'롯데온이 롯데칠성음료, CJ제일제당과 17~18일 '원브랜드 페스타'를 진행한다고 16일 밝혔다. 롯데온, '원브랜드 페스타'[사진제공=롯데온].이번 달에는 다가오는 여름방학과 휴가철을 맞아 식사·간식 등 먹거리 고민을 덜고 가계 부담을 낮추기 위해 롯데칠성음료, CJ제일제당 등 두 개 식품 브랜드와 행사를 기획했다. 행사 기간 각 브랜드 상품을 최대 50% 할인 판매하고, 타임딜·라이브 방송에서 롯데온 단독 혜택을 제공한다. 두 개 브랜드가 선보이는 단독 구성 상품도 준비했다.롯데온은 롯데칠성음료의 아이시스, 칠성사이다, 펩시 등을 롯데온 단독 혜택으로 선보인다. CJ제일제당의 햇반, 비비고, 스팸 등에도 단독 혜택을 제공한다. 행사 상품에 적용할 수 있는 최대 22% 할인 쿠폰, 토스페이 결제 시 최대 10% 즉시 할인 혜택 등을 적용하면 최대 50% 할인된 가격에 구매할 수 있다.두 개 브랜드의 인기 상품을 묶어 만든 '롯데칠성음료×CJ제일제당 롯데온 단독 구성 상품'도 준비했다. 밀키트와 음료를 합친 구성 상품으로 'CJ제일제당 쿡킷+칠성사이다(500㎖) 세트'가 있으며, 쿡킷 상품은 순두부스팸김치찜, 킬바사투움바파스타, 닭가슴살토마토리조또 등에서 선택할 수 있다. 오전 10시, 오후 2시에 '타임딜' 행사를 진행해 CJ제일제당 스팸, 비비고, 쁘띠첼 등과 롯데칠성음료 아이시스, 펩시, 밀키스 등 인기 상품을 한정 수량 롯데온 특별 가격에 선보인다. 17일 오후 7시부터는 라이브 방송을 통해 CJ제일제당과 롯데칠성음료의 단독 구성 상품을 비롯해 30여개 대표 상품을 소개하고, 구매 고객 대상 다양한 혜택을 제공한다.행사 상품을 구매한 모든 고객에게 다음 달 진행하는 '8월 퍼스트먼데이'에서 롯데칠성음료와 CJ제일제당 상품 대상 최대 25% 할인 쿠폰을 제공한다. 구매 고객 중 600명을 추첨해 엘포인트 5000점을 추가로 증정한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.07.23.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>카뱅도 "오토론 연내 출시" … 카드·캐피털과 경쟁 예고</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004217610?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>케뱅이어 대출포트폴리오 다양화핀테크는 車금융 비교서비스 확대DSR포함 은행 오토론 규모 줄어인뱅 진출에 "효과 제한적" 시각도6월 12일 오후 대전 유성구 용산동 현대프리미엄아울렛 대전점 지상 주차장. 연합뉴스[서울경제] 케이뱅크에 이어 카카오뱅크도 자동차담보대출(오토론) 상품을 연내 출시하기로 했다. 신용대출에 집중돼 있는 인터넷전문은행들의 대출 포트폴리오를 다양화해 수익 구조를 다변화하겠다는 취지다.21일 금융권에 따르면 카카오뱅크는 오토론 담당 인력 등을 갖추고 연내 출시를 목표로 상품 출시를 준비하고 있다. 카카오뱅크는 올 초부터 자동차금융 경험이 있는 여신 담당자를 영입하는 등 시장 진출을 준비해왔다. 케이뱅크의 경우 올 5월 오토론 시장 진출을 공식화했다. 케이뱅크는 3분기 중 인터넷은행 중 처음으로 자동차대출 대환상품을 출시하고 이어 연말까지 자동차 구입 자금 대출도 추가로 내놓는다는 계획이다. 이처럼 인터넷은행들이 속속 자동차금융 시장에 발을 내딛는 것은 여신 포트폴리오를 다양화하기 위함이다.인터넷전문은행의 오토론 시장 진출과 함께 핀테크사들도 자동차금융 비교 서비스를 속속 내놓고 있다. 카카오페이는 지난달 말 자동차 카드 결제 비교, 신차 구입 시 카드 금리와 캐시백 혜택 비교 서비스 등을 확대 개편했다. 토스 역시 이달 말께 신차 구매를 위한 카드 할부 비교 서비스를 내놓을 계획이다. 대출 비교 플랫폼의 한 관계자는 “상품이 많아지고 간편하게 비교할 수 있는 서비스도 늘어나는 만큼 소비자의 효용은 증가할 것”이라고 말했다.사진 설명다만 인터넷은행의 오토론 시장 진출 효과가 의외로 크지 않을 것이라는 전망도 나온다. 은행 오토론이 총부채원리금상환비율(DSR) 산정에 포함되면서 시장 규모가 축소되는 데다 카드와 캐피털 등 여신 업체들도 오토론 관련 영업에 적극적으로 나서면서 경쟁이 더욱 치열해지고 있기 때문이다. 실제로 4대 시중은행(KB국민·신한·우리·하나)의 오토론 잔액은 3년 연속 감소세를 보이고 있는데 지난해 말 기준 4대 은행의 오토론 잔액은 총 4조 128억 원으로 전년 말 대비 1조 원(약 20%) 넘게 급감했으며 올해 6월 말에는 그보다 더 줄어든 3조 6400억 원에 그쳤다. 시중은행의 한 관계자는 “고금리에 DSR 규제까지 걸려 자동차처럼 필수재가 아닌 상품의 대출은 감소하는 경향이 있다”며 “인터넷은행에서 금리 등 이점을 내걸어도 적극적 영업에는 한계가 있을 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>제주 줄고, 일본 늘자…전국 지자체 “여행비용 줄게” 손짓 [여행가중계]</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005163809?sid=103</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>점차 해외여행이 정상화에 가까워지면서 한동안 쾌재를 불렀던 제주를 비롯한 국내 여행이 멈칫하는 분위기다. 실제로 일본 노선이 제주 노선을 4년만에 추월한 데 이어, 일본을 찾는 한국 관광객이 일본 외래객 순위에서 수개월째 압도적 1위다. 또 인천공항을 통해 해외로 나간 이용객도 코로나 이전인 2019년 대비 70%선까지 회복한 모양새다.​상황이 이렇자 전국 지자체에서 너도나도 ‘여행경비’를 제공할테니 와달라는 손짓을 하고 있다. 제주와 울산은 일과 휴가를 함께 하는 워케이션으로, 전북 진안은 관광객 유치를 위한 알뜰관광 사업을 펼치고 있다.제주도민 통째로 일본 갔다면?…외국인 여행객 1위 한국, 2위는?(매일경제)상반기 일본 항공 여행객, 김포~제주 추월… 선선한 홋카이도 관심↑(동아일보)“코로나 끝이 보인다”...인천공항 여객, 70% 수준 회복(한국일보)“올해 상반기 해외여행, 지난해 比 1000% 성장”(스포츠경향)​6월 한 달 동안 일본을 찾은 한국 관광객 수는 54만5000명이었다. 일본 정부관광국(JNTO)이 발표한 자료에 따르면 올 6월 일본을 방문한 외국인 207만 명 가운데 한국인이 54만여 명으로 압도적 1위를 차지했다. 올 상반기 입국자 수에서도 다른 나라를 월등히 앞선다. 한국 관광객 수는 313만 명으로, 방일 외국인 중 29.2%였다. 이어 대만이 177만 명, 미국 97만 명, 홍콩 91만 명 순이었다. 일본 홋카이도 / 사진 = 언스플래쉬국토교통부 항공 통계도 이를 뒷받침한다. 지난 1~6월 동안 일본 항공편 이용객 수는 850만여 명으로, 같은 기간 김포~제주를 오간 798만여 명보다 52만여 명 많았다. 일본 노선 이용객이 김포~제주 노선 이용객을 뛰어 넘은 것은 4년만의 일이다. 여름휴가철을 맞아 일본행은 더욱 증가세를 보이고 있다. 특히 상대적으로 선선한 기온을 나타내는 홋카이도에 대한 관심이 높은 것으로 집계됐다.​올 상반기 인천공항을 통해 해외로 나간 이용객은 2440만 명으로, 코로나 이전인 2019년 같은 기간 3525만 명의 69.2% 수준이었다. 지난해 상반기 393만 명보다는 무려 519.7% 증가한 수치로 항공수요가 빠르게 회복하고 있는 모습이다. 지역별로는 동남아가 864만 명, 일본 588만 명, 미주 264만 명 순이었다. 인터파크트리플인터파크트리플의 통계도 결을 같이한다. 자사 항공권과 패키지 상품을 이용해 올 상반기 출국한 송출객이 123만 명으로 나타났다. 이는 브랜드 사상 처음으로 반기 기준 송출객 100만 명을 돌파한 것으로, 지난해 같은 기간 9만 명에 비해 1292%, 코로나 이전인 2019년 같은 기간 95만 명과 비교해서도 29% 증가했다. 송출객 추이를 분기별로 보면 2022년 3분기 첫 10만 명대인 20만 명으로 올라선 것을 기점으로 4분기 36만 명, 올 1분기 58만 명, 2분기 65만 명까지 가파르게 늘고 있다.해외 여행수요 증가에 제주 항공좌석.관광객 줄었다(조선일보)‘8월 항공권 서둘러 구매할까’…유류할증료 오른다(비즈워치)지난해 안전투자 가장 늘린 항공사는 ‘에어부산’… 꼴찌는?(경향신문)​항공수요는 증가세로 접어들고 있지만 항공업계는 마냥 행복한 상황은 아니다. 한때 제주행 항공편이 만석에 가까운 시절을 보냈지만 올 상반기의 경우 지난해보다 120만석 가깝게 감소한 것으로 나타났다. 제주도에 따르면 1~6월까지 제주공항 국내선 이용객은 1405만여 명으로, 지난해 같은 기간 1460만여 명보다 55만여 명 감소했다. 항공업계가 국제선 공급을 늘리면서 국내선을 줄인 것으로 분석하고 있다. 제주 무지개 해안도로 / 사진 = 한국관광공사국제선 유류할증료 인상 소식도 전해졌다. 항공업계에 따르면 8월부터 국제선 유류할증료가 ‘7단계’에서 ‘8단계’로 한 단계 상승한다. 이에 따라 주요 항공사마다 적게는 1500원에서 많게는 1만2000원 정도 인상할 것으로 보인다. 이에 8월 여행을 앞둔 예비 여행객이라면 항공권 발권을 서두르는 것이 좋다.​첫째도 둘째도 안전인 만큼 항공사들의 안전투자 상황에 대한 조사가 발표됐다. 국토교통부에 따르면 지난해 항공사와 공항운영자의 안전투자 규모는 4조 2387억 원이었다. 3조 364억 원이었던 2021년 대비해 39.6% 늘었다.항공사 별로 보면 에어부산이 2021년 932억 원에서 지난해 2602억 원으로 안전투자를 가장 많이 늘린 반면, 진에어는 2021년 4539억 원에서 2022년 3917억 원으로 11개 항공사 중 유일하게 13.7%나 안전투자 비용을 줄였다.“제주 워케이션 오피스 비용·여가비 드려요”…1인당 최대 52만원(뉴스1)“진안 여행 비용 부담이 대폭 줄어듭니다” 알뜰관광 지원금액 늘어(전북도민일보)울산서 일과 휴가 병행 ‘휴가지 근무’시 숙박 최대 5만원 할인(연합뉴스)​제주특별자치도는 수도권 기업을 대상으로 최대 14일 동안 1인당 하루 3만 원씩 최대 42만 원의 워케이션 바우처를 지급한다. 다만 워케이션 기간이 3일 이상이어야 한다. 오피스 바우처를 지원받은 기업 임직원은 퇴근 후 제주의 자연에서 휴식을 즐길 수 있도록 여가 프로그램 바우처를 1인당 주 1회, 총 2회 준다. 지급액은 1회당 5만 원이다. 전북 진안군 진안천 / 사진 = 진안군전북 진안군은 관광객 유치를 통한 지역 관광 홍보, 경제활성화 등을 위해 알뜰관광 지원사업을 펼친다. 진안군은 관광객이 2곳 이상에서 10만 원 이상을 쓰면 5만 원, 3곳 이상에서 20만 원을 넘게 쓰면 10만 원을 지원한다. 또 4곳 이상에서 30만 원 이상을 지출할 경우에는 15만 원을 준다.관광객은 지역 음식점, 숙박시설, 특산품 판매장, 체험 시설 등에서 일정 금액 이상을 쓰고 SNS를 비롯한 뉴미디어에 진안군 관광 홍보를 하면 지원금을 받을 수 있다. 울산 태화강 국가정원 대숲정원 / 사진 = 울산광역시울산광역시와 여기어때는 일과 휴가를 병행하는 워케이션 목적으로 울산을 찾는 사람에게 8월 9일까지 최대 5만 원의 숙박 할인권을 제공한다. 호텔현대 바이 라한 울산, 롯데호텔 울산, 롯데시티호텔 울산, 신라스테이 울산, 머큐어 앰배서더 울산, 호텔리버사이드 울산, 다움 호텔 울산, 울산 에쉬튼 호텔 등 울산 내 8곳의 숙박시설에 한하며 8월 20일까지 선착순으로 사용할 수 있고, 입실 기간은 9월 30일까지다. 토스나 카카오페이 등으로 결제하면 최대 10% 추가 할인도 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>5대 은행 가계대출 금리…카카오뱅크 4.46%로 업계 최저</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012002088?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>신규 대출 금리는 신한, 잔액은 하나銀 높아[서울=뉴시스] 조성봉 기자= 금융당국은 오는 27일부터 역전세로 보증금 반환에 어려움을 겪고 있는 집주인들에게 전세보증금 차액만큼 대출 규제를 완화하는 프로그램을 모든 은행에서 1년간 한시적으로 운영한다, 사진은 26일 남산에서 바라본 서울의 아파트와 빌라 모습. 2023.07.26.suncho21@newsis.com[서울=뉴시스] 이정필 기자 = 은행권의 가계전체 대출금리 비교에서 5대 시중은행 중 신규 취급은 신한은행, 잔액으로는 하나은행이 높은 것으로 나타났다. 이는 주택담보대출과 신용대출, 전세대출 등 가계대출 금리를 신규 취급액과 잔액 기준 가중평균으로 산출한 결과다.28일 은행연합회 공시에 따르면 전북은행이 지난달 신규 취급한 가계대출 평균금리는 10.76%로 집계됐다. 광주은행은 8.13%로 뒤를 이었다.이어 ▲토스뱅크 6.53% ▲BNK경남은행 6.07% ▲DGB대구은행 5.96% ▲제주은행 5.77% ▲BNK부산은행 5.66% ▲SC제일은행 5.42% ▲케이뱅크 5.37% ▲Sh수협은행 5.08% 등 순이다.신한은행은 5.05%로 5대 은행 중 가장 높았다. 이어 하나은행 4.79%, KB국민은행 4.75%, 우리은행 4.68% 수준으로 나타났다.NH농협은행은 4.57%로 5대 은행 중 가장 낮았다. IBK기업은행은 4.60%였고, 카카오뱅크는 4.46%를 기록했다.6월말 가계대출 잔액 기준으로 보면 전북은행이 평균금리 7.87%로 가장 높았다. 토스뱅크 7.63%, 광주은행 7.26%로 뒤를 이었다.다음으로 한국씨티은행 6.19%, 제주은행 5.63%, 경남은행 5.47%, 수협은행 5.36% 등이다.하나은행은 5.34%로 5대 은행 중 가장 높았다. 이어 국민은행 5.12%, 농협은행 5.10%, 우리은행 5.03% 순이다.신한은행은 4.92%로 5대 은행 중 가장 낮았다. 카카오뱅크는 5.37%, 케이뱅크는 5.10%로 집계됐다.부산은행 5.05%, SC제일은행 5.04%, 기업은행 5.01% 등도 5%대를 나타냈다. 대구은행은 4.73%, KDB산업은행은 3.82%로 공시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.07.22.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>이재명·이낙연은 진심으로 손잡을 수 있을까</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003237851?sid=100</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>지난 대선 패인 대장동 의혹·이낙연 몰락 자초한 사면론 나온 배경은[주간경향] 또 불발됐다. 7월 20일 MBC라디오 &lt;김종배의 시선집중&gt;에 출연한 이낙연 측 윤영찬 의원은 ‘집중호우에 따른 수해복구 총력기간’이라는 점 이외에 애초 7월 11일에서 19일로 연기된 ‘명낙회동’이 연기된 “다른 이유는 없다”고 말했다. 윤 의원의 말이다.“수해로 수많은 피해로 사망자가 발생했고, 이런 기사가 계속 나가는데 거기에 두분이 만나 악수하고 웃고 하는 게 한가해 보이지 않겠나. 아무리 행정적인 책임이 없다 하더라도 야당 지도자들인데, 그런 부분에 대해서는 마음의 부담이 있었을 것이다.”두 사람의 회동 약속은 이낙연 전 대표가 귀국하던 6월 24일 잡혔다. 이재명 대표가 전화해 ‘만나서 밥 한번 하자’고 제안을 건넸다.윤 의원은 만남을 불편해하는 것이 아니냐는 추측에 “어떤 의제를 가지고 협상하는 자리가 아니라 인사하는 자리”라며 “어떤 부담을 갖거나 할 필요는 전혀 없는 사안”이라고 밝혔다.두 번째 불발된 ‘명낙회동’“대한민국이 이 지경이 된 데는 제 책임도 있다는 걸 잘 안다. 못다 한 제 책임을 다하겠다.”지난 6월 24일, 이낙연 전 대표의 귀국 일성 중 대부분의 언론사가 뽑은 핵심 대목이다. 원고 없이 한 10여 분의 연설 바로 앞 대목에는 ‘모든 국정을 재정립하고 대외관계를 바로잡아주길 바란다’는 윤석열 정부에 대한 바람이 있다.이 전 대표는 일본에는 ‘원전오염수 해양방류를 중지하고 대안을 찾아야’ 하며, 미국과 중국은 ‘대한민국을 더 존중해야 옳다’고 말한다. 러시아에는 ‘침략은 영원히 사라져야 한다’고 말했다. 내치와 외치에서 ‘이 지경’을 만든 윤석열 정부로 정권이 교체된 데는 자신의 책임도 있다고 했다. 그리고 ‘못다 한 책임’을 다하겠다고 말했다.더불어민주당 이낙연 전 대표가 1년간의 미국 유학 생활을 마친 뒤 6월 24일 오후 인천국제공항을 통해 귀국한 뒤 지지자들을 향해 발언하고 있다. / 인천공항 공동취재단표현은 외교적 수사에 가깝다. ‘못다 한 책임’은 지난 대선에서 자신이 대선후보가 됐어야 한다는 말일까. 아니면 최소한 민주당 대선후보가 당선돼 정권교체가 되지 않았더라면 그가 이날 연설에서 밝힌 ‘민주주의와 복지후퇴’를 막을 수 있었다는 뜻일까.경선으로 대선후보가 확정된 후, 지난 대선에서 국민의 현실적인 선택지는 둘이었다. 여의도 입법 활동 경험이 없는 두 사람, 윤석열 아니면 이재명 중 하나였다. 그리고 다음 대선. 민주당의 현실적 선택지도 현실적으로는 둘일 수밖에 없는 상황이다. 이재명 아니면 이낙연이다.이날 공항에는 1000여명의 이낙연 지지자들이 결집해 이낙연을 연호했다. ‘세(勢)’를 보여준 것이다. 하지만 공항 밖 여론 공간에서는 그들의 목소리를 듣기 쉽지 않다. 왜일까.귀국에 앞서 이낙연 전 대표는 책을 한 권 냈다. ‘이낙연의 구상’이라는 부제가 붙은 &lt;대한민국 생존전략&gt;이라는 책이다.책은 크게 세 부분으로 구성돼 있다. 신냉전의 길로 접어든 미·중 경쟁 국면에서 북핵 문제를 어떻게 풀 것이며, 대한민국은 어떤 선택을 할 것인가를 다룬 부분이 1장부터 3장까지 내용으로 이 책의 중심 부분이다. 4장은 과거 국무총리를 지내며 만난 각국 정상 이야기와 에피소드를 담고 있고, 5장은 대한민국이 나아갈 길로 ‘연성(軟性)강국’을 들고 있다. ‘신외교’를 주창하는 5장의 곳곳에는 지난 대선 경선 당시 이 전 대표의 캐치프레이즈였던 ‘내 삶을 지켜주는 나라’라는 표현이 나온다. 부록으로 미국과 독일 대학에서 한반도평화를 주제로 강연했던 원고를 담았다.책을 보면 이 대표가 직접 기술했다는 것이 느껴진다. 기자 출신 특유의 단문으로 쓴 문장들이 이어진다. 놀라운 건 책도 그렇지만, 이 전 대표가 직접 페이스북을 통해 윤석열 정부 외교를 정면 비판하고 있는데도 민주당 지지성향 SNS나 커뮤니티의 반응은 거의 찾아보기 어렵다는 점이다.이 전 대표의 행보를 두고 여전히 민주당 진영, 특히 ‘친명’ 지지자 상당수는 지난 대선 당시 0.73%의 ‘패배’ 책임이 그에게 있다는 인식을 나타내고 있다.선거 막판에 불거져 현재까지 이재명 당대표의 사법리스크 핵심으로 똬리 틀고 있는 ‘대장동 의혹’을 꺼내든 당사자가 이 전 대표가 아니었냐는 비난이 대표적이다. 여기에 ‘대장동 비리 범죄자가 대통령이 되는 걸 방관할 수 없다’며 지지자들 일부가 대선 막판 선을 넘어 윤석열 지지로 달려간 데 대한 책임에서도 자유로울 수 없다는 것이 이들의 시각이다.7월 24일 발매될 이재명 더불어민주당 대표와 이낙연 전 대표 사이의 풀리기 힘든 갈등문제를 표지 기사로 다룬 &lt;주간경향&gt; 1538호 표지.이낙연이 ‘불신’받는 이유“누구라고 밝히진 못하지만, 이낙연 라인 쪽에서 이런 사건이 있다고 정보를 건넨 것은 사실이다. 저희도 대략적으로 듣는 것도 있고 확인하고 화천대유 쪽 입장도 들어보니 신빙성이 높고 제보자의 주장이 터무니없는 것 같지 않아 기사를 내게 됐다.”당시 ‘이재명 후보님, “(주)화천대유자산관리는 누구 것입니까?”’라는 기자수첩 칼럼을 써 이 문제를 최초보도한 박종명 경기경제신문 대표가 지난 7월 18일 통화에서 밝힌 말이다. 그는 대장동 의혹을 최초제기하고 관련 소스를 준 게 민주당 대선 경선 당시 이낙연 캠프 측 아니었나라는 질문에 대해 “이낙연 라인에서 정보를 건넨 건 사실”이라면서도 의외의 답을 내놓았다.“여기저기서 억울함을 표하고 그쪽(이낙연 캠프)에도 상세한 정보를 많이 건넨 것 같다. 지금에 와서 생각해보면 그쪽에서 오픈하지 않고 덮어놓은 게 아닌가 싶다. 이낙연 캠프에 더 디테일한 정보를 건넨 것 같은데, 같은 당이라서 덮어놓은 것 같다. 지금도 늦지 않았다. (이낙연 쪽은) 받은 자료들을 투명하게 공개해 시시비비를 빨리 가리는 편이 낫다. 내가 보기엔 그쪽에서도 라인에 따라 생각이 달랐던 것 같다.”기자는 대장동 의혹이 본격적으로 불거지기 직전, “김만배 머니투데이 부국장이 설립한 화천대유와 천화동인이 조성한 현금흐름이 수상하다”는 제보를 받아 김만배 부국장과 통화했다. 박종명 대표가 위 칼럼을 게시한 다음 날인 9월 1일이었다. 기자는 30여 분간의 김만배 부국장 인터뷰를 바탕으로 일문일답 인터뷰 기사를 썼다(“[단독] 화천대유 대주주 언론인 “이재명 지사와 무관…합법적으로 돈 벌었다” 기사 참조).이 인터뷰는 나중에 공개된 신학림 전 언론노조위원장이 뉴스타파 전문위원이라는 타이틀로 진행한 대담을 제외하면 지금까지 유일한 대장동 핵심인사 김만배의 언론인터뷰 기사다(지난해 11월 24일 출소한 김만배는 당시 배포한 입장문을 통해 “어떤 언론과도 인터뷰하지 않고 어디서도 따로 얘기하지 않을 것”이라고 밝힌 바 있다).기자와 인터뷰 당시 김만배씨는 기자의 취재가 정치권의 ‘오더’에 따른 것이라 생각하는 듯했다. “언론인이었으니 취재가 그런 식으로 진행되는 게 아니라는 걸 잘 알지 않냐”고 했지만, 그는 통화가 상당히 진행될 때까지 의심을 거두지 않았다.기자는 최근 당시 최초정보를 제공한 당사자를 다시 만나 문제 제기 경위를 들었다. 이 인사가 당시 이낙연 캠프 측에서 활동한 것은 사실이다. 그는 대장동 관련 의혹 조사가 “당시 후보(이낙연)의 지시나 재가에 따른 것은 아니었다”라고 밝혔다.“알다시피 이낙연 전 대표는 기자 출신이다. 완벽한 팩트가 확보되지 않는 한 이야기를 꺼내기를 좋아하지 않는다. 당시 김만배라는 사람에 대한 정보가 너무 부족했다. 정말 이 사람이 머니투데이 부국장이 맞는지부터가 의혹 대상이었다. 찾을 수 있는 단서는 이성문 화천대유 대표와 같이 골프장에서 찍은 사진 정도가 전부였다.”이 인사에 따르면 이낙연 캠프가 대장동 사건에 관심을 갖게 된 것은 그해 7월 최기수씨라는 대장동 원주민 대책위 대표가 바리바리 서류뭉치를 싸들고 오면서부터다. 캠프와 상관없이 관련 TF팀이 만들어지고 검증작업이 시작됐다. 이 인사는 “공개돼 있지 않은 관련 회계자료 등을 사비를 들여 떼는 등 여러 각도에서 들여다봤다”라고 덧붙였다. 또다른 인사는 다음과 같은 흥미로운 증언을 덧붙였다.“당시 청와대에서 이 사안을 제대로 검증했다면 지금처럼 큰 정치적 이슈가 되지는 않았을 것이다. 관련 제보를 받고도 이 사건이 자당의 유력 대선주자와 연결될 것으로 보이니까 선을 긋고 덮어버린 것이다.”이 ‘증언’은 지금까지도 정치권에서 암암리에 거론되고 있는 대장동 사건이 세상에 나온 경위와 다르다. 알려진 이야기는 청와대 민정으로 들어온 첩보의 정치적 파장을 고려해 덮은 뒤, 특정 국회의원과 인적 연계고리를 통해 이낙연 캠프 쪽으로 토스했다는 것이다.최초 제보자로 지목된 ‘대장동 원주민 대책위 최기수씨’와 관련해 포털뉴스에서 검색하면 관련 뉴스를 찾을 수 없다. 대신 시일이 흐른 뒤 BBC코리아에서 보도한 최기수씨의 억울한 사연 취재 기사를 볼 수 있다. 이른바 ‘50억 클럽’과 관련해 최씨는 BBC코리아와 인터뷰(2021년 11월 6일)에서 “우리 대장동 원주민 9명이 성남시에 낸 소송금액이 평균 6억원에서 54억원쯤 된다. 퇴직금으로 50억원씩 받아갔다니 이게 어떻게 정상적인 환수라고 할 수 있겠나”며 “주민들 돈으로 잔치한 것 아니냐”고 항변했다(7월 17일 ‘2020년 7월에 이낙연 캠프를 찾아갔냐’는 기자의 질문에 최씨는 “나는 거기와 관계가 없다”며 전화를 끊었다).더불어민주당 박용진, 이재명, 이낙연 대선 예비후보가 2021년 8월 11일 오후 서울 여의도 KBS에서 열린 본경선 3차 TV토론에 앞서 이야기를 나누고 있다(왼쪽부터). / 국회사진기자단‘대장동 의혹’ 이낙연의 현재 생각은경선 막판 ‘대장동 의혹’을 꺼내든 이낙연 전 대표의 지금 생각은 어떤 걸까.대선 이후 이낙연 전 대표는 그에 대한 자신의 생각을 아직 밝힌 적이 없다. 과거 이낙연 전 대표와 여러 선거를 치렀던 인사는 “과거같이 선거를 치러본 내 경험에 비춰봤을 때 드는 생각은 이낙연이라는 사람은 특히 선거 때 네거티브를 활용하는 스타일이 아니다”라고 말했다.“과거 선거와 비교해보면 당시 민주당 대선 경선에서 의원 중심의 캠프는 처음 경험했다. 그래서 네거티브전 성격으로 흘러버린 구도에 별다른 터치(제재)를 못 한 것이다. 지난 대선에서 자기 책임을 말한 귀국 일성에는 그 대목도 포함돼 있다.”그는 이렇게 덧붙였다. “(지난 대선 경선을 되돌아보면) 이낙연 대표 본연의 매력, 이런 것은 하나도 드러나지 않고 네거티브하고, 속을 알 수 없는 사람이 돼버렸다. 나는 그게 너무 안타깝다.” 이 인사에게 계속 물었다.-어쨌든 대장동 의혹을 제기했고, ‘이재명 대표가 후보가 되면 안 된다’는 메시지가 경선 때 마지막으로 나와 있는 데서 멈춰 있는 것 아닌가.“나도 캠프를 했으니 그 책임에서는 자유로울 수 없다고 생각한다. 문제는 후보 본인 생각이었냐는 거다. 이미 의혹이 불거진 상황에서 문제를 제기하지 않을 수도 없는 상황이어서 경선토론에서 꺼낸 것이다. 대장동 의혹은 대선에서 민주당이 진 계기가 됐지만, 경선에서 NY(이낙연)가 진 이유로도 작용했다. 전반적으로 보면 네거티브 양상으로 흘러버린 게 뼈아팠다. 문제는 당시 전략을 담당했던 의원들이 지금도 그대로 포진하고 있기 때문에 앞으로도 크게 달라진 모습을 보여주기 어려울 수밖에 없다는 점이다.”-설훈·윤영찬 의원을 말하는 건가.“구체적으로 누구라고 찍어 말하기는 어렵지만, 다 그대로 있고 오히려 더 가까워져 있지 않나.”-추미애 전 장관이 최근 오마이뉴스 인터뷰에서 문재인 대통령이 자신을 사임시켰고, 문 대통령은 당으로부터 건의받았다고 말했다고 폭로했다. 추 전 장관은 당시 문 대통령의 생각을 번복할 수 있는 두 사람 중 한 사람을 나중에 만나 이야기를 들었다고 밝혔는데, 당에서 건의한 주체로 이낙연 전 대표를 사실상 지목했다.“추미애도 (이낙연 전 대표에 대한) 감정이 사나워서 경선 때부터 계속 그러고 있다고 본다. 만나서 풀어야 한다. 싫어도 해야 하는 일이 있다. 그것을 푸는 것이 정치다.”이 인사는 이재명 당대표와의 만남으로 그동안 쌓인 앙금이 쉽게 풀릴 가능성은 거의 없다고 내다봤다.“절대 안 된다. 갈등 이야기가 나오니까 그런 이미지라도 불식시켜보려고 하는 건데, 그마저도 계속 불발되고 있지 않나. 어떻게 해야 할지 고민이다. 사면초가다. 안 하면 안 한다고 그러고. 가만히 있어도 돌아온(귀국한) 것 자체가 갈등을 만들고 있다. 심지어 신당 창당 의혹까지 나오고 있으니….”엄경영 시대정신연구소 소장은 다음과 같이 진단했다.“예전에 이명박 전 대통령이 대선후보가 될 때 상황과 비슷한 거다. 일단 외부의 적보다 내부의 적이 미운 것이다. 당시 한나라당과의 차이라면 그때는 대통령이 됐지만, 지금은 안 됐다는 점이다. 앙금이 더 많이 남을 수밖에 없다. 이재명 팬덤의 ‘이낙연 악마화’는 아마 내년 총선 선거국면까지 계속될 것이다. 이낙연 전 대표 쪽은 정치세력화는 안 돼 있으니 일방적으로 당할 것이고. 즉 이재명 팬덤의 관점에서 이낙연은 지속적으로 ‘분란만 일으키는 미꾸라지’로 보일 것이다.”엄 소장은 현재의 민주당 주류가 교체됐다는 주장을 지속적으로 펴왔다. 문재인 정부 때만 하더라도 민주당의 주류는 호남과 586 그리고 영남개혁세력의 연합이었다. 그것이 지금은 이재명을 견고하게 지지하는 40대 반보수 강성지지층과 ‘개딸’로 대표되는 신주류로 바뀌었다. 이어지는 그의 말이다.“문재인 전 대통령까지 비판하는 추미애의 최근 행보를 보면 민주당의 주도세력이 40대로 바뀌었음을 알 수 있다. 이재명 대표가 이들을 완벽하게 장악하고 있다는 걸 추미애는 동물적으로 캐치하고 있는 것이다. 다시 말해 주류편승을 시도하는 것이다. 박지원이 이재명 지킴이를 자임하고 나선 것도 같은 맥락이다. 이낙연 전 대표가 민주당의 옛 주류였던 호남 586과 영남개혁세력 세를 모아 반전을 꾀해보려는 듯한데, 쉽지 않을 것이다. 당분간 반보수 대표성은 이재명 대표가 가질 수밖에 없을 것 같다.”“민주당 주류가 바뀌었다”도미 중 장인상을 맞이해 임시귀국한 이낙연 더불어민주당 전 대표(왼쪽)가 지난 4월 9일 오후 빈소가 마련된 서울 강남구 삼성서울병원 장례식장을 찾아 조문을 마친 이재명 더불어민주당 대표를 배웅하고 있다. / 김창길 기자의문은 이것이다. 어찌됐든 언젠가는 ‘명낙회동’은 성사될 것이다. 다만 여러 전문가가 예측하듯 회동에서 ‘윤석열 정권의 실정을 지적하고 내년 총선을 위해 힘을 합칠 것’과 같은 원론적인 메시지 이외의 구체적인 이야기가 나오긴 힘들다.열 길 물속은 알아도 한 길 사람 마음은 알 수 없다고 하지만, 회동 이후에도 두 사람이 화학적 결합을 이뤄내리라 전망하는 사람은 많지 않다.오히려 두 사람의 표면적인 ‘화해’ 제스처를 놓고도 강성팬덤이 반발할 가능성마저 있다. 현재 강성 민주당 지지층은 이재명 당대표를 지지하고 있지만 달리 말하면 이 대표가 ‘강성팬덤’이라는 호랑이 등에 올라탄 형국이다. 당 요구에 따라 “수박표현을 자제해 달라”고 발언했을 때 일부 팬덤에서 나온 반발에서도 조짐이 보였다.“그건 현재 이재명 팬덤의 특성이다. 어느 정도 선을 넘으면 자기네가 지지했던 플레이어조차 비판하고 부정하며 무주공산을 만드는 그런 팬덤이다. 그런데 그게 또 이재명 스타일이기도 하다. 자신이 가는 길과 안 맞으면 다 배척한다. 분명 이재명이 이낙연과 형식적으로 손을 잡는 뉘앙스만 보여도 팬덤 일부에서는 강하게 반발할 것이다. 그러면 이재명은? 팬덤과 손절할 것이다. 골치 아프면 그런 팬덤 버리고 다시 만들자, 그렇게 해왔다.” 박신용철 더체인지플랜 선임연구위원의 말이다.그는 내년 총선까지의 구도를 다음과 같이 전망했다.“이낙연 지지세력 중 일부는 공천 때문에 분당을 바랄 수는 있지만, 이낙연 측이 당을 깰 명분과 동력은 잘 안 보인다. 일부는 떨어져 나가더라도 분당 자체는 쉽지 않을 것이다. 윤석열 정권과 검찰은 이른바 ‘이재명 사법리스크’를 어떻게 하든 공천 시즌인 올해 12월이나 내년 1월 중에 (그 전에 나올) 1심판결을 소재로 대대적으로 때리면서 민주당의 판을 흔들고 싶을 것이다. 그런데 이건 고전적 수법이다. 민주당은 역으로 검찰을 앞세워 정치공작을 하는 것 아니냐고 되받아칠 게 뻔하다.”그는 결국 윤석열 정권의 ‘기획’은 상쇄될 것으로 내다봤다.“지금 이재명 당대표 재판에서 핵심은 선거법 재판이 아니다. 신속하게 끝날 수 없다. 이재명 입장에서 대법까지 가면 최소 3년 이상 간다. 검찰 입장에서는 이재명 유죄 또는 무죄가 중요한 것이 아니다. 총선 전에 정치적 타격을 줘야 하는데, 그게 계획대로 되진 않을 것이다. 결국 이재명으로서는 이대로 총선까지 끌고 가더라도 해볼 만하다고 판단하지 않겠나.”이재명 입장에서 본다면 당내 화합과 확장을 위해 이낙연과 손잡고 가야 한다는 당위가 있지만 그렇다고 그렇게 절실하지는 않으리라는 해석이다.7월 17일 국회에서 열린 제75주년 제헌절 경축식에 더불어민주당 이재명 대표가 참석했다. 왼쪽은 한동훈 법무부 장관 / 국회사진기자단내년 총선 본선서 ‘이재명’ 통할까‘민주당의 변화된 당내 상황’은 서울에서 내년 총선 출마를 준비 중인 한 당직자 출신 인사의 고민에서도 엿볼 수 있다.“출마를 계획하는 지역구 권리당원 수가 3500명이다. 수도권 지역의 경우 평균적으로 3000에서 5000여명의 권리당원이 있다. 현재 지역위원장에게 지난 3월까지의 당원 관련 자료를 주는데, 그게 현 지역위원장으로서는 엄청난 이점으로 작용한다. 자료를 보면 권리당원은 2016년과 2017년 그리고 2021년에서 2022년 시기에 가입이 집중돼 있다. 2021년 대통령 경선할 때는 사실 국민선거인단이었지 당원이 아니었다. 2022년 대선 때 국민선거인단을 했는데 이재명이 떨어져 열 받아서 가입한 사람들이 압도적인 다수다. ‘개딸’이라고 20대 여성이 호명됐는데, 실제 이때 들어온 권리당원들을 보면 20대는 거의 없고 50대가 대다수다. 여자보다 남자가 많다. 그다음이 40대, 60대, 50대 순이다. ‘민주당 지지라기보다 이재명 지지’가 압도적 다수다. 그 당원들의 지지를 받지 않고서는 안 되니까 모든 의원이 ‘친명’을 할 수밖에 없다. 지역마다 특성이 있기는 하다. 특히 서울의 경우 이재명만 가지고 본선에서 될까. 다시 말해 경선은 ‘이재명’으로 하더라도 본선에서 ‘이재명’으로 될 지역이 얼마나 될까.”“한쪽이 이기고 졌으면 다른 관계가 성립됐겠지만, 똑같이 대선을 다시 준비해야 하는 상황이다. 그러니까 기본적으로 또다시 경쟁 관계에 들어가기 때문에 그리될 수밖에 없다.” ‘민주당 대선 경선이 끝난 지 2년 가까이 흘렀는데도 이재명·이낙연 사이의 앙금이 왜 사라지지 않는지’에 대한 김능구 폴리뉴스 대표의 분석이다.“예컨대 2007년 한나라당 경선 때 MB는 최태민·최순실 관계를, 박근혜는 BBK와 다스 관계를 연일 폭로하며 서로 공격했지만, 대선을 앞두곤 타협의 악수를 했다. 당시 박근혜가 MB 정부의 성공을 바라고 정권교체에 적극 협조하겠다고 선언하면서 갈등이 봉합됐는데, 현재의 이재명·이낙연 관계는 그렇지 않다. 서로 다시 링에 올라가야 하기 때문에 근본적으로 둘의 경쟁·갈등 관계는 불가피하다고 봐야 한다.”이낙연 ‘호남 민심’ 돌아봐야그는 특히 이낙연 전 대표가 귀국 때 밝힌 ‘못다 한 책임’을 다 하려면 자신에게 호의적이지 않은 ‘호남 민심’을 돌아봐야 한다고 지적했다.“나는 지난 대선 경선 때 이낙연 후보가 광주에서 1% 차로 승리하는 것을 보고 경선이 끝났다고 봤다. 호남 대표주자가 자신의 홈그라운드에서 어떻게 1% 차로 이기는가. 호남 유권자들을 만나 이야기를 들어보면 의외로 이낙연 전 대표에 대한 거부반응이 상당하다. 그 반응은 단순히 이재명이 좋고 이낙연이 나쁘다, 그런 차원이 아니다. 이재명 지지를 떠나서 이낙연이 큰 상처를 줬다는 얘기다.”그는 이낙연이 호남 민심을 잃고 추락한 계기로 이명박·박근혜 전 대통령 사면론 제기를 들었다.“호남사람들은 전두환·노태우로부터 시작해 현재 국민의힘 세력으로 면면히 이어져 온 그 세력에 대한 거부감·정서가 강하다. 이명박·박근혜가 그들을 이어 집권했는데, 그 사람들 사면을 이낙연이 이야기하니, ‘저 사람 우리 편이 아니지 않나, 어떻게 저런 말을 할 수 있지’라며 지지를 철회해버렸다. 호남에서 이재명에 대한 지지율이 지금도 높은데, 이재명의 리더십에 열렬히 환영해 그렇다기보다 지금 우리를 위해 저들과 맞서 싸울 장수는 이재명이다, 이렇게 인정하는 것이다. 앞으로도 당분간 현재로서는 이재명 외에 다른 대안은 없다고 그들은 생각하지 않을까.”사면론은 한때 40%가 넘던 ‘이낙연 대세론’을 한 방에 무너뜨린 결정적 패착이었다. 사면론 제기와 관련해 이낙연이 할 이야기가 없는 건 아니다. 그는 대선 전 펴낸 문형렬 작가와의 대담집 &lt;이낙연의 약속&gt;에 실린 1문 1답에서 “최근 혼자 소리 내 울었던 때는?”이라는 질문에 “지난 1월, 오해와 비난을 받았을 때”라고 답했다. 책에서 그는 사면론과 관련 “무엇보다 국민의 공감대가 형성되지 않았다. 그 일로 아프게 배웠다. 내 생각이 무엇이든, 거론의 시기와 방법이 좋지 않았다”고 말했다.기자는 사면론이 나왔을 당시 막후에서 벌어진 상황과 관련한 기사를 썼다(주간경향 1411호, ‘이낙연의 사면론, 묘수일까 자충수일까’ 기사 참조). 사면론을 꺼내들기 사흘 전, 이 전 대표는 문재인 대통령과 독대했다. 어떤 형식이든 발언 전 대통령의 의중을 확인하는 과정을 거쳤으리라는 게 당시 정가의 관측이었다. 최근 심경을 밝힌 추미애 전 장관처럼 이낙연 전 대표도 가슴에 묻어둔 이야기가 있을 것으로 보인다.김능구 대표는 “이낙연 대표는 당시 양정철의 말을 대통령의 메시지로 생각한 것”이라고 덧붙였다. 양정철 민주연구원장의 ‘워딩’을 대통령의 공감 내지는 재가를 받은 것으로 착각했다는 주장이다. 이 역시 앞으로 언젠가는 밝혀져야 할 운명을 가른 역사적 ‘진실’이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>[알뜰폰 좌담회]“알뜰폰 최우선 과제는 자생력, 메기 키울 연못부터 조성해야”</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003118381?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>알뜰폰 산업 발전 좌담회가 14일 서울 서초구 전자신문 본사에서 열렸다. 왼쪽부터 김용희 오픈루트 전문위원, 고명수 스마텔 대표, 김형진 한국알뜰통신사업자협회장, 여준상 동국대 교수, 정지연 한국소비자연맹 사무총장, 김준모 과학기술정보통신부 통신경쟁정책과장, 이상우 법무법인 세종 연구위원, 김원석 전자신문 부국장. 이동근 기자 foto@etnews.com전문가들과 산업계는 자생력을 갖추기 위한 제도·시장환경 구축을 알뜰폰 산업 발전 핵심과제로 지목했다. 알뜰폰의 독자 상품설계와 판매가 가능해야 한다고 강조했다.알뜰폰이 현재와 같이 이동통신사의 통신·서비스 유통점 역할에 국한돼서는 안된다고 입을 모았다.전자신문이 개최한 '알뜰폰 산업 발전방안 좌담회'에 참석한 업계·전문가들은 망 도매대가 합리화, 고객서비스 확충, 풀MVNO 육성정책 등과 관련해서는 공감대를 형성했다. 다만 리테일마이너스(소매가에서 회피가능비용 비용을 차감해 산정), 코스트플러스(망 원가를 기본으로 일부 설비 비용 등을 감안해 산정) 등 도매대가 적용방식과 이통 자회사·금융권의 알뜰폰 시장 역할론에 대해서는 일부 이견을 보이기도 했다.과학기술정보통신부는 통신시장 경쟁촉진방안을 통해 3~5년의 통신정책 로드맵을 제시하며 알뜰폰을 경쟁 활성화 수단으로 삼겠다는 의지를 분명히 했다. 제4 이동통신사업자 발굴이 난항을 겪은 가운데 알뜰폰은 기존 거대 이동통신 3사 독과점 구조를 깨뜨리는데 있어 현실적인 대안으로 주목받고 있다.알뜰폰을 자생력을 갖춘 제4 이통급 산업으로 육성, 통신시장 경쟁과 이용자 후생을 강화하겠다는 정책 방향성과 사회적 논의가 확립됐다. 좌담회에서 나온 대안을 바탕으로 정부와 산업계, 전문가의 지속적인 소통을 통해 산업 육성전략을 구체화해 나가는 것은 과제로 지목됐다.◆참석자△김형진 한국알뜰통신사업자협회장(세종텔레콤 회장)△김준모 과학기술정보통신부 통신경쟁정책과장△고명수 스마텔 대표이사△이상우 법무법인 세종 연구위원△김용희 오픈루트 전문위원△여준상 동국대학교 경영학 교수△정지연 한국소비자연맹 사무총장◇사회=김원석 전자신문 통신미디어부 데스크(부국장)전자신문이 주최한 '알뜰폰 산업 발전방안 좌담회'가 14일 서울 서초구 전자신문 사옥에서 열렸다. 김형진 한국알뜰통신사업자협회장이 발언하고 있다.◇김원석(전자신문 통신미디어부 부국장)=정부가 6일 발표한 통신경쟁 촉진 방안에 알뜰폰(MVNO) 활성화 대책이 담겼다. 이번 정책이 갖는 의미와 이에 대한 의견은.△김준모(과기정통부 통신경쟁정책과장)=이번 알뜰폰 활성화 대책은 일반적으로 매년 내놨던 활성화 정책과는 성격이 다르다. 통신시장 전반을 큰 틀에서 끌고 나갈 로드맵이 마지막으로 나온게 2005년 통신시장 경쟁 로드맵이다. 이후에도 내부적으로는 계획이 없었던 것은 아니지만 대외적으로 로드맵을 발표한 것은 굉장히 오랜만이다. 알뜰폰 활성화 대책이라는 하나의 파트보다는 최소 3년에서 5년 이상 끌고 나갈 정책 로드맵을 제시했다고 이해해달라. 알뜰폰 활성화 대책에 직접적 전략이 담겨 있긴 하지만 다른 파트도 알뜰폰 활성화와 긴밀히 연관돼 있다. 가령 마케팅 경쟁 활성화 부분에 있어 중고폰·중저가폰 활성화 방안도 알뜰폰 활성화와 직접적으로 연결된다. 초고속 인터넷 위약금 제도 개선 역시, 인터넷과 이동통신 상품이 결합돼 있는데 위약금 때문에 전환이 어려운 경우가 많았다. 이런 부분 개선시 자연스럽게 알뜰폰에도 영향을 미칠 수 있다. 통신시장 큰 틀에서 방향을 제시했다. 대책 관련 구체성이 떨어진다는 지적도 많은데 이번 대책은 로드맵 성격이고 이걸 시작으로 세부적이고 구체적 정책, 주제별 실행 방안이 지속적으로 나올 계획이다. 대책만 발표하고 끝나는 게 아닌 상시적 지원책으로 전환하겠다. 그런 측면에서 오늘 좌담회나 다른 자리에서 기탄 없이 의견을 주면 로드맵으로 제시한 통신시장 경쟁방안을 구체화하고 실천해 나가는데 적극 참고하겠다.△김형진(한국알뜰통신사업자협회장)=정부가 알뜰폰 산업에 신경을 써준 것에 대해 늦었지만 감사하다는 말씀드린다. 그러나 앞으로 3년에서 5년 이상 걸릴지 모를 로드맵이라고 말한 것에 대해선 유감이다. 처음 방송통신위원회가 알뜰폰 시장을 만들 때 대가산정 기준을 '코스트 플러스' 방식이 아닌 '리테일 마이너스'로 정하면서 문제가 많다. 전기통신사업법 제38조에 규정한 알뜰폰 도매제공 의무 조항 일몰제와 소매요금에서 회피가능비용을 차감하는 대가산정 원칙으로 인해 이동통신(MNO) 3사가 마케팅 비용을 쥐고 알뜰폰 사업자를 휘두를 수 있는 상황이 조성됐다. 결국 알뜰폰을 활성화할 수 있는 환경이 사라지고 투자도 어려워졌다. 우리(세종텔레콤)도 풀(Full) MVNO를 목표로 투자를 하려고 했지만 설비 투자를 하나 일반 도매제공을 받아서 하나 결국 요금은 똑같다. 이통사에 협조적이면 마케팅비가 많이 나오고 정책에 따라 바뀌는 일이 계속 반복되고 있다. 제일 큰 문제는 제도다. 회피가능비용 방식 경우 과학기술정보통신부 장관 고시로 한다고 해도 이통사가 알뜰폰보다 힘이 쎈 상황에서 그걸 법으로 정해놓으면서 설비기반 알뜰폰 사업자 등장이 막힌 상황이다. 폐쇄된 정책으로 인해 활성화되지 않은 것을 마치 알뜰폰 사업자가 열심히 노력하지 않았다고 매도하는 것은 옳지 않다. 정부가 시의적절하게 노력한다는 것을 업계가 잘 알고 있지만 법안 마련 과정에서 왜곡되지 않도록 말씀드린다.△정지연(한국소비자연맹 사무총장)=통신경쟁 태스크포스(TF)에 참여했었다. 정부가 알뜰폰 산업 경쟁력과 소비자 신뢰를 높일 수 있도록 많은 고민과 시간을 할애해 만든 내용이 담겼다고 생각한다. 알뜰폰의 첫 시작은 소비자 가계통신비 인하에 초점이 맞춰져 있었다. 그런 관점에서 알뜰폰 시장이 통신 3사에 종속되지 않고 경쟁력을 갖출 수 있도록 돕는 많은 결과물이 담겼다고 평가한다전자신문이 주최한 '알뜰폰 산업 발전방안 좌담회'가 14일 서울 서초구 전자신문 사옥에서 열렸다. 김준모 과학기술정보통신부 통신경쟁정책과장이 발언하고 있다.△이상우(법무법인 세종 연구위원)=기존 알뜰폰 정책이 많이 나왔었지만 시장 수요와 상황에 따라 시장 의존적 정책이 대부분이었다. 이번 정책은 정책 방향성을 가진데 큰 의의가 있다고 본다. 5년이라는 장기적 관점에서 말씀을 주셨지만 정책 목적 자체가 기존 이통사와 경쟁할 수 있는 충분한 경쟁력을 가진 사업자가 나타나도록 하겠다는 것이다. 이를 위한 도매대가 의무제공 상설화와 다양한 산정방식 도입 등의 정책을 만들어냄으로써 하나의 방향성을 갖고 정책을 추진한다는 데 의미가 있다.△김용희(오픈루트 전문위원)=정부 정책방향이 시장 활성화와 경쟁 활성화에 대한 의지를 명확히 발표했다는 것에 대해 긍정적 평가한다. 다만 아쉬운 점은 제4이통이라든지 바깥과 연계할 수 있는 정책이 유기적으로 연결되진 않았다는 생각이 든다. 예를 들어 제4 이통이 출현할 수 있는 근거는 1월 발표 이후 크게 발전된 것이 없었다. 알뜰폰 활성화 위한 우군을 만드는 정책이라는 점에서 부족한 부분이 있었다고 생각한다.△고명수(스마텔 대표)=그동안 일선에서 중소 알뜰폰 사업자인 스마텔을 운영해왔다. 저희가 데이터·통화 무제한으로 주는 상품이 있다. 이 상품 도매대가가 3만2000원정도 한다. 통신3사가 도매대가 3만2000원을 요구하면서 가입자 유치하면 약 25만원을 주겠다고 한다. 그걸로 7개월간 고객에게 0원으로 팔았다. 이통사가 그것을 유도한 셈이다. 7개월간 무료로 팔고 그 다음부터는 3만4000원에 판다. 약정 지나면 약 2000원씩 버는 구조다. 그 이후에도 장기간 써준다면 알뜰폰 사업자 소득이 되겠는데 이 구조에서 심각하게 생각해 볼 문제는 이통3사가 가진 판촉금 등 무기로 인해 알뜰폰 사업자는 시장에서 그들의 정책금을 바라볼 수밖에 없는 생태계가 됐다는 점이다. 독자적으로 발전하기가 어려운 상황이다. 그렇게 싸게 팔았더니 스마텔이 한 달에 확보한 가입자가 약 2000명에서 1만5000명 이상이 됐다. 알뜰폰 요금제를 이용하는 소비자들이 바라는 건 확실하게 저렴한 요금이다. 그걸 실행하기 위한 여러 로드맵 중 하나를 마련해달라고 한다면 저는 도매대가가 현저하게 인하돼야 한다고 생각한다. 그것이 법적으로 확보 돼야하고 일몰 폐지와도 연계돼 있다. 도매대가 인하 관점에서 확실한 법제화가 있어야만 알뜰폰이 통신3사 정책금을 받지 않고 우리가 받은 도매대가 가지고 얼마의 수익을 남기고 어떻게 소비자에 저렴하게 팔 수 있을지에 대한 결론이 나올 수 있다. LTE 요금제에서 소비자가 원하는 눈높이는 2만~3만원인데 도매대가가 터무니없이 3만2000원이라면 사업을 할 수 없는 것이다. 이통3사가 전파라는 국민 재산을 받아서 사업을 한다. 그렇기 때문에 통신 경쟁과 국민 통신비 인하를 위해서라도 알뜰폰 도매대가 산정방식에 실질적 변화가 필요하다. 경쟁력 있는 대기업, 금융권이 꼭 들어와야 하는 건 아니라고 생각한다. 아무리 대기업이 들어와도 기지국을 이통3사가 갖고 있는 상황에서 이통사 그늘 안에 있을 수 밖에 없다. 알뜰폰 산업이 태동됐지만 이통3사 힘에 휘두릴 수밖에 없는 상황이다. 이제는 1400만 국민이 사용하는 시장이 된 만큼 국민을 위해서라도 정확한 법제와 정책이 필요하다.전자신문이 주최한 '알뜰폰 산업 발전방안 좌담회'가 14일 서울 서초구 전자신문 사옥에서 열렸다. 고명수 스마텔 대표가 발언하고 있다.△여준상(동국대학교 교수)=오랜만에 정부 차원에서 준비한 정책이 발표됐다. 그간 고민이 반영된 발표였다고 평가한다. 긍정적 측면에서 인프라 부분 투자에 대한 고민과 대책이 나왔다는 것을 꼽겠다. 또 소비자로서 편익과 후생 차원에서 5G만 가능하던 스마트폰도 LTE 요금가입이 가능해졌거나, 마이데이터를 활용하고 고지 의무화를 통해 본인이 데이터 사용량에 따라 합리적 요금을 지불할 수 있도록 유도한 것은 진화된 정책이라고 평가한다. 다만 조금 더 상세하고 세부적인 구체적 실행 방안이 부족한 면이 있다보니 아쉬움도 나오고 있다. 도매대가 산정과 이통 자회사 점유율 규제는 많은 고민이 필요하고 논의를 통해 합의를 이끌어야 하는 부분이다. 시간을 두고 조율해가면서 간극을 줄일 것으로 본다.△김형진=일정 시설을 갖고 있는 사업자로 컨설팅, 해외사례 등 많이 연구했다. 지금 현재 정부나 이통3사가 훌륭하게 정책을 잘 수행해왔다. KT와 SK텔레콤 중심 시장에서 비대칭 규제를 통해 LG유플러스가 나오게 됐다. 이제 투자를 해서 제4이통을 간다는 것은 불가능하다. 정부는 앞으로 LG유플러스 사례처럼 비대칭 정책을 무엇을 가지고 할 것인지 고민해야한다. 정부가 시의적절하게 알뜰폰 육성에 나선 것 중소 입장에선 고맙게 생각하지만 결국은 도매대가를 내려주는 계산 방식이 나와야한다. 해외에서는 코스트플러스 방식을 쓴다. 일각에선 이통사가 원가 장부를 공개해야 하는 것 아니냐는 우려가 있는데, 장부는 규제기관에서 들여다 보는 것이지 사업자가 볼 수 있는게 아니다. 사업자는 감가상각비 제하고 나오는 실제 영업이익률이 20~25%면 된다. 모수를 거기에 두고 내려준다면 당장 손해를 보더라도 선투자를 할 수 있는 여지가 생긴다. 지금은 제4이통보다는 풀MVNO처럼 적극적 서비스를 할 수 있는 투자 여건을 만들어줘야하는데 그러려면 반드시 코스트플러스 방식으로 대가를 산정해야한다. 마케팅 할수록 적자가 나는 구조라면 미래라도 있어야 한다. 지금처럼 이통3사가 요금을 내려주는 방식으로는 안된다.◇김원석=전반적으로 정부가 알뜰폰 육성 의지와 노력을 보였다는 평가가 많다. 자생력을 갖춘 풀MNVO로 나아갈 수 있는 길은 결국 도매대가 인하와 산정방식 변화인 것 같다. 어떻게 생각하나.△김준모=말씀하신대로 규모를 갖춘 사업자, 그리고 설비를 갖춘 사업자가 필요하다. 설비는 통신사처럼 기지국까지는 아니더라도 자체 요금을 설계할 수 있는 시스템을 갖춘 사업자에게 메리트를 줄 수 있는 제도적 뒷받침이 있어야 한다. 사업자가 설비에 투자하고 가입자를 더 적극적으로 모을 수 있는 유인을 제공하는데 초점을 맞추고 이번 정책을 마련했다.◇김원석=논쟁되는 부분은 도매대가 산정방식이다. 현행은 리테일마이너스인데 코스트플러스 방식으로 바꾸자는 의견이 있다. 이에 대한 의견은.△김준모=리테일마이너스가 처음 채택된 이유는 당시 LTE망 투자가 막 이뤄지던 시점이기 때문이다. 리테일마이너스는 소매 요금에서 마케팅 등 회피가능 비용을 차감하는 소매가 할인 방식이라 망 투자 초기에는 사업자에게 유리한 측면이 있다. 일반적으로 망 투자는 초기 집중되는데, 통신망 원가 기준으로 적정 수익률을 보장하는 코스트플러스 방식을 적용하면 오히려 도매대가가 소매가보다 높아지는 경우가 생길 수 있다. 사업자 입장에선 시기에 따라 리테일마이너스가 유리할 수도 코스트플러스 방식이 유리할 수도 있는 것이다. 이러한 측면 때문에 대가 산정방식을 한 가지에 국한시키지 않고 이해관계자 갈등을 조정할 수 있는 권한을 정부가 가지고 있는 것이다.△김형진=유선 사례를 보면 사업자끼리 상호접속 협의를 할 때 정부가 약자편에서 협의를 해준다. 2년에 한 번 접속료를 산정하면 2년 동안 간다. 중소 알뜰폰은 통신3사처럼 정부와 만날 기회가 많지 않다. 기본적으로는 투자를 하면 8년 동안 감가상각을 하도록 돼 있는데, 통신3사는 돈을 많이 버니 5년 동안 감가상각을 해버린다. 처음부터 총액을 정하고 8년으로 나눠 데이터를 받을 수 있게 해야 한다. 현재는 회피가능비용을 이통사가 쥐고 있으니, 알뜰폰 입장에선 어찌할 도리가 없다.전자신문이 주최한 '알뜰폰 산업 발전방안 좌담회'가 14일 서울 서초구 전자신문 사옥에서 열렸다. 이상우 법무법인 세종 연구위원이 발언하고 있다.△이상우=이론적으로는 코스트플러스 방식이 리테일마이너스보다 대가가 낮은 것은 맞다. 다만 투자 주기상 금액은 달라질 수 있다. 리테일마이너스는 투자 주기와 관계없이 대가가 안정적 유지되지만 코스트플러스는 초기 투자가 집중된 시기에는 오히려 대가가 더 올라간다. 두 방식 모두 장단점이 존재한다. 정부가 시장 환경과 사업자 상황을 보고 탄력적으로 정하는게 맞다. 정부가 대가산정 방식을 다양화하겠다는 것은 시장 경쟁 환경에 맞는 대가산정 방식을 정하겠다는 의미다. 대가 산정 뿐아니라 풀MVNO로 가겠다고 한다면 코스트플러스의 경우 얼마만큼 설비를 세분화해서 대가를 낮춰줄 것인지 그런 고민이 더 필요한 시점이다.△김용희=결국 이통사 결합할인 상품보다 도매대가가 더 비싼 것을 해결하면 된다. 결합상품으로 나온 소매가는 이통3사가 감내할 수 있는 하단인데, 그보다 도매대가가 비싸다는게 문제다. LTE는 결합할인보다 도매대가가 낮은데 5G는 더 비싸다. 그래서 알뜰폰에서 5G 점유율이 1%밖에 안된다. 정부가 이를 해결할 해법을 찾는게 급선무다.△김형진=코스트플러스 방식은 구조 자체가 가격을 내려주게 돼 있다. 오늘 투자한 것을 8년간 감가상각해서 비용이 내려가게 되면 결국은 시설 투자를 할 것이다. 유지관리비까지 해서 BSPL(대차대조표·손익계산서) 측면에서 보면 영업이익률이 20~25% 된다. 그걸 모수로 인정해주면 이통3사가 시설 투자한 것에 전혀 손해가 없다. 기본은 코스트플러스 방식으로 가야한다.△이상우=코스트플러스 도입 자체를 반대하는게 아니다. 다만 구현방식과 관련해서 LTE와 5G 원가를 붙여서 할 것인지, 아니면 별개로 원가를 구분해서 할 것인지가 따져봐야 할 상황이다.전자신문이 주최한 '알뜰폰 산업 발전방안 좌담회'가 14일 서울 서초구 전자신문 사옥에서 열렸다. 여준상 동국대학교 경영학 교수가 발언하고 있다.◇김원석=알뜰폰에 혜택이 주어진다고 하면 풀MVNO, 나아가 제4이통으로 진화하기 위해서는 어떤 환경이 필요한가.△김형진=프랑스 프리텔레콤이 제4이통으로 성장했다. 일본은 라쿠텐이 MVNO에서 제4이통으로 진화했다. 코스트플러스를 꼭 법제화하자는 것은 아니고 기본정신을 그렇게 가지고 가자는 얘기다. 그러면 감가상각이 돌아온다 해도 충분히 할 수 있다. 통신 인프라에 투자할 돈이 없어서 투자를 못한다는 것은 말이 안된다.△여준상=풀MVNO 얘기 나왔는데 기본적으로 알뜰폰 시장의 영세함이 문제다. 그런 측면에서 알뜰폰 시장 자체를 키울 방안 중에 설비투자를 촉진할 수 있는 자극이 필요하다. 풀MVNO는 시장 자체 퀄리티 높이는 차원에서도 바람직하다. 중소사업자도 경쟁력 갖춰서 이통사 알뜰폰 자회사하고도 겨룰 수 있는 방안을 마련한다면, 엄연히 이통3사와 대응 가능한 진화된 시장이 될 수 있다. 알뜰폰도 단순 망임차가 아닌 망 설비 투자가 이뤄질 필요가 있다는 생각이다. 사실 가격 결정시 가장 문제가 없는 것은 원가에서 마진을 붙이는 방식이다. 이를 잘 활용하면 알뜰폰 입장에서는 투자와 퀄리티를 높이는 방향으로 가는 자극이 될 수 있다. 원가를 기본으로 마진을 더해 가져가는 체계를 만들면 알뜰폰 경쟁력 높이는데 도움이 될 수 있다.△고명수=알뜰폰 가입 고객 만족도 조사를 하면 대부분은 만족을 한다. 이통사와 비교해 요금이 싸고 통화 데이터 품질이 큰 차이가 없기 때문이다. 다만 불만족 대부분은 고객센터 관련 문제다. 전화해도 안받는다는 게 가장 큰 불만이다. 중소 사업자도 개선 노력을 한다. 스마텔도 8월 내 인공지능(AI) 고객센터 출시하려 한다. 큰 돈 투자하는 것도 아니다. 산업이 워낙 발전돼있어서 기술을 잘 연결하기만 하면 된다. 소비자 전화 못받는 일은 이제 없을거다. 하나씩 해결해 나가겠다. 이통사가 주는 지원금에만 의존한다면 결국 독점체제를 무너뜨릴 수 없다. 정부에서 많은 인프라 지원을 해준 덕분에 1300만명이 넘는 알뜰폰 이용자가 생겼다. 경쟁력을 높이면서 과점체계를 깨고 결과적으로 요금 인하를 유도하는 것이 제일 중요한 부분이다. KB리브엠이 성장한 것은 엄청 싸게 팔아서다. 다만 사업자 입장에서 봤을 때 KB국민은행이 알뜰폰 외 부수적 목적으로 시장에 진입한 것은 미래 통신시장 발전 측면에서 좋지 않다고 본다.△정지연=제4이통이 몇 차례 실패했기 때문에 이번에도 부정적 관점이 많다. 그러나 이통3사 중심의 과점화된 시장에서 요금경쟁이 충분하지 않았기 때문에 시장에 활력 불어넣을 경쟁력있는 사업자가 나와야한다. 그런 측면에서 제4이통이 있어야 한다. 라쿠텐 모델처럼 알뜰폰이 기존 이통사를 견제하는 제4이통 역할을 충분히 할수 있다. 금융권 알뜰폰 진출도 찬성한다. 알뜰폰 시장이 영세 이미지로 가는 것은 좋지 않다. 지금처럼 80여개 사업자가 난립하는 구조는 정상적이지 않다. 대리점, 판매점 수준이 아닌 규모를 갖춘 경쟁력 있는 사업자가 나타날 환경을 만드는데 집중해야 한다.전자신문이 주최한 '알뜰폰 산업 발전방안 좌담회'가 14일 서울 서초구 전자신문 사옥에서 열렸다. 김용희 오픈루트 전문위원이 발언하고 있다.△김용희=풀MVNO는 결국 설비투자가 이뤄져야 하는데 지금의 중소알뜰폰이 추진 가능한지 의문이다. 궁극적으로는 가격 경쟁이 아니라 서비스 경쟁을 해야 한다는 것인데 그렇다면 도매대가 인하 등 정책이 명확해야하고 불확실성을 제거해야 투자가 활성화될 수 있다. KB리브엠이 긍정적인 것은 300억원의 손실을 무릅쓰고 투자를 했다는 점이다. 연계 사업을 만들고 소비자 선택을 이끌어내는 모델이 더 나와야한다. 토스모바일이나 스테이지파이브도 마찬가지다. 제4이통 탄생을 위한 가장 좋은 전제는 좋은 주파수를 저렴하게 주는 것이다. 매년 번호이동으로 약 500만명씩 이동하는 상황에서 10%만 가져올 수 있다면 제4이통이 자리잡을 수 있는 여지는 충분하다. 특혜에 가까운 혜택을 마련해줘야 한다.◇김원석=정부가 신규 사업자에게 28㎓ 주파수뿐 아니라 3.7㎓ 등 황금주파수 할당을 검토하고 있다. 어떤 효과가 있을까.△김형진=LTE 전국에 망 깔려면 2조7000억원인데 인수합병(M&amp;A)하면 그보다 적다. 차라리 인수를 하지 왜 제4이통을 하려고 하겠느냐. 28㎓ 고주파수 사용은 통신 발전을 위해 누군가는 해야하는 건 맞다. 그렇다면 무언가 억지로 만들겠다고 해선 안되고, 시장이 만들 수 있는 환경을 조성하면 된다. 유통과 사업은 다르다. 유통은 남이 만든 것을 팔아주는 거고, 사업은 뭔가를 만들어가면서 해야하는 일이다. 알뜰폰도 사업을 하려면 적어도 인프라가 있어야 하고 정부가 그런 방향으로 가는 것은 바람직하다.◇김원석=카카오나 토스모바일, KB리브엠이 잠재적 풀MVNO 사업자가 될수 있다고 보는지.△김준모=정부 입장에서 기업 유형과 성격이 중요하지 않다. 대기업, 중견기업, 타업종 어떤 기업이 됐든 국민 통신비를 인하시킬 수 있고 기존 통신3사 과점체제를 깰 메기가 될 수 있는 사업자는 모두 환영한다. 결국엔 풀MVNO로 성장을 도모해야 한다. 지금처럼 동대문에서 옷을 떼와 파는 재판매 방식으로는 더 이상 시장이 영속적으로 성장하기 어렵다. 원단을 떼와서 스스로 옷을 만들어 팔 수 있는 풀MVNO 같은 사업자가 필요하다. 말씀하신대로 유통이 아닌 사업을 할 수 있는 주체가 나타나는게 중요하다.◇김원석=그렇다면 알뜰폰 숙원 과제는 설비를 갖춘 풀MVNO 육성인가.△김형진=알뜰폰 대부분이 유통을 하는 사업자다. 자체 설비를 가진 사업자는 거의 없다. 다만 영세 사업자가 됐건 풀MVNO가 됐건 정부 정책은 시장에서 플레이할 수 있는 제도적 환경을 만들어달라는 게 알뜰폰 협회장으로서 입장이다. 다수 회원사가 요구하는건 KB국민은행 같은 자본력을 앞세운 회사가 들어오는 것에 대한 우려와 이통사 자회사 점유율 제한 등이다. 제도적 환경이 만들어지지 않은 상황에서 단순 자본을 갖춘 사업자가 들어온다고 해결되는 문제가 아니다.전자신문이 주최한 '알뜰폰 산업 발전방안 좌담회'가 14일 서울 서초구 전자신문 사옥에서 열렸다. 정지연 한국소비자연맹 사무총장이 발언하고 있다.△이상우=단순MVNO, 부분MVNO, 풀MVNO 사업자 모두 알뜰폰 시장에서 제 역할이 있다. 다만 풀MVNO가 현재 시장에 없기 때문에 촉진 정책이 나온 것이다. 단순 재판매 사업만으로는 고가 요금제 시장에서 경쟁력 확보가 어렵기 때문에 최소한 풀MVNO 사업자가 등장해야만 저가뿐 아니라 고가 시장에서도 경쟁을 펼칠 수 있다. 물론 단순 재판매, 부분 재판매도 시장에서 도매대가만 확보된다면 사업을 영위할 수 있다. 다만 이들만으로는 고가 요금제에서 경쟁할 수 있는 규모의 경제를 만들 수 없기 때문에 풀MVNO 사업자도 등장해야 한다는 거다. 기존 재판매 알뜰폰 사업 다 없애고 모두 풀MVNO로 가야한다는 것은 아니다. 정부가 도매대가 의무제공 상설화함으로써 설비 투자하더라도 수익 확보할 수 있는 시간과 안정성을 부여했다는 데 의미가 있다. 과기정통부가 현실적으로 선택 가능한 방안을 제시했다고 생각한다.◇김원석=알뜰폰 가입자가 1300만이 넘었고 전체 통신시장의 17% 가량을 점유하는 유의미한 지점에 와 있다. 중소 알뜰폰 사업자도 서비스에 대한 투자에 더 나서야 한다는 지적도 많다. 지금의 성장세를 이어가기 위해서는 고객 불편 해소를 위한 노력이 필요해 보이는데.△정지연=소비자 피해 상담 사례를 분석해 보면 고객센터 관련 불만이 압도적으로 많다. 협회가 그 부분에 대한 개선 의지가 있어 올해 조사를 해보니 80여개 사업자가 난립하다보니 문제가 생길 수밖에 없는 구조다. 사업자 전반에 역량을 높여야 소비자 신뢰할 수 있는 시장이 될 수 있다. 소비자가 알뜰폰에 가장 만족하는 부분은 저렴한 요금이다. 그러나 단발성 마케팅이 아닌 장기적으로 소비자 유인할 수 있는 경쟁력을 갖추는게 더 중요하다. 알뜰폰에 대한 인식이 최근 몇 년새 크게 개선됐다. 젊은 층의 만족도가 특히 높다. 다만 고객 지원 시스템이 부족해 고령층은 가입을 어려워한다. 전연령대가 알뜰폰을 이용할 수 있도록 디지털 디바이드 문제를 해결하는 것도 중요하다.△김형진=e심 등 기술적 해결을 위해 노력하고 있다. 점차 개선될 것이라고 생각한다.김원석 전자신문 부국장이 14일 서울 서초구 전자신문 본사에서 열린 '알뜰폰 산업 발전 좌담회'를 주재하고 있다.◇김원석=마지막으로 알뜰폰 산업 발전을 위해 제언하자면.△여준상=정부 정책 발표로 기대가 생긴 것은 사실이다. 몇가지 갈등 이슈에 대해서는 정부가 로드맵을 그려나가면서 조율할 수 있다고 본다. 다만 이통사 자회사 점유율 규제는 뜨거운 감자다. 알뜰폰 시장은 국가적 차원에서 키워 나가야하는 사업이다. 제4이통 역할을 할수도 있다. 산업 발전 측면에서 이통사 알뜰폰 자회사 역할을 간과해서는 안된다. 소비자가 알뜰폰에 진입하는 사례를 봤을 때 처음에는 이통사 자회사를 통해 이용하고 안정적 서비스 경험이 쌓이면 중소 사업자로 이동하는 구조다. 그런 모습을 봤을때 알뜰폰 사업 내에서도 사업자간 역할에 대해 상호인정을 해야한다. 정부가 일괄적으로 점유율 제한을 하는 것에 더 고민이 필요하다. 알뜰폰 사업에서 빅플레이어가 선도적으로 이끌어가는 역할도 필요하다. 시장이 위축될 수 있다는 점을 고려하면서 규제 수위를 조절해야한다.△이상우=알뜰폰 활성화 대책은 이통사와 알뜰폰간 협상력 차이를 극복하기 위한 규제 차원이다. 그런 관점에서 현재 제도는 협상력 차이를 완화시킬 수 있는 정책이라고 본다. 다만 규제 정책 이외에 알뜰폰 시장 자체 구조도 변화가 필요하다. 협상력 격차 줄이기 위해선 충분한 가입자 기반 확보해야 한다. 중간 도매상 역할을 하는 이동통신망 재임대(MVNE) 사업자 등 설비를 갖추고 대용량 데이터를 구매할 수 있는 다양한 유형의 사업자가 등장해야 한다. 시장에서 다양한 유형의 사업자가 생겨야 알뜰폰 시장 자체 경쟁력이 높아진다.△정지연=이통사 알뜰폰 자회사 점유율 규제는 필요하다고 본다. 지금까지는 이통사가 자회사 통해 알뜰폰 시장에서 소비자가 좋은 경험을 하는데 긍정적 영향을 줬다는 점은 인정한다. 다만 결국엔 0원 요금제가 중소 사업자를 고사시키고 시장 점유율 측면에서도 통신시장을 왜곡시킨다. 이통 자회사 점유율 규제는 일정 부분 필요하다. 정부 정책 시발점은 가계통신비 인하라는 소비자 편익이다. 중소 사업자 보호가 전제돼야 한다.알뜰폰 산업 발전 좌담회가 14일 서울 서초구 전자신문 본사에서 열렸다. 이동근 기자 foto@etnews.com△김용희=기업 규모에 따른 보호와 비보호 이분법은 지양할 필요가 있다. 투자하고 노력하는 기업에 더 지원해주는 정책 방향이 돼야 한다. 점유율 규제 역시 만약 이로 인해 이통사 자회사가 투자를 멈추고 나아가 시장에서 철수한다면 중소 사업자가 합리적으로 망 대가 협상을 벌일 수 있을지, 정부 의존이 더 심해지는 것은 아닌지 우려된다. 도매시장에서 경쟁 활성화에 대한 전략이 필요하다. 도매대가 포함 다양한 솔루션을 소매업체에게 제공해줄 수 있는 전략이 마련돼야 한다.△고명수=이통3사 외에 통신이 나와서 독점 구조를 깨고 경쟁하게 만드는게 목적이라면 보호를 해줘서 되는 것은 아니라고 본다. 기지국이나 망을 이통사 것을 사용하기 때문에 그것에 대한 이니셔티브는 이통3사가 갖고 있다. 그래서 알뜰폰 사업자가 경쟁력 있는 가격으로 도매대가를 받게만 된다면, MVNE나 중소사업자도 각자 역할에서 건전한 발전을 꾀할 수 있다고 생각한다. 중소기업이라고 먹여주고 보호 받으려고만 하는 것은 아니라고 분명히 말씀드리고 싶다. 나름대로 고객센터도 활성화하고 데이터 사용량 언제든지 체크할 수 있는 시스템을 도입하는 등 알뜰폰 괜찮다는 인식을 만들어나가려 노력하고 있다. 강조하고 싶은 것은 도매대가 현실화가 필요하지, 이통3사가 우리에게 정책금 주는 것은 안했으면 좋겠다. 그걸 받아야만 움직이는 시장이 된다면 계속 보호에 의존하게 되고 바람직하지 않다. 실질적 도매대가 산정만 가능해진다면 언젠가 알뜰폰도 제대로 성장할 수 있겠다는 희망을 가질 수 있다.△김형진=모든 환경은 제도에서 나온다. 제도를 잘 만들면 시장이 만들어진다. 장사꾼이 얼마나 똑똑한가. 풀MVNO를 하라고 해도 이익이 나지 않고 미래가 없으면 하지 않는다. 제도가 갖춰져야 누군가 탓하지 않고 사업을 할 수 있다. 통신정책 당국자가 책임지고 이끌어 갈 수 있도록 해야한다. 행정이 책임을 져야지 입법이 책임져서는 안된다. 늦었지만 정부가 열심히 노력하고 있는 만큼 잘 될 것으로 믿는다.△김준모=서두에 3년에서 5년을 언급한 것은 로드맵으로 정책방향을 중장기적으로 끌어나가겠다는 의미다. 세부적 고민을 같이 하면서 많은 솔루션을 제안해주셔서 감사하다. 기본적으로 우리가 나아가야할 정책을 추진하는데 많은 참고가 될 것이다. 다른 의견은 배척하는게 아니라 깊이 있게 고민하면서 추진해 나가겠다. 매년 발표했던 대책과는 다르다. 결국은 소비자 가계통신비 편익과 경쟁 활성화 측면에서 유기적으로 기능하는 부분이다. 이번 대책 발표가 일회성으로 끝나는 것이 아니라 더욱 구체화하고 업계를 지원하는 체계로 전환하기 위한 세부 절차를 밟고 있다.◇김원석=알뜰폰이 단순 재판매 사업자에서 한 단계 넘어 사회에 유용한 주체가 될 수 있도록 전자신문도 적극 지원하겠다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.07.31.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>한화투자증권, 2분기 영업익 136억…흑자 전환</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012005868?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>주식거래량 증가, 글로벌 증시 상승[서울=뉴시스] 박은비 기자 = 한화투자증권은 연결재무제표 기준 올해 2분기 영업이익 135억9500만원으로 전년 동기 대비 흑자 전환했다고 31일 공시했다. 당기순이익도 89억4700만원으로 흑자 전환했다.상반기 기준으로는 영업이익 547억5300만원으로 31.7% 증가했고, 당기순이익은 369억0800만원으로 78.7% 늘어난 것으로 집계됐다.이에 대해 주식거래량 증가, 글로벌 증시 상승에 따른 운용환경 개선 등 영향이라는 게 한화투자증권 설명이다.한화투자증권 관계자는 "자산관리(WM)본부는 주식거래량 증가로 위탁수익이 증가했고, 금리형 상품 판매를 확대하며 시장에 대응하고 있다"며 "비대면 자산 유치가 증가하며 개인고객 자산이 순증가했다"고 말했다.트레이딩본부의 경우 글로벌 증시 상승 등으로 운용환경이 개선되며 수익이 불어났다. 다만 기업금융(IB)본부는 티이엠씨, 한화리츠 기업공개(IPO) 주관으로 기업금융부문 실적이 개선됐지만 부동산 프로젝트파이낸싱(PF) 업황 부진으로 신규 딜이 일부 지연되는 등 수익이 감소한 것으로 나타났다.하반기에는 리스크 관리에 주력한다는 방침이다. IB본부는 부동산 PF 리스크 관리를 지속적으로 강화하는 한편 IPO 대표주관과 인수단 참여로 기업금융부문을 강화하기로 했다.한화투자증권 관계자는 "WM본부는 토스뱅크등 제휴 사업과 디지털 서비스 강화로 실효 고객 저변을 확대하고 트레이딩본부는 채권과 주가연계증권(ELS) 자체헤지운용 손익 변동성을 최소화할 예정"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>핀테크업계, 신용점수 관리 서비스 경쟁...마이데이터 확대</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003118384?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>자료 게티이미지뱅크핀테크업계가 신용점수 관리 서비스에 열을 올리고 있다. 마이데이터 서비스 활성화로 연동 범위가 확대되며 고객 실질 혜택 제공을 위한 서비스 경쟁은 더욱 치열해질 전망이다.신용점수 관리 서비스는 은행 계좌, 자산 현황, 카드 내역, 빚 등 금융정보뿐 아니라 건강보험 및 통신비 납부내역, 소득금액증명서, 투자내역 등 비금융 정보를 활용해 신용 점수를 올리는데 도움을 주는 서비스다. 마이데이터 기반으로 관련 정보를 신용평가사 코리아크레딧뷰(KCB) 혹은 나이스평가정보(NICE)로 전달, 신용점수 상승을 이끈다.2018년 뱅크샐러드가 최초로 '신용점수 올리기' 서비스를 시작하며 물꼬를 텄다. 2022년 금융마이데이터를 활용해 고도화된 '신용점수 레벨업' 서비스를 선보이며 신용평가에 반영되지 못하던 개인 자산 정보를 신용점수에 활용했다.이용자도 꾸준히 증가하고 있다. 카카오뱅크와 토스의 신용점수 올리기 누적 이용자 수는 7월 기준 각각 약 200만명 수준이다. 적극 소비 주체이지만 소득이 잘 잡히지 않는 학생, 주부 등 씬파일러 신용점수 향상을 견인하며 이용자가 늘었다. 신용점수 올리기에서 점수 향상에 성공한 연령대 중 2030세대 비중이 각 사별로 적게는 60%, 많게는 80%에 이른다.신용점수 관리 맞춤형 서비스도 확대됐다. 카카오뱅크는 지난 3월 '내 신용점수 한번에 올리기'를 확대 개편하며 나이스와 KCB신용점수 동시에 제공했다. 이달 31일까지는 이용자의 꾸준한 신용관리를 위해 이달 말까지 '신용관리루틴 이벤트'도 시행한다. 꾸준한 신용점수 확인과 더불어 신용점수를 올릴 수 있는 방안을 추천, 자산 연동 등을 통해 신용점수 가점을 확인하는 식이다.네이버파이낸셜은 신용분석 리포트와 신용비교 리포트를 제공한다. 사용자에게 신용 거래기간, 이용형태, 부채, 상환이력 항목별로 상세 평가내역을 리포트 형태로 요약 제공해 사용자가 나의 신용점수가 산출된 근거를 파악할 수 있다. 이어 사용자 연령 평균과 추정소득·신용점수·신용카드 사용액·대출액 비교, 또래에 비해 금융활동이 얼마나 활발한지 확인하며 신용점수 관리가 가능하다.핀테크업계가 신용관리 서비스에 주력하는 이유는 고의 마이데이터 활용 체감 혜택을 향상시키기 위해서다. 마이데이터가 단순 정보 연동에서 그치지 않고, 실질 혜택을 제공해 마이데이터 서비스에 대한 인식 제고와 필요성을 강조한다는 전략이다. 이를 통한 신규 고객 유치, 수익 기회 확대도 모색한다.실제 신용점수 관리 서비스 이용자 중 신용점수 상승에 성공한 이들은 각 사별 평균 15~21점까지 점수를 올린 것으로 나타났다. 네이버파이낸셜은 신용관리 서비스를 나이스에 이어 KCB 신용점수도 관리할 수 있도록 개편한 지난해 10월부터 올해 6월까지, 점수 올리기 신청자의 약 40%가 점수 향상에 성공했다고 밝혔다. KCB 신용점수 가점 평균은 약 21점으로 업계 최고 수준이다.신용점수 향상은 대출금리 인하 혜택으로도 이어졌다. 핀크에 따르면 신용점수 올리기 이용 전후 대출비교서비스 가승인 비율은 70%에서 77%로 7%포인트(P) 상승했다.핀테크 업계에 마이데이터 활용 범위가 확장됨에 따라 맞춤형 서비스를 통한 고객 유치 경쟁도 치열해질 전망이다. 금융서비스, 자산 통합 관리뿐만 아니라, 건강, 부동산, 교육 등 비금융 콘텐츠 연계 수익 창출 기회도 활발해질 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.07.16.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>티웨이항공, 7~10월 출발 `특가 프로모션` 실시…총 40개 노선 대상</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002813746?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>티웨이항공은 오는 17일부터 30일까지 '가성비 여행 특가 프로모션'을 실시한다고 16일 밝혔다.이번 특가 프로모션 적용 노선은 국내선 4개(김포~제주, 대구~제주, 광주~제주, 청주~제주)와 국제선 36개(본, 대만, 동남아, 대양주, 호주, 중앙아시아) 등 총 40개 노선이다. 특히 이달 14일부터 운항을 재개한 인천~홍콩 노선과 오는 9월 8일 운항을 재개하는 인천~사가(일본) 단독 노선도 포함됐다.먼저 일부 노선의 경우 선착순으로 구매할 수 있는 이벤트를 실시한다. 유류할증료와 공항세를 포함한 1인 편도 총액 기준 인천~후쿠오카 8만8500원, 인천~오사카(간사이) 10만8500원, 인천~방콕(수완나품) 12만8780원, 인천~방콕(돈므앙) 12만8780원, 청주~방콕(돈므앙) 10만3780원부터 이용할 수 있다. 초특가 할인 이벤트 외에 항공권 예약 시 할인코드 '가성비'를 입력하면 국내선의 경우 노선별 편도 및 왕복 항공권의 3~5%, 국제선의 경우 5~20% 즉시 할인이 적용된다. 항공권 할인률은 노선과 기간에 따라 상이하다.또 카카오페이, 토스페이, 우리카드, NH농협카드로 결제 시 최대 2만원까지 중복 할인을 받을 수 있는 쿠폰도 제공한다.특가 항공권 탑승 기간은 7월 17일부터 10월 28일까지며, 일부 노선의 경우 8월 31일까지 탑승편에 한해 적용된다.티웨이항공 관계자는 "각자의 여행 목적과 취향에 맞게 선택하실 수 있도록 국내선과 국제선을 아우르는 전 노선에 대한 프로모션을 준비했다"며 "앞으로도 티웨이항공은 고객에게 합리적 운임과 더불어 더 많은 혜택을 선보일 수 있도록 노력할 것"이라고 말했다.티웨이항공 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>케이뱅크·토스뱅크, 집중호우 피해 지역에 각 5000만원 성금</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003236923?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>인터넷은행 로고. 각사 제공인터넷전문은행 3사가 집중호우 피해 지역에 잇따라 성금을 전달했다.케이뱅크는 18일 집중호우 피해 지역의 복구를 지원하기 위해 성금 5000만원을 기부한다고 밝혔다.이번 성금은 희망브리지 전국재해구호협회가 실시하는 긴급구호 캠페인 ‘2023 수해 이웃돕기’에 전달될 예정이다.토스뱅크도 이날 희망브리지 전국재해구호협회를 통해 집중호우로 피해를 본 지역에 5000만원을 기부했다. 토스뱅크 관계자는 “추가적인 지원 방안을 모색하고 있다”라고 말했다.지난 17일엔 카카오뱅크가 1억원의 성금을 전달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>신한투자증권 "카카오페이 2분기 영업손실…목표가 내려"</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014091537?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>카카오페이와 카카오페이증권 영문 로고[카카오페이 제공]    (서울=연합뉴스) 윤선희 기자 = 신한투자증권은 26일 카카오페이가 올해 2분기에 영업손실을 낸 것으로 추정한다며 목표주가를 7만1천원에서 6만4천원으로 낮췄다.    임희연 연구원은 "2분기에 카카오페이가 전 분기보다 6.2% 늘어난 1천502억원의 연결 매출을 낸 것으로 전망하지만 122억원의 영업손실을 거둔 것으로 추정한다"며 "주력인 결제 본업의 매출이 뒷받침되는 상황에서 자회사 증권과 손해보험의 영업손실이 지속하고 있다"고 설명했다.   그러면서 "금융업 특성상 손해보험과 증권의 적자 축소에 상당 시간이 소요될 가능성이 크다"며 "증권은 토스증권이 1년 먼저 시장을 선점해 단기간 내 격차 축소가 쉽지 않아 보인다"고 지적했다.   그는 "핵심은 광고 매출로 광고 사업의 체계화된 수익화 여부를 지켜볼 필요가 있다"며 "광고 매출은 하반기부터 본격화할 예정이며 중국인 유입은 느리지만 회복하고 있다"고 덧붙였다.    indigo@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>영상처리 SW社 큐램, 삼성과 18년 '동행'</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004870063?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>이미지 최적화 기술 라이선싱입소문 듣고 오는 고객사 많아영상처리 소프트웨어(SW) 기업 큐램은 삼성전자와 18년째 협업 관계를 이어오고 있다. 입소문을 듣고 먼저 찾아오는 고객사도 적지 않다. 위영철 큐램 대표(사진)는 19일 한국경제신문과 만나 “영상 처리에 문제가 생겼을 때 큐램에 맡기면 다 해결될 것이란 확신을 시장에 준 것이 성장 비결”이라고 입을 열었다.큐램은 위 대표가 2001년 아주대 교수 재직 시절 학생들과 시작한 23년 차 벤처기업이다. 연매출 50억원 규모에 영업이익은 15% 정도다. 2005년 자체 개발한 상용 이미지 처리 기술을 바탕으로 삼성전자와 스마트폰 단말기 영상처리 SW 라이선싱을 맺으면서 수익 구조가 안정화됐다. 2011년 스마트폰이 본격적으로 보급되면서 매출이 빠르게 증가했다.큐램이 보유한 이미지 최적화 기술인 ‘아톰제이펙’을 활용하면 JPEG 화질을 유지하면서 파일 사이즈를 7분의 1까지 줄이는 것이 가능하다. 위 대표는 “온라인 쇼핑몰, 웹툰 및 클라우드 서비스의 로딩 속도 향상과 저장 공간 절감에 이 기술이 필수”라고 설명했다.삼성페이 신용카드 인식과 토스앱 신분증 인식에 쓰이는 ‘머신아이’는 카메라로 입력된 영상에서 정보를 추출하는 기술로 신용·체크카드 인식과 주민등록증, 여권 등의 신분증 인식이 가능하다.용인=강경주 기자 qurasoha@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.07.24.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>불법사금융 늘어나는데...'우수대부업' 은행차입 잔액, 3분1 감소</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004915809?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>저신용자들이 불법사금융으로 밀려나는 걸 막기 위해 만들어진 '우수대부업' 제도를 두고 실효성 논란이 일고 있다. 금융당국이 대부업 활성화를 위해 우수 대부업체를 뽑아 은행으로부터 자금을 빌릴 수 있는 길을 열어줬지만 차입 잔액이 줄어들고 있다. 조달비용이 급격히 오른 탓에 대부업체들이 신규대출 중단을 선언하고 있는 가운데 대부업체의 저신용 대출을 늘리려면 은행 차입이 늘어야 한다는 목소리가 나온다. 23일 금융업권에 따르면 지난 4월 우수 대부업체들이 은행에서 차입한 자금의 잔액은 1460억원 가량으로 파악됐다. 2022년 3월엔 잔액이 2100억원 수준이었는데 1년 새 3분의 1이나 줄어든 것이다. 올해 우수 대부업체 수는 26곳으로 지난해보다 3곳 늘었지만, 이들이 은행으로부터 받는 차입 규모는 갈수록 감소하고 있다. 현재 17곳의 우수 대부업체가 은행으로부터 자금을 조달하고 있다.  이에 우수대부업 제도의 실효성이 떨어진다는 지적이 나온다. 우수대부업 제도는 2021년 법정최고금리 인하로 저신용자들이 불법사금융에 내몰리는 걸 방지하기 위해 마련됐다. 제도권 금융 최후의 보루인 대부업 대출 활성화로 저신용자의 불법사금융 이용을 막겠다는 취지다. 구체적으로 저축은행, 캐피탈사로부터 자금을 조달했던 대부업체들에게 은행 차입이 가능토록 하고, 대출비교 플랫폼 등에 입점해 영업 무대를 넓히는 기회를 준다. 하지만 대부업체들은 새로 자금을 차입하기보다 기존 차입을 갚아나가면서 은행으로부터 받은 자금 잔액이 줄어들고 있다. 대부업체들은 3개월 주기 변동금리, 원리금균등상환 조건으로 은행과 차입 계약을 맺었다. 매월 돈을 갚고 있는데 신규차입이 미미해 잔액이 감소하고 있다. 대부업 인식이 좋지 않다보니 평판 관리 차원에서 은행들이 대부업체에 돈을 빌려주는 걸 꺼리고 있는 것으로 알려졌다. 실제로 과거 산은캐피탈이 대부업체에 자금을 공급하다 2020년 국정감사 당시 '국책은행 자회사가 대부업체의 전주(錢主) 역할을 한다'는 비판에 신규 자금공급을 중단한 바 있다. 대출비교 시장의 96%를 차지하고 있는 토스, 카카오페이, 핀다에 입점한 대부업체도 아직 없다. 은행으로부터의 신규차입이 줄어들자 대부업체들은 신규대출 자체를 중단하고 나섰다. 금리 상승기를 맞아 조달비용은 늘었는데 법정최고금리가 20%로 제한됐기에 대출을 내주면 오히려 손해가 나기 때문이다. 대부업체가 2금융권으로부터 차입할 때의 금리는 6%대에서 금리 상승기 이후 9~10%대까지 높아졌다. 은행 조달금리도 3%대에서 6%대까지 올라갔다. 조달비용 외 대손비용, 모집비용, 관리비용 등을 고려하면 최소 대출금리가 25%는 넘어야 한다는 분석도 있다. 지난해 12월 상위 대부업체 69개사 중 13개사가 신규대출 영업을 접었다. 지난해 하반기 상위 10개 대부업체의 신규 개인대출액은 5570억원으로 상반기보다 절반 가까이 줄었다. 대부업권에서는 저신용자들이 불법사금융으로 내몰리는 걸 막기 위해선 은행으로부터 자금조달이 원활해야 한다고 주장한다. 한 대부업권 관계자는 "지금 같은 금리 상승기에는 은행으로부터의 자금 차입 없이는 신규대출 영업이 불가능하다"며 "기업은행 등 국책은행을 중심으로 대부업체에 자금을 조달하면 시중은행들도 따라서 대부업체에 자금공급을 늘릴 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.07.23.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>“출근대신 호텔 체크인 어때?”···울산시 ‘유케이션’ 진행</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003237896?sid=102</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>울산시청울산시는 여행·여가 온라인 여행사인 여기어때와 ‘워케이션’ 홍보 및 판촉행사를 진행한다고 23일 밝혔다.워케이션은 일(work)과 휴가(vacation)를 함께 한다는 의미로 회사를 벗어나 휴양지 등에서 자유롭게 일하는 근무문화를 말한다. ‘유케이션’은 ‘울산(Ulsan)+일(work)+휴가(vacation)’의 약자로 울산에서 일하며 여행한다는 뜻을 담은 합성어이다.여기어때는 워케이션을 목적으로 울산을 방문하는 고객에게 다음달 9일까지 최대 5만원의 숙박 할인권을 제공한다. 숙박권은 호텔현대 바이 라한과 롯데호텔, 롯데시티호텔, 신라스테이, 머큐어 앰배서더, 호텔리버사이드, 다움호텔, 에쉬튼 등 울산지역 8개 워케이션 호텔에서 사용할 수 있다.숙박권은 다음달 20일까지 선착순으로 사용할 수 있으며, 9월30일까지 신청한 숙박업소에 입실해야 한다. 토스·카카오페이 등 결제사에 따라 최대 10% 추가 할인도 제공된다.숙소 이용 후 설문조사에 참여한 고객에게는 추첨을 통해 여기어때에서 사용가능한 1만원 상당 이용권도 제공하고, 숙소에서 여기어때 예약 인증시 방문을 환영하는 기념품도 준다.자세한 내용은 여기어때 모바일 앱에서 확인할 수 있다. 울산시는 울산에 온 워케이션 이용객들이 다양한 혜택을 누릴 수 있도록 여기어때 모바일 앱을 통해 울산의 여러 관광지와 울산관광택시(4시간 기준 4만원) 이용법, 7% 할인혜택이 있는 울산페이에 대해 안내할 예정이다.울산시 관계자는 “연내 유케이션 사업을 두차례 추가로 진행하고, 이용객 만족도 여부에 따라 유케이션 확대여부를 결정할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>신한證 "카카오페이, 손보·증권 적자 지속…목표가 10% 하향"</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006951663?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>뉴스1 ⓒ News1 김진환 기자(서울=뉴스1) 공준호 기자 = 신한투자증권은 26일 카카오페이(377300) 목표가를 기존 7만1000원에서 6만4000원으로 9.9% 하향하고 매수의견을 유지했다.임희연 신한투자증권 수석연구원은 "계열사 증권과 손해보험의 적자가 장기화되고 있다"며 "유의미한 광고매출이나 중국인 결제 매출이 발생시 목표주가를 상향할 예정"이라고 말했다.카카오페이는 2분기 연결 기준으로 매출 1502억원(전년 대비 6.2% 증가), 영업손실 122억원(적자전환)을 거둔 것으로 추정된다. 임 연구원은 "주력 캐쉬카우인 결제 본업의 매출이 뒷받침되는 가운데 증권과 손해보험의 영업적자가 지속되는 영향"이라고 풀이했다.총거래금액(TPV)과 매출기여거래금액(RTPV)은 각각 343조원(+5.6%), 10조원(+9.4%)을 기록했을 것으로 예상된다.임 연구원은 "경기 둔화 가운데 소비심리 위축이 불가피하겠으나 크로스보더 결제 및 대출 갈아타기 수요 확대가 거래금액 증가를 이끌었을 개연성이 크다"고 말했다.증권 순영업수익은 112억원(-1.0%), 영업손실은 129억원(적자전환)으로 추정된다. 국내외 주식시장 거래대금은 전분기 대비 증가했으나 △국내주식 점유율이 0.1%로 낮고 △시버트 파이낸셜 인수로 해외주식 수수료를 업계 최저치로 낮춤에 따라 수수료손익 증가가 제한적이며 △MTS 관련 프로모션 비용이 집행된 영향이라고 임 연구원을 설명했다.그는 "금융업 특성상 손해보험과 증권의 적자 축소에는 상당 시간이 소요될 가능성이 높다"며 "특히 증권의 경우 토스증권이 1년 먼저 시장을 선점해 단기간 내 격차 축소는 쉽지 않아보인다"고 분석했다. 이어 "중장기적으로 낮은 수수료율을 기반으로 고객 베이스를 확보하고 자기자본을 활용한 적극적인 신용공여 확대 시 수익성 개선을 기대해볼만 하다"고 덧붙였다.임 연구원은 "결국 핵심은 광고매출"이라며 "지난 연간 실적발표 콘퍼런스콜에서 발표했던 광고 사업의 체계화된 수익화 여부를 지켜볼 필요가 있다"고 말했다. 그는 "중국인 유입도 느리지만 회복중인 만큼 호재에 대한 기대감을 선반영하기보다는 수익성 개선을 확인하고 접근해도 늦지 않다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>일하며 휴가 즐겨요..울산시 '워케이션' 족 숙박비 할인 지원</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005045743?sid=102</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>울산(Ulsan)+일(work)+휴가(vacation)'여기어때'와 울산지역 호텔 8곳 참여8월 9일까지 울산 방문 시 숙박비 5만원 할인 지원  【파이낸셜뉴스 울산=최수상 기자】 울산시는 최근 새로운 근무 형태로 인기를 얻고 있는 '워케이션' 활성화를 위해 울산문화관광재단과 종합 여행·여가 온라인 여행사인 '여기어때'가 홍보 및 판촉 특별 행사를 진행한다고 21일 밝혔다.   코로나19 이후 대세가 된 워케이션은 일(work)과 휴가(vacation)를 함께한다는 의미로, 회사를 벗어나, 휴양지나 원하는 장소에서 자유롭게 일하는 근무 문화를 말한다.   ‘유케이션’은 울산(Ulsan)+일(work)+휴가(vacation)의 약자로 울산에서 일하며 여행한다는 특화된 워케이션을 만들기 위한 단어이다.   여기어때는 워케이션을 목적으로 울산을 방문하는 고객에게 이날부터 오는 8월 9일까지 최대 5만원 숙박 할인권을 제공한다.   사용처는 호텔현대 바이 라한 울산, 롯데호텔 울산, 롯데시티호텔 울산, 신라스테이 울산, 머큐어 앰배서더 울산, 호텔리버사이드 울산, 다움 호텔 울산, 울산 에쉬튼 호텔 등 울산 지역 워케이션 호텔 8곳이다.   오는 8월 20일까지 선착순으로 사용할 수 있으며, 입실 기간은 9월 30일까지이다. 토스, 카카오페이 등 결제사에 따라 최대 10% 추가 할인도 제공된다.   또한, 숙소 이용 후 설문조사에 참여한 고객에게는 추첨을 통해 여기어때에서 사용 가능한 1만 원 상당 이용권을 제공하며, 숙소에서 여기 어때 예약 인증 시 방문을 환영하는 기념품도 증정한다.   울산시는 울산에 온 워케이션 이용객들이 다양한 혜택을 누릴 수 있도록 여기어때 모바일 앱을 통해 울산의 여러 관광지와 울산관광택시(4만원에 4시간 이용), 울산페이(7% 할인)도 안내할 예정이다.   시 관계자는 “최근 워케이션의 성지로 떠오른 지역의 공통점은 대표 먹거리와 퇴근 후 즐길 거리가 풍부한 곳으로, 사업(비즈니스) 방문객이 많은 울산이 대표적이다”라며 “하루 더 머무는 체류형 울산관광 활성화와 지역관광 매력도를 높이고 생활인구 증가를 도모할 수 있는 유케이션 사업을 적극 추진할 계획이다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>[금융人사이드]"이자 매일 주면 안돼?" "적금 들고 굴비 밥상 차려요"</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005287145?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>버튼만 누르면 지금 이자받는 '2%통장' 청년 자린고비 정신 담은 '굴비적금'  허소임·송예슬 토스뱅크 디자이너 인터뷰토스뱅크 수신 프로덕트 디자이너인 허소임씨(왼쪽)와 송예슬씨(오른쪽). 사진=허영한 기자 younghan@"귀찮게 예·적금이 왜 필요해? 입출금 통장 금리가 높으면 되는 거 아니야? 이자는 그냥 매일 주면 안돼?"(허소임 토스뱅크 수신 프로덕트 디자이너)토스뱅크의 이자 2% 통장의 탄생 배경이다. 상품이 나온 지 1년 4개월째. 지금까지 누적 사용자 수 367만명, 고객들이 받아 간 총 이자금액은 3535억원에 이른다. 지금 이자 받기 버튼을 매일 누르는 고객만 약 250만명이다. 최근 30일 기준으로 1인당 1500원 정도 이자를 받아갔다. 출시 당시만 해도 높은 금리 때문에 "토스가 2% 통장을 곧 접을 것"이라고 했던 다른 은행들은 지금은 이 상품을 '복붙'해 팔고 있다."은행 상품이 복잡하잖아요. 고객들이 필요한 본질, 그 간결한 하나가 뭐냐는 질문이 토스뱅크 정신이에요. 다 덜어내니까 입출금 통장에 금리를 많이 주자는 결론이 나오더라고요." 상품을 만들 때 가장 큰 난관은 전에 없던 상품이라 금융당국이 심사하고 나오는 데까지 3개월이 걸린단 점이었다.허 디자이너는 "규제에 걸리지 않으면서도 빨리 출시할 수 있는 방법을 찾아봤죠. 고객들이 앱에서 직접 '지금 이자받기' 버튼을 누르는 거였어요. 매일 이자가 자동으로 쌓이게 하는 것보다 충성고객을 만드는 데 결과적으로 더 효과가 컸어요"그는 지금 이자받기를 두고 "이자의 주권을 고객에게 넘겨주는 것"이라고 말했다. 올해 4월에 나온 '먼저 이자 받는 정기예금'도 같은 맥락이다. "이자를 만기일에 주는 건 은행 중심의 행위잖아요. 그건 너무 부당하지 않나요? 가입하자마자 동시에 이자를 먼저 주면 고객들에게 좋은 일이니까요.""청년세대가 힘들다 보니 돈 쓴 걸로 서로 꾸짖는 '거지방'이 유행했어요. 자린고비가 떠올라 '오늘은 이만큼만 절약해 보세요'라는 콘셉트로 상품을 만들고 싶었습니다. 연상 이미지로 굴비가 딱이었죠."(송예슬 토스뱅크 수신 프로덕트 디자이너) 귀찮은 예·적금이라도 재미를 더하면 놀이처럼 돈을 모을 수 있다는 걸 보여준 게 굴비적금이다. 월 한도 30만원 내에서 붓고 싶은 만큼만 부어도 연 5%를 준다. 붓는 금액이 줄어도 이자는 5%로 똑같다. 돈을 넣을 때마다 천장에서 굴비가 내려오고 밥상에는 내가 고른 반찬이 하나둘씩 늘어난다. 적금을 부을 때마다 내가 키우는 동물이 쑥쑥 자라는 '키워봐요 적금'도 비슷한 성격의 상품이다. 송 디자이너는 "적금상품은 기간이 짧아서 펀(Fun)한 요소를 집어넣을 수 있다"며 "동물을 키우고 반찬이 늘어나는 재미 덕에 20대와 30대 젊은 여성 고객들이 많이 찾는다"고 했다. 굴비 적금은 나온 지 석 달 만에 누적 가입 계좌 수 60만좌를 넘겼다.입사한 지 1년도 안 된 '찐MZ(밀레니얼+Z세대)' 신입의 감성은 굴비적금 안에 자린고비 채팅방도 만들었다. "매일 커피 한잔 마시면 1500원, 안 마시면 4500원 저금할 수 있는데, 커피 마실까요? 말까요?" "비 와서 우울한데 옷 사도 될까요?" 젊은 이용자들이 짠한 고민을 올리면 찬성, 반대투표까지 할 수 있어 인기다. "저축을 하면서 비슷한 또래의 사람들과 소통까지 하는, 다른 은행에 없는 가치를 만들어주고 싶다"는 게 송 디자이너의 꿈이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>한국투자증권-바이셀스탠다드, 토큰증권 서비스 업무협약</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002813951?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>최서룡 한국투자증권 플랫폼본부장(오른쪽)과 바이셀스탠다드 신범준 대표가 13일 업무협약 체결 후 기념사진을 촬영 중이다. 한국투자증권 제공    한국투자증권은 지난 13일 조각투자 플랫폼 바이셀스탠다드와 토큰증권 서비스 공동개발을 위한 업무협약을 체결했다고 17일 밝혔다.이번 협약을 통해  두 회사는 △투자계약증권, 비금전신탁 수익증권 등 비정형적 증권의 투자상품화 △발행 플랫폼 내 투자상품 공급을 위한 인프라 구축 △신탁 계약 관련 프로세스 수립 등 토큰증권 상품 공급을 위해 전방위적으로 협업하기로 했다.현물 조각투자 플랫폼 '피스(PIECE)'를 운영 중인 바이셀스탠다드는 미술품, 명품에 이어 선박까지 조각투자 대상과 범위를 확대해 나가고 있다. 토큰증권 발행을 위한 자체 블록체인 메인넷을 개발하는 등 블록체인 관련 다수의 프로젝트를 성공적으로 수행했다.지난 3월 한국투자증권이 카카오뱅크, 토스뱅크 등과 손잡고 설립한 협의체 '한국투자 ST 프렌즈'는 그간 펀더풀, 밸류맵 등 다양한 카테고리의 콘텐츠 기업들과 업무협약을 체결해왔다. 이번 바이셀스탠다드의 합류로 발행 플랫폼을 통한 혁신 금융상품 공급에 한층 더 속도가 붙을 것으로 예상된다고 한국투자증권 측은 예상했다. 최서룡 한국투자증권 플랫폼본부장은 "현물 자산을 디지털화하는데 탁월한 경쟁력을 가진 파트너사가 합류하게 되어 기대감이 크다"고 말했다. 이에 신범준 바이셀스탠다드 대표는 "토큰증권에 기반한 혁신적인 금융상품을 만드는 과정에 한국투자증권과 함께하게 되어 매우 기쁘다"며 "앞으로 한국투자 ST 프렌즈와 함께 조각투자를 넘어 가치 있는 현물 자산의 디지털 변환을 선도하는 플랫폼으로 성장해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.07.16~2023.07.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.07.16~2023.07.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1709,1256 +1709,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.07.27.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>보험비교·추천서비스 표준API, 일단 추진한다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003121197?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>게티이미지금융당국과 보험·플랫폼 업계가 '보험상품 비교·추천 서비스' 표준 API 개발을 일단 추진하기로 했다. 보험업계가 다음 달까지 설계도에 해당하는 '상세 명세서'를 도출하면 이를 평가한 후 도입 여부를 결정할 방침이다.보험·플랫폼 업계에 따르면 보험업계는 손해보험협회를 중심으로 8월 중순까지 보험비교·추천플랫폼 표준 API 상세 명세서를 만든다. 상세 명세서는 소프트웨의 상호작용 방식을 정의하는 것으로 표준 API를 만드는데 필요한 요소들을 정리한 일종의 설계도다. 손보협회 관계자는 “다음 달까지 표준 API 관련 작업을 할 것”이라고 말했다. 핀테크 업계 관계자는 “플랫폼 업체들은 일단 상세명세서를 보고 판단해보자는 분위기”라고 전했다.보험상품 비교·추천 서비스는 각사 보험상품을 플랫폼에서 한번에 전시하고 원스톱으로 가입할 수 있게 하는 것이다. 자동차보험, 여행자보험 등 주로 실손 보험 상품이 대상이다. 금융위원회 혁신금융서비스 사업 중 하나로 내년 초 가동하는 것이 목표다.표준 API는 보험사가 공통으로 쓰는 API를 만들고 플랫폼 업체가 이를 이용하게 하는 방식이다. 각 사 개발 부담을 줄일 수 있다는 차원에서 손해보협회를 중심으로 보험업계가 금융위에 제안했다. 중소형 플랫폼들이 도입을 반대하지 않았지만, 빅테크가 우려를 표시했고 금융위도 연초로 예정한 서비스 개시 일정을 맞추는 것이 우선이라는 입장을 고수하며 불발에 무게가 실렸다.하지만 최근 보험업계가 8월 중순까지 표준 API 상세 명세서를 내겠다는 입장을 내며 금융당국과 플랫폼 업계가 관망 자세로 돌아섰다. 다만, 이 과정에서 당초 손보업계가 맡겠다고 주장한 API 중계기관 제안은 백지화된 것 알려졌다.플랫폼 업계는 중소형사와 대형사 모두 표준 API가 있으면 개발에 투입하는 일손을 상당히 줄일 수 있다는데 공감한다. 다만, 효과에 대한 기대는 엇갈린다.카카오, 네이버, 토스 등 대형 플랫폼 의견을 종합하면, 이들은 표준 API 도입으로 대형 플랫폼 쏠림을 막을 수 없다는 입장이다. 내용이 똑같은 서비스면 이용자를 많이 확보한 대형 플랫폼이 더 유리하다는 것이다.보험업계 제안을 수용한 것이 중소형 플랫폼 업체에 호재로 작용하지 않을 것이란 예상도 나온다. 한 플랫폼사 관계자는 “표준 API와 보험사 플랫폼 간 계약은 별개 문제”라면서 “API가 있다는 이유로 보험사들이 중소형 플랫폼에 쉽게 상품을 제공하지는 않을 것”이라고 말했다.이용자 측면에서도 차별화 된 서비스를 받기 어렵다는 지적이 나온다. 각 플랫폼이 표준 API를 바탕으로 똑같은 상품을 전시하면, 서비스 차별화로 경쟁력을 확보하려는 플랫폼 활동이 제약을 받을 수 밖에 없다는 것이다. 핀테크 업계 관계자는 “손보·생보협회가 제공하는 보험 다모아 서비스를 보면 한계가 뚜렷하다”면서 “표준 API 논의가 중심에 서면 혁신금융서비스라는 취지가 퇴색한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>핀다, JB금융그룹·500글로벌서 470억 투자 유치</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002300016?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>누적 투자금 644억원…”금융 메기 되겠다”핀다가 시리즈C 투자 유치를 완료하며 ‘금융 메기'가 되겠다는 출사표를 던졌다.대출 중개·관리 핀테크 기업 핀다(공동대표 이혜민·박홍민)는 JB금융그룹과 500글로벌로부터 총 470억원 규모의 시리즈C 투자를 유치했다고 26일 밝혔다. 지난 2021년 1월 기아(KIA), 500글로벌의 메인 펀드 등이 참여했던 115억원 규모의 시리즈B 투자 유치 이후 2년 6개월 만으로, 누적 투자금은 약 644억원이다.68개 제휴사와 손잡은 핀다는 대출비교플랫폼 시장에서 토스·카카오페이 등 빅테크와 빅3를 형성하며 핀테크의 저력을 보여주고 있다. 핀다는 지난해에만 4조원에 달하는 대출을 중개했고, 이 가운데 대환대출을 목적으로 실행된 대출 총액도 1조원에 달했다. 현재까지 누적 대출 중개 금액은 7조원을 넘어섰고, 핀다의 사용자들이 등록한 대출 관리 총액은 70조원 규모다.핀다, 470억 규모 시리즈C 투자 유치특히 이번 시리즈C 라운드는 JB금융그룹이 전략적 투자자(SI)로 참여했다. 핀다는 지난 2020년부터 JB금융그룹의 자회사인 전북은행과 비대면 전용 신용대출 상품 제휴를 시작으로 파트너십을 맺어왔다. 핀테크와의 협업을 전방위적으로 강화해 온 JB금융그룹은 핀다와 손잡고 경쟁력 있는 비대면 상품 및 대안신용평가 모델을 개발해 제휴 사업을 확대해 나갈 계획이다.이를 위해 JB금융그룹은 핀다 지분 15%를 투자하고, 인수 방식은 JB금융지주가 5%, 전북은행이 10%를 각각 투자한다. 핀다 또한 JB금융지주 지분 일부를 매입하고 ‘핀테크-금융그룹 동맹'을 결성하여, 빅테크와 시중은행에 맞서 시장의 판도를 뒤흔드는 ‘금융 메기'로 나아간다는 전략이다.또 핀다는 기존 투자자였던 500글로벌로부터 후속 투자 유치를 받았다.이혜민 핀다 대표.신규 자금을 조달하게 된 핀다는 추후 오픈 예정인 주택담보대출 대환과 예금 및 보험 비교·중개 서비스 개발을 비롯해, AI-FDS(이상거래탐지시스템) 구축과, 특화 CSS(대안신용평가모델)인 핀다스코어 개발 등 플랫폼 사업 고도화에  투자금을 투입할 계획이다.이혜민 핀다 공동대표는 "해외에서는 핀테크 기업과 금융사가 지분 투자를 통한 파트너십을 맺으며 동반 성장해 온 사례가 많은 만큼 국내에서도 좋은 선례를 남기겠다"며 “이번 투자 유치를 통해 보다 더 전문화되고 차별화된 금융서비스와 금융 상품을 시장에 선보일 수 있을 것이라고 생각한다. 더 많은 고객들에게 기존보다 더 큰 효용과 혜택을 줄 수 있도록 최선을 다하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>“신용등급 2등급이나 되는데 은행대출 안된다고?”</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003776056?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>연체율 오르자… 5대 은행 대출 신용점수 갈수록 높아져/그래픽=김현국										중소기업에 다니는 김모(43)씨는 지난 5월 카드사에서 연 10% 금리로 1500만원을 급하게 빌렸다. 김씨는 신용점수가 1000점 만점에 880점대로 옛 신용등급 기준으로는 3등급에 해당하는 고신용자이지만, 시중은행에서는 돈을 빌리기 어려웠다. 은행들이 신용대출에 적용하는 등급 기준을 강화했기 때문이다. 김씨는 “2~3년 전엔 시중은행에서 연 3~4%대 금리로 신용대출을 받을 수 있었는데, 왜 이렇게 은행 대출 문턱이 높아졌는지 모르겠다”고 했다.김씨처럼 신용점수가 높은 편인데도 시중은행에서 퇴짜를 맞고 금리가 높은 저축은행이나 카드·캐피탈사 등에서 돈을 빌려야 하는 중·고신용자들이 늘고 있다. 부동산 프로젝트파이낸싱(PF) 부실, 고금리 장기화 등으로 연체율이 오르면서 은행들이 건전성 관리를 위해 대출 문턱을 높이자 기존 은행 고객 일부가 2금융권으로 밀려나고 있는 것이다. 인터넷전문은행이나 P2P(온라인투자연계금융업) 등을 통한 중금리 대출이 아직 제자리를 찾지 못하면서 중신용자들이 대출받기 어려운 ‘금리 단층’ 현상이 지속되고 있다는 지적이 나온다.그래픽=김현국 그래픽=김현국 1등급 아니면 은행 신용대출 깐깐해져							16일 은행연합회에 따르면 지난 5월 국내 5대 은행(KB국민·신한·하나·우리·NH농협은행)에서 신용대출을 받은 사람들의 평균 신용점수는 922.6점으로, 지난해 말(903.8점)보다 18.8점 높아졌다. 800점대까지 떨어졌던 지난해 11월(899.4점)보다는 23.2점이나 높다.신용평가사인 KCB(코리아크레딧뷰로) 점수 기준으로 1등급은 942점 이상, 2등급은 891~941점, 3등급은 832~890점이다. 신용등급을 기준으로 하면 은행권 평균 대출등급이 지난 6개월간 2등급 하위권~3등급 상위권에서 2등급 상위권으로 높아졌다. 고신용자(1~3등급)라도 2등급 중·하위권부터는 은행 대출을 받기가 한층 까다로워진 것이다.연체율 증가, 신용점수 인플레가 원인							은행 대출이 깐깐해진 것은 연체율이 빠르게 상승하고 있어서다. 지난 2021년 말 0.21%에 불과했던 국내 은행 연체율은 지난 3월 말 0.33%까지 올랐다. 부동산 PF 부실과 경기 부진, 고금리가 장기화하면서 빚을 제때 갚지 못하는 이들이 급증한 것으로 보인다.금융소비자들의 신용점수가 올라가는 ‘신용점수 인플레이션’ 현상도 은행 대출 문턱이 높아지는 배경이 됐다. 소득 및 금융 이력 외에도 통신비·국민연금·보험료 등 각종 납부 내역을 신용평가사에 등록하면 신용점수가 올라가면서 고신용자가 급증한 것이다. KCB에 따르면 지난해 말 기준 신용점수 900점을 넘는 사람은 전체의 42%(2053만468명)에 달했다. 10명 중 최소 4명 정도는 1~2등급인 것이다. 신용점수 900점 이상 비중은 3년 전(36%)보다 6%포인트 늘었다. 신용점수 변별력이 떨어지다 보니 최근 은행들은 자체 신용평가 모델을 적극 활용하고 있다. 은행권 관계자는 “신용점수가 높아도 어느 정도 규모의 사업장에 다니는 직장인인지, 현재 다른 곳에서 대출을 얼마나 받고 있는지 등을 꼼꼼히 살핀다”고 말했다.'금리단층’ 심각...”중금리 경쟁 활성화해야”							시중은행 대출이 어렵다면 인터넷은행이나 P2P 업체에서 중금리 대출을 받는 것이 차선책이다. 하지만 인터넷은행 역시 지난해 말부터 올해 5월 사이 대출자의 평균 신용점수가 55.7점이나 상승(840.6→896.3점)하는 등 심사를 대폭 강화하는 추세다. 중·저신용자 대상 중금리 대출을 크게 늘려줄 것으로 기대를 모았던 인터넷은행 3사(케이뱅크·카카오뱅크·토스뱅크)의 중·저신용자 대출 비중은 여전히 평균 20%대에 그치고 있다. P2P는 업계 전체 신용대출 잔액이 2000억원에도 미치지 못할 만큼 규모가 너무 작아서 실효성이 없다. 이렇다 보니 중신용자 상당수가 연 10% 넘게 이자를 내야 하는 저축은행이나 카드·캐피탈사의 문을 두드리는 실정이다.한국은행은 올해 상반기 금융안정보고서에서 중금리가 실종된 금리 단층 현상을 지적했다. 한은은 “우리나라는 금리 연 6% 이하와 연 14% 이상 구간 대출 비중이 높고, 연 7~13% 구간에서 낮은 수준을 보이는 쌍봉 형태를 보이고 있다”며 “금리단층 구간의 업권 간 중금리대출 경쟁을 활성화시키는 한편 금융기관과 대출자 간 정보 비대칭성을 개선해 나가야 한다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>전세대출 금리 가장 낮은 곳은 카뱅…수협은행이 가장 높아</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004220055?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>전세자금대출 금리 첫 공시6월, 5대銀선 국민 3.77% 최저잔액기준 예대금리차 추가 공시국민 2.57%P·농협 2.55%P 順[서울경제] 은행별 전세자금대출 금리가 처음 공시된 가운데 전체 은행 중 카카오뱅크의 전세자금대출 금리가 가장 낮은 것으로 나타났다. Sh수협은행 금리가 전체 은행 중 가장 높았고 5대 은행 중에서는 신한은행이 제일 높았다.28일 은행연합회 공시에 따르면 전세자금대출을 취급하는 15개 은행 중 올해 6월 신규 취급액 기준 평균 금리가 가장 낮은 곳은 연 3.61%를 제공하는 카카오뱅크였다. 5대 은행 중에서는 국민은행이 3.77%로 가장 낮은 전세자금대출 금리를 제공했다.반면 수협은행의 경우 지난달 신규 취급한 전세자금대출의 평균 금리가 연 5.67%로 전체 은행 중 가장 높은 것으로 나타났다. 5대 은행 중에서는 신한은행이 4.45%로 가장 높았고 이어 농협은행 4.23% 우리은행 4.22% 하나은행 4.07% 순으로 집계됐다.잔액 기준으로 보면 제주은행의 전세자금대출 평균 금리가 연 6.33%로 가장 높았고 한국씨티은행과 수협은행 연 5.94%, SC제일은행 연 5.60%, 하나은행이 연 5.58%로 뒤를 이었다. 잔액 기준으로 전세자금대출 금리가 가장 낮은 곳은 케이뱅크(연 3.90%)였으며 카카오뱅크(연 4.54%)가 그 다음으로 낮았다.아울러 기존에는 예대금리차가 신규 취급액 기준으로만 공시됐지만 이날부터 은행이 보유하고 있는 모든 대출과 예금금리를 바탕으로 계산된 잔액 기준 예대금리차가 추가 공시됐다. 이날 공시에 참여한 19개 은행 중 정책 서민 금융을 제외하고 잔액 기준 가계 예대금리차가 가장 큰 곳은 토스뱅크(5.35%포인트)였고 전북은행(4.31%포인트)이 뒤를 이었다. 5대 은행 중에서는 국민은행의 잔액 기준 예대금리차가 2.57%포인트로 가장 컸고 NH농협은행(2.55%포인트), 신한은행(2.43%포인트), 우리은행(2.24%포인트), 하나은행(2.20%포인트) 순으로 나타났다. 국민은행 관계자는 “타행 대비 개인 고객 수가 많아 총 수신 가운데 결제성예금(요구불예금 등)의 비중이 높아 수신 금리가 상대적으로 낮다”며 “이에 따라 잔액 기준 예대금리차가 상대적으로 크게 나타났다”고 설명했다.신규 취급액 기준으로 가계 예대금리차가 가장 큰 곳은 농협은행(1.19%포인트)이었고 신한은행(0.98%포인트), 국민은행(0.87%포인트), 우리은행(0.84%포인트), 하나은행(0.76%포인트) 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B2B 광고 업체 엔비티, 폭발적 성장세…해외진출 주목-하나증권</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004913967?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>하나증권은 마케팅 플랫폼 기업 엔비티에 대해 국내 시장 지배력 확대와 해외 진출 등으로 고성장이 기대된다고 19일 분석했다.최재호 하나증권 연구원은 "엔비티의 주력 제품은 '애디슨 오퍼월'인데 이는 유저가 특정 미션을 완료했을 때 실시간으로 보상이 주어지는 방식의 B2B 서비스"라며 "국내 점유율 46%로 1위를 차지하고 있는 애디슨 오퍼월의 폭발적인 성장성에 주목해야 한다"고 밝혔다.최 연구원은 "애디슨 오퍼월은 출시 직후 네이버웹툰을 고객사로 확보했으며 이후 네이버페이, 토스, 카카오T, 카카오스타일 등 주요 IT 플랫폼 기업들을 고객사로 확보했다"며 " 애디슨 오퍼월의 매출액은 2018년 11억원에서 2022년 869억원으로 급성장했다"고 설명했다.그는 "지난달에는 초대형 고객사인 카카오에 애디스 오퍼월 서비스를 시작했다"며 "카카오톡 MAU(월간활성이용자수)는 약 4400만명으로 카카오톡 서비스로만 연간 매출액 1000억원 이상 충분히 기여할 수 있다는 의미"리고 분석했다.그러면서 "매출액 1위 고객사와 함께 북미 시장 서비스를 시작한 것으로 추정된다"며 "북미를 넘어 글로벌로 서비스를 시작하면 약 3000억원 이상의 매출액 기여가 가능하다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.07.23.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>"고신용자인데도 안 된다" 더 가팔라진 '대출 절벽'</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001223479?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>신용대출 차주 평균 신용점수 922.6점PF부실·연체율 증가로 빗장 걸어잠가중저신용자 사실상 대출 이용 불가'급전 창구' 카드론·리볼빙 잔액 급증신용점수가 높은 직장인들도 은행에서 퇴짜를 맞고 카드사나 저축은행 등에서 돈을 빌리는 현상이 벌어지고 있다. 시민이 서울 한 은행 앞을 지나는 모습. 연합뉴스대기업에 다니는 김 모 씨는 최근 카드사를 통해 연 9% 금리로 2000만 원을 급하게 빌렸다. 김 씨의 신용점수는 910점으로 2등급에 해당하지만, 시중은행은 물론 인터넷전문은행에서도 돈을 빌리기 어려웠다. 은행들이 높아지는 연체율 때문에 신용대출 장벽을 높였기 때문이다. 김 씨는 “불과 2~3년 전만 해도 어느 은행에서도 연 3%대로 돈을 빌릴 수 있었는데 지금은 완전히 다른 세상이 됐다”며 “은행에서 돈을 빌릴 수 없으니 울며 겨자 먹기로 카드론을 이용하게 됐다”고 토로했다.김 씨처럼 신용점수가 높은 직장인들도 은행에서 퇴짜를 맞고 카드사나 저축은행 등에서 돈을 빌리는 현상이 벌어지고 있다. 과거 중저신용자를 중심으로 발생했던 이른바 ‘대출 절벽’ 현상이 고신용자까지 확산하고 있는 것이다. 최근 부동산 프로젝트파이낸싱(PF) 부실과 고금리에 연체율이 오르며 은행들이 건전성 관리를 강화하고 나선 영향이다. 특히 중저신용자를 대상으로 영업하던 인터넷은행들조차 최근에는 문턱을 크게 높이고 있다.23일 은행연합회 통계에 따르면 지난 5월 국내 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)에서 신용대출을 받은 차주의 평균 신용점수는 922.6점으로 6개월 전(지난해 11월·899.4점)에 비해 23.2점이나 높다.신용평가사인 KCB(코리아크레딧뷰로) 점수 기준으로 1등급은 1000점 만점에 942점 이상, 2등급은 891~941점, 3등급 832~890점이다. 신용등급을 기준으로 보면 은행들의 평균 대출 등급이 2등급 하위권에서 3등급 상위권에서 2등급 상위권으로 대폭 높아졌다. 고신용자라고 해도 은행 대출을 받기가 여간 까다로워진 것이 아니라는 뜻이다.은행들이 최근 대출 기조를 보수적으로 유지하고 나선 것은 연체율이 빠르게 오르고 있는 영향이 크다. 가계 신용대출 연체율은 2015년 8월 이후 7년 8개월 만에 가장 높은 수준을 기록 중이다. 부동산 PF 부실과 경기 침체, 기준금리 상승에 따른 고금리 등에 빚을 갚지 못하는 이들이 급증했기 때문이다.이른바 신용점수 인플레이션도 대출 문턱이 높아지는 배경 중 하나다. 소득 및 금융 이력 외에도 통신비나 국민연금 납부 내역과 마이데이터 연결 등으로 신용점수가 올라가며 고신용자가 급증한 상태다. KCB에 따르면 지난해 말 기준 신용점수 900점을 넘는 이는 전체의 42%인 2053만 명에 달한다. 국민 10명 중 4명이 신용등급 1~2등급이라는 것이다.고신용자들조차 은행을 이용하는 것이 쉽지 않다 보니 중저신용자는 지난해부터 사실상 시중은행 대출을 이용하지 못하고 있다. 국민의힘 송석준 의원이 금융감독원에서 제출 받은 자료에 따르면 4대 시중은행(KB국민·신한·하나·우리)의 지난해 중저신용자(신용점수 하위 50%) 신규 신용대출액은 2020년(8조 3666억 원)에 비해 66.4% 감소한 2조 8089억 원으로 나타났다.특히 중저신용자를 대상으로 영업을 해오던 인터넷은행들도 연체율 탓에 최근 대출 문턱을 크게 높이고 있다. 한국은행의 금융안정보고서에 따르면 지난 4월 말 기준 인터넷은행의 연체율은 0.85%로 은행권보다 배 이상 높다.인터넷은행이 대출 문턱을 높이자 신용대출을 받은 차주의 평균 신용점수가 크게 높아졌다. 케이뱅크·카카오뱅크·토스뱅크 등 인터넷은행 3사 가계 신용대출 평균 취급점수는 지난 5월 896점으로 6개월 전(855점)과 비교해 40점이나 넘게 올랐다. 높아진 연체율 영향에 인터넷은행 3사는 1분기 금융당국이 설정한 중저신용자 대출 취급 목표치를 모두 달성하지 못하는 일도 발생했다.중저신용자들이 주로 이용하던 저축은행들 역시 최근 연체율이 크게 늘자 중금리 대출 규모를 줄이고 있다. 지난 3월 말 기준 전국 79개 저축은행의 연체율은 5.07%로 지난해 말보다 1.6%포인트나 높아졌다. 이에 따라 올해 1분기 저축은행 업권의 민간 중금리 대출 취급액은 지난해 보다 40% 가량 급감했다.돈을 빌릴 곳이 마땅치 않다 보니 이른바 ‘급전’으로 많이 애용되는 카드론이나 리볼빙 잔액은 빠르게 늘어나고 있다. 여신금융협회에 따르면 신한·삼성·KB국민·현대·롯데·하나·우리카드 등 카드사 7곳의 6월 말 기준 카드론 잔액은 34조 8326억 원으로 지난해 말(33조 6404억 원)보다 3.5% 증가했다. 카드사 현금 서비스(단기 카드 대출)와 리볼빙(일부 결제 금액 이월 약정) 잔액도 증가세다. 특히 7개 카드사의 6월 기준 리볼빙 잔액은 7조 2614억 원으로 2월 이후 최대치를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.07.23.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>디지털보험사는 부진, 설계사는 귀한 몸… 보험의 시간은 거꾸로 간다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000918787?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>디지털손보사, 1분기 모두 적자 보험사 GA 확대 경쟁에 설계사 수요 급증보험상품, 복잡하고 범위 넓어 대면 가입 선호일러스트=정다운        보험시장에 ‘메기’ 역할을 할 것으로 기대를 모았던 디지털보험사들이 줄곧 적자에 허덕이며 자리를 잡지 못하고 있다. 반면 여러 보험사 오프라인 영업망을 공격적으로 확대하면서 보험설계사들은 몸값이 뛰고 있다. 점포 수를 줄이고 비대면 서비스를 활성화하고 있는 은행, 증권 등 다른 금융권과 달리 보험업계는 오히려 전통적인 영업 방식이 더 큰 성과를 보이고 있는 것이다. 자리 못 잡는 디지털보험사        23일 보험업계에 따르면 국내 디지털손해보험사들은 올해 1분기에 모두 적자를 냈다. 삼성화재와 DB화재, 현대해상 등 대형사를 포함한 대부분의 손보사들이 질병·상해보험 상품의 수요 증가와 자동차보험의 손해율 개선으로 1분기에 역대급 실적을 낸 것과 대조적이다.지난 2019년 국내 1호 디지털손보사로 출범한 캐롯손해보험은 1분기 109억원의 순손실을 기록했다. 166억원의 손실을 기록했던 지난해 1분기에 비해선 적자 폭이 줄었지만, 출범 후 4년이 지난 점을 고려하면 여전히 기대에 못 미치는 실적이다.다른 디지털손보사들도 사정은 별반 다르지 않았다. 국내 최대 메신저 플랫폼인 카카오가 선보인 보험사로 기대를 모았던 카카오페이손해보험은 1분기에 85억원의 손실을 냈다. 금융지주사 계열인 하나손해보험과 신한EZ손해보험도 같은 기간 각각 83억원, 9억원의 적자를 기록했다.디지털손보사보다 더 오랜 기간 영업을 이어온 디지털생명보험사 역시 적자에 허덕이는 상황이다. 지난 2013년 국내 최초 디지털보험사로 출범한 교보라이프플래닛생명은 지난해까지 9년 연속 적자를 기록했다. 교보라이프플래닛은 2021년 159억원의 적자를 기록한 데 이어 지난해에도 141억원의 손실을 봤다.캐롯손해보험은 영화배우 신민아씨를 광고 모델로 기용하는 등 마케팅에 많은 비용을 투입했지만, 출범 후 줄곧 적자를 보고 있다./캐롯손보 제공  영업망 확대 경쟁에 보험설계사도 몸값 뛰어        디지털보험사들이 출범 후 수년이 지나도 여전히 자리를 잡지 못하고 있는 것은 은행, 증권 등 다른 금융업권에 비해 보험은 소비자들이 여전히 대면 상담을 통한 가입을 선호하고 있기 때문인 것으로 분석된다.은행의 경우 예·적금과 대출 등 서비스가 비교적 명확, 단순하고 금리가 투명하게 공시돼 있어 굳이 창구를 찾을 필요가 없다. 증권은 주식, 펀드 등의 투자 정보를 얻을 수 있는 경로가 넓어 이미 오래전부터 홈트레이딩서비스(HTS)와 모바일 거래시스템의 비중이 주를 이루고 있다. 반면 보험은 상품의 범위가 넓고, 상품별로 보장되는 내용도 복잡해 설계사들이 여전히 영업에서 큰 역할을 차지하고 있다.이에 따라 최근 보험사들은 오프라인 영업 조직을 빠르게 확대하는 추세다. 한화생명은 지난 1월 자회사인 한화생명금융서비스를 통해 업계 6위권 법인보험대리점(GA)인 피플라이프를 인수해 2만5000여명의 설계사를 확보했다. 한화생명은 3만명의 설계사를 보유한 삼성생명을 따라잡기 위해 GA사 추가 인수도 검토 중이다. 흥국생명도 올해 별도 GA 자회사인 HK금융파트너스를 설립하고 설계사 영입에 나서고 있다.대형사들에 이어 중소형 보험사까지 ‘보험설계사 모시기 경쟁’에 뛰어들고 있다. 보험업계 관계자에 따르면 GA 자회사 설립을 준비 중인 AIA생명은 최근 경력직 보험설계사들을 대상으로 설명회를 열어 이직 시 파격적인 정착지원금과 성과급 등을 지급하겠다고 약속한 것으로 전해졌다. 내년 온라인 플랫폼 보험비교서비스 출시        오프라인 영업이 더욱 활성화되고 있는 보험시장도 내년부터 변화할 가능성이 있다. 앞으로 네이버나 카카오 등 대형 온라인 플랫폼을 통해 여러 보험사의 상품을 비교해 추천 받을 수 있는 서비스가 도입되기 때문이다.금융위원회는 지난 19일 보험상품 비교·추천 서비스를 혁신금융서비스로 새롭게 지정했다고 밝혔다. 이에 따라 이르면 내년 초부터 소비자들은 네이버나 카카오, 토스 등 온라인 플랫폼에서 여러 보험사 상품들의 보장 내역과 가입비 등을 확인할 수 있다.다만, 보험업계에서는 온라인 플랫폼의 보험비교서비스가 출시돼도 현재의 구도를 흔드는 메기 역할을 하기는 어려울 것이라는 전망도 나온다. 취급상품이 여행자·화재보험 등 단기보험과 자동차보험, 실손보험, 저축성보험, 펫보험, 신용보험 등으로 제한되기 때문이다.보험업계 관계자는 “캐롯손보의 부진에서도 알 수 있듯이 지금도 소비자들은 인터넷을 통해 여러 상품 정보를 접할 수 있지만, 결국 가입은 설계사의 추천을 통해 진행하는 경우가 많다”며 “온라인 플랫폼의 비교서비스가 미칠 영향은 제한적일 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스뱅크, 체크카드 누적 발급 500만좌 돌파</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012001743?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 당사 체크카드가 누적 발급좌수 500만좌를 돌파했다고 28일 밝혔다.사측에 따르면 토스뱅크 체크카드는 지난 2021년 10월 당행 영업 개시와 함께 출시됐다. 상품 출시 1년10개월 만에 누적 발급좌수 500만좌 기록을 달성했다. 월평균 23만좌 이상 꾸준히 발급되고 있다.토스뱅크는 체크카드 이용 즉시 캐시백 혜택을 제공하고 있다. 현재 진행 중인 캐시백 프로모션인 브랜드형과 전 가맹점형은 고객이 변경할 수 있다.모든 프로모션은 오는 8월31일까지 진행된다. 토스뱅크는 9월 새로운 프로모션을 선보일 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[대한민국 명품 SaaS]&lt;26&gt;알체라, 보안부터 산불감지까지 AI SaaS로 대응</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003118831?sid=105</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>알체라 얼굴인식 AI 솔루션 소개 이미지알체라는 영상인식 인공지능(AI) 기술을 접목한 '스마트 뷰잉'과 AI 기반 산불감시 솔루션인 '파이어스카우트'를 주력 기술·제품으로 제공한다.스마트 뷰잉 기술은 얼굴인식뿐만 아니라 이상상황 감지, 행동인식 등 솔루션을 지원, 금융·출입보안 시장에 성공적으로 제품을 공급 중이다.얼굴인증은 금융·보안을 비롯해 다양한 분야에서 사용된다. 현재까지 알체라 AI 기술이 적용된 카메라는 3억1200만대가 넘는다. 얼굴인식 기술은 '미국 국립표준기술연구소 얼굴인식 벤더 테스트(NIST FRVT)'에서 1초 이내에 99.99% 정확도로 국내 1위 기술로 인정받는다.얼굴 라이브니스 기술을 통해 다양한 부정 인증 시도를 방어한다. 실제 이미지와 가짜 이미지 구별이 가능하다. 각종 인증 업무와 출입통제 등 다양한 분야에서 최적화된 본인인증 솔루션을 제공한다.알체라 얼굴인식 기술은 비접촉 방식의 편리함과 효율성을 제공해 출입국과 공공기관 출입 등 보안과 관제 영역까지 관리할 수 있다. 온프레미스(설치형)와 서비스형 소프트웨어(SaaS) 모델을 동시 제공한다.알체라는 최근 인천국제공항이 추진하는 스마트패스 시스템에 자사 얼굴인식 솔루션을 공급하기로 했다. 지난해 행정안전부 주관 스마트 정부청사 통합관리체계 구축사업 BMT에서도 1위를 차지하는 등 기술력을 꾸준히 인정받았다. 서울·대전·과천 등 4대 청사에 얼굴인식 시스템 구축을 완료했으며 올해 4월부터 22만명이 넘는 공무원의 효율적인 출입관리를 지원한다.AI 기반 산불감시 솔루션 ‘파이어스카우트’ 대시보드 이미지.알체라는 영상인식 기술을 바탕으로 AI 기반 산불감시 SaaS 솔루션인 '파이어스카우트'를 제공한다. 캘리포니아의 소노마 카운티를 시작으로 산타클라라 카운티, 네바다 에너지사, 미국 서부 최대전력 회사 PG&amp;E 등과 파트너십을 체결해 미국, 호주 등 세계 지역 산불을 예방한다. PG&amp;E는 AI기반 화재 탐지 솔루션을 도입해 지난해 9월 캘리포니아 시스키유 카운티에서 발생한 대형 산불 코요테 최초 발화를 신호 전화 대비 2시간 3분가량 빨리 감지할 수 있었다.회사 관계자는 “파이어스카우트는 세계 무대에서 입증한 기술력을 토대로 빠른 시일내로 국내에서 안정적으로 상용화될 전망”이라며 “산불 외에도 터널, 물류창고, 공장, 전기차 충전소 등 실내 화지 감지에도 적용을 확대할 계획”이라고 전했다.황영규 알체라 대표〈인터뷰〉황영규 알체라 대표 “하반기 금융 집중…SaaS로 해외 시장도 지속 공략”“얼굴인식 AI 솔루션 적용분야가 공공부문에서 금융시장으로 확대되고 있습니다. 은행권 중심으로 내부 접근 통제 강화를 위해 얼굴인증을 통한 생체인증 도입 의무화가 주목받고 있습니다. 상반기에도 금융권 일부 고객 사례를 확보했고 이를 발판으로 하반기에도 금융 시장을 집중 공략할 계획입니다.”황영규 알체라 대표는 금융 시장 공략 계획을 이같이 전했다.코로나 이후 비대면 금융사고가 5배 이상 급증하면서 본인인증 중요성이 강조되고 있다. 알체라는 토스뱅크, 신한카드, 현대해상 등 다양한 금융고객을 대상으로 얼굴인증 솔루션을 공급하고 있다.황 대표는 “올해 금융권 고객기반 확대를 적극 추진할 것”이라며 “이미 다수 굵직한 금융 사례를 확보한만큼 좋은 성과가 이어질 것으로 기대한다”고 말했다.알체라 강점은 AI 기술력이다. 7년 전 국내 처음 얼굴인식 AI 시장을 개척하며 기술력과 노하우를 쌓았다. 전체 인력 가운데 80% 이상이 연구개발(R&amp;D) 인력으로 구성될 만큼 기술을 중요하게 여긴다. 국내외 각종 테스트에서 알체라 AI 기술력이 인정받는 이유다.황 대표는 “국내는 얼굴인식 기반으로 공공, 금융, 헬스케어 등 지속 분야를 넓힐 예정”이라며 “해외는 SaaS 기반 산불감시 솔루션을 중심으로 수출 국가와 대상을 지속 늘려가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.07.27.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>[반갑다 우리말]‘증권앱’ 어려워서 못하겠네</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005538720?sid=103</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-쉬운 공공언어 쓰기⑪어려운 금융용어밸루에이션? 페이인포?…무슨 뜻쉬운 우리말로 이해력 높여야구매·판매하기 토스앱 좋은 예언어(말)는 의사소통의 도구를 넘어 국민의 알 권리와 인권을 실현하는 연장입니다. 특히 공공기관에서 사용하는 공공언어는 국민이 정보에서 소외되지 않도록 누구나 이해할 수 있는 쉬운 우리말로 써야 합니다. 국민 건강과 안전에 직결되는 만큼 일상생활의 질을 좌우한다고 해도 그 의미는 넘치지 않을 겁니다. 이데일리는 문화체육관광부·㈔국어문화원연합회·세종국어문화원과 함께 공공언어의 현 실태를 들여다보고, 총 20회에 걸쳐 ‘쉬운 공공언어 쓰기’를 제안하는 것이 이번 연재의 출발이자 목표입니다. &lt;편집자주&gt;그래픽=이데일리 김정훈 기자.[이데일리 김미경 기자] 사회초년생인 20대 김모씨는 지난달 받은 첫 월급으로 주식·금융 투자를 시도했다가 이내 포기했다. 모바일 애플리케이션(앱) 첫 화면부터 피로감이 확 밀려와서다. 낯선 전문 용어 일색에 복잡한 안내(메뉴)로 접근하는 것조차 쉽지 않았다. 최근 모바일 앱을 활용해 금융업무를 처리하는 일이 자연스러워졌지만, 과도한 외래어 사용은 여전하다는 지적이 나온다. 외국의 시스템과 상품을 가져와 국내에 적용한 사례가 많은 탓이다. 보험, 은행, 증권 등 금융거래는 국민 일상생활과 밀접하게 관련이 있는 만큼, 쉬운 우리말 사용은 금융서비스의 핵심 요소라는 게 국어 전문가들의 견해다. 장기적으로는 상품 선택과 투자에 의도치 않은 결과를 가져올 수 있어 용어의 뜻을 정확히 파악할 수 있는 쉬운 우리말 쓰기가 필수라는 것이다.외래어 표기 자체는 금세 눈에 익숙해질 수 있지만, 용어의 의미를 모른 채 사용하는 경우도 흔하다. 실제로 다양한 금융정보와 투자상품에 걸쳐 쓰이는 ‘포트폴리오’ 용어 같은 경우, 그 쓰임에 맞춰 ‘운용 자산 구성’, ‘유가 증권 일람표’, ‘자산 선택’, ‘분산투자’ 등으로 선택해서 사용하는 것이 바람직하다. 이를테면 소유한 모든 계좌를 한 번에 관리할 수 있는 ‘어카운트인포’ 서비스는 ‘계좌통합관리’, 전체 계좌 송금과 이체 등을 한꺼번에 처리할 수 있는 ‘페이인포’는 ‘자동이체통합관리’로, ‘오픈뱅킹’은 ‘공동망금융거래’로 바꿔쓸 수 있다. CD기, ATM기 출금이라는 말은 은행 자동화기기가 생긴 이후 줄곧 써온 용어지만, 그 뜻을 정확히 아는 이들은 많지 않다. 외래어 줄임말 표기로 눈에만 익숙해진 대표 사례다. 이에 따라 CD기는 현금자동지급기, ATM기는 현금자동입출금기로 바꾸면 정확한 기능과 의미를 구분해서 파악할 수 있다.금융서비스를 공급자에서 사용자 중심으로 옮겨온 금융앱 토스가 좋은 사례다. 공공문서, 주식, 은행업무 등을 고객 입장에서 서비스하고 있어서다. 사용자의 접근성을 높이기 위해 복잡한 화면과 절차는 직관적으로 설계했고, 매수·매도 등의 증권 용어를 구매하기·판매하기 등으로 바꿔 표시하는 식이다.국어 전문가들은 “금융앱 서비스를 직접 경험해보면 이해하는데 크게 어렵지 않지만, 화면에 가득한 외래어 표기 용어들은 고령의 사용자들을 위축시키는 주범”이라면서 “쉬운 우리말 사용은 금융소비자의 이해력을 증진하고 건전한 투자를 유도하는 데 있어 가장 핵심이다. 금융상품 주요 사항은 쉬운 우리말을 순화해 소비자가 상품에 대해 이해할 수 있도록 노력해야 한다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 후 첫 두 자릿수 신입 공채</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003236560?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크가 2021년 출범 이후 처음으로 전 직군에서 공개 채용을 실시한다고 17일 밝혔다. 경력직 직원 중심의 채용을 넘어 신입 직원도 두 자릿수 채용한다.모집 분야는 10개 직군의 40여 개 직무로,  ‘엔지니어(코어뱅킹, 프론트엔드 및 서버)’ ‘비즈니스(수신 및 여신 상품, 제도)’ ‘데이터(데이터 애널리스트 및 사이언티스트)’ ‘리스크(신용전략, CSS)’ ‘프로덕트(상품개발)’ ‘디자인’ ‘컴플라이언스’ 등이다.서류 접수 기간은 이날부터 오는 31일까지다. 지원 서류는 토스뱅크 채용 홈페이지에서 접수할 수 있다.채용에 관해 궁금한 점은 채용 홈페이지의 ‘자주 묻는 질문’을 확인하거나 토스뱅크 채용팀에 이메일로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>대형 금융지주 이어 인뱅도 호우피해에 온정의 손</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000936410?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>지난 16일 오후 충북 괴산 불정면에 위치한 폭우 피해 농가에서 농민이 피해를 입은 시설물을 바라보고 있다./사진=뉴스1 한반도를 강타한 집중호우로 전국 곳곳에 피해가 속출하는 가운데 금융권의 수해 피해지원을 위한 온정이 이어지고 있다.20일 금융권에 따르면 KB·신한·하나·우리·NH농협금융 등 5대 금융지주가 35억원을 쾌척한데 이어 BNK·DGB금융 등 지방금융지주 2곳은 각각 3억원씩 총 6억원을 카카오뱅크와 케이뱅크토스뱅크 인터넷전문은행들은 총 2억원을 기부했다.우선 KB·신한·하나금융이 각각 10억원, 우리금융은 5억원의 성금을 지원했다.KB국민·신한·하나·우리 등 4대 시중은행은 자영업자와 중소기업을 대상으로 최대 5억원씩 한도 특별대출을 마련하고 최고 1.0~1.5%포인트 특별우대금리를 적용한다. 기존 대출이 만기되는 경우에도 우대금리를 적용해 기한을 연장한다. 개인고객은 긴급생활안정자금 대출을 최대 2000만~5000만원까지 받을 수 있다. 최대 1%포인트 금리 감면도 적용된다.지방금융지주인 BNK·DGB금융도 각각 3억원을 기부했다. BNK금융의 계열사인 부산은행과 경남은행은 기업고객 최대 5억원의 신규 여신지원과 개인고객 1인당 최대 2000만원 긴급생활자금 지원 등 총 2000억원 규모의 긴급 금융지원을 실시한다. DGB금융의 계열사 대구은행도 대출금 상환 유예, 신규대출 특별금리감면 등 3000억원 규모의 금융지원책을 시행할 계획이다.JB금융의 계열사인 광주은행은 1000억원 규모의 긴급 경영 안정 자금을 지원한다.인터넷은행도 온정의 손실에 힘을 보탰다. 카카오뱅크는 1억원, 케이뱅크와 토스뱅크는 각각 5000만원을 수해 성금으로 기부했다.국책은행 역시 산업은행과 수출입은행도 각각 1억원과 5000만원을 전달했으며 IBK기업은행은 소상공인·중소기업에 최대 3억원의 자금을 지원하는 등 3000억원 규모의 특별 지원을 실시하기로 했다.NH농협금융은 농업인, Sh수협은행은 어업인에 대한 피해지원을 강화하기로 했다. 농협은행은 총 5000억 규모 금융지원을 통해 농업인에게 최대 20억원, 농업법인에 최대 30억원 한도에서 연 1.0% 고정금리로 농업정책자금을 지원한다.중소기업에게는 기업자금 최대 5억원, 개인고객은 가계자금을 최대 1억원까지 지원하고 최대 2%포인트의 금리 인하 혜택을 제공한다. 농업인에게는 추가로 0.6%포인트의 금리 인하 혜택이 주어진다.수협은행은 어업인·개인·소상공인에 최대 5억원 운영자금을 지원하는 등 500억원 규모의 긴급금융지원안을 내놨다.금융당국도 수해 피해 지원에 팔을 걷어붙였다. 금융감독원은 금융위원회, 금융유관기관 및 업권별 협회 등과 함께 '수해피해 긴급금융대응반'을 구성하고 금감원의 전국 각 지원에 피해지원 금융상담센터를 설치키로 했다. 이복현 금감원장은 지난 19일 서울 을지로에 위치한 IBK기업은행 본점에서  "최근 전국적인 집중호우로 공장·상가·농경지 등 침수 피해가 발생함에 따라 중소기업·소상공인의 어려움이 더욱 가중될 수 있다"고 진단했다.그러면서 "어려움을 겪고 있는 중소기업·소상공인에 대해 금융권이 '비 올 때 우산 뺏기' 식으로 대응한다면 중장기적으로는 실물경제뿐 아니라 금융회사 건전성에도 부정적 결과가 초래될 수 있다"며 "금융권이 적극 도와줌으로써 장기적으로 함께 상생할 수 있는 지혜가 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>"보험료 어디가 쌀까" 비교 쉬워진다... 금융위, 보험업계·빅테크와 협의</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005048195?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>개별 아닌 표준 전산망 도입추진내년 1월부터 비교·추천 서비스  내년 1월부터 자동차보험, 실손보험 등에 가입할 때 소비자는 어떤 플랫폼에서든 자신의 조건에 최적화된 보험사의 상품을 추천받을 수 있게 된다. 현재 '보험다모아'가 운영 중이나 평균 보험료를 구간별로 산출하는 방식을 사용해 실제 납부해야 하는 보험료가 달랐지만, 내년부터는 정확한 보험료 산출이 가능해지는 것이다. 적용 대상은 △자동차보험 △실손보험 △여행자보험 △저축성보험 등 4개 상품이다. 특히 실손보험과 자동차보험은 각각 약 4000만명, 2500만명의 소비자가 가입한 '국민보험'으로 소비자의 실익이 커질 전망이다.   26일 금융권에 따르면 내년 1월 출시되는 '온라인 보험 비교·추천 서비스'에 개별 API가 아닌 표준 API가 도입될 예정이다. API란 데이터 제공자와 플랫폼의 각 프로그램이 상호 통신하는 방법을 정의한 일종의 출입구 역할을 하는 문서다. 이때 양사 간 통신규격이 통일된 방식이 표준 API, 고객 정보양식 등의 정보 전송방식이 각사별로 상이한 방식이 개별 API다.   그간 표준 API는 각 보험사가 플랫폼 업체에 데이터를 개별 API로 제공하는 방식에 밀려 도입 가능성이 낮았다. 보험사 입장에서 출범 일정을 맞추기 위해서는 개별 API로 진행해야 개발 속도가 더 빠르고 네이버파이낸셜, 카카오페이, 토스 등 빅테크들도 개별 API 방식이 플랫폼별 전용상품을 만들 수 있어 더 유리했기 때문이다.   그러나 금융위원회는 지난주 '온라인 보험 비교·추천 서비스'에 참여하는 플랫폼 업체와 보험사를 소집해 회의를 진행하면서 출범 일정을 재확인하며 개별 API가 아닌 표준 API를 추진토록 가닥을 잡은 것으로 알려졌다. 또 이날 금융위는 보험료 산출을 위해 보험상품의 정보가 담긴 표준 API 명세서도 현재 사용되는 마이데이터 규격 수준으로 마련토록 하고 표준 API 명세서가 마련되지 않으면 보험사와 플랫폼은 개별로 개발을 진행하도록 했다.   한 금융권 관계자는 "표준 API를 통한 원활한 보험 비교 추천 서비스 출시를 위해 전체 참여기관 간 업무협약 체결을 검토 중"이라고 말했다. 한편 비교 추천 서비스는 지정일로부터 6개월 이후인 2024년 1월 출시될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.07.25.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>한화투자증권, 토스뱅크 앱 내 장외채권 매수 서비스 실시</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006948857?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>장외채권 이벤트 참여 시 투자지원금 제휴 이벤트 제공한화투자증권 제공(서울=뉴스1) 박승희 기자 = 한화투자증권은 토스뱅크 앱 내에서 장외채권 매수 서비스를 연 기념으로 이벤트를 실시한다고 25일 밝혔다.이번 한화투자증권과 토스뱅크 제휴로 토스뱅크 앱 내에서 한화투자증권 계좌를 개설하고 장외채권 매수 서비스를 이용할 수 있게 됐다.  한화투자증권은 토스뱅크 앱 내 '목돈 만들기' 메뉴를 통해 장외채권을 매수하고, 이벤트 신청한 고객에게 매수 금액별 투자지원금 최대 20만원을 지급한다. 또한 토스뱅크 앱에서 한화투자증권 계좌를 생애최초로 개설한 고객에게 MTS(SmartM, STEPS) 국내주식 거래수수료 평생 혜택(우대수수료율 0.0040595%, 변동 가능)을 제공한다.추가로 한화투자증권 온라인 채널(홈페이지, MTS 등)에서 이벤트 신청을 완료한 고객에게 현금 1만원을 지급하고, 국내주식 100만원 이상 거래 시 현금 2만원을 추가로 지급한다.이벤트 신청은 한화투자증권 홈페이지, 모바일앱(SmartM)을 통해 가능하며 보다 자세한 내용은 한화투자증권 홈페이지 및 스마트자산관리팀을 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.07.31.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>산업용 XR솔루션 기업 버넥트…"트랙 엔진 기술로 한 단계 도약"</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004874501?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>지난주 코스닥시장 입성"중진공 청년창업사관학교컨설팅·자금 지원 큰 도움"“확장현실(XR) 시장은 계속해서 빠른 속도로 커질 겁니다.”하태진 버넥트 대표(사진)는 “컴퓨터 비전 기술을 기반으로 한 ‘트랙 엔진’ 원천기술이 핵심”이라며 31일 이같이 밝혔다. 하 대표가 2016년 10월 설립한 버넥트는 산업 현장에 적용 가능한 XR 솔루션 전문기업이다. 지난 26일 코스닥시장에 입성했다.트랙 엔진은 카메라 트래킹을 통해 카메라에 담긴 사물의 위치와 각도를 정확하고 신속하게 계산한 뒤 실존 공간에 3차원(3D) 콘텐츠로 보여주는 기술이다. 버넥트는 트랙 엔진을 기반으로 △리모트(실시간 무선영상과 증강현실을 이용해 원격으로 현장 관리) △메이크(디지털 정보를 XR 콘텐츠로 제작) △뷰(XR 콘텐츠 시각화) △트윈(산업 현장을 3D로 디지털화해 실시간으로 모니터링) 등 다양한 XR 솔루션을 개발했다. 영화 ‘탑건: 매버릭’에서 주인공 톰 크루즈가 극초음속 비행기를 어떻게 몰고 갈지 시뮬레이션하는 과정이 ‘트윈’ 솔루션과 비슷하다는 평가다.버넥트는 이런 기술력을 인정받아 2021년 스틱벤처스·롯데벤처스·한화 등으로부터 300억원 규모의 시리즈B 투자를 유치했다. 코로나19 기간에도 몸집을 키워 매출이 2019년 약 27억원에서 지난해 51억원으로 증가했다.하 대표는 “청년창업사관학교 경험이 안정적이면서 빠른 성장의 밑거름이 됐다”며 “1억원의 초기 자금은 물론 전시 지원까지 받아 첫 번째 고객 유치에 성공할 수 있었다”고 돌아봤다. 이어 “전문위원의 구체적인 조언이 사업에 큰 도움이 됐다”고 덧붙였다.청년창업사관학교는 중소벤처기업진흥공단이 우수 창업자를 찾아 창업 전 단계를 지원하는 사업이다. 창업 3년 이내의 만 39세 이하 창업기업 대표자가 대상이다. 졸업 기업도 이후 5년여 동안 지속적으로 사후 관리를 지원한다.하 대표 외에 청년 창업가 4753명가량이 청년창업사관학교를 통해 성장했다. 유니콘 기업(기업가치 1조원 이상 스타트업) 두 곳, 기업가치 1000억~1조원의 예비유니콘 기업 네 곳 등이 거쳐 갔다. 기업가치 9조1000억원의 핀테크 기업인 토스가 대표적이다. 올해는 청년창업사관학교에 845억원을 투입해 915명을 지원한다는 목표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.07.30.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>인뱅과 협업 강화하는 증권사...플랫폼 시너지 창출 ‘맞손’</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002735442?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>한화·한투·NH證 등 사업 제휴...주식부터 발행어음까지저변 확대·디지털 서비스 도모...사업모델 다양화 전망ⓒ픽사베이[데일리안 = 백서원 기자] 증권사들이 플랫폼 경쟁력을 앞세운 인터넷전문은행과 협업하면서 투자자 저변 확대에 나서고 있다. 상대적으로 젊은 고객 비중이 높은 인터넷은행 고객의 신규 가입을 유도하고 본업과의 시너지 효과를 키운다는 전략이다.30일 금융투자업계에 따르면 한화투자증권은 이달 토스뱅크 애플리케이션(앱) 내에서 장외채권 매수 서비스를 시작했다. 토스뱅크와 제휴해 토스뱅크 앱 내에서 한화투자증권 계좌를 개설하고 장외채권 매수 서비스까지 이용할 수 있게 한 것이다.이를 통해 토스뱅크 앱에서 주식계좌 개설이 가능한 증권사는 한국투자증권과 KB증권, 미래에셋증권, 한화투자증권 등 4개사로 늘었다.한국투자증권은 지난달부터 케이뱅크와 비대면 주식계좌 개설 서비스를 제공하고 있다.이에 케이뱅크 앱에서 계좌를 개설할 수 있는 증권사는 NH투자증권과 미래에셋증권, 삼성증권, KB증권에 이어 한국투자증권까지 5곳으로 확대됐다.한국투자증권은 기존 카카오뱅크·토스뱅크와 관련 제휴를 맺고 있어 국내 모든 인터넷은행을 통해 계좌 개설이 가능하게 됐다.이 증권사는 지난해 말 카카오뱅크와 주식 투자 제휴 서비스를 시작한 데 이어 올해 카카오뱅크 앱 안에서 금융상품을 조회하고 가입할 수 있는 시스템도 도입했다. 한국투자증권은 작년 8월에는 토스뱅크, 지난달부터는 카카오뱅크를 통해 각각 발행어음 서비스도 개시했다.특히 한국투자증권은 카카오뱅크의 2대 주주(지분율 27.17%)로 긴밀한 협업 관계를 구축하고 있다.현재 카카오뱅크와 제휴 중인 증권사는 한국투자증권을 비롯해 NH투자증권, KB증권, 하나증권, 신한투자증권, 삼성증권, 미래에셋증권, 교보증권 등 모두 8곳이다.증권업계가 인터넷은행들과 전략적 동맹을 강화하고 있는 이유는 젊은 층이 쉽게 접근할 수 있는 금융 플랫폼을 활용한 신규 고객 확보에 있다.이들 인터넷은행이 디지털 금융에 친숙한 젊은 고객층을 다수 보유하고 있다는 점에서 증권사들도 유입 효과와 함께 서비스 확대를 도모할 수 있어서다.국내 인터넷은행과의 협업 사례를 기반으로 해외 시장에서 서비스 확장에 나선 증권사도 있다.NH투자증권 인도네시아 현지법인은 지난해 11월 현지 최대 인터넷은행인 BNC은행, 시나르마스자산운용과 사업협약을 각각 체결했다. NH투자증권은 케이뱅크 등과의 협업 경험을 바탕으로 인도네시아에서도 현지 법인을 디지털 선도 증권사로 발전시키겠다는 목표다.업계는 앞으로도 증권사와 인터넷은행과의 협업으로 투자자 진입 문턱이 낮아지고 사업 모델도 다양해질 것으로 보고 있다.업계 한 관계자는 “증권사들이 인터넷은행뿐만 아니라 빅테크·핀테크 기업과의 협업을 통해 성과를 내고 있기 때문에 연계 서비스가 강화될 것”이라면서도 “반면 빠르고 쉬운 투자 환경으로 무분별한 가입도 우려돼 투자자들의 손실 가능성에 대한 충분한 숙지가 필요해 보인다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.07.31.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스뱅크 임직원, 충남 부여군 농가 수해 피해 복구 나서</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000048212?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>충남 부여군 일대 수해 피해 농가 찾아자발적 참여 속 피해복구 진행 농가 덮친 토사, 비닐하우스 폐농자재 걷어내고 농작물 폐기 도와[사진 토스뱅크][이코노미스트 이용우 기자] 토스뱅크 임직원들이 집중호우 피해를 입은 농가를 방문, 피해복구 일손돕기 봉사활동을 진행했다. 이달 28일 토스뱅크는 집중호우로 인해 피해를 입은 충남 부여군 일대의 수박 재배 농가를 찾아 시설 피해복구 지원에 나섰다고 30일 밝혔다. 해당 지역은 국군 장병들의 손길이 연일 이어지는 곳으로, 토스뱅크는 부여군과의 협의를 통해 이번 봉사활동을 진행했다. 임직원들은 폭염 경보 속에서도 농가 6600㎡(약 2000평 부지)에 투입, 기록적인 폭우 여파로 산과 하천을 넘어 비닐하우스를 덮친 토사와 폐비닐 등을 걷어냈다. 무너진 비닐하우스의 복구를 돕고 수해를 입은 농작물을 폐기하는 등 유실된 각종 시설 재정비도 도왔다. 향후 피해 복구를 위해 쓰일 각종 자재를 농가에 전달하기도 했다. 이번 봉사활동은 온전히 임직원들의 자발적인 참여 의사를 바탕으로 이뤄졌다. 토스뱅크 관계자는 “어려운 현실을 마주해야 하는 주민들에게 따뜻한 위로를 전하고자 폭염 경보 속에도 임직원들이 팔을 걷어붙이고 피해복구를 위해 나섰다”며 “주민들의 아픔에 공감하고, 실제로 우리가 곁에서 도울 수 있는 것들이 무엇일까 고민하는 과정에서 시작된 것”이라고 말했다. 앞서 토스뱅크는 올 7월 연이은 폭우로 인해, 침수 피해가 전국 곳곳에서 이어지고 있음에 따라 희망브리지 전국재해구호협회를 통해 5000만원의 성금을 전달한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>‘돌아온 탕아’ 리플 코인, 이번에도 ‘리또속’일까?[엠블록레터]</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005165177?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[엠블록레터] 한국인이 사랑하는 코인의 원조격인 리플(XRP)이 다시 돌아왔습니다. 리플과 미국 증권거래위원회(SEC) 간의 소송이 약식 판결로 막을 내리고 리플의 증권성 여부에 판결이 내려지지 않으면서 암호화폐 업계에서 리플의 승리라는 해석이 힘을 얻고 있어서입니다. 특히 코인 거래소를 통한 개인간의 거래가 투자 행위에 해당되지 않는 것으로 판결이 나면서 코인베이스 등 다수 거래소가 리플의 거래를 다시 지원함에 따라 리플 가격이 급등했습니다.리플은 지난 2017년부터 한국인이 유독 사랑하는 코인으로 꼽혀왔습니다. 상대적으로 거래에 부담이 없는 1000원 이하의 가격, 은행간의 송금 지원이라는 뚜렷한 목적, 그리고 한때 4000원을 넘기도 한 폭발적인 급등 사례 등 한국 개인 투자자들이 선호하는 조건을 다수 갖췄다는 평가죠. 이와 비슷한 코인으로 앱토스(APT) 등이 등장했지만 원조를 따라가진 못하는 양상입니다.이번 판결 이후 한국의 리플 거래량에 또 전세계적인 관심이 높아지고 있습니다. 코인마켓캡에 따르면 업비트의 24시간 거래량이 전세계 1위 거래소인 바이낸스의 60%에 달하며 빗썸에서도 750억원이 넘는 규모의 거래가 하루만에 진행되고 있습니다. 판결 전 500원대에서 판결 후 1000원 이상으로 치솟았다가 900원대에 머무르고 있는 뒷심이 한국 투자자들에게서 나오고 있다는 평가입니다.과연 리플은 이번에는 ‘리또속(리플에 또 속나?)’이라는 비난을 벗어날 수 있을까요? 소송 결과만 보면 상황은 그리 낙관적이지 않습니다. 리플의 증권성 판결이 내려지지 않은 것은 분명하지만 증권이 아니라는 판결 또한 나오지 않았거든요. 법원은 리플의 증권성 판결을 내리지 않고 투자 유치를 위한 행위별로 증권 판매에 해당되는지 여부만 판결을 내렸습니다. SEC의 항소 여부 또한 진행중이구요.아직 사안이 확정되지 않은 만큼 낙관론에 기댄 장기 투자는 또다시 ‘리또속’을 야기할 가능성이 높습니다. ‘리또속’을 외치기 전에 ‘투본선(투자는 본인의 선택)’을 상기할 필요가 있겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>더스윙, 240억원에 타다 경영권 인수</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000917479?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>퍼스널모빌리티 플랫폼 기업 더스윙이 ‘타다’를 240억원에 인수한다. 더스윙은 이번 인수로 이륜차에서 사륜차까지 아우르는 종합 공유 모빌리티 기업으로 거듭날 계획이다.타다 차량 모습. /뉴스1        17일 업계에 따르면 더스윙은 타다 운영사 VCNC 최대주주인 비바리퍼블리카(토스)의 경영권 지분 60%를 인수하는 데 합의했다. 인수가는 240억원가량으로 추정된다. VCNC가 타다의 몸값을 800억원대에서 400억원대로 절반가량 낮추며 합의가 급물살을 탄 것으로 알려졌다.나머지 지분 40%는 쏘카가 보유하고 있다. 그간 쏘카는 VCNC에 대여했던 차입금 70억원을 상환할 것을 요구해 온 것으로 전해진다. 더스윙은 인수 검토 과정에서 단기차입금 문제가 해소됐다고 밝혔다.공유 전동킥보드 사업을 하는 더스윙은 종합 모빌리티 기업을 목표로 하고 있다. 업계 유일하게 3년 연속 흑자를 냈고 2026년을 목표로 공유 모빌리티 업계 최초 기업공개(IPO)를 준비 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 첫 대규모 공개 채용 실시</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003118243?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>토스뱅크는 출범 후 처음으로 전직군 대규모 공개채용을 실시한다고 17일 밝혔다.토스뱅크는 출범 후 처음으로 전직군 대규모 공개채용을 실시한다고 17일 밝혔다.토스뱅크는 두자릿수 대 신입사원 공개채용을 이달 31일까지 진행한다.모집 분야는 총 10개 직군 40여개의 직무로 △엔지니어(코어뱅킹, 프론트엔드 및 서버) △비즈니스(수신 및 여신 상품, 제도) △데이타(데이타 애널리스트 및 사이언티스트) △리스크(신용전략, CSS) △프로덕트(상품개발) △디자인 △컴플라이언스 등 이다. 은행의 빠른 성장에 발맞춰 필요한 인재를 대규모로 선발하고 배치하여 지금보다 빠른 속도로 성장하겠다는 방침이다.지원자들은 토스뱅크 채용 홈페이지를 통해 손쉽게 지원할 수 있다. 필수적으로 충족해야 하는 경력 기간은 없으며, 지원자 개개인의 일정을 배려하는 맞춤 채용 프로세스를 마련했다.서류 전형 결과는 순차적으로 안내되고, 직무 및 문화적합성 인터뷰는 서류 합격자 일정에 맞춰 온라인 및 화상으로 진행된다. 처우협의는 합격자 대상으로 개별 안내되고 일부 포지션에 대해서는 과제 전형도 진행한다.채용 홈페이지를 통해서 토스뱅크의 제품 및 기술 비전, 입사 전 커리어 관련 고민을 가지고 있던 다양한 현업 인터뷰를 확인할 수 있다. 당장의 지원 의사는 없지만, 토스뱅크 현업과의 대화 희망자를 위한 '프라이빗 네트워킹 세션' 신청도 가능하다.토스뱅크는 관계자는 “ 토스뱅크는 지난 100년간 시중은행이 시도하지 못한 공급자에서 사용자 중심으로 금융 서비스의 중심을 옮기고 있다”라며 “대규모 공채를 통해 우리와 같은 꿈을 실현할 능력있는 동료들을 기다리고 있다”고 채용배경을 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>성금·가전 수리·식수 지원… 각계 온정 밀물 [전국 ‘물폭탄’]</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003835287?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>삼성·LG, 전자제품 복구 팔 걷어아산재단·KT&amp;G 등 각 5억 지원국회의원 수당 3% 갹출 기부키로임영웅 2억… 유재석·싸이도 1억수마에 피해 입은 국민에 대한 온정의 손길이 각계각층에서 이어지고 있다.     국회는 18일 여야 합의로 국회의원 전원(299명)의 7월 수당 중 각 3%(약 20만원)를 수해 의연금으로 갹출하는 안건을 본회의에서 통과시켰다. 국회 공무원들도 일정비율 성금을 내 총 1억5000만원을 지원금으로 마련한다. 김진표 국회의장은 “희생자·유가족께 깊은 애도를 전하며 여야가 관련 상임위를 중심으로 재난 원인과 관리책임을 철저히 규명해야 한다”고 당부했다.     삼성전자와 LG전자는 가전제품 점검 및 수해 복구 지원에 나섰다. 두 기업은 오송 등에 서비스팀을 파견해 제조사와 관계없이 침수 가전제품 세척 및 무상 점검 등을 시행하고 있다고 밝혔다.     사진=연합뉴스    경제단체도 팔을 걷어붙였다. 전국경제인연합회는 희망브리지 전국재해구호협회에 성금 1억원을 기탁했다. 중소기업중앙회와 중소기업사랑나눔재단도 1억원 규모의 긴급 구호물품을 전달했다. 아산사회복지재단과 정몽준 재단 이사장은 집중호우로 인한 수해지역 복구와 이재민 지원을 위한 구호성금 5억원을 이날 전국재해구호협회에 기탁했다. 아산사회복지재단이 3억원, 정 이사장이 개인 자격으로 2억원을 전달했다. 아산재단은 2022년 강원·경북 지역 산불과 2023년 강원도 강릉 산불 당시에도 피해 이재민 구호를 위해 각각 3억원과 1억원을 전국재해구호협회에 전달한 바 있다. 중기중앙회와 중기사랑나눔재단은 10억원 달성을 목표로 중소기업계 후원 성금 모금 운동도 개최하기로 했다.     금융업계는 기업별로 5000만∼5억원가량 성금을 내놓고, 집중호우 피해를 본 고객의 대출금 상환을 유예하는 등 다양한 지원을 시행하기로 했다. KT&amp;G는 임직원들이 조성한 ‘상상펀드’로 마련한 성금 5억원을 지원한다. 광동제약은 충남, 경북지역 수재민을 위해 광동 흑미차 1만2000병을 긴급 지원했다. 인터넷전문은행 케이뱅크와 토스뱅크는 각 5000만원을 집중호우 피해지역에 기부한다고 이날 밝혔다. 4대(KB국민·신한·하나·우리) 금융그룹은 지난 16일 피해 복구 성금 5억∼10억원과 함께 특별 대출, 금리 우대, 만기 연장 등 종합금융지원을 실시한다고 밝힌 바 있다.     유명 연예인도 온정의 손길을 내밀고 있다. 가수 임영웅은 지난 17일 사랑의열매 사회복지공동모금회에 피해자 지원을 위해 2억원을 기부했다. 이날 방송인 유재석도 1억원을 기탁했고, 가수 이효리도 1억원을 기탁하며 기부행렬에 동참했다. 또한 배우 김혜수와 공개커플인 배우 신민아 김우빈, 가수 이찬원은 희망브리지 전국재해구호협회에 각 1억원씩의 성금을 냈다. 가수 싸이는 대한적십자사에 1억원을 맡겼고, 배우 한효주도 5000만원을 기부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>카카오페이, 수익성 개선 전략 필요…목표가 9.86%↓-신한</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005537804?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[이데일리 원다연 기자] 신한투자증권은 26일 카카오페이(377300)에 대해 금융계열사의 수익성 개선 전략에 대한 고민이 필요하다고 평가하며, ‘매수’ 투자의견을 유지하면서 목표가는 종전 7만1000원에서 6만4000원으로 하향 조정한다고 밝혔다. 전일 종가는 4만7850원이다. 임희연 신한투자증권 연구원은 카카오페이의 2분기 연결 매출액을 전년 동기 대비 6.2% 증가한 1502억원, 영업손실을 122억원으로 추정했다. 임 연구원은 “주력 캐시카우인 결제 본업의 매출이 뒷받침되는 가운데 자회사 증권과 손해보험의 영업적자가 지속되는 영향”이라고 밝혔다. 총거래금액(TPV)와 매출기여거래금액(RTPV)은 각각 전년 동기 대비 5.6% 증가한 34조3000억, 9.4% 증가한 10조원으로 추정했다. 임 연구원은 “경기 둔화 가운데 소비심리 위축이 불가피하겠으나, 크로스보더 결제 및 대출 갈아타기 수요 확대가 TPV 증가를 이끌었을 개연성이 크다”고 봤다. 증권의 순영업수익은 전년 동기 대비 1.0% 감소한 112억원, 영업손실은 129억원으로 추정했다. 임 연구원은 “국내외 주식시장 거래대금은 전분기 대비 증가했으나, 국내주식 시장점유율이 0.1%로 낮고, 시버트 파이낸셜 인수로 해외주식 수수료를 업계 최저치(5bp)로 낮춤에 따라 수수료손익 증가가 제한적이며, 모바일트레이딩시스템(MTS) 관련 프로모션 비용이 집행된 것으로 예상된다”고 분석했다. 임 연구원은 “꾸준한 외형 성장에도 불구 여전히 영업적자가 나타나고 있다”며 “계열사 손해보험과 증권의 적자가 장기화되는 가운데 결제서비스 이외에 이익에 기여하는 영업 부문이 부재하기 때문”이라고 지적했다. 그는 “금융업 특성상 손해보험과 증권의 적자 축소에는 상당 시간이 소요될 가능성이 높다”며 “특히 증권의 경우, 토스증권이 1년 먼저 시장을 선점해 단기간 내 격차 축소는 쉽지 않아 보인다”고 평가했다. 이어 “중장기적으로 낮은 수수료율을 기반으로 고객 베이스를 확보하고 자기자본을 활용한 적극적인 신용공여 확대 시 수익성 개선을 기대해볼 만하다”고 봤다. 임 연구원은 “결국 핵심은 광고매출”이라며 “지난 연간 실적발표 컨퍼런스콜에서 발표했던 광고 사업의 체계화된 수익화 여부를 지켜볼 필요가 있다”고 밝혔다. 그러면서 “유의미한 광고 매출 발생 또는 중국인 관광객 매출 발생 시 목표주가는 다시 상향할 예정”이라며 “광고 매출은 하반기부터 본격화될 예정이며, 중국인 유입은 느리지만 회복 중”이라고 했다. 그는 “호재에 대한 기대감을 선반영하기보다는 수익성 개선을 확인하고 접근해도 늦지 않다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.07.28.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>5대 은행 가계예대금리차, '1%p' 아래로…첫 공시 잔액 기준 2.398%p</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004918432?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>5대 은행의 예대금리차가 1%포인트(p) 아래도 내려왔다. 대출금리와 예금금리가 모두 올랐지만 예금금리 상승폭이 더 컸기 때문이다. 28일 은행연합회에 따르면 5대 은행(KB국민, 신한, 하나, 우리, NH농협은행)의 신규 취급액 기준 6월 평균 가계예대금리차(가계대출금리-저축성수신금리)는 0.928%p로 나타났다. 이는 정책서민금융 상품을 제외한 수치로 한 달 전(1.028%)보다 0.1%p 줄었다. 5대 은행의 평균 예대금리차가 1%p 미만으로 떨어진 것은 지난해 12월 이후 반년만이다. 예대금리차는 지난 3월부터 넉 달 연속 하락세다.5대 은행의 5월 평균 가계대출금리(정책서민금융 제외)는 연 4.604%로 전달(연 4.566%)보다 0.038%p 상승했다. 예금금리는 연 3.676%로 전월(연 3.538%) 대비 0.138%p 올랐다.예대금리차가 가장 작은 곳은 하나은행으로 0.76%p 수준이었다. 뒤이어 우리은행이 0.84%p, 국민은행 0.87%p, 신한은행 0.98%p, 농협은행 1.19%p 순이었다. 전월에 비해 예대차금리가 오른 곳은 신한은행(0.04%p 증가)과 국민은행(0.03%p 증가)이었다.신한은행 관계자는 "중저신용자 상품 신규취급이 증가했고 상대적으로 금리가 낮은 주택관련대출 신규취급이 감소했다"며 "7월에는 주택대출 수요에 집중한 공급 전략으로 가계대출 금리 상승이 완화될 것으로 본다"고 말했다.이날 예대금리차 공시 대상이 된 19개 은행 중에서는 전북은행의 가계예대금리차가 5.32%p로 가장 컸다. 가장 작은 곳은 IBK기업은행으로 0.54%p다.인터넷전문은행의 가계 예대금리차는 토스뱅크 3.23%p, 케이뱅크 1.64%p, 카카오뱅크 1.15%p로 나타났다.한편 이달 처음으로 공시된 잔액 기준 예대금리차는 5대 은행 가계 평균  2.398%p로 집계됐다.  5대 은행 중에서는 국민은행이 2.57%p로 가장 높았으며, 이어 농협은행 2.55%p, 신한은행 2.43%p, 우리은행 2.24%p, 하나은행 2.20%p였다.국민은행 관계자는 "대출금리는 시중은행 중 높지 않지만, 개인고객수가 많아 총 예금 중에서 결제성 예금이 차지하는 비중이 높다"며 "이에 총 수신금리가 상대적으로 낮기 때문에, 잔액 예대금리차가 상대적으로 크게 나타났다"고 말했다. 잔액 기준에는 신규 취급액 기준 통계에서 제외된 요구불예금 및 수시입출금식 저축성예금도 수신에 포함된다. 대출에는 당좌대출 및 마이너스통장이 추가된다.향후 예금 및 대출금리는 증가 압력을 받을 것으로 보인다. 지난 26일(현지시간) 미국 중앙은행인 연방준비제도(Fed)가 기준 금리를 0.25%p 인상했기 때문이다. 이에 한국과 미국의 기준금리 차이는 최대 2.00%p로 벌어지며, 한국은행은 기준금리 인상 압박을 받고 있다. 통상 기준금리가 오르면 예금금리가 오르고, 은행채 금리도 뛰면서 대출금리 상승에 영향을 끼친다.시중은행 관계자는 "한미 금리차가 커지면 한은도 기준금리를 올려야 한다는 분위기가 시장에 퍼진다"며 "기준금리가 오를 거란 전망이 강해지면 채권금리에 영향을 끼쳐 대출금리도 오르게 된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>삼양사, 美 국제식품기술박람회 ‘IFT 2023’ 참가</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000826222?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>사진= 'IFT 2023' 삼양사 부스 삼양사 최낙현(왼쪽에서 다섯 번째) 대표 방문삼양사는 17일부터 19일까지 미국 시카고에서 열린 국제식품기술박람회 'IFT 2023'에 참가했다고 밝혔다.이 박람회는 국제식품학술기구인 'IFT(Institute of Food Technologist)'가 매년 주최하는 행사로 전 세계 100여개국, 1300개 이상의 기업이 참가하는 식품 기술 분야 세계 최대 규모의 박람회다.삼양사는 지난 2017년부터 IFT 박람회에 참가했으며, 올해는 작년보다 2배 큰 규모의 홍보 부스를 운영했다. 삼양사는 이번 박람회에서 주력 상품인 알룰로스를 비롯한 스페셜티 소재를 선보이며 브랜드 인지도를 높이고 우수한 기술력을 알렸다고 전했다.삼양사는 당류 저감화 사업의 핵심 소재로 알룰로스를 내세워 글로벌 시장을 공략하고 있다. 알룰로스는 무화과, 포도 등에 함유된 단맛 성분으로 설탕과 비슷한 단맛을 내지만 칼로리는 제로인 대체 감미료다. 삼양사는 '넥스위트(Nexweet)'라는 브랜드로 알룰로스의 글로벌 판로 확대에 매진하고 있다.삼양사는 자체 개발한 효소로 2016년 액상 알룰로스 대량 생산에 성공한 데 이어 2022년에는 결정(분말) 알룰로스 생산을 시작했다. 결정 알룰로스는 액상보다 취급이 편리해 수출에 용이하고 기존 가루 설탕과 형태가 동일해 베이커리를 비롯한 다양한 분야에도 쉽게 적용할 수 있다.삼양사는 이번 전시회에서 난소화성말토덱스트린, 케스토스 등 프리바이오틱스 소재도 같이 선보였다. 수용성 식이섬유인 난소화성말토덱스트린은 △배변 활동 원활, △식후 혈당 상승 억제, △혈중 중성지질 개선에 도움을 줄 수 있는 건강기능식품 원료다. 케스토스는 결정 제형으로 구현이 가능하며 가장 높은 식이섬유를 함유하고 있는 차세대 프리바이오틱스 소재이다.또한, 삼양사는 이번 박람회에서 부스 방문객의 이해를 돕기 위해 각 소재가 적용된 제품을 시식할 수 있도록 했다. 삼양사는 △알룰로스와 난소화성말토덱스트린으로 설탕 사용을 줄이고 식이섬유 함량을 높인 스콘(비스킷)과 콤부차(설탕을 넣은 녹차나 홍차에 유익균을 넣어 발효시킨 음료), △케스토스를 사용해 식이섬유 함량을 높인 초콜릿 등을 시식샘플로 제공했다.삼양사 이상훈 식품BU(Business Unit)장은 "지난해 열린 IFT 전시회에서 삼양사의 알룰로스 브랜드인 '넥스위트'를 처음 선보이며 글로벌 시장 진출을 본격화했다"며 "앞으로도 알룰로스를 비롯한 여러 기능성 소재를 알리고 해외 시장 판로를 넓히는 데 역량을 집중할 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>'모빌리티 풀가속' 더스윙, 타다 품는다...지분 60% 240억에 인수</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004913434?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[이 기사에 나온 스타트업에 대한 보다 다양한 기업정보는 유니콘팩토리 빅데이터 플랫폼 '데이터랩'에서 볼 수 있습니다.]타다 서비스/사진=김휘선 기자 hwijpg@퍼스널모빌리티 플랫폼 더스윙이 타다(VCNC)의 지분 60%를 240억원 가량에 인수한다.18일 관련업계에 따르면 더스윙은 토스(비바리퍼블리카)가 보유한 타다의 지분 60%를 인수하기로 합의했다. 현재 VCNC의 지분은 60%를 토스가, 40%를 쏘카가 보유하고 있다.지분 인수가격은 240억원으로, 타다의 기업가치는 400억원대로 전해진다. 앞서 타다는 M&amp;A(인수합병) 시장에 매물로 나왔지만 기업가치가 높아 협상에 난항을 겪어왔다. 당시 거론되던 가격은 500억~800억원이다. 아이엠택시, 티맵모빌리티, 더스윙 등이 인수 의사를 보였지만 해당 가격으로는 어렵다며 철회 의사를 밝혔다.이에 타다 측이 기업가치를 절반까지 내리면서 협상에 진전이 생긴 것으로 보인다.다만 타다의 2대 주주인 쏘카와의 관계는 아직 풀어야 할 숙제다. 그간 쏘카는 타다에 대여했던 70억원의 차입금을 상환하라고 요구해왔다. 인수 협상 과정에서는 차입금과 이자 규모의 더스윙의 지분, 이사회 참여 방안 등을 요구한 것으로 전해진다.한편 더스윙은 이번 인수를 통해 종합 모빌리티 기업으로 사업을 확장한다는 계획이다. 더스윙은 올해 상반기 오토바이 리스 브랜드 '스윙 바이크'와 배달대행사 '스윙 딜리버리'를 내놓으며 기존 공유킥보드, 자전거에 이어 서비스 영역을 넓혀왔다. 타다의 인수를 통해서는 4륜 자동차 모빌리티와 함께 여객운수 서비스 등에도 본격적으로 뛰어든다는 계획이다.[머니투데이 스타트업 미디어 플랫폼 유니콘팩토리]</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.07.30.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"제휴 늘리고 중개수수료율 낮추자"... 저축은행·핀테크, MOU 추진</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004918746?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>저축은행중앙회와 핀테크산업협회(핀산협)가 신규 대출비교·비대면 대환대출 관련 업무협약을 추진한다. 대출에서 플랫폼 종속도가 높아지고 있는 저축은행은 중개수수료율을 낮추길 원한다. 핀산협은 회원사인 중소 플랫폼사들이 다양한 금융사와의 대출상품 제휴 확대를 요구하는 만큼 두 내용을 골자로 업무협약 논의가 진행될 전망이다. 30일 금융업권에 따르면 저축은행중앙회와 핀산협은 이르면 다음달 신규 대출비교와 비대면 대환대출 관련 업무협약을 맺을 예정이다. 업무협약은 저축은행이 플랫폼사에 내야 할 중개수수료를 낮추는 동시에 제휴는 확대하는 방향으로 이뤄질 전망이다. 핀산협은 업무협약을 통해 중소 플랫폼사도 더 많은 금융사와 상품 협약을 맺을 수 있을 것으로 기대하고 있다. 플랫폼이 제공하는 신규 대출비교와 비대면 대환대출의 경쟁력은 얼마나 많은 금융사와 상품 협약을 맺었는가에 달려있다. 고객은 더 다양한 대출상품을 비교할 수 있는 플랫폼을 이용할 가능성이 높기 때문이다. 그런데 중소형 플랫폼사들은 시중은행·지방은행뿐 아니라 2금융권인 저축은행과의 제휴에도 어려움을 겪는 것으로 알려졌다. 저축은행들은 일부 대형사를 제외하곤 저축은행중앙회 전산망을 이용하고 있다. 저축은행중앙회가 저축은행들에 상품 제휴를 독려하고, 전산망에 플랫폼사의 연결을 도우면 이전보다 원활하게 상품 제휴가 이뤄질 수 있다. 저축은행들은 상품 제휴를 맺은 뒤 중소형 플랫폼사에 내야 할 중개수수료율을 최대한 낮추기를 원한다. 궁극적으로는 낮은 중개수수료율을 받는 중소형 플랫폼사의 경쟁력이 올라가면 토스·카카오페이·핀다 등 대출비교 시장에서 점유율이 높은 3개사와의 중개수수료율 협상에서 유리한 위치를 점할 수 있어서다. 같은 목적으로 저축은행중앙회는 지난 5월 네이버파이낸셜과 업무협약을 맺은 바 있다.대형 3개 플랫폼사의 시장 점유율이 매년 높아지며 이들과의 협상에서 저축은행의 협상력은 갈수록 떨어져왔다. 실제로 2019년 66.7%였던 신규 대출비교 시장에서 3개 플랫폼사의 점유율은 지난해 95.9%까지 높아졌다. 그런데 같은 기간 상위 10개 저축은행이 플랫폼에서 취급한 신규 대출 규모는 610억원에서 4조1681억원으로 68배 이상 불어나며 종속은 심해졌다. 지난해 10개 저축은행의 전체 대출 가운데 플랫폼 대출 비중은 34.4%였는데, 애큐온저축은행의 경우 이 비중이 70%에 달했다. 한국투자저축은행(54%)과 KB저축은행(53%)의 신규 대출도 절반 이상이 플랫폼사에서 성사됐다.한 저축은행업계 관계자는 "저축은행의 플랫폼 종속도가 높아지며 대형 플랫폼사의 중개수수료율 인상 요구를 거절하지 못해 1%대 중개수수료율이 최근 2%대까지 올라갔다"며 "핀산협과의 업무협약이 실질적으로 어떤 이익이 있을지 따져가며 논의를 진행할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.07.17.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>한국투자증권, 바이셀스탠다드와 토큰증권 상품 공급 위한 업무협약</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004868798?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>최서룡 한국투자증권 플랫폼본부장(사진 오른쪽)과 바이셀스탠다드 신범준 대표가 업무협약 체결 후 기념사진을 촬영하고 있다./사진=한국투자증권한국투자증권은 바이셀스탠다드와 토큰증권 서비스 공동개발을 위한 업무협약을 체결했다고 17일 밝혔다.이번 협약을 통해 양사는 △투자계약증권, 비금전신탁 수익증권 등 비정형적 증권의 투자상품화 △발행 플랫폼 내 투자상품 공급을 위한 인프라 구축 △신탁 계약 관련 프로세스 수립 등 토큰증권 상품 공급을 위해 전방위적으로 협업하기로 했다.현물 조각투자 플랫폼 '피스(PIECE)'를 운영 중인 바이셀스탠다드는 미술품, 명품에 이어 선박까지 조각투자 대상과 범위를 확대해 나가고 있다. 토큰증권 발행을 위한 자체 블록체인 메인넷을 개발하는 등 블록체인 관련 다수의 프로젝트를 성공적으로 수행했다.지난 3월 한국투자증권이 카카오뱅크, 토스뱅크 등과 손잡고 설립한 협의체 '한국투자 ST 프렌즈'는 그간 펀더풀, 밸류맵 등 다양한 카테고리의 콘텐츠 기업들과 업무협약을 체결하면서 토큰증권 상품화에 공 들여 왔다. 이번 바이셀스탠다드의 합류로 발행 플랫폼을 통한 혁신 금융상품 공급에 한층 더 속도가 붙을 것으로 예상된다.최서룡 한국투자증권 플랫폼본부장은 "현물 자산을 디지털화하는데 탁월한 경쟁력을 가진 파트너사가 합류하게 돼 기대감이 크다"면서 "앞으로 토큰증권을 통해 일상 속에서 마주하는 다양한 콘텐츠를 증권화할 수 있도록 사업 준비에 박차를 가할 것"이라고 말했다.신범준 바이셀스탠다드 대표는 “토큰증권에 기반한 혁신적인 금융상품을 만드는 과정에 한국투자증권과 함께하게 돼 매우 기쁘다”며 “앞으로 한국투자 ST 프렌즈와 함께 조각투자를 넘어 가치 있는 현물 자산의 디지털 변환을 선도하는 플랫폼으로 성장해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.07.25.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>작은 스타트업이 성공할 확률을 올리는 두 가지 방법 [긱스]</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004872217?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>전희재 세븐픽쳐스(넷플연가) 대표 기고이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.영화 &lt;미드나잇 인 파리&gt; 속 1920년대 파리의 한 살롱에는 아직 유명해지지 않았던 헤밍웨이, 살바도르 달리, 스콧 피츠제럴드, 피카소가 모여 있는 장면이 나옵니다. 위대한 일을 해낸 사람들은 그 곁에 중요한 사람이 있었고, 스타트업 역시 좋은 팀이 있어야 성공할 수 있다는 것. 넷플연가를 운영하는 세븐픽쳐스의 전희재 대표의 생각입니다. 전 대표는 "존 레논과 폴 매카트니, 김환기와 김향안, 이센스와 빈지노 역시 서로 치열하게 대화하고 작업하며 발전할 수 있었다"고 말합니다. 그가 작은 스타트업이 성공할 확률을 높일 수 있는 방법에 대한 글을 한경 긱스(Geeks)에 보내왔습니다.작은 스타트업이 좋은 제품을 만들어가는 여정은 영화 &lt;미드나잇 인 파리&gt; 살롱에서 아직 빛 보지 못한 예술가들이 만나 치열하게 대화하며 좋은 작품을 만들어가는 일과 닮았다. 지나고 나서 우린 이 시절을 황금시대(벨 에포크, 프랑스어로 ‘아름다운 시절’)라고 부를 수 있을까? 좋은 사람들이 팀이 된다는 건 우연이라 더 아름다운 일이고, 스타트업에 뛰어든 사람들은 나름의 절박함을 가지고 그 우연을 더 이상 우연이 아니게 하는 방법에 대해 매일 고민하며 달려가고 있다. 비틀즈의 존 레논과 폴 매카트니가 만나지 않았다면? 비틀즈의 존 레논과 폴 매카트니가 어린 시절 서로 관심이 없었거나 음악에 대해 뜨겁게 이야기를 하지 않았다면? 서로의 뮤즈가 되어 주었던 김환기 화백과 김향안 여사가 파리로 떠나 나눈 대화가 없었더라면? 2023년 즈음 래퍼 이센스는 빈지노라는 음악 친구가 없었다면 더 좋은 앨범을 낼 수 있었을까? 위대한 일을 해낸 사람들이 그 곁에 있던 중요한 한 사람을 만나지 못했다면 과연 어떻게 되었을지 종종 상상해보곤 한다. 상상에 대한 내 결론은 항상 똑같다. '분명 혼자선 위대한 일을 해낼 순 없었을 거야'. 나는 위대한 일을 해낸 사람들의 볼품없던 시절의 이야기를 좋아한다. 고생담보다는 그 시절 누군가와 만나서 나눴던, 알려지지 않은 그들만의 대화가 결국 이들을 만들었다고 생각하기 때문에 좋아한다. 그들이 나눴던 치열한 대화가, 서로가 서로를 알아볼 수 있었던 우연이, 결국 같이 성장해서 하나의 서사를 만들어낸 그들의 '화학 작용'이 참 멋스럽다고 생각한다. 꽤 좋은 작업들을 해냈던 사람들의 인터뷰를 찾아보면 아니나 다를까 혼자였던 사람은 거의 없다. 아직 세상에 알려지지 않은 수많은 좋은 작업과 결과들은 뜻이 맞는 사람들의 뜨거운 대화와 화학 작용 속에서 스스로도 모른 채 지금도 피어나고 있다. &lt;미드나잇 인 파리&gt; 속 1920년대 파리의 한 살롱에 아직 유명해지지 않았던 헤밍웨이, 살바도르 달리, 스콧 피츠제럴드, 피카소가 다 모여 있었던 장면이 우연만은 아니라고 생각한다. 서로는 서로를 어떻게든 알아보니까. 내가 살면서 믿게 된 분명한 사실 한 가지는 성장하는 시절에 ‘내가 누구를 만나고 어떤 대화를 했는지’에 따라 삶의 궤적이 선명히 바뀐다는 사실이다. 이미 무언가 갖춰진 뒤의 인맥이나 네트워크가 아닌, 내가 아무것도 아닐 때의 한 시절을 누구와 보냈는지, 진심으로 교류하고 충돌하며 끈적하게 대화를 나눴던 사람이 누구였느냐에 따라 한 사람의 성장과 내 선택은 운명처럼 뒤바뀐다. 물론 그 당시에 결과를 미리 눈치채는 사람은 없다. 지나고 나면 우린 그 시절을 황금시대(벨 에포크)라고 부를 뿐. 그래서인지 나는 삶의 최우선 가치를 어느 시절에 누구와 함께하느냐에 둔다. 누군가가 우연히 한 명을 만나서 벌어지는 일만큼 우리 삶을 영화처럼 만들어주는 게 또 있을까. 건조하고 외로운 삶에 서사를 입혀주는 건 '누군가를 만난다'는 사건으로부터 시작된다. 뜬금없지만 나는 이런 이유로 스타트업이 내게 꽤 맞는, 낭만적인 일이라고 여긴다. 스타트업은 이미 자리 잡힌 구조에서 '나이스'하게 커리어를 쌓는 과정이 아닌, 아무것도 아닌 시절의 비틀즈 멤버들이 토닥이며 종일 골방에서 이 곡이 좋은지, 저 곡이 좋은지 토론하는 과정에 가깝다. 내 재능의 수준도 모른 채, 어떤 곡이 나올지도 모르면서 몰입하고 치열한 그 순간은 그저 결과만을 바라고 할 수는 없는 일이다.초기 스타트업에서 함께할 친구를 만나는 일, 시장에 통하는 제품을 발견하고 뚝딱뚝딱 보수해 가며 성장하는 과정은 그런 일과 닮았다. 오늘도 누굴 만나서 어떤 생각을 하는지, 오늘 회의에서 어떤 대화를 하느냐에 따라 과정과 결과물이 천차만별이 되니까. 운이 좋다면 오늘 한 대화가 100년 뒤에도 들릴 앨범의 가사가 되는 것처럼 꽤 멋진 결과물을 만들지도 모를 일이다. 내 역량이 부족해 아무것도 아닐 수도 있으니 자기 객관화 역시 필수다. 많은 스타트업 바이블에서의 답은 하나라고 말한다. 사람, 즉 팀이 전부라는 것. 아무것도 없는 바닥에서 관찰과 제작을 반복하는 스타트업의 경우 정말이지 우연으로 만난 사람이 전부다. 그렇지만 그 우연이 꽤 멋진 우연이 된 이야기는 꽤 매력적이다. 그 속에서 나는 과연 존 레논일까? 폴 매카트니를 만날 수 있을까? 내가 위대한 사람은 아니어도 좋으니 뜻이 맞는 이들과 이 시절을 보내고 싶다는 욕심은 좀처럼 사그라들지 않는다.  우연을 우연이 아니게 만드는 법, 두 가지누군가를 만난다는 건 인연 혹은 우연이라 불린다. 나는 적어도 일에서만큼은 앞서 말한 이유로 좋은 동료들을 만나고 싶은 욕심이 크기 때문에 스타트업 팀을 만드는 과정을 그저 우연으로 두고 싶진 않다. 우연은 정말 우연일까? 우리는 더 좋은 우연을 만들 순 없을까? 더 재미있게 일하고 싶은 욕망, 기어코 좋은 곡을 써내고 싶다는 마음은 흔히들 ‘운’이라고 부르는 영역조차 확률을 높이는 방법을 고민하게 만든다. MLB 역사를 써내려 가고 있는 오타니 쇼헤이처럼 만다라트표를 만들어 스스로 운을 만들어내는 성실함엔 한참 부족하겠지만 그럼에도 내가 믿는 두 가지 방법이 있다. 오타니 쇼헤이가 고교 1학년 때 세운 만다라트표 첫째는 내가 더 좋은 사람이 되는 일이다. 정답은 단순하고 참 어렵다. 사람은 자신과 비슷한 사람을 귀신처럼 알아본다. '내 주변에 있는 다섯 명이 나'라는 말처럼 와닿는 말이 있을까 싶다. 내가 그렇듯 다른 사람 역시 믿을 수 있는 사람과 매력적인 가치를 좇고, 한 시절을 힘껏 투신할 수 있는 사람들이 모인 곳을 찾아다닌다. 그렇기 때문에 내가 스타트업에서 더 좋은 사람을 만나고 싶다면 차근히 좋은 사람이 되어야 한다. 우리 회사 역시 변명 없이 한 계단씩 성장해 좋은, 잘하는 회사가 되어야 한다. 둘째는 지금 있는 동료보다 적어도 한 가지 이상은 더 나은 사람을 동료로 데려오는 일이다. 그래서 팀원들이 서로의 등 뒤를 기꺼이 맡길 수 있고 신나는 경쟁을 할 수 있다. 이건 내 아이디어가 아니라 한 강연에서 듣고 마음에 새기고 있는 기준인데 지금은 유니콘이 된 스타트업 당근마켓의 창업자 중 한 분이 들려주신 이야기다. 그들은 초기 멤버를 찾을 때 ‘기존 멤버보다 최소한 한 가지라도 더 나은 부분이 있는 사람’을 찾았다고 한다. 작은 스타트업에서 항상 지금 있는 사람보다 잘하는 사람들로 팀을 채워나가는 일은 쉽지 않다. 당장 사람이 급해도, 적당히 타협하고 싶은 마음이 계속 들어도, 내부 인원들을 설득해가며 이 기준을 낮추지 않고 지켰다고 한다. 그리고 성장함에 따라 동료들에게 가장 좋은 대우를 해주려고 노력했다고 들었다. 내가 더 좋은 사람이 되는 일. 기준을 높이고 지금 있는 동료보다 더 나은 사람을 데려오는 일. 이 두 가지를 반복하는 일은 말이 쉽지, 지독하게 어렵고 지난한 ‘수련’에 가까운 일이다. 하지만 이 과정은 확실히 '더 좋은 우연을 만나는 법'이라고 말할 수 있다. 이 두 가지 방법의 반복으로 우린 우연을 더 이상 우연이 아니게 만들 수 있다. 그렇게 만난 팀원들과 존 레논과 폴 매카트니처럼, 김환기와 김향안처럼, 이센스와 빈지노처럼 서로 치열하게 대화하고 더 나은 생각과 작업을 해나간다. 실패할 수도 있고 위대하지 않을 수 있다. 그렇지만 분명한 건 함께 이 시절을 겪어내면 지금보다 더 나은 사람이 된다는 사실이다.  지나고 나면 우린 이 시절을 '벨 에포크'라고 부를 수 있을까영화 &lt;미드나잇 인 파리&gt; 속 한 장면스타트업이 성장해 대다수 사람들이 쓰는 서비스가 되고 유니콘이 된 다음에 이 제품을 만들었던 초기 멤버들은 다음 여정을 향해 떠나간다. 이들은 그간의 고생과 경험을 밑거름 삼아 다음 프로젝트를 시작하고 이들은 ‘스타트업 마피아'라고 불린다. 지금도 꽤 많은 창업자들이 '페이팔 마피아', ‘토스 마피아', ‘카카오 마피아'로 불리고 있고 이들은 그다음 프로젝트에서도 좋은 성과를 내며 그 시절의 노력들이 자신의 실력이었음을 다시 한번 증명한다. 이렇게 되면 너무 좋겠지만 세상엔 알려지지 않고 잘되지 않은 팀이 훨씬 더 많을 거다. 종종 ‘결과적으로 잘 된 팀에 속했던 멤버와 그렇지 못한 팀의 멤버의 그다음 행보는 어느 정도 차이가 날까?’에 대해 자주 생각한다. 경쟁 관계에 있었던 두 스타트업에 속했던 멤버들의 그다음 여정들에 대한 기사였는데, 두 회사에 속한 개인의 실력은 비슷했어도 결과적으로 잘 된 팀에 속했던 사람은 더 재미있는 프로젝트를 선택할 수 있었고 급여 수준도 크게 상승했지만, 그렇지 못한 팀원은 꽤 많은 시간이 지났어도 그 전보다 나은 커리어를 만드는 경우가 비교적 적었다는 내용이었다(그래도 개인이 잘하면 이와 무관하게 좋은 기회가 많았다). 성공적이었던 커리어도 한몫하겠지만 뿌리 깊은 성공에 대한 기억이 결국 심리적, 상황적 차이를 만드는 게 아닐까 싶다. 이런 생각을 하면 항상 몸이 굳고 어깨가 무거워진다. 같이 하자고 설득한 사람이 가져야 하는 책임감으로 조금 더 절박하자고 말할 때가 많다. 다 같이 절박하면 성공할 수 있는 기본 조건 정도가 된다는 건 또 다른 함정이다. 절박하다고 꼭 성공하는 건 아니기 때문에 밀어붙이는 과정에서 핀잔도 많이 듣고, 확신할 수 없는 결과에 겁도 나지만 이 길의 끝에 거짓말쟁이가 되고 싶지 않다는 마음은 좋은 동력이 된다. 삶은 운이 90%, 노력이나 실력이 10%라는 말을 믿는다. 이 일은 노력해도 잘 안될 수도 있다. 아니, 잘 안될 확률이 훨씬 높다. 그러면 우린 노력할 필요가 없을까? 나는 우리가 유일하게 통제할 수 있는 10%를 어떻게든 움직이려고 노력하는 사람에게 나머지 90%의 운마저 따르는 경험을 많이 목격했던 것 같다. 믿음이 부족해질 때면 나는 어릴 적 만다라트표를, 그리고 운까지 자신의 편으로 만들어버린 오타니 쇼헤이의 경기를 보곤 한다. 이 방향만이 운을 더 이상 운으로 두지 않는 유일한 방법일지도 모른다. 실패해도 괜찮다. 그렇지만 최선은 다해야 한다. 20·30대 소중한 한 시절을 기꺼이 내어준 서로에 대한 예의이기도 하니까. &lt;미드나잇 인 파리&gt; 속 파리의 언덕에 있던 사람들의 이야기를 우리가 알고 있는 건, 그들 각자가 결국 인정받는 좋은 작품을 만들었기 때문이고, 애비로드의 합주실에서 음악으로 싸우던 두 청년의 이야기를 더 듣고 싶은 건 그들의 그 행보가 성공적이었기 때문이다. 우리는 서로를 만나서 다행이라고, 지금을 돌아가고 싶은 시절(벨 에포크)이라고 말할 수 있을까? 나는 요즘 벌써부터 이 시절이 그리워질 때가 있다. 좋은 팀원들과 일하고 있기 때문이다. 이 시절이 그리울 거라고 확신하는 나날들에 감사하며 오늘도 우연을 더 이상 우연이 아니게끔 만들기 위해 가장 현실적인 일들을 하려고 한다. 전희재 | 세븐픽쳐스(넷플연가, 문학자판기 구일도시) 대표△ 한국문화예술위원회(아르코) PD△ '차벽을 꽃벽으로' 프로젝트△ 아산나눔재단 스타트업팀 매니저(인턴)△ 수영 선수(8년, 전국소년체전 입상)△ 한양대 파이낸스경영학과△ 대구외국어고 영어과 졸업</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>“카카오페이, 수익성 개선 확인하고 접근해도 안 늦다”…목표가↓</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005163859?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>서울 시내 한 매장에 카카오페이 관련 안내 스티커가 붙어있다. [출처 : 연합뉴스]신한투자증권은 26일 카카오페이에 대해 꾸준한 외형 성장에도 적자가 지속되고 있다며 목표주가를 기존 7만1000원에서 6만4000원으로 하향 조정했다.신한투자증권은 2분기 카카오페이의 매출액을 전분기대비 6.2% 증가한 1502억원, 영업손실은 적자지속한 122억원으로 전망했다. 주력 캐쉬카우인 결제 부문에서 매출을 받치고 있지만 자회사 증권과 손해보험에서 영업적자가 지속되고 있다고 설명했다. 외형 성장은 꾸준한 데 여전히 영업적자가 나는 이유는 증권, 손해보험의 적자가 장기화되는 가운데 결제서비스 외에 이익에 기여하는 영업부문이 부재하다는 지적이다.증권은 영업손실 129억원을 예상했다. 국내외 주식시장 거래대금은 전분기대비 증가했지만 카카오페이증권의 시장점유율이 0.1%로 매우 낮고, 해외주식 수수료를 업계 최저 수준으로 낮추면서 수수료 손익 증가가 제한적이라고 신한투자증권은 분석했다.신한투자증권은 금융업 특성상 손해보험과 증권의 적자 축소에는 상당 시간이 소요될 가능성이 높다고 강조했다. 특히 증권은 토스증권이 1년 먼저 시장을 선점해 단기간 내 격차 축소는 쉽지 않아보인다고 지적했다.임희연 신한투자증권 연구원은 “결국 핵심은 광고매출”이라며 “지난 연간 실적발표 컨퍼런스콜에서 발표했던 광고 사업의 체계화된 수익화 여부를 지켜볼 필요가 있다”라고 말했다.이어 “호재에 대한 기대감을 선반영하기보다는 수익성 개선을 확인하고 접근해도 늦지 않다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이달 햇살론 선보인다</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003118953?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>토스뱅크토스뱅크가 7월 말 저신용 서민 대출 지원 정책금융상품 '햇살론뱅크'를 선보인다. 햇살론은 서민금융진흥원이 보증하는 정책금융 상품이다.햇살론뱅크는 정책금융상품을 이용한 저신용·저소득자가 대출을 성실하게 상환해 신용도를 개선하면 은행권에 안착할 수 있도록 지원하는 징검다리 성격의 상품이다.최대한도 2500만원에 최저금리 연 6.95%, 최고 연 13.50% 금리 상품이다. 상품 출시와 동시에 알림을 받아볼 수 있도록 토스 애플리케이션(앱)에서 사전 신청을 진행한다.토스뱅크는 햇살론뱅크 출시로 포용금융 확대에 속도를 낸다. 올해 1분기 토스뱅크의 중·저신용자 대상 신용대출 비중은 42.06%로 인터넷전문은행 3사 중 가장 높았다. 다만 1~4월 중·저신용자 대출액은 6300억원으로 전년 동기 1조100억원 대비 37.7% 감소했다.토스뱅크는 햇살론뱅크 상품을 운용하며 중·저신용자 대출 공급액을 빠르게 늘리는 것을 목표로 잡았다. 서민금융진흥원에 따르면 은행권 햇살론뱅크 신규 취급액은 지난해 1조2361억원으로 전년 606억원보다 1조원 넘게 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>[뜨거워진 수신경쟁]③인뱅은 이색 상품으로 돌파...먼저 이자받기 등</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005289422?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>인터넷전문은행들이 이색적인 수신상품을 선보이며 수신 고지전(高地戰)을 돌파하고 있다. 수신을 끌어모으는 시중은행·저축은행의 정기·수시입출금식 예금 상품과 비교해 금리경쟁력이 예전만 못해진 까닭이다.21일 은행연합회에 따르면 인터넷전문은행(카카오뱅크·케이뱅크)의 정기예금(1년 만기) 금리는 전날 기준 연 3.50~3.80%에 머물렀다. 이는 5대 시중은행(3.70~3.90%)에 비해 상·하단 각기 0.10%, 0.20%포인트씩 낮고 저축은행 평균(4.01%)과는 0.50%포인트 이상 차이가 나는 수준이다.지난해 파킹통장 열풍을 불러일으켰던 인터넷전문은행의 수시입출식 예금 상품 금리도 마찬가지다. 인뱅 3사(카카오뱅크·케이뱅크·토스뱅크)의 수시입출식 예금 금리는 연 2.0~2.3%로 4~5%대 상품을 내놓고 있는 저축은행은 물론 SC제일은행(2.6%)에도 미치지 못한다.대신 인터넷전문은행들은 팬덤을 겨냥한 이색 상품이나, '먼저 이자 받기' 등의 서비스를 내놓으면서 경쟁력을 높이고 있다. 카카오뱅크가 선보인 '기록통장'은 다양한 순간의 기록을 담아 저축할 수 있는 상품이다. 좋아하는 연예인이 특정 행동할 때마다 자신만의 규칙을 정해서 기록과 함께 저축을 할 수 있다. 예컨대 좋아하는 가수가 사회관계망서비스(SNS)에 사진을 올리면 일정 금액을 넣는 식이다.이 상품은 '팬덤'을 겨냥한 탓에 출시 하루 만에 가입 고객 수가 약 7만명을 넘어섰고, 카카오뱅크 애플리케이션 트래픽을 높이는 '효자 상품'이 됐다. 카카오뱅크 관계자는 "수시입출금 통장이지만 2%의 금리를 제공하고 있는 점도 인기 요인"이라고 설명했다.토스뱅크의 경우 시중은행들과 차별화한 '먼저 이자 받는 정기예금'을 선보이고 있다. 이 상품은 만기 시 이자를 받는 보통의 예금 상품과 달리 가입과 동시에 이자를 먼저 제공한다. 연 3.5%의 금리를 제공하고 가입 한도는 최대 10억원까지다. 다만 가입 기간이 3개월 또는 6개월로 짧다. 토스뱅크에 따르면 이 예금은 하루 평균 유입액이 320억원에 달하는 등 성장세를 이어가고 있다.물론 이색 예·적금 상품을 내놓는 것은 비단 인터넷전문은행만의 일은 아니다. 수신 잔액 끌어올리기에 한창인 저축은행 등에서도 찾아볼 수 있다. 웰컴저축은행은 걷기를 접목한 최고 10% 적금상품을 선보이고 있다. '웰뱅 워킹 서비스'에 가입하고 걸으면 된다. 연간 100만보 이상은 1%포인트, 200만보 이상은 3%포인트, 300만보 이상은 4%포인트, 400만보 이상은 6%포인트, 500만보 이상은 8%포인트 우대금리를 받을 수 있다.이 외에도 금융위원회 혁신금융서비스로 지정된 네이버페이 머니 하나 통장도 인기에 힘입어 개설 가능한 제휴 계좌 수를 150만좌로 늘린다. 금융위는 지난 19일 정례회의를 열고 지정내용 변경 안건을 의결했다. 한국판 애플 통장으로 불리는 이 상품은 그동안 이자를 받을 수 없었던 선불 충전금에 대해 최고 연 4% 이자를 주고, 결제액의 최대 3%를 적립해주는 상품이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.07.25.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>신사업 꼽히던 '선구매 후결제'…카드사 떠나고 빅테크만 남았다</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000344866?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>지난해 카드업계 새 먹거리 중 하나로 떠오르던 '선구매 후결제'(BNPL) 시장이 잠잠해진 분위기입니다. 빅테크사에 이어 카드사들의 진출도 점쳐졌지만 시장 불확실성 등 영향으로 BNPL 서비스가 확대되긴 쉽지 않다는 분석이 나옵니다.25일 카드업계에 따르면 KB국민카드는 지난해 BNPL 서비스를 선보일 계획이었지만 출시 목표 시점을 '올해 안'으로 늦췄습니다. 시장 상황 등 대내외 여건을 고려해 서비스를 준비해 나간다는 계획입니다.앞서 국내 BNPL 시장에 가장 먼저 나선 건 현대카드였습니다. 지난해 무신사와 BNPL 서비스를 선보였지만 고도화 작업을 위해 운영을 중단했습니다. 현재 고도화 방안을 검토 중이며 재개 시점은 정해지지 않은 상태입니다.BNPL이란 '선구매 후결제'라는 말 그대로 물건을 구입한 뒤 결제는 나중에 하는 서비스입니다. 신용카드와 비슷한 방식이지만, 발급 절차가 까다롭지 않고 금융이력이 없어도 연령 등 일정 기준만 충족하면 서비스를 이용할 수 있다는 게 특징입니다. 카드업계 관계자는 "한국은 신용카드 보급률이 높아 BNPL에 대한 소비자들의 수요가 많지 않은 편"이라며 "상대적으로 신용카드 보급률이 낮고 현금을 주로 이용하는 국가에선 BNPL 시장이 확대될 가능성이 큰데 한국은 구조적으로 쉽지 않다"고 말했습니다.유럽 등 선진국을 비롯해 베트남 등 동남아 시장에서도 BNPL 서비스는 결제 수단 중 하나로 자리매김하고 있습니다. 자본시장연구원은 '해외 BNPL 시장 동향 및 감독당국의 대응' 보고서를 통해 "BNPL 거래 증가는 사용자의 수수료 면제와 저신용자가 이용 가능한 거래 구조의 특성 때문"이라며 "코로나19로 인한 비대면 거래 확대에 주로 기인한다"고 분석했습니다.국내 카드사가 해외 BNPL 시장에 진출한 것도 이런 이유에서입니다. 롯데카드의 베트남 현지법인 롯데파이낸스 베트남은 현지 온라인쇼핑몰 티키(Tiki)와 BNPL 서비스를 운영하고 있습니다. 무이자 또는 비교적 낮은 금리로 2~3개월에 걸쳐 분할 상환하는 방식입니다.글로벌 리서치 전문기관 스태티스타(Statista) 조사에 따르면 지난 2019년부터 2021년까지 글로벌 전자상거래 시장에서 BNPL 거래규모는 340억달러(약 43조원)에서 1200억달러(약 153조원)로 약 3.5배 증가했습니다. 오는 2026년이면 거래규모가 5760억달러(약 735조원)에 달할 것이란 전망이 나옵니다.이처럼 해외 시장에선 활성화된 BNPL 서비스지만, 국내에선 빅테크 3사를 중심으로 이뤄지고 있습니다. 지난 2021년 4월 네이버파이낸셜을 시작으로 토스와 카카오페이 소액 후불결제 서비스를 선보였습니다. 금융당국으로부터 혁신금융서비스로 지정을 받아 네이버파이낸셜과 토스는 월 30만원 한도 내에서, 카카오페이는 교통 관련 결제에 한해 월 15만원 한도 내에서 후불결제 서비스를 제공하고 있습니다.문제는 연체율입니다. 국회 정무위원회 소속 최승재 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 올해 1분기 기준 빅테크 3사의 BNPL 연체율은 4.4%였습니다. 토스(비바리퍼블리카)가 5%, 네이버파이낸셜이 2.7%, 카카오페이가 0.51%였습니다.카드업계 관계자는 "이용 한도가 월 30만원(카카오페이는 월15만원, 교통비 대상)으로 제한돼 있지만 연체는 발생할 수밖에 없다"며 "이미 BNPL이 자리잡은 외국 시장에서도 연체율 관리는 주요 과제 중 하나"라고 말했습니다. 실제 호주에선 BNPL에 대한 규제 강화에 나섰습니다. 자본시장연구원의 '국내 BNPL 도입 현황과 규제 문제' 보고서에 따르면 호주 연방정부는 BNPL 서비스에 신용카드 업체에 적용하는 소비자신용보호법을 적용한다는 계획입니다.BNPL이 사실상 신용 기반 상품이지만 신용상품처럼 운영되지 않는다는 지적에 ▲BNPL 제공자는 호주신용면허를 소지해야 하며 ▲책임있는 대출 의무를 준수토록 의무화하고 ▲BNPL 상품에 대한 부적합성 검사 등을 BNPL 개혁 옵션에 포함했습니다.호주 재무부에 따르면 지난해 상반기 기준 호주의 BNPL 계좌는 700만개가 넘으며, 거래액은 160억 호주달러(약 14조원)으로 집계됐습니다. 1년 전과 비교하면 약 37% 증가한 수준입니다. 호주 금융협회 조사결과 BNPL 이용자의 18%가 대금 결제를 제때 하지 못한 경험이 있으며, 7%는 결제를 위해 필수품 소비를 줄여야 하는 상황인 것으로 나타났습니다. 서지용 상명대 경영학부 교수는 "해외 일부 국가에서도 관련 규제를 강화하는 것으로 볼 때 BNPL은 유망한 서비스지만 그만큼 위험이 높다"며 "최근 국내 금융사들의 대출자산 연체가 큰 이슈로 부각되면서 카드사들의 BNPL 시장 진출도 주춤한 분위기"라고 설명했습니다. 때문에 당분간 국내 BNPL 시장이 확대되긴 쉽지 않을 것으로 내다봤습니다. 서 교수는 "현재 4%대인 빅테크의 BNPL 연체율이 1%대 정도로 내려와야 비교적 안정적인 수준이라고 할 수 있다"며 "시장 금리가 안정화되고 연체율 상승세가 진정된 이후에나 서비스 출시를 검토해볼 수 있을텐데, 내년 상반기 이후에나 가능할 것"이라고 전망했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>내년부터 '네·카·토'에서 보험상품 비교 추천 가능해진다</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000344166?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>이르면 내년 초부터 온라인 플랫폼에서 여러 보험사의 보험상품을 비교하고 가입하는 게 가능해질 전망입니다.금융위원회는 19일 정례회의를 열고 총 15건의 금융서비스를 혁신금융서비스로 새로 지정한다고 밝혔습니다. 이번 지정으로 현재까지 누적된 혁신금융서비스는 총 273건으로 늘었습니다.가장 대표적인 서비스는 보험상품 비교·추천 서비스입니다. 네이버페이나 카카오페이, 토스와 같은 온라인 플랫폼에서 보험사의 보험상품을 비교하고 소비자에게 맞는 상품을 추천하는 내용입니다.현재 보험상품을 비교하고 추천하려면 보험대리점으로 등록해야 합니다. 하지만 현행법상 금융감독원 검사 대상 기관은 보험대리점으로 등록할 수 없습니다.이번 혁신금융서비스 지정으로 금감원 검사 대상 회사도 온라인 플랫폼을 통해 해당 사업을 영위할 수 있도록 금융상품판매대리·중개업 및 보험대리점 등록에 관한 규제 특례가 부여됩니다. 또한 본인신용정보관리회사는 별도 신고 없이 온라인 보험상품 비교·추천 서비스를 영위할 수 있도록 특례가 적용됩니다.다만 해당 플랫폼을 통해 취급할 수 있는 상품은 온라인 채널을 통해 판매되는 상품 중 여행자·화재보험 같은 단기보험, 자동차보험, 실손보험, 저축성보험(연금 제외),펫보험, 신용보험에 국한됩니다.또한 서비스 출시 전에 알고리즘의 공정성 및 적정성에 대해 신뢰할 수 있는 기관(코스콤 등)으로부터 검증을 받아야 합니다. 아울러 비교·추천 과정에서 가공된 정보를 비교·추천 목적 외에 활용·제공할 수 없습니다.금융위 관계자는 "정당한 사유 없이 보험회사의 제휴요청을 거절하지 못하도록 하고 수취하는 수수료를 일정한도 내로 제한했다"며 "보험회사에 일반적인 거래조건에 비해 불리하거나 부당한 행위를 요구하지 못하도록 하는 조치도 취했다"고 설명했습니다.이외에도 금융위는 대출모집인을 통한 주택담보대출 비교 플랫폼과 안면인식 기술을 활용한 비대면 실명확인 서비스 등도 신규 혁신금융서비스로 지정했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.07.18.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>광주은행, 건전성 관리 등 4대 실천 전략 마련</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014075668?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>(광주=연합뉴스) 송형일 기자 = 광주은행은 18일 2023년 하반기 경영 전략회의를 열고 건전성 관리 고도화 등 4대 세부 실천 전략을 구체화했다.광주은행, 하반기 경영전략회의[정기성]    광주은행은 이날 본점 KJ상생마루에서 열린 경영 전략회의에서 주요 업무계획 발표, 부분별 우수 영업 사례 공유 등을 했다.    4대 실천 전략은 건전성 관리 고도화, 성장성 강화, 안정적인 수익성 관리, 미래성장동력 확충 등이다.    건전성 관리 방안으로 부동산 PF에 대한 위험 관리 강화를 비롯해 개인 신용대출 안정화에도 적극적으로 나서기로 했다.    건전성을 중심으로 한 마케팅 강화와 수익성을 고려한 주택 시장 접근으로 성장성을 높이고, 수익성 중심의 내실 경영·핵심 예금 실적 제고 등으로 은행 수익성도 높일 계획이다.    인터넷 뱅킹 등 비대면 이익 실현에도 본격적으로 나서고 디지털 채널에 대한 경쟁력 제고와 신사업 추진 등 미래 성장 동력도 강화하기로 했다.    이를 위해 토스 공동대출, 가상자산 거래소 제휴, 인수금융 확대, 외환 선물환거래 재개 등 금융 서비스 영역도 다방면으로 확대한다.    4대 전략과 별도로 양질의 서비스 및 경쟁력 있는 상품 출시로 고객 금융 편익을 제고하고 공공 역할을 적극적으로 수행해 지역에서 신뢰를 회복하는 데 주력하기로 했다.    또 불확실한 미래에 대비하는 재무 건전성 제고를 통해 혁신 경영도 실천하기로 했다.광주은행 본점 전경[광주은행 제공]    고병일 광주은행장은 "불확실한 금융시장에서 적극적인 혁신과 건전성 위주의 경영전략으로 고객에게 믿음과 신뢰를 주는 경영이 중요하다"며 "우량자산 증대, 안정적인 수익원 확보로 100년 은행으로의 도약을 준비해야 한다"고 강조했다.    nicepen@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>뮤직카우, 고객 보호 강화 위해 정보보호체계 구축 및 보안시스템 운영 고도화 총력</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002152642?sid=105</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>[ⓒ뮤직카우][디지털데일리 이상일기자] 세계 최초의 음악 수익증권 플랫폼을 운영하는 뮤직카우(총괄대표 정현경)가 고객 보호 강화를 위해 노력한 지난 1년 간의 성과를 20일 공개했다.뮤직카우는 음악 저작권으로부터 발생되는 수익을 분배 받을 수 있는 ‘음악 수익증권’ 플랫폼의 안전한 서비스 환경을 구축하고자 지난해 정보관리본부를 신설했다. 이후 효과적인 정보보호체계 구축 및 보안시스템 운영 고도화에 박차를 가해왔다.뮤직카우는 지난해부터 카카오페이, 토스증권, 쿠팡 등 글로벌 최고 수준의 금융사에서 정보보호 책임자로 근무한 CIO를 영입한 것을 필두로 국내에서 내로라하는 핀테크, IT 기업 출신 인재들을 대거 영입하며 전문성을 강화했다고객들의 이용 편의성을 높이기 위한 시스템도 구축했다. 지난해 9월 도입된 뮤직카우 간편인증 서비스는 사설인증서 기반의 전자서명 기술을 적용한 서비스다. 간편 비밀번호 설정을 통해 더욱 편리하고 안전하게 거래할 수 있도록 지원한다.무엇보다 뮤직카우의 정보보안 강화를 위한 노력은 지난해 혁신금융서비스 지정과 이후 금융당국으로부터 최종 제재 면제를 받는 데에도 주효했다. 뮤직카우는 자체적으로 구축한 IT 인프라 및 보안체계 완비를 통해 당국의 실사 대응을 완료했다. 물적설비 및 안정성 강화에 대한 요건을 충족함에 따라, 지난해 11월 금융위원회 산하 증권선물위원회로부터 최종 제재 면제를 받으며 제도권에 편입됐다.이를 통해 뮤직카우는 저작권 등을 기초로 하는 무체재산권 신탁수익증권으로서의 권리를 공식적으로 인정받은 세계 최초의 사례가 됐으며, 뮤직카우 고객들은 증권이나 펀드처럼 자본시장법의 보호 아래 투자할 수 있게 됐다.뮤직카우의 정보보호 강화를 위한 노력은 국내외 권위있는 외부 검증기관의 인증 획득으로도 확인할 수 있다. 지난해 9월 획득한 ‘ISO27001’은 국제표준화기구(ISO)의 국제전기기술위원회(IEC)에서 제정한 정보보호 관리체계에 대한 국제 표준 규격으로, 세계 정보보안 분야에서 가장 권위 있는 인증이다. 뮤직카우는 정보관리본부 신설을 통한 내부 전문인력의 우수한 역량으로 빠른 기간 내 관리체계를 구축하고 인증을 획득할 수 있었다.올해 3월에는 관련 업계 최초로 ‘정보보호 및 개인정보보호 관리체계(ISMS-P)’ 인증을 획득했다. ISMS-P는 정보보호 뿐만 아니라 개인정보보호를 위한 일련의 조치와 활동이 인증기준에 적합하게 관리되는지를 평가하는 국내 최고 수준의 정보보호 통합 인증 제도다. 과학기술정보통신부와 개인정보보호위원회의 공동 고시 기준에 따라 한국인터넷진흥원(KISA)에서 인증한다.뮤직카우 정보관리본부 직원들은 스타트업 개발팀 간 개발 역량을 겨뤄보는 대회에도 참가해 우수한 성적을 거두기도 했다.AWS코리아가 지난 4월 25일, 스타트업 개발팀을 대상으로 진행한 ‘AWS 스타트업 게임데이(이하 게임데이)’에서 뮤직카우 정보관리본부 소속 직원들은 참가 스타트업 14개 회사 중 2위의 성적을 거두며 수상의 영예를 안았다.게임데이는 스타트업이 사업을 전개하다 발생할 수 있는 개발 분야의 다양한 이슈 상황을 가상으로 구현하고, AWS 솔루션을 통해 해결해보는 대회다. 뮤직카우의 이번 수상은 AWS 운영역량 및 전문성을 기반으로 보안, 인프라, 데브옵스(DevOps) 등의 분야에 역량을 갖춘 팀원들이 있어 효과적인 협업과 지원이 가능했기에 이룰 수 있는 성과였다.뮤직카우 관계자는 “지난 1년 간 고객 보호 강화를 위해 해온 노력들이 좋은 결과로까지 이어져 고무적”이라며, “앞으로도 뮤직카우는 보안체계 및 IT 인프라 역량을 더욱 높여 서비스를 고도화하는 것은 물론 뮤직카우가 구축한 문화금융 생태계 활성화를 통해 문화와 금융 양대 시장의 성장을 이끌어 가겠다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.07.27.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>토스, 틴즈 모의투자대회 15만명 참가...8월 업그레이드 버전 개최</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003121066?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>토스 틴즈 모의 투자 대회토스가 8월 업그레이드 된 '틴즈 모의투자 대회'를 선보인다. 첫 대회 성료 한 달만으로, 저축·소비·투자로 연결되는 틴즈 금융 생태계를 구축한다는 전략이다.토스는 내달 여름방학을 맞이해 두번째 틴즈 모의투자 대회를 개최한다. 토스가 이달 10일부터 닷새간 처음 개최한 틴즈 모의투자 대회에는 15만여명의 토스 청소년 고객이 참가했다. 대회는 투자 가능 종목으로 넷플릭스, 나이키, 코카콜라, 현대자동차, 하이브 등 국내외 주식 일부를 선정해 제공하고, 가격은 시세 정보를 활용해 실시간으로 반영하는 방식으로 진행됐다.참가대상은 만 7세부터 만 18세 이하 사용자를 대상으로, 기존 토스 모의투자 서비스를 이용하는 틴즈 사용자들이 참가할 수 있었다.토스 관계자는 “청소년 증권 계좌가 100만개 이상인 상황에서, 청소년을 위한 투자 프로그램이나 관련 대회가 없다는 점에 의문을 느끼고 모의투자 제품과 대회를 기획하게 됐다”고 설명했다.틴즈 고객 대상인만큼 기존 주식과 달리 사용자경험(UX)·사용자인터페이스(UI)를 새롭게 재구성, 복잡한 주식 그래프도 한 눈에 알아볼 수 있게 만들었다. 실제 대회 참가 인원 중 45% 정도 비중이 중학생으로, 비교적 어린 연령대의 틴즈 고객들의 투자에 대한 관심을 확인할 수 있었다.토스는 내달 투자 흥미와 가치관에 기여할 수 있도록 개선된 버전의 투자대회를 선보일 예정이다. 이를 통해 저축부터 소비, 투자까지 이어지는 청소년 고객 금융 가치관 정립에 기여한다는 목표다.토스는 청소년 고객 전담인 '틴즈 사일로' 조직을 통해 다양한 소비·저축 서비스와 콘텐츠를 선보인데 이어 지난 4월 청소년이 직접 주식투자를 경험할 수 있는 '틴즈 모의투자 서비스'를 개시했다. 론칭 3개월만에 누적 이용자수 32만명을 달성하며(7월 기준) 틴즈 고객 활성화를 이끌고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>중·저신용 대출 늘리니 연체율 ‘껑충’…인터넷은행, 주담대로 ‘돌파구’</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003237309?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>비중 확대에 전년비 0.65%P 상승주담대 한도 늘리고 신규 취급도인터넷전문은행이 금융당국에 약속한 중·저신용 대출 비중 목표를 달성하기 위해 해당 대출을 확대하면서 시중은행보다 연체율이 빠르게 상승하고 있다. 인터넷은행은 신용대출에서 비롯되는 위험을 상쇄하기 위해 담보대출 상품을 강화하고 있다. 신용대출에서 발생하는 손실을 담보대출 수익으로 메꾼다는 의미다.19일 금융권에 따르면 케이뱅크는 지난 15일 고신용자에 대한 신용대출 상품 판매를 한시적으로 중단했다. 이는 전체 신용대출 중에서 중·저신용 대출의 비중을 높이기 위한 것으로 해석된다.케이뱅크를 포함해 카카오·토스뱅크 등 인터넷은행 3사는 올해 말까지 중·저신용 대출 비중을 각사가 금융당국에 제출한 목표치까지 끌어올려야 한다. 은행연합회에 따르면 카카오뱅크는 연말까지 30%, 케이뱅크는 32%, 토스뱅크는 44%까지 중·저신용 대출 비중을 늘리겠다고 공시했다. 이들 3사의 지난 3월 중·저신용 대출 비중은 카카오뱅크 25.7%, 케이뱅크 23.9%, 토스뱅크 42.0%였다.그러나 중·저신용 대출 비중을 확대한 영향으로 연체율(1개월 이상 원리금 연체)이 급상승하고 있다는 점이 숙제다. 인터넷은행 3사의 지난 1분기 말 연체율은 평균 0.91%로, 1년 전보다 0.65%포인트 뛰었다. KB국민·신한·하나·우리은행 등 4대 시중은행의 지난 1분기 말 연체율은 평균 0.24%에 그쳤다. 인터넷은행의 연체율이 4배가량 높은 셈이다.인터넷은행은 신용대출의 연체 위험을 상쇄하기 위해 담보대출 상품 확대에서 돌파구를 찾고 있다. 돈을 떼일 위험이 낮은 대출 상품을 늘려 은행 건전성을 탄탄하게 만들어야, 중·저신용 대출을 확대하는 것도 가능하다는 입장이다. 카카오뱅크는 이날 최대 5억원까지 빌릴 수 있는 ‘SGI전월세보증금 대출’을 출시했다. 기존 주택금융공사 보증 상품은 한도가 2억2200만원이었다. 카카오뱅크는 또 올해부터 아파트뿐만 아니라 연립·다세대 주택에도 주택담보대출을 실행하고 있다. 케이뱅크는 지난 3월 인터넷은행 최초로 고정금리 전세대출을 출시해, 비교적 낮은 금리의 전세대출을 찾는 소비자 공략에 나섰다. 토스뱅크는 연내 주택담보대출 상품을 출시할 계획이다. 토스뱅크는 담보 대출 상품이 없어 건전성 관리에 애를 먹고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.07.31.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>한화투자증권, 2분기 영업익 136억원…흑자 전환</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005293945?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>한화투자증권이 올해 2분기 흑자 전환에 성공했다. 31일 한화투자증권 2분기 영업이익 136억을 기록, 전년 동기 대비 흑자 전환했다고 공시했다. 당기순이익도 89억5000만원으로 전년 동기 대비 흑자 전환했다.올해 상반기 영업이익은 547억5000만원으로 전년 동기 대비 31.7% 증가했으며 당기순이익은 369억1000만원으로 78.7% 늘었다.한화투자증권은 "자산관리(WM) 본부는 주식거래량 증가로 위탁수익이 증가했으며 금리형 상품 판매를 확대하며 시장에 대응하고 있다"면서 "또한 비대면 자산 유치가 증가하며 개인고객 자산이 순증했다"고 설명했다. 트레이딩 본부는 글로벌 증시 상승 등으로 운용환경이 개선되면서 전년 동기 대비 큰 폭으로 수익이 증가했다. 기업금융(IB)본부는 티이엠씨, 한화리츠 기업공개(IPO) 주관으로 기업금융부문 실적이 개선됐으나 부동산 프로젝트파이낸싱(PF) 업황 부진으로 신규 딜이 일부 지연되는 등 수익이 감소했다.한화투자증권 관계자는 "하반기 WM본부는 토스뱅크 등 제휴 사업과 디지털 서비스 강화를 통해 실효고객 저변을 확대하고 트레이딩 본부는 채권과 주가연계증권(ELS) 자체 헤지 운용 손익의 변동성을 최소화할 예정"이라며 "IB본부는 부동사PF 리스크 관리를 지속적으로 강화하는 한편, IPO 대표주관 및 인수단 참여를 통해 기업금융부문을 강화할 예정"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>울산서 '휴가지 근무'하면 5만원 숙박 할인</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004217032?sid=102</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>울산 워케이션 호텔 8곳 추천, 숙박할인권 등 다양한 혜택 제공[서울경제] 울산시는 종합 여행 온라인 여행사인 여기어때와 함께 워케이션 홍보 및 판촉을 진행한다고 21일 밝혔다.여기어때는 워케이션을 목적으로 울산을 방문하는 고객에게 7월 21일부터 오는 8월 9일까지 최대 5만 원 숙박 할인권을 제공한다. 사용처는 호텔현대 바이 라한 울산, 롯데호텔 울산, 롯데시티호텔 울산, 신라스테이 울산, 머큐어 앰배서더 울산, 호텔리버사이드 울산, 다움 호텔 울산, 울산 에쉬튼 호텔 등 울산 지역 워케이션 호텔 8곳이다. 오는 8월 20일까지 선착순으로 사용할 수 있으며, 입실 기간은 9월 30일까지이다. 토스, 카카오페이 등 결제사에 따라 최대 10% 추가 할인도 제공된다. 또한, 숙소 이용 후 설문조사에 참여한 이용객에게는 추첨을 통해 여기어때에서 사용 가능한 1만 원 상당 이용권을 제공하며, 숙소에서 여기 어때 예약 인증 시 방문을 환영하는 기념품도 증정한다. 울산시 관계자는 “최근 워케이션의 성지로 떠오른 지역의 공통점은 대표 먹거리와 퇴근 후 즐길 거리가 풍부한 곳으로, 사업 방문객이 많은 울산이 대표적이다”라며 “하루 더 머무는 체류형 울산관광 활성화와 지역관광 매력도를 높이고 생활인구 증가를 도모할 수 있는 이 사업을 올해 추가 2회 더 진행하고, 이용객 만족도 등을 검토한 후 앞으로 적극 추진할 계획이다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.07.25.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>한화투자증권, 토스뱅크 앱에서 장외채권 매수 서비스</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002815662?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>한화투자증권은 토스뱅크 앱 내에서 장외채권 매수 서비스를 오픈 기념으로 이벤트를 실시한다고 25일 밝혔다.이번 한화투자증권과 토스뱅크의 제휴로 토스뱅크 앱 내에서 한화투자증권 계좌를 개설하고 장외채권 매수 서비스를 이용할 수 있게 됐다.한화투자증권은 토스뱅크 앱 내 '목돈 만들기' 메뉴를 통해 장외채권을 매수하고, 이벤트를 신청한 고객에게 매수 금액별 투자지원금 최대 20만원을 지급한다. 또한 토스뱅크 앱에서 한화투자증권 계좌를 생애최초로 개설한 고객에게 모바일트레이딩시스템(MTS) 스마트엠(SmartM)과 스텝스(STEPS)에서 국내주식 거래수수료 평생 혜택을 제공한다. 이 외에도 한화투자증권 홈페이지, MTS 등 온라인 채널에서 이벤트 신청을 완료한 고객에게 현금 1만원을 지급하고, 국내주식 100만원 이상 거래 시 현금 2만원을 추가로 지급한다.이벤트 신청은 한화투자증권 홈페이지와 모바일앱(SmartM)을 통해 가능하며 자세한 내용은 한화투자증권 홈페이지와 스마트자산관리팀을 통해 확인할 수 있다.장형철 한화투자증권 신성장솔루션실 상무는 "이번 제휴를 통해 MZ세대들에게 친숙한 금융 플랫폼인 토스뱅크에서도 장외채권을 매수 할 수 있게 됐다"며 "앞으로도 고객들이 간편하게 투자할 수 있는 서비스 제공을 위해 최선을 다하겠다"고 밝혔다.한화투자증권 제공.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>‘네카토’ 보험상품 비교·추천한다…내년 초 출시 예정</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006938969?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>금융위, 혁신금융서비스 ‘보험상품 비교·추천 서비스’ 신규 지정금융위원회 전경(서울=뉴스1) 박재찬 기자 = 이르면 내년 초부터는 네이버, 카카오, 토스 등 온라인 플랫폼에서 소비자가 직접 여러 보험사의 보험을 비교하고 추천받을 수 있게 됐다. 단 비교·추천 상품으로 자동차보험, 실손보험, 여행자보험, 화재보험, 저축성보험(연금제외), 펫보험, 신용보험 등으로 제한된다. 19일 금융위원회는 정례회의를 열고 보험상품 비교·추천 서비스를 혁신금융서비스로 신규 지정했다. 이르면 내년 초부터는 네이버파이낸셜, 뱅크샐러드, 비바리퍼블리카, 에스케이플래닛, 엔에이치엔페이코, 카카오페이, 쿠콘, 핀다, 핀크, 해빗팩토리, 헥토데이터 등 온라인 플랫폼은 소비자에게 적합한 여러 보험회사의 보험상품을 비교·추천할 수 있게 됐다. 보험상품 비교·추천을 위해서는 보험대리점 등록이 필요하지만, 현행 금융관련법령상 다른 법령에 따른 금융감독원 검사 대상 기관은 보험대리점 등록이 제한된다. 하지만 금융위는 혁신금융서비스를 통해 본인신용정보관리회사 등 금융감독원 검사 대상인 신청회사가 온라인 플랫폼을 통해 보험상품 비교·추천 서비스를 제공할 수 있도록 금융상품판매대리·중개업 및 보험대리점 등록에 관한 규제 특례를 부여했다.또 본인신용정보관리회사는 금융상품판매대리·중개업을 겸영업무로 영위하기 위해 금융위에 사전 신고가 필요하나, 별도 신고 없이 온라인 보험상품 비교·추천 서비스를 영위할 수 있도록 특례를 부여했다.이로써 온라인 플랫폼들은 ‘보험상품을 비교·추천하고 보험계약 체결이 가능한 보험회사와 연결’하고, 보험사의 온라인(CM) 상품 중 단기보험(여행자·화재보험 등), 자동차보험, 실손보험, 저축성보험(연금제외), 펫보험, 신용보험을 판매할 수 있게 됐다. 또 서비스 출시전 알고리즘의 공정성 및 적정성에 대해 신뢰할 수 있는 기관(코스콤 등)으로부터 검증을 받도록 했으며, 비교·추천과정에서 가공된 정보를 비교·추천 목적 외에 활용·제공하지 못하도록 했다.아울러, 정당한 사유 없이 보험사의 제휴요청을 거절하지 못하도록 하고, 수취하는 수수료를 일정한도 내로 제한하였으며, 보험사에 일반적인 거래조건에 비해 불리하거나 부당한 행위를 요구하지 못하도록 했다.금융위는 “온라인 플랫폼을 통해 소비자가 간편하게 여러 보험상품을 비교해 적합한 보험상품을 가입할 수 있는 기회를 제공할 수 있을 것으로 기대한다”며 “소비자와 보험회사 간 정보비대칭성을 해소해 보험회사 간 경쟁 촉진, 보험료 부담절감 등 소비자 편익이 증대될 것으로 기대된다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.07.31.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>한화투자증권, 2분기 영업이익 136억원… 흑자전환 성공</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000939076?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>한화투자증권이 31일 올해 2분기 영업이익이 136억원이라고 공시했다. 사진은 한화투자증권 전경. /사진=뉴시스 한화투자증권이 올해 2분기 영업이익 흑자전환에 성공했다. 31일 한화투자증권은 올해 2분기 영업이익이 136억원으로 전년 동기 대비 흑자전환 했다고 공시했다. 같은 기간 당기 순이익도 98억원으로 흑자 전환했다.올해 상반기 영업이익은 547억5000만원으로 전년 동기 대비 31.7% 증가했다. 상반기 당기순이익은 368억원으로 78.8% 증가했다. 한화투자증권은 "WM(자산관리) 본부에서 주식거래량 증가로 위탁 수익이 증가했다"며 "비대면 자산 유치가 증가하며 개인 고객 자신이 순증했다"고 설명했다. 이어 "트레이딩 본부에서는 글로벌 증시 상승 등으로 운용환경이 개선돼 전년 동기 대비 큰 폭으로 수익이 증가했다"고 밝혔다.한화투자증권은 올 하반기 WM본부에서 토스뱅크 등 제휴 사업과 디지털 서비스 강화를 통해 실효 고객 저변을 확대할 예정이다. IB(기업금융) 본부는 부동산 PF 리스크 관리를 지속적으로 강화하고 IPO 대표주관 및 인수단 참여를 통해 기업금융 부문을 강화할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>내년 초 '보험 비교·추천 플랫폼' 출격…'네카토' 등 11개사 선정</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011984315?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>금융위, 네카토 등 11개사 보험 비교·추천 '혁신금융서비스' 지정車·실손·펫보험 등 간편하게 비교해 가입…플랫폼 수수료도 제한[서울=뉴시스] 박민석 기자 = 23일 오후 서울 종로구 정부서울청사에서 금융위원회 직원들이 업무를 보고 있다. 2020.04.23. mspark@newsis.com[서울=뉴시스] 김형섭 기자 = 여러 보험회사의 온라인 보험상품을 한눈에 비교하고 가장 적합한 상품을 추천 받아 간편하게 가입할 수 있는 '보험 비교·추천 플랫폼'이 내년 초 서비스를 개시한다. 네이버·카카오·토스 등 11개사가 사업자로 나설 예정이다.금융위원회는 19일 정례회의를 열어 11개사가 신청한 보험상품 비교·추천 서비스를 '혁신금융서비스'로 신규 지정했다고 밝혔다.보험상품 비교·추천 서비스는 온라인 플랫폼에서 다양한 데이터를 활용해 소비자에게 적합한 여러 보험회사의 보험상품을 비교·추천하는 서비스이다.지금도 여러 보험상품을 비교하는 온라인 서비스가 없는 것은 아니지만 안내된 보험료와 실제 가입시 보험료가 다르다는 불만이 많고 서비스도 각사 홈페이지 링크를 모아 놓은 수준인 게 사실이다.서비스가 출시되면 약 4000만명이 가입한 실손보험과 약 2500만대의 가입기반을 확보한 자동차보험 등 일상생활과 밀접한 보험을 플랫폼 비교·추천을 통해 저렴하게 가입할 수 있을 전망이다.이번 혁신금융서비스 지정을 통해 보험상품 비교·추천 서비스에 나서는 11개사는 ▲네이버파이낸셜 ▲뱅크샐러드 ▲비바리퍼블리카(토스) ▲SK플래닛 ▲NHN페이코 ▲카카오페이 ▲쿠콘 ▲핀다 ▲핀크 ▲해빗팩토리 ▲헥토데이터 등이다.보험상품 비교·추천을 위해서는 보험대리점 등록이 필요한데 현행법상 본인신용정보관리회사나 전자금융업자, 대출모집법인 같은 금융감독원 검사 대상 기관은 보험대리점 등록이 제한된다.금융위는 이번에 혁신금융서비스를 신청한 회사들에 규제 특례를 부여해 온라인 플랫폼을 통한 보험상품 비교·추천 서비스를 제공할 수 있도록 했다. 금융위에 대한 사전 신고도 생략시켜줬다.보험상품 비교·추천 서비스를 통해 취급할 수 있는 상품은 온라인(CM) 상품 중 ▲단기보험(여행자·화재보험 등) ▲자동차보험 ▲실손보험 ▲저축성보험(연금 제외) ▲펫보험 ▲신용보험 등으로 규정했다.금융위는 비교·추천 알고리즘에 따라 입점 보험사의 손익이 갈릴 수 있는 만큼 알고리즘의 공정성과 적정성에 대해 서비스 출시 전 코스콤 등의 신뢰할 수 있는 기관에서 검증을 받도록 했다. 비교·추천과정에서 가공된 정보는 비교·추천 목적 외에는 활용하지 못하도록 제한도 뒀다.또 플랫폼이 정당한 사유 없이 보험회사의 제휴 요청을 거절하지 못하도록 했으며 보험사로부터 받는 수수료도 일정한도 이내로 제한했다. 보험사에 일반적인 거래조건에 비해 불리하거나 부당한 행위를 요구하는 것도 금지했다.금융위는 내년 초 보험상품 비교·추천 서비스를 출시할 예정이다. 이를 위해 보험회사와 플랫폼간 전산개발, 제휴 등 서비스의 원활한 준비·운영을 내용으로 하는 보험사와 플랫폼 간 공동업무협약(MOU)도 체결할 계획이다.금융위 관계자는 "온라인 플랫폼을 통해 소비자가 간편하게 여러 보험상품을 비교해 적합한 보험상품을 가입할 수 있는 기회를 제공하고 보험사간 경쟁 촉진, 보험료 부담절감 등 소비자 편익이 증대될 것으로 기대된다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.07.16.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[기획 / 2023 디지털금융] “확연히 달라진 고객, UI·UX 전략이 금융 플랫폼 성패 좌우”</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002152344?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[심층 인터뷰 - 上]   안수진  오투유엑스(O2UX )대표오투유엑스(O2UX) 안수진 대표금융권이 치열하게 ‘플랫폼 금융’ 경쟁에 나서면서 그 어느때보다 UI‧UX의 전략적 가치가 높아지고 있다. 고객이 스마트폰으로 금융서비스를 실행하는 찰나의 순간에도 고객과의 접점을 책임지는 UI‧UX 전략은 매우 예민하게 실행된다. 국내 금융권 UI‧UX 전략 분야에서 최고 전문가로 손꼽히는 안수진 오투유엑스(O2UX) 대표가 생각하는 금융 UI·UX 전략 인터뷰를 상, 하 2회로 나눠 게재한다. &lt;편집자&gt;“고객이 금융서비스 선택, 완벽한 디지털 노마드 시대 진입”“고객 중심 UI‧UX 전략에 초개인화‧플랫폼금융 성공 해법”[디지털데일리 박기록 기자] “이제 공급자(금융회사) 중심이 아닌 고객에게 ‘선택의 권한’이 이양됐고, 금융서비스가 고객에게 맞춰지지 않으면 선택 받을 수 없는 시대가 됐습니다.”‘오투유엑스’(O2UX) 안수진 대표(사진)의 지적이다. UI‧UX전략에서 금융회사의 플랫폼 전략의 성패가 결정된다고해도 과언이 아닌 시대다.안 대표는 “국내 금융권의 이같은 현상을 더욱 앞당긴 정책이 바로 마이데이터 서비스”라며 “이에 기반한 ‘초개인화’가 더욱 심화되면서 완벽한 디지털노마드(Digital Nomad)세대가 됐다”고 분석했다.역설적인 표현이지만 안 대표는 금융회사가 UI‧UX에 성공하려면 철저하게 자기 것을 버리라고 강조한다.그는 “고객은 이제 누가 무슨 서비스를 해주는지 기억도 못하는 상황이 됐다”며 “금융회사가 객관적으로 자신을 오픈해 타사의 상품과 비교해도 당연히 ‘선택받을만 하다’는 것을 증명해야한다”고 강조했다.아울러 타 금융회사의 금융정보까지 포괄해서 제공하는 폭넓은 ‘오픈’ 전략이 중요하고 그에 따라 은행, 보험, 증권, 카드 등 금융업종별로 ‘초개인화’의 접근방식은 달라진다는 것이다.다음은 오투유엑스(O2UX) 안수진 대표와의 일문일답Q: 금융 비대면 플랫폼 경쟁이 치열해지면서, 금융회사들은 고객들이 보다 플랫폼을 쉽게 활용하기 위한 UI·UX 개편을 진행하고 있습니다. 어떤 방향으로 진행되고 있습니까.A: UX(User Experience, 사용자경험)라는 용어가 도입되기 시작했던 2000년대 초창기까지 만해도 UI·UX는 디바이스의 OS(운영체제)에 국한된 이슈였습니다. 삼성, LG, 모토롤라와 같이 당시 핸드폰 제조사들이 모바일에 익숙하지 않았던 사용자들에게 PC에서 사용하던 기능들을 모바일에서도 익숙하게 하기 위한 노력의 일환으로 연구됐습니다.그런데 앱스토어와 구글 스토어 등 오픈 스토어에서 애플리케이션 서비스가 다양해지면서 급격한 변화가 일어났습니다. 더 이상 디바이스 제조사가 아닌 콘텐츠와 서비스를 가진 사업자라면 다이렉트로 고객과의 접점이 생기게 됐고 게다가 이 접점은 서비스의 종류만큼이나 다양해졌습니다.이후 컨텐츠 서비스 사업자들은 고객 접점에 대한 파워를 마음껏 누렸고 정말 엄청나게 다양한 서비스들이 출현했습니다. 특히 우리 일상 생활에서 뗄래야 뗄 수 없는 ‘돈’과 관련된 ‘금융’서비스가 빠르게 활성화됐습니다.기존 인터넷뱅킹을 모바일로 전환하는 것에서 그치지 않고, 은행권에서는 은행 이름이 아닌 비대면 채널만의 브랜드를 내걸기 시작했습니다. 지난 2015년께 우리은행 ‘위비뱅크’, KB국민은행 ‘스타뱅크’ 등 금융서비스의 브랜드 플랫폼화가 마침내 시작된거죠.그런데 이로인해 또 한번의 큰 변화가 일어납니다.고객들이 그동안 반강제적으로 선택해야만 했던 ‘독점적 자본주의 (Monopoly Capitalism)’시대가 소멸된 것입니다. 이제는 오히려 공급자(금융회사)가 고객의 선택을 기다려야 하고, 또 공급자와 고객을 포함한 모든 참여자가 정보와 서비스를 가리지 않고 공유가 가능한 ‘협력적 공유(Collaborative Common)’의 시대로 바뀌었습니다.공급자 중심이 아닌 고객(사용자)에게 ‘선택의 권한’이 이양됐고, 고객에게 맞춰지지 않으면 선택 받을 수 없는 시대가 됐습니다. 결국 ‘힘(선택의 권한)’의 무게 중심이 고객에게 이동된 거죠.이러한 현상을 ‘탈은행화 시대’라고 뱅크 3.0이라는 책에서는 예언했지만 저는 여기서 더 나아가 최근의 현상이 ‘오픈 금융의 시대’라고 생각합니다. 즉, 금융권의 서비스와 브랜드 플랫폼화에서 더 나아가 공급자 스스로가 자신을 오픈하지 않으면 안되는 상황으로 내몰리고 있다는 것입니다.이같은 현상을 더욱 앞당긴 정책이 바로 ‘마이데이터’(MyData)서비스입니다. ‘오픈뱅킹’(Open Banking)이라는 말이 처음 등장했을 때는 사실 타은행의 계좌정도를 연동해주는 정도의 서비스였습니다.그런데 마이데이터 서비스가 등장하면서 은행이 아닌 비은행권, 핀테크 사업자, 심지어는 전혀 관련이 없는 서비스 업체까지도 오픈 API를 사용해 고객의 자산을 분석해 주고, 이에 맞는 서비스를 해줄 수 있게됐습니다.고객은 이제 누가 무슨 서비스를 해주는지 기억도 못하는 상황이 됐습니다. 완벽한 디지털노마드(Digital Nomad)세대인 것이죠. 이처럼 장황하게 서론이 길어진 것은, 죄송스럽게도 ‘이제는 더 이상 은행 혹은 금융사가 원하는 서비스와 UI·UX의 방향이 중요하지 않게됐다’는 점을 강조하고 싶기 때문입니다.이제 고객에게 선택받기 위해서는 매장보다 더 자주 그리고 더 ‘눈에 띄게’ 비대면 채널을 시기마다 단장해야만합니다. 또 나를 객관적으로 오픈해 나의 상품만이 아닌 타사의 상품과 비교해도 당연히 ‘선택받을만 하다’는 것을 증명해야 하는 시대입니다.금융 UI·UX 현장에선, 이제 막 출발한 마라톤 레이스와 같다는 느낌을 받습니다. 수십명이 뭉쳐서 뛰는 상황에서 먼저 치고 나오기위해 경쟁하는 모습이죠. “T사처럼 해주세요, S증권은 하고 있던데, 벤치마킹하면되지 않겠습니까” 등의 질문을 많이 받습니다.하지만 결론적으로 이런 현상이 바람직하다고는 생각하지 않습니다.이제는 내가 원하는 것이 무엇인지 보다는 ‘고객이 무엇을 원하고 있는지’를 객관적이고 근본적으로 인식해야한다고 생각합니다. 실제 고객이 원한는 것이 객관적인 상품 비교라고 하면 주저하지 말고 해야 할 시대가 왔다고 봅니다. 현재로선 이런 의미의 ‘오픈뱅킹’ 전략에서 성공한 사례로 ‘토스’를 들 수 있겠죠.Q: 은행을 포함한 금융그룹(지주사)의 통합 플랫폼, 그리고 2금융권의 특화된 플랫폼 전략 등 금융업종별로 UI·UX 전략의 방향이 조금씩 다를 것으로 생각됩니다. 실제로 어떤지요?A: 한 2~3년전 ‘마이데이터’ 서비스 도입에 따른 기대가 엄청났을 때에는 누가 먼저 이 막강한 정보를 컨트롤하여 고객에게 마이데이터 서비스를 해주느냐가 관건이었습니다. 너도나도 준비를 엄청나게 했었습니다.1금융권보다는 핀테크 업체에게 우선권이 주어지면서 진정한 의미의 오픈 뱅킹을 핀테크 업체들이 한동안 주도하게 됐습니다. 하지만 이제는 1금융권외에 다양한 금융사들도 마이데이터 서비스를 하게 되면서 서비스의 방향이 많이 바뀌고 있고 서비스 전략에도 많은 혼란을 격고 있는 것 같습니다.‘마이데이터’는 개인이 가지고 있는 계좌와 금융상품을 보험, 카드 등을 모두 통합해서 보여주는 것이 기본적인 서비스인데, 사실상 어느 한 곳의 마이데이터 서비스를 이용하게 되면 타사의 마이데이터 서비스는 의미가 크게 없어 집니다.그렇다 보니 토스, 카카오뱅크 등 먼저 시작한 핀테크 업체외에 은행 등 1금융권 정도만 서비스가 활성화가 되고, 그밖에 금융사들의 마이데이터 서비스는 가입율이 기대했던 것 만큼이 되지않고 있는 것이 사실입니다.그러다 보니 은행, 증권, 보험, 카드사들은 모두 그 좋은 고객의 데이터들을 어떻게 활용해야 할지가 최근의 가장 큰 고민인 것 같습니다. 결국 해법은, 마이데이터서비스를 제공하는데 그치지 말고 이것으로 알 수 있는 통합적인 개인 데이터를 기반으로 각사의 특징적인 서비스를 ‘초개인화’해 제공해야 한다는 것으로 귀결됩니다.예를들면 보험사의 경우, 최근 마이데이터를 기반으로 보다 정확한 보장 분석을 해주고, 타사 상품 제안과 함께 최적의 보장내역을 제공할 수 있는 자사 상품을 추천하는 서비스를 제공하고 있습니다. 저축은행들은 금리는 높지만 급하거나 대출 기간에 대한 선택이 자유롭거나, 중도상황 수수료가 없거나 등의 세세한 조건이 필요한 고객에 맞춰 맞춤 상품을 노출하는 등의 경우를 생각해 볼 수 있습니다.최근 국민은행이나, 신한은행 등 대형 금융사들도 마이데이터 자산 분석에 내 자산 상태에 딱 맞는 펀드를 1~2개 정도만 추천하는 방식의 서비스들을 하고 있습니다.국민은행의 경우 마이자산관리에서 내 지출 금액 분석 데이터를 기반으로 어떤 영역(온라인쇼핑, 문화 등)에 소비를 많이 하는지, 지출 가이드를 주기도 하고요.카드사중에선 현대카드가 이런 서비스를 잘하고 있다고 생각합니다. 카드승인 내역을 분석해 외식 업종이 많을 경우 ‘당신은 상위 10% 미식가’ 라는 등의 소비 키워드를 노출하고 소비케어를 해주는 식의 ‘마이크로 개인화’전략을 제공하고 있습니다.*본 기사는 &lt;디지털데일리&gt;가 7월 출간한 &lt;2023년 디지털금융 혁신과 도전&gt;에 게재된 내용을 재편집한 것으로 책의 편집내용과 다를 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.07.29.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>내달 1일 갤럭시Z 플립·폴드5 사전예약 개시…어떤 혜택 있을까</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012003135?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>삼성전자·이통3사, 내달 1일부터 7일까지 사전예약 실시256→512GB로 업글…중고폰 보상 혜택 강화 등 예고[서울=뉴시스] 김선웅 기자 = 삼성전자가 갤럭시 언팩 2023에서 갤럭시 Z 플립 5, Z 폴드 5, 갤럭시 워치6 시리즈, 갤럭시 탭 S9 시리즈를 공개했다. 27일 서울 강남역 인근 '삼성 강남' 매장에서 고객들이 새로 공개된 제품을 체험하고 있다. 2023.07.27. mangusta@newsis.com[서울=뉴시스] 심지혜 기자 = 다음달 1일 삼성전자의 새 폴더블폰 갤럭시Z폴드5·플립5 사전판매 시작이 확정된 가운데 예약자들을 대상으로 제공될 혜택에 대한 관심이 높아지고 있다. 일주일 동안 진행되는 사전판매 기간에 예약하면 추가 혜택이 제공되는 만큼 구매를 마음 먹었다면 이 시기를 놓치지 않는 게 추천된다. 29일 이동통신업계에 따르면 갤럭시Z5 사전예약은 다음달 1일부터 7일까지 진행된다. 제품은 지난 26일 언팩 행사를 통해 공개됐지만 사전예약에 대한 혜택은 아직 알려지지 않았다. 하지만 이통사들은 다양한 혜택 제공을 암시하며 소비자들의 관심을 끌기 시작했다. 일부 오프라인 매장들 또한 홍보물을 대대적으로 내걸고 각종 혜택들을 제시하고 있다. 가장 유력한 혜택으로는 용량 2배 업그레이드가 거론된다. 이는 갤럭시S23 시리즈 사전예약 당시에도 제공됐던 혜택이다. 기본 용량인 256GB를 사전예약자들을 대상으로 512GB로 무상 업그레이드 해 주는 것이다. 갤럭시Z플립5 256GB 가격은 139만9200원, 512GB 가격은 152만200원이다. 갤럭시Z폴드5는 256GB가 209만7700원, 512GB가 221만8700원이다. 예약하면 각각 12만1000원의 혜택을 얻게 되는 셈이다. 쓰던 폰을 반납할 때 보상하는 가격도 사전예약자에게는 추가 혜택이 있을 전망이다. SK텔레콤의 경우 공식 온라인 홈페이지에 ‘쓰던 폰 반납 시 최고가 보상’ 혜택을 내걸었다. 정확한 보상 금액을 제시하지는 않았지만 사전예약 기간 동안 제공하는 특별 보상에 더해 공식몰에서 구매하는 이들을 대상으로 특별 추가 보상 혜택을 제공할 계획이다. 삼성전자의 경우 사전예약 기간 이후에도 중고폰을 반납하고 갤럭시Z5를 구매하는 이들을 대상으로 추가 보상 혜택을 제공할 예정이다. 사용하던 삼성전자 스마트폰을 반납하면 등급별 중고매입가격에 더해 추가로 최대 15만원을 보상한다. 일부 이통사 오프라인 매장에서도 사용중인 구형 단말에 대한 보상 금액에 혜택을 더해 줄 것을 예고하고 있다. 아울러 SK텔레콤은 제휴 카드로 갤럭시Z5를 구매하면 매달 내야 하는 할부 수수료를 최대 24개월까지 면제해 주는 혜택을 예고했다. 현재 이통3사에서 약정을 걸고 스마트폰을 구매하면 연 5.9%의 할부 수수료를 내야 한다. 일례로 갤럭시Z플립5의 경우 24개월 약정으로 구매하면 총 8만7614원의 수수료를 내야 한다. 이밖에도 이통사별로 웨어러블 기기를 무료로 제공하는 등의 혜택을 제시할 것으로 예상된다 또 각 이통사 제휴사 쿠폰을 제공하거나 스마트폰 액세서리 할인 쿠폰 등을 제공할 것으로 보인다. 아울러 이통3사는 이달 31일까지 사전예약 알림 신청 이벤트를 실시하고 있다. SK텔레콤은 알림 신청을 한 5000명을 추첨해 배스킨라빈스 싱귤레글러 아이스크림 기프티콘을 준다. KT는 추첨을 통해 갤럭시 북3 360(1명), 하만카돈 블루투스 스피커(1명), 네이버페이 1000원권(1만명)을 준다. LG유플러스는 온라인몰 뿐만 아니라 모바일 금융 플랫폼 토스 앱에서 사전예약 알람 신청을 받고 있다. 추첨을 통해 샤넬 미니백(1명), 보테가 베네타 카세트백(1명), 나이키 조던1X트래비스스캇(1명), 셀린느 트리옹프 선글라스(1명)를 증정한다.또 유플러스닷컴을 통해 사전알람을 신청한 이들 전원에게는 정식 사전예약 시 사용할 수 있는 2만원 할인 쿠폰을 제공한다. 선착순 9만명에게는 카카오페이 1000포인트를 준다. 토스도 자사 앱을 통해 사전알람을 신청한 고객 중 선착순 9만명에게 토스 1000포인트를 제공한다.삼성전자 또한 사전예약 알림 신청 후 삼성닷컴 또는 갤럭시 캠퍼스 스토어에서 갤럭시 신제품을 구매할 경우 선착순으로 1만5000원 상당의 해피머니 상품권을 선착순으로 증정한다. 선착순 대수는 언팩 행사 이후 공개될 예정이다.이밖에 이통사 현장 매장에서도 사전예약 전이지만 예약자들을 접수 받고 있다. 정식 예약 시작 전 대기한 이들을 대상으로 추가 혜택을 약속하는 곳들도 있다.한편, 노태문 삼성전자 사장(MX사업부장)은 최근 국내 언론을 대상으로 한 간담회에서 "국내를 포함한 많은 국가에서 폴더블 판매 수량이 과거 한해 동안 판매됐던 갤럭시 노트의 판매량을 넘어설 것"이라며 자신감을 나타냈다. 그러면서 "갤럭시 프리미엄 스마트폰 3대 중 1대꼴로 폴더블로 판매하겠다"는 포부를 밝혔다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>내년 초부터 네·카·토서 보험상품 비교 추천한다</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000936387?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>그래픽=머니S DB 네이버파이낸셜·카카오페이·토스(비바리퍼블리카)를 비롯한 핀테크 11곳이 보험 비교·추천 플랫폼 시범 사업에 참여할 혁신금융서비스로 선정됐다.이르면 내년 초부터는 소비자들이 네이버페이나 카카오페이 등 플랫폼을 통해 보험상품을 비교해보고 최적의 상품에 가입할 수 있게 됐다.금융위원회는 19일 정례회의를 열고 네이버파이낸셜·뱅크샐러드·비바리퍼블리카·SK플래닛·엔에이치엔페이코·카카오페이·쿠콘·핀다·핀크·해빗팩토리·헥토데이터'등 핀테크 11곳을 보험상품 비교·추천 서비스를 운영할 혁신금융서비스로 지정했다고 밝혔다.보험 비교·추천 플랫폼은 온라인 플랫폼에서 다양한 데이터를 활용해 소비자에게 적합한 여러 보험회사의 상품을 비교·추천하는 서비스로 혁신금융서비스를 통해 내년초부터 시범사업이 시작된다.본래 보험상품 비교·추천을 위해서는 보험대리점 등록이 필요하지만 혁신금융서비스로 지정된 11곳은 규제 특례를 통해 사업을 영위할 수 있다.핀테크 11곳은 '보험상품을 비교·추천하고 보험계약 체결이 가능한 보험회사와 연결'하는 범위에서 플랫폼을 운영하게 된다. 플랫폼에는 온라인(CM)채널 상품 중 여행자·화재보험 등의 단기보험, 자동차보험, 실손보험, 연금보험을 제외한 저축성보험, 펫보험, 신용보험이 탑재될 수 있다.핀테크 업체들이 비교추천 과정에서 가공된 정보를 악용하거나 알고리즘을 사유화할 수 있다는 보험업계의 우려를 반영해, 서비스 출시 전 알고리즘의 공정성과 적정성을 코스콤 등으로부터 검증받도록 했다. 비교·추천과정에서 가공된 정보는 비교·추천 목적 외에 활용·제공될 수 없다.핀테크 업체들은 정당한 사유 없이 보험회사의 제휴요청을 거절할 수 없고 플랫폼 수수료가 소비자에게 전가되는 문제를 막기 위해 수취하는 수수료도 일정한도 내로 제한됐다. 보험회사에 일반적인 거래조건에 비해 불리하거나 부당한 행위도 요구할 수 없다.금융위원회는 또 이날 '뱅크몰, 베스트핀, 비바리퍼블리카'등 3곳을 대출모집인을 통한 주택담보대출 비교 플랫폼 사업을 수행할 혁신금융서비스로 신규 지정했다.이들 3곳은 올하반기부터 플랫폼과 대출모집인을 연계해 기존 대출비교 플랫폼에서 활성화되지 않은 주담대 비교시스템을 구축할 전망이다. 소비자가 상담이전 대출모집인에 대한 정보를 플랫폼에서 확인할 수 있게 되면서 정보접근성이 한층 강화될 전망이다.'안면인식 기술 활용 비대면 실명확인 서비스' 시범사업자로는 기업은행이 선정됐다. 기업은행은 올 3분기 중 관련 서비스를 출시할 예정이다.기업은행은 3분기 중 서비스를 출시할 예정이다. 고객들이 비대면 실명확인 시 안면인식기술을 활용해 '실명확인증표의 사진'과 '고객이 촬영한 얼굴 사진'을 대조해 본인 여부를 확인할 수 있게 되면서 비대면 실명확인까지 걸리는 시간이 현저히 줄어들 전망이다.이외에 금융위원회는 혁신금융서비스로 '페이머니 통장'을 운영하는 네이버파이낸셜과 하나은행 요청에 따라 제휴 계좌수를 50만건에서 150만건으로 늘리기로 했다. 서비스 출시 이후 가입 계좌수가 50만건에 다다를 만큼 소비자 만족도가 높고 예금규모 등에서 안정성 저해 우려가 크지 않다는 판단에서다.2019년부터 은행 계좌가 필요 없는 포인트 기반의 체크카드를 운영하는 하나카드에 대해선 혁신금융서비스 지정기간 만료 후에도 서비스를 지속할 수 있도록 관련 법령 개정까지 특례 내용을 연장하기로 했다.본래 직불카드(체크카드) 결제는 카드회원과 가맹점간 금융거래계좌 이체 등의 방법으로 이루어져야 하지만 하나카드는 금융거래계좌 연결 없이 선불전자지급수단과 연결된 체크카드 발급이 가능한 특례를 부여받아 해당 서비스를 시범운영해왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.07.26.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>K-서브컬처 선봉 블루 아카이브 대륙 상륙 임박</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/396/0000650794?sid=105</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>내달 3일 중국 정식 출시비공개 테스트 담금질 완료韓·日 앱스토어서 매출 ‘1위’탄탄한 줄거리·캐릭터로 돌풍中 사전 등록 340만명 돌파   중국의 한한령(限韓令, 한류 콘텐츠 금지령)으로 통칭되는 일방적인 판호 발급 중단 기조로 인해 한국산 게임이 현지 진출에 곤욕을 겪고 있는 가운데 유력 작품으로는 유일하게 판호를 획득한 모바일 RPG(역할수행게임) ‘블루 아카이브’가 마침내 내달 3일 중국에 입성한다.  앞서 이달 5일까지 배급사인 넥슨과 개발사인 넥슨게임즈(MX스튜디오)는 현지 파트너인 상하이 로밍스타와 함께 비공개 테스트(CBT)를 진행하면서 최종 담금질을 마쳤다. 참가자들의 의견을 십분 채용하고 운용 상황도 점검하면서 최종 일자를 확정지었다.     블루 아카이브에서 이용자는 이곳에서 연방 수사 동아리 ‘샬레’의 고문 교사로 활동하면서 학생들과 키보토스의 끊이지 않는 사건·사고를 해결하게 된다.    미소녀들이 주축을 이루면서 이야기를 이끌어가는 이른바 서브컬처(하위문화) 게임인 블루 아카이브는 지난 2021년 2월 일본, 그 해 11월에는 한국 시장에 나오자마자 돌풍을 일으키면서 두터운 팬덤을 형성했다. 탄탄한 줄거리와 매력적인 캐릭터를 기반으로 일본에서는 구글 플레이와 애플 앱스토어 매출 순위 1위를 찍었고, 한국 앱스토어에서도 매출 1위를 차지했다.  이어 올해 3월 16일 중국 국가신문출판광전총국으로부터 블루 아카이브 관련 판호(출시 허가권)를 통보받았다. 현지 서비스명은 ‘울람당안’이다. 블루 아카이브를 현지에서 책임 유통하는 상하이 로밍스타는 ‘벽람항로’와 ‘명일방주’ 등 일본을 중심으로 사업을 전개하고 있는 서브컬처 게임 명가 요스타의 자회사다.     시시각각 전황이 변하는 장소에 맞춰 다채로운 개성을 지닌 학생들을 활용하는 풀(full) 3D 전투가 백미다.    블루 아카이브는 수많은 학교가 모여있는 거대 학원도시 키보토스를 무대로 학생들의 흥미진진한 일상을 다룬다. 게임 이용자는 이곳에서 연방 수사 동아리 ‘샬레’의 고문 교사로 활동하면서 학생들과 키보토스의 끊이지 않는 사건·사고를 해결하게 된다. 강아지 귀가 달린 수인(獸人), 보호본능을 자극하는 소녀, 악마처럼 행동하지만 어딘가 엉뚱한 인물 등 좋아하는 캐릭터를 정해 교감하면서 관계를 짜게 된다.  또한 3D 그래픽으로 구현한 총 6명의 SD 캐릭터(Super Deformation, 캐릭터의 귀여움을 강조하기 위해 머리 부분 비율을 키우는 기법)로 팀을 꾸려 임무부터 지명수배, 이용자간 대전(PvP)인 전술대항전, 여기에 부대를 편성해 거대 보스와 싸운다. 특히 밀리터리 판타지가 결합된 세계관을 체험할 수 있다. 애니메이션풍의 캐릭터 외형과 연출이 돋보이고 시시각각 전황이 변하는 장소에 맞춰 다채로운 개성을 지닌 학생들을 활용하는 풀(full) 3D 전투가 백미다.     김용하(왼쪽 세번째) 총괄 PD 등 블루 아카이브 제작진들은 최근 중국 예비 이용자를 대상으로 특별 방송에 출연해 게임 정보와 소식을 전했다.    중국 CBT에 참여한 예비 이용자들의 반응은 뜨거웠다. 블루 아카이브는 빌리빌리(bilibili)나 탭탭(Tap Tap) 등 현지 주요 앱마켓 플랫폼에서 인기 게임 순위 1위에 올랐고, 사전 등록을 완료한 숫자도 340만 명을 넘겼다. 맛보기 형태인 애니메이션 PV(Promotion Video, 프로모션 영상)를 감상한 횟수는 500만 건에 육박했다. 이에 김용하 EPD(총괄 PD)와 박병림 PD, 임종규 디렉터 등 MX스튜디오 제작진들은 최근 중국 예비 이용자를 대상으로 특별 방송에 출연해 게임 정보와 소식을 전하면서 화답했다.  중국 정식 발매 버전에는 CBT에서 검증된 메인 스토리 ‘대책위원회 편’과 강력한 보스 몬스터 ‘비나’와 대결하는 ‘총력전’ 등이 전면에 선다. 일본의 유명 걸그룹 클라리스(Claris)가 부르는 주제가 ‘블루 캔버스’(Blue Canvas)와 중국어 더빙 등 현지화 콘텐츠도 선보인다. 공식 굿즈 매장도 개설해 충성도 높은 마니아층을 공략한다는 복안이다. 김용하 총괄PD는 “시판 이후에도 활발하게 소통하면서 선생님들(게임 이용자)이 만족할 수 있는 서비스를 제공하겠다”고 했다.  한편, 블루 아카이브를 만든 넷게임즈는 2013년 5월 설립 이래 ‘히트’ 시리즈와 ‘오버히트’, ‘V4’ 등 모바일 RPG 장르에서 대박을 터르렸다. 서브컬처 게임으로는 블루 아카이브가 처녀작이다. 2018년 6월 넥슨에 편입됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.07.21.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>이재명·이낙연, ‘진짜 한팀’ 될 가능성 있나</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/033/0000045963?sid=100</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>더불어민주당 이낙연 전 대표가 1년간의 미국 유학 생활을 마친 뒤 6월 24일 오후 인천국제공항을 통해 귀국한 뒤 지지자들을 향해 발언하고 있다. / 인천공항 공동취재단또 불발됐다. 7월 20일 MBC라디오&lt;김종배의 시선집중&gt;에 출연한 이낙연 측 윤영찬 의원은 ‘집중호우에 따른 수해복구 총력기간’이라는 점 이외에 애초 7월 11일에서 19일로 연기된 ‘명낙회동’이 연기된 “다른 이유는 없다”고 말했다. 윤 의원의 말이다. “수해로 수많은 피해로 사망자가 발생했고, 이런 기사가 계속 나가는데 거기에 두분이 만나 악수하고 웃고 하는 게 한가해 보이지 않겠나. 아무리 행정적인 책임이 없다 하더라도 야당 지도자들인데, 그런 부분에 대해서는 마음의 부담이 있었을 것이다.”두 사람의 회동 약속은 이낙연 전 대표가 귀국하던 6월 24일 잡혔다. 이재명 대표가 전화해 ‘만나서 밥 한번 하자’고 제안을 건넸다. 윤 의원은 만남을 불편해하는 것이 아니냐는 추측에 “어떤 의제를 가지고 협상하는 자리가 아니라 인사하는 자리”라며 “어떤 부담을 갖거나 할 필요는 전혀 없는 사안”이라고 밝혔다.두 번째 불발된 ‘명낙회동’ “대한민국이 이 지경이 된 데는 제 책임도 있다는 걸 잘 안다. 못다 한 제 책임을 다하겠다.” 지난 6월 24일, 이낙연 전 대표의 귀국 일성 중 대부분의 언론사가 뽑은 핵심 대목이다. 원고 없이 한 10여 분의 연설 바로 앞 대목에는 ‘모든 국정을 재정립하고 대외관계를 바로잡아주길 바란다’는 윤석열 정부에 대한 바람이 있다. 이 전 대표는 일본에는 ‘원전오염수 해양방류를 중지하고 대안을 찾아야’ 하며, 미국과 중국은 ‘대한민국을 더 존중해야 옳다’고 말한다. 러시아에는 ‘침략은 영원히 사라져야 한다’고 말했다. 내치와 외치에서 ‘이 지경’을 만든 윤석열 정부로 정권이 교체된 데는 자신의 책임도 있다고 했다. 그리고 ‘못다 한 책임’을 다하겠다고 말했다. 표현은 외교적 수사에 가깝다. ‘못다 한 책임’은 지난 대선에서 자신이 대선후보가 됐어야 한다는 말일까. 아니면 최소한 민주당 대선후보가 당선돼 정권교체가 되지 않았더라면 그가 이날 연설에서 밝힌 ‘민주주의와 복지후퇴’를 막을 수 있었다는 뜻일까.경선으로 대선후보가 확정된 후, 지난 대선에서 국민의 현실적인 선택지는 둘이었다. 여의도 입법 활동 경험이 없는 두 사람, 윤석열 아니면 이재명 중 하나였다. 그리고 다음 대선. 민주당의 현실적 선택지도 현실적으로는 둘일 수밖에 없는 상황이다. 이재명 아니면 이낙연이다. 이날 공항에는 1000여명의 이낙연 지지자들이 결집해 이낙연을 연호했다. ‘세(勢)’를 보여준 것이다. 하지만 공항 밖 여론 공간에서는 그들의 목소리를 듣기 쉽지 않다. 왜일까.귀국에 앞서 이낙연 전 대표는 책을 한 권 냈다. ‘이낙연의 구상’이라는 부제가 붙은 &lt;대한민국 생존전략&gt;이라는 책이다. 책은 크게 세 부분으로 구성돼 있다. 신냉전의 길로 접어든 미·중 경쟁 국면에서 북핵 문제를 어떻게 풀 것이며, 대한민국은 어떤 선택을 할 것인가를 다룬 부분이 1장부터 3장까지 내용으로 이 책의 중심 부분이다. 4장은 과거 국무총리를 지내며 만난 각국 정상 이야기와 에피소드를 담고 있고, 5장은 대한민국이 나아갈 길로 ‘연성(軟性)강국’을 들고 있다. ‘신외교’를 주창하는 5장의 곳곳에는 지난 대선 경선 당시 이 전 대표의 캐치프레이즈였던 ‘내 삶을 지켜주는 나라’라는 표현이 나온다. 부록으로 미국과 독일 대학에서 한반도평화를 주제로 강연했던 원고를 담았다. 책을 보면 이 대표가 직접 기술했다는 것이 느껴진다. 기자 출신 특유의 단문으로 쓴 문장들이 이어진다. 놀라운 건 책도 그렇지만, 이 전 대표가 직접 페이스북을 통해 윤석열 정부 외교를 정면 비판하고 있는데도 민주당 지지성향 SNS나 커뮤니티의 반응은 거의 찾아보기 어렵다는 점이다. 이 전 대표의 행보를 두고 여전히 민주당 진영, 특히 ‘친명’ 지지자 상당수는 지난 대선 당시 0.73%의 ‘패배’ 책임이 그에게 있다는 인식을 나타내고 있다. 선거 막판에 불거져 현재까지 이재명 당대표의 사법리스크 핵심으로 똬리 틀고 있는 ‘대장동 의혹’을 꺼내든 당사자가 이 전 대표가 아니었냐는 비난이 대표적이다. 여기에 ‘대장동 비리 범죄자가 대통령이 되는 걸 방관할 수 없다’며 지지자들 일부가 대선 막판 선을 넘어 윤석열 지지로 달려간 데 대한 책임에서도 자유로울 수 없다는 것이 이들의 시각이다.이낙연이 ‘불신’받는 이유 “누구라고 밝히진 못하지만, 이낙연 라인 쪽에서 이런 사건이 있다고 정보를 건넨 것은 사실이다. 저희도 대략적으로 듣는 것도 있고 확인하고 화천대유 쪽 입장도 들어보니 신빙성이 높고 제보자의 주장이 터무니없는 것 같지 않아 기사를 내게 됐다.” 당시 ‘이재명 후보님, “(주)화천대유자산관리는 누구 것입니까?”’라는 기자수첩 칼럼을 써 이 문제를 최초보도한 박종명 경기경제신문 대표가 지난 7월 18일 통화에서 밝힌 말이다. 그는 대장동 의혹을 최초제기하고 관련 소스를 준 게 민주당 대선 경선 당시 이낙연 캠프 측 아니었나라는 질문에 대해 “이낙연 라인에서 정보를 건넨 건 사실”이라면서도 의외의 답을 내놓았다. “여기저기서 억울함을 표하고 그쪽(이낙연 캠프)에도 상세한 정보를 많이 건넨 것 같다. 지금에 와서 생각해보면 그쪽에서 오픈하지 않고 덮어놓은 게 아닌가 싶다. 이낙연 캠프에 더 디테일한 정보를 건넨 것 같은데, 같은 당이라서 덮어놓은 것 같다. 지금도 늦지 않았다. (이낙연 쪽은) 받은 자료들을 투명하게 공개해 시시비비를 빨리 가리는 편이 낫다.”도미 중 장인상을 맞이해 임시귀국한 이낙연 더불어민주당 전 대표(왼쪽)가 지난 4월 9일 오후 빈소가 마련된 서울 강남구 삼성서울병원 장례식장을 찾아 조문을 마친 이재명 더불어민주당 대표를 배웅하고 있다. / 김창길 기자기자는 대장동 의혹이 본격적으로 불거지기 직전, “김만배 머니투데이 부국장이 설립한 화천대유와 천화동인이 조성한 현금흐름이 수상하다”는 제보를 받아 김만배 부국장과 통화했다. 박종명 대표가 위 칼럼을 게시한 다음 날이었다. 기자는 30여 분간의 김만배 부국장 인터뷰를 바탕으로 2021년 9월 21일 일문일답 인터뷰 기사를 썼다(“[단독] 화천대유 대주주 언론인 “이재명 지사와 무관…합법적으로 돈 벌었다” 기사 참조). 이 인터뷰는 나중에 공개된 신학림 전 언론노조위원장이 뉴스타파 전문위원이라는 타이틀로 진행한 대담을 제외하면 지금까지 유일한 대장동 핵심인사 김만배의 언론인터뷰 기사다(지난해 11월 24일 출소한 김만배는 당시 배포한 입장문을 통해 “어떤 언론과도 인터뷰하지 않고 어디서도 따로 얘기하지 않을 것”이라고 밝힌 바 있다).기자와 인터뷰 당시 김만배씨는 기자의 취재가 정치권의 ‘오더’에 따른 것이라 생각하는 듯했다. “언론인이었으니 취재가 그런 식으로 진행되는 게 아니라는 걸 잘 알지 않냐”고 했지만, 그는 통화가 상당히 진행될 때까지 의심을 거두지 않았다. 기자는 최근 당시 최초정보를 제공한 당사자를 다시 만나 문제 제기 경위를 들었다. 이 인사가 당시 이낙연 캠프 측에서 활동한 것은 사실이다. 그는 대장동 관련 의혹 조사가 “당시 후보(이낙연)의 지시나 재가에 따른 것은 아니었다”라고 밝혔다. “알다시피 이낙연 전 대표는 기자 출신이다. 완벽한 팩트가 확보되지 않는 한 이야기를 꺼내기를 좋아하지 않는다. 당시 김만배라는 사람에 대한 정보가 너무 부족했다. 정말 이 사람이 머니투데이 부국장이 맞는지부터가 의혹 대상이었다. 찾을 수 있는 단서는 이성문 화천대유 대표와 같이 골프장에서 찍은 사진 정도가 전부였다.”이 인사에 따르면 이낙연 캠프가 대장동 사건에 관심을 갖게 된 것은 그해 7월 최기수씨라는 대장동 원주민 대책위 대표가 바리바리 서류뭉치를 싸들고 오면서부터다. 캠프와 상관없이 관련 TF팀이 만들어지고 검증작업이 시작됐다. 이 인사는 “공개돼 있지 않은 관련 회계자료 등을 사비를 들여 떼는 등 여러 각도에서 들여다봤다”라고 덧붙였다. 또다른 인사는 다음과 같은 흥미로운 증언을 덧붙였다. “당시 청와대에서 이 사안을 제대로 검증했다면 지금처럼 큰 정치적 이슈가 되지는 않았을 것이다. 관련 제보를 받고도 이 사건이 자당의 유력 대선주자와 연결될 것으로 보이니까 선을 긋고 덮어버린 것이다.” 이 ‘증언’은 지금까지도 정치권에서 암암리에 거론되고 있는 대장동 사건이 세상에 나온 경위와 다르다. 알려진 이야기는 청와대 민정으로 들어온 첩보의 정치적 파장을 고려해 덮은 뒤, 특정 국회의원과 인적 연계고리를 통해 이낙연 캠프 쪽으로 토스했다는 것이다.최초 제보자로 지목된 ‘대장동 원주민 대책위 최기수씨’와 관련해 포털뉴스에서 검색하면 관련 뉴스를 찾을 수 없다. 대신 시일이 흐른 뒤 BBC코리아에서 보도한 최기수씨의 억울한 사연 취재 기사를 볼 수 있다. 이른바 ‘50억 클럽’과 관련해 최씨는 BBC코리아와 인터뷰(2021년 11월 6일)에서 “우리 대장동 원주민 9명이 성남시에 낸 소송금액이 평균 6억원에서 54억원쯤 된다. 퇴직금으로 50억원씩 받아갔다니 이게 어떻게 정상적인 환수라고 할 수 있겠나”며 “주민들 돈으로 잔치한 것 아니냐”고 항변했다(지난 7월 17일 ‘2020년 7월에 이낙연 캠프를 찾아갔냐’는 기자의 질문에 최씨는 “나는 거기와 관계가 없다”며 전화를 끊었다).‘대장동 의혹’ 이낙연의 현재 생각은 경선 막판 ‘대장동 의혹’을 꺼내든 이낙연 전 대표의 지금 생각은 어떤 걸까. 대선 이후 이낙연 전 대표는 그에 대한 자신의 생각을 아직 밝힌 적이 없다. 과거 이낙연 전 대표와 여러 선거를 치렀던 인사는 “과거같이 선거를 치러본 내 경험에 비춰봤을 때 드는 생각은 이낙연이라는 사람은 특히 선거 때 네거티브를 활용하는 스타일이 아니다”라고 말했다. “과거 선거와 비교해보면 당시 민주당 대선 경선에서 의원 중심의 캠프는 처음 경험했다. 그래서 네거티브전 성격으로 흘러버린 구도에 별다른 터치(제재)를 못 한 것이다. 지난 대선에서 자기 책임을 말한 귀국 일성에는 그 대목도 포함돼 있다.” 그는 이렇게 덧붙였다. “(지난 대선 경선을 되돌아보면) 이낙연 대표 본연의 매력, 이런 것은 하나도 드러나지 않고 네거티브하고, 속을 알 수 없는 사람이 돼버렸다. 나는 그게 너무 안타깝다.” 이 인사에게 계속 물었다.-어쨌든 대장동 의혹을 제기했고, ‘이재명 대표가 후보가 되면 안 된다’는 메시지가 경선 때 마지막으로 나와 있는 데서 멈춰 있는 것 아닌가.“나도 캠프를 했으니 그 책임에서는 자유로울 수 없다고 생각한다. 문제는 후보 본인 생각이었냐는 거다. 이미 의혹이 불거진 상황에서 문제를 제기하지 않을 수도 없는 상황이어서 경선토론에서 꺼낸 것이다. 대장동 의혹은 대선에서 민주당이 진 계기가 됐지만, 경선에서 NY(이낙연)가 진 이유로도 작용했다. 전반적으로 보면 네거티브 양상으로 흘러버린 게 뼈아팠다. 문제는 당시 전략을 담당했던 의원들이 지금도 그대로 포진하고 있기 때문에 앞으로도 크게 달라진 모습을 보여주기 어려울 수밖에 없다는 점이다.”-설훈·윤영찬 의원을 말하는 건가.“구체적으로 누구라고 찍어 말하기는 어렵지만, 다 그대로 있고 오히려 더 가까워져 있지 않나.”7월 17일 국회에서 열린 제75주년 제헌절 경축식에 더불어민주당 이재명 대표가 참석했다. 왼쪽은 한동훈 법무부 장관 / 국회사진기자단-추미애 전 장관이 최근 오마이뉴스 인터뷰에서 문재인 대통령이 자신을 사임시켰고, 문 대통령은 당으로부터 건의받았다고 말했다고 폭로했다. 추 전 장관은 당시 문 대통령의 생각을 번복할 수 있는 두 사람 중 한 사람을 나중에 만나 이야기를 들었다고 밝혔는데, 당에서 건의한 주체로 이낙연 전 대표를 사실상 지목했다.“추미애도 (이낙연 전 대표에 대한) 감정이 사나워서 경선 때부터 계속 그러고 있다고 본다. 만나서 풀어야 한다. 싫어도 해야 하는 일이 있다. 그것을 푸는 것이 정치다.”이 인사는 이재명 당대표와의 만남으로 그동안 쌓인 앙금이 쉽게 풀릴 가능성은 거의 없다고 내다봤다. “절대 안 된다. 갈등 이야기가 나오니까 그런 이미지라도 불식시켜보려고 하는 건데, 그마저도 계속 불발되고 있지 않나. 어떻게 해야 할지 고민이다. 사면초가다. 안 하면 안 한다고 그러고. 가만히 있어도 돌아온(귀국한) 것 자체가 갈등을 만들고 있다. 심지어 신당 창당 의혹까지 나오고 있으니….”엄경영 시대정신연구소 소장은 다음과 같이 진단했다.“예전에 이명박 전 대통령이 대선후보가 될 때 상황과 비슷한 거다. 일단 외부의 적보다 내부의 적이 미운 것이다. 당시 한나라당과의 차이라면 그때는 대통령이 됐지만, 지금은 안 됐다는 점이다. 앙금이 더 많이 남을 수밖에 없다. 이재명 팬덤의 ‘이낙연 악마화’는 아마 내년 총선 선거국면까지 계속될 것이다. 이낙연 전 대표 쪽은 정치세력화는 안 돼 있으니 일방적으로 당할 것이고. 즉 이재명 팬덤의 관점에서 이낙연은 지속적으로 ‘분란만 일으키는 미꾸라지’로 보일 것이다.”엄 소장은 현재의 민주당 주류가 교체됐다는 주장을 지속적으로 펴왔다. 문재인 정부 때만 하더라도 민주당의 주류는 호남과 586 그리고 영남개혁세력의 연합이었다. 그것이 지금은 이재명을 견고하게 지지하는 40대 반보수 강성지지층과 ‘개딸’로 대표되는 신주류로 바뀌었다. 이어지는 그의 말이다.“문재인 전 대통령까지 비판하는 추미애의 최근 행보를 보면 민주당의 주도세력이 40대로 바뀌었음을 알 수 있다. 이재명 대표가 이들을 완벽하게 장악하고 있다는 걸 추미애는 동물적으로 캐치하고 있는 것이다. 다시 말해 주류편승을 시도하는 것이다. 박지원이 이재명 지킴이를 자임하고 나선 것도 같은 맥락이다. 이낙연 전 대표가 민주당의 옛 주류였던 호남 586과 영남개혁세력 세를 모아 반전을 꾀해보려는 듯한데, 쉽지 않을 것이다. 당분간 반보수 대표성은 이재명 대표가 가질 수밖에 없을 것 같다.”“민주당의 주류가 바뀌었다” 의문은 이것이다. 어찌됐든 언젠가는 ‘명낙회동’은 성사될 것이다. 다만 여러 전문가가 예측하듯 회동에서 ‘윤석열 정권의 실정을 지적하고 내년 총선을 위해 힘을 합칠 것’과 같은 원론적인 메시지 이외의 구체적인 이야기가 나오긴 힘들다. 열 길 물속은 알아도 한 길 사람 마음은 알 수 없다고 하지만, 회동 이후에도 두 사람이 화학적 결합을 이뤄내리라 전망하는 사람은 많지 않다. 오히려 두 사람의 표면적인 ‘화해’ 제스처를 놓고도 강성팬덤이 반발할 가능성마저 있다. 현재 강성 민주당 지지층은 이재명 당대표를 지지하고 있지만 달리 말하면 이 대표가 ‘강성팬덤’이라는 호랑이 등에 올라탄 형국이다. 당 요구에 따라 “수박표현을 자제해 달라”고 발언했을 때 일부 팬덤에서 나온 반발에서도 조짐이 보였다. “그건 현재 이재명 팬덤의 특성이다. 어느 정도 선을 넘으면 자기네가 지지했던 플레이어조차 비판하고 부정하며 무주공산을 만드는 그런 팬덤이다. 그런데 그게 또 이재명 스타일이기도 하다. 자신이 가는 길과 안 맞으면 다 배척한다. 분명 이재명이 이낙연과 형식적으로 손을 잡는 뉘앙스만 보여도 팬덤 일부에서는 강하게 반발할 것이다. 그러면 이재명은? 팬덤과 손절할 것이다. 골치 아프면 그런 팬덤 버리고 다시 만들자, 그렇게 해왔다.” 박신용철 더체인지플랜 선임연구위원의 말이다.더불어민주당 박용진, 이재명, 이낙연 대선 예비후보가 2021년 8월 11일 오후 서울 여의도 KBS에서 열린 본경선 3차 TV토론에 앞서 이야기를 나누고 있다(왼쪽부터). / 국회사진기자단그는 내년 총선까지의 구도를 다음과 같이 전망했다.“이낙연 지지세력 중 일부는 공천 때문에 분당을 바랄 수는 있지만, 이낙연 측이 당을 깰 명분과 동력은 잘 안 보인다. 일부는 떨어져 나가더라도 분당 자체는 쉽지 않을 것이다. 윤석열 정권과 검찰은 이른바 ‘이재명 사법리스크’를 어떻게 하든 공천 시즌인 올해 12월이나 내년 1월 중에 (그 전에 나올) 1심판결을 소재로 대대적으로 때리면서 민주당의 판을 흔들고 싶을 것이다. 그런데 이건 고전적 수법이다. 민주당은 역으로 검찰을 앞세워 정치공작을 하는 것 아니냐고 되받아칠 게 뻔하다.” 그는 결국 윤석열 정권의 ‘기획’은 상쇄될 것으로 내다봤다. “지금 이재명 당대표 재판에서 핵심은 선거법 재판이 아니다. 신속하게 끝날 수 없다. 이재명 입장에서 대법까지 가면 최소 3년 이상 간다. 검찰 입장에서는 이재명 유죄 또는 무죄가 중요한 것이 아니다. 총선 전에 정치적 타격을 줘야 하는데, 그게 계획대로 되진 않을 것이다. 결국 이재명으로서는 이대로 총선까지 끌고 가더라도 해볼 만하다고 판단하지 않겠나.” 이재명 입장에서 본다면 당내 화합과 확장을 위해 이낙연과 손잡고 가야 한다는 당위가 있지만 그렇다고 그렇게 절실하지는 않으리라는 해석이다.내년 총선 본선서 ‘이재명’ 통할까 ‘민주당의 변화된 당내 상황’은 서울에서 내년 총선 출마를 준비 중인 한 당직자 출신 인사의 고민에서도 엿볼 수 있다. “출마를 계획하는 지역구 권리당원 수가 3500명이다. 수도권 지역의 경우 평균적으로 3000에서 5000여명의 권리당원이 있다. 현재 지역위원장에게 지난 3월까지의 당원 관련 자료를 주는데, 그게 현 지역위원장으로서는 엄청난 이점으로 작용한다. 자료를 보면 권리당원은 2016년과 2017년 그리고 2021년에서 2022년 시기에 가입이 집중돼 있다. 2021년 대통령 경선할 때는 사실 국민선거인단이었지 당원이 아니었다. 2022년 대선 때 국민선거인단을 했는데 이재명이 떨어져 열 받아서 가입한 사람들이 압도적인 다수다. ‘개딸’이라고 20대 여성이 호명됐는데, 실제 이때 들어온 권리당원들을 보면 20대는 거의 없고 50대가 대다수다. 여자보다 남자가 많다. 그다음이 40대, 60대, 50대 순이다. ‘민주당 지지라기보다 이재명 지지’가 압도적 다수다. 그 당원들의 지지를 받지 않고서는 안 되니까 모든 의원이 ‘친명’을 할 수밖에 없다. 지역마다 특성이 있기는 하다. 특히 서울의 경우 이재명만 가지고 본선에서 될까. 다시 말해 경선은 ‘이재명’으로 하더라도 본선에서 ‘이재명’으로 될 지역이 얼마나 될까.”“한쪽이 이기고 졌으면 다른 관계가 성립됐겠지만, 똑같이 대선을 다시 준비해야 하는 상황이다. 그러니까 기본적으로 또다시 경쟁 관계에 들어가기 때문에 그리될 수밖에 없다.” ‘민주당 대선 경선이 끝난 지 2년 가까이 흘렀는데도 이재명·이낙연 사이의 앙금이 왜 사라지지 않는지’에 대한 김능구 폴리뉴스 대표의 분석이다. “예컨대 2007년 한나라당 경선 때 MB는 최태민·최순실 관계를, 박근혜는 BBK와 다스 관계를 연일 폭로하며 서로 공격했지만, 대선을 앞두곤 타협의 악수를 했다. 당시 박근혜가 MB 정부의 성공을 바라고 정권교체에 적극 협조하겠다고 선언하면서 갈등이 봉합됐는데, 현재의 이재명·이낙연 관계는 그렇지 않다. 서로 다시 링에 올라가야 하기 때문에 근본적으로 둘의 경쟁·갈등 관계는 불가피하다고 봐야 한다.”이낙연 ‘호남 민심’ 돌아봐야 그는 특히 이낙연 전 대표가 귀국 때 밝힌 ‘못다 한 책임’을 다 하려면 자신에게 호의적이지 않은 ‘호남 민심’을 돌아봐야 한다고 지적했다. “나는 지난 대선 경선 때 이낙연 후보가 광주에서 1% 차로 승리하는 것을 보고 경선이 끝났다고 봤다. 호남 대표주자가 자신의 홈그라운드에서 어떻게 1% 차로 이기는가. 호남 유권자들을 만나 이야기를 들어보면 의외로 이낙연 전 대표에 대한 거부반응이 상당하다. 그 반응은 단순히 이재명이 좋고 이낙연이 나쁘다, 그런 차원이 아니다. 이재명 지지를 떠나서 이낙연이 큰 상처를 줬다는 얘기다.” 그는 이낙연이 호남 민심을 잃고 추락한 계기로 이명박·박근혜 전 대통령 사면론 제기를 들었다. “호남사람들은 전두환·노태우로부터 시작해 현재 국민의힘 세력으로 면면히 이어져 온 그 세력에 대한 거부감·정서가 강하다. 이명박·박근혜가 그들을 이어 집권했는데, 그 사람들 사면을 이낙연이 이야기하니, ‘저 사람 우리 편이 아니지 않나, 어떻게 저런 말을 할 수 있지’라며 지지를 철회해버렸다. 호남에서 이재명에 대한 지지율이 지금도 높은데, 이재명의 리더십에 열렬히 환영해 그렇다기보다 지금 우리를 위해 저들과 맞서 싸울 장수는 이재명이다, 이렇게 인정하는 것이다. 앞으로도 당분간 현재로서는 이재명 외에 다른 대안은 없다, 이렇게 그들은 생각하지 않을까.”사면론은 한때 40%가 넘던 ‘이낙연 대세론’을 한 방에 무너뜨린 결정적 패착이었다. 사면론 제기와 관련해 이낙연이 할 이야기가 없는 건 아니다. 그는 대선 전 펴낸 문형렬 작가와의 대담집 &lt;이낙연의 약속&gt;에 실린 1문 1답에서 “최근 혼자 소리 내 울었던 때는?”이라는 질문에 “지난 1월, 오해와 비난을 받았을 때”라고 답했다. 책에서 그는 “무엇보다 국민의 공감대가 형성되지 않았다. 그 일로 아프게 배웠다. 내 생각이 무엇이든, 거론의 시기와 방법이 좋지 않았다”고 말했다. 기자는 사면론이 나왔을 당시 막후에서 벌어진 상황과 관련한 기사를 썼다(주간경향 1411호, ‘이낙연의 사면론, 묘수일까 자충수일까’ 기사 참조). 사면론을 꺼내들기 사흘 전, 이 전 대표는 문재인 대통령과 독대했다. 어떤 형식이든 발언 전 대통령의 의중을 확인하는 과정을 거쳤으리라는 게 당시 정가의 관측이었다. 최근 추미애 전 장관처럼 이낙연 전 대표도 가슴에 묻어둔 이야기가 있을 것으로 보인다. 김능구 대표는 “이낙연 대표는 당시 양정철의 말을 대통령의 메시지로 생각한 것”이라고 덧붙였다. 양정철 민주연구원장의 ‘워딩’을 대통령의 공감 내지는 재가를 받은 것으로 착각했다는 주장이다. 이 역시 앞으로 언젠가는 밝혀져야 할 운명을 가른 역사적 ‘진실’이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.07.19.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[특징주] 엔비티, 단독 고객사로 카카오톡 확보 소식에 16% 급등</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000917894?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>지난 2021년 코스닥 시장에 상장한 퍼포먼스 마케팅 광고 플랫폼 기업 엔비티가 19일 오전 급등했다. 엔비티가 지난 6월 엔비티가 대표 서비스인 ‘애디슨 오퍼월’을 시작한 국내 초대형 고객사가 카카오톡이라는 점이 알려진 영향이다.엔비티가 독점 서비스 중인 카카오톡의 혜택쌓기 서비스 화면./하나증권 제공        이날 오전 10시 47분 기준 엔비티는 전일 대비 1330원(16.26%) 오른 9510원에 거래됐다. 엔비티는 개장 직후 1만100원을 기록하기도 했다.앞서 이날 오전 최재호 하나증권 연구원은 엔비티 종목 보고서를 발간하고 “엔비티가 카카오톡을 단독 고객사로 확보하면서 매우 가파른 성장이 전망된다”며 호평했다.최 연구원은 “서비스 사용자(유저)들 입장에서 무료로 포인트를 지급받아 카카오톡 쇼핑 등 다양한 카테고리에서 현금처럼 사용할 수 있다는 장점이 있어 서비가 매우 고성장할 것으로 기대된다”면서 “엔비티가 지난 6월부터 카카오톡에 서비스를 시작하면서 당장 하반기부터 실적으로 반영될 것”이라고 내다봤다. 이어 “카카오톡의 월평균이용자수(MAU)가 약 4400만명인 점을 감안할 때, 카카오톡 서비스만으로 연간 매출액의 1000억원 이상을 낼 수 있을 것으로 보인다”고 덧붙였다.또 “엔비티는 ‘애디슨 오퍼월’ 매출액 1위 고객사와 함께 글로벌 시장 진출이 본격화된 것으로 추정한다”면서 “국내 사례를 비춰볼 때 해외 유관 기업들까지 고객사로 확보할 가능성이 높아, 이를 통해 폭발적인 성장의 발판을 마련했다고 본다”고 전했다.엔비티는 2012년 설립된 기업으로, 주력 제품으로 ‘애디슨 오퍼월’을 서비스하고 있다. ‘애디슨 오퍼월’은 사용자가 특정 미션을 완료했을 때 실시간으로 보상이 주어지는 방식의 B2B(기업 간 거래) 서비스로, 애디슨 오퍼월은 국내 시장 점유율 1위(46%)를 기록하고 있다. 엔비티는 ‘애디슨 오퍼월’ 출시 직후 네이버 웹툰을 고객사로 확보했고, 이어 네이버페이, 토스, 카카오T, 카카오스타일 등 국내 대형 플랫폼 기업들도 고객사로 두고 있다.엔비티의 2022년 매출액은 1080억원, 영업이익은 20억원이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.07.20.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>"네카토서 車·실손보험 비교, 현실로"… 모습 드러내는 혁신금융</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000936428?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>온라인 보험 비교플랫폼이 이르면 내년 초 시행될 예정이다./그래픽=머니S DB 이르면 내년 초부터 네이버와 카카오, 토스 등 온라인 플랫폼에서 금융소비자가 직접 다양한 보험사 상품을 비교하고 추천받을 수 있게 됐다. 비교·추천 상품으론 자동차보험, 실손보험, 여행자보험, 화재보험, 저축성보험(연금제외), 펫보험, 신용보험 등 7개 상품이 포함됐다.   20일 금융권에 따르면 지난 19일 금융위원회는 정례회의를 열고 보험상품 비교·추천 서비스를 혁신금융서비스로 신규 지정했다. 이르면 내년 초부터는 네이버파이낸셜, 뱅크샐러드, 비바리퍼블리카, 에스케이플래닛, 엔에이치엔페이코, 카카오페이, 쿠콘, 핀다, 핀크, 해빗팩토리, 헥토데이터 등 온라인 플랫폼은 소비자에게 적합한 여러 보험회사의 보험상품을 비교·추천할 수 있게 됐다. 보험상품 비교·추천을 위해서는 보험대리점 등록이 필요하지만 현행 금융관련법령상 다른 법령에 따른 금융감독원 검사 대상 기관은 보험대리점 등록이 제한된다.   금융위는 혁신금융서비스를 통해 본인신용정보관리회사 등 금융감독원 검사 대상인 신청회사가 온라인 플랫폼을 통해 보험상품 비교·추천 서비스를 제공할 수 있도록 금융상품판매대리·중개업 및 보험대리점 등록에 관한 규제 특례를 부여했다. 또 본인신용정보관리회사는 금융상품판매대리·중개업을 겸영업무로 영위하기 위해 금융위에 사전 신고가 필요하다. 앞으론 별도 신고 없이 온라인 보험상품 비교·추천 서비스를 영위할 수 있도록 특례를 부여했다. 이에 따라  온라인 플랫폼들은 '보험상품을 비교·추천하고 보험계약 체결이 가능한 보험회사와 연결'하고, 보험사의 온라인(CM) 상품 중 단기보험(여행자·화재보험 등), 자동차보험, 실손보험, 저축성보험(연금제외), 펫보험, 신용보험을 판매할 수 있게 됐다. 또 서비스 출시전 알고리즘의 공정성 및 적정성에 대해 신뢰할 수 있는 기관(코스콤 등)으로부터 검증을 받도록 했으며, 비교·추천과정에서 가공된 정보를 비교·추천 목적 외에 활용·제공하지 못하도록 했다.  정당한 사유 없이 보험사의 제휴요청을 거절하지 못하도록 하고, 수취하는 수수료를 일정한도 내로 제한하였으며, 보험사에 일반적인 거래조건에 비해 불리하거나 부당한 행위를 요구하지 못하도록 했다.금융위는 "온라인 플랫폼을 통해 소비자가 간편하게 여러 보험상품을 비교해 적합한 보험상품을 가입할 수 있는 기회를 제공할 수 있을 것으로 기대한다"며 "소비자와 보험회사 간 정보비대칭성을 해소해 보험회사 간 경쟁 촉진, 보험료 부담절감 등 소비자 편익이 증대될 것으로 기대된다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
